--- a/Data_file/import_PO1.xlsx
+++ b/Data_file/import_PO1.xlsx
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>quantity</t>
-  </si>
-  <si>
-    <t>location_dest_id</t>
   </si>
   <si>
     <t>notes</t>
@@ -265,13 +262,16 @@
     <t>ค่าจ้างดัด S4 เหล็กดัดราวบน OR 420x90</t>
   </si>
   <si>
-    <t>คลังวัตถุดิบ 2: Receipts</t>
-  </si>
-  <si>
     <t>texs_id</t>
   </si>
   <si>
     <t>7%</t>
+  </si>
+  <si>
+    <t>picking_type_id</t>
+  </si>
+  <si>
+    <t>คลังวัตถุดิบ 2</t>
   </si>
 </sst>
 </file>
@@ -1557,8 +1557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M489"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C30" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
@@ -1569,7 +1569,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="20.25" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1599,36 +1599,36 @@
         <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="63.9" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="4">
         <v>45702</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="E2" s="6">
         <v>45719</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="H2" s="7">
         <v>23</v>
@@ -1640,36 +1640,36 @@
         <v>0</v>
       </c>
       <c r="K2" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="M2" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="63.6" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4">
         <v>45702</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="E3" s="6">
         <v>45719</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="H3" s="7">
         <v>80</v>
@@ -1681,36 +1681,36 @@
         <v>0</v>
       </c>
       <c r="K3" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="L3" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="M3" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="49.65" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="4">
         <v>45702</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="E4" s="6">
         <v>45719</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="H4" s="7">
         <v>129</v>
@@ -1722,36 +1722,36 @@
         <v>0</v>
       </c>
       <c r="K4" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="L4" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="M4" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="49.65" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="4">
         <v>45702</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="E5" s="6">
         <v>45719</v>
       </c>
       <c r="F5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>82</v>
@@ -1763,36 +1763,36 @@
         <v>0</v>
       </c>
       <c r="K5" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="L5" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="M5" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="49.65" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="4">
         <v>45702</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="E6" s="6">
         <v>45719</v>
       </c>
       <c r="F6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="H6" s="7">
         <v>159</v>
@@ -1804,36 +1804,36 @@
         <v>0</v>
       </c>
       <c r="K6" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="L6" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="M6" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="61.65" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="4">
         <v>45702</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="E7" s="6">
         <v>45719</v>
       </c>
       <c r="F7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="H7" s="7">
         <v>148</v>
@@ -1845,36 +1845,36 @@
         <v>0</v>
       </c>
       <c r="K7" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="L7" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="M7" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="49.65" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="4">
         <v>45702</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="E8" s="6">
         <v>45719</v>
       </c>
       <c r="F8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="H8" s="7">
         <v>603</v>
@@ -1886,36 +1886,36 @@
         <v>0</v>
       </c>
       <c r="K8" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L8" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="L8" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="M8" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="49.65" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="4">
         <v>45702</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="E9" s="6">
         <v>45719</v>
       </c>
       <c r="F9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="H9" s="7">
         <v>705</v>
@@ -1927,36 +1927,36 @@
         <v>0</v>
       </c>
       <c r="K9" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L9" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="L9" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="M9" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="49.65" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="4">
         <v>45726</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="E10" s="6">
         <v>45737</v>
       </c>
       <c r="F10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="H10" s="7">
         <v>760.32</v>
@@ -1968,36 +1968,36 @@
         <v>0</v>
       </c>
       <c r="K10" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="L10" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="M10" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="49.65" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" s="4">
         <v>45726</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="E11" s="6">
         <v>45737</v>
       </c>
       <c r="F11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="H11" s="7">
         <v>1214.9532999999999</v>
@@ -2009,36 +2009,36 @@
         <v>0</v>
       </c>
       <c r="K11" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L11" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="L11" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="M11" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="49.65" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="4">
         <v>45726</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="E12" s="6">
         <v>45737</v>
       </c>
       <c r="F12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="H12" s="7">
         <v>50</v>
@@ -2050,36 +2050,36 @@
         <v>0</v>
       </c>
       <c r="K12" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L12" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="L12" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="M12" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="49.65" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" s="4">
         <v>45726</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="E13" s="6">
         <v>45737</v>
       </c>
       <c r="F13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="H13" s="7">
         <v>50</v>
@@ -2091,36 +2091,36 @@
         <v>0</v>
       </c>
       <c r="K13" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L13" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="L13" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="M13" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="77.7" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" s="4">
         <v>45726</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="E14" s="6">
         <v>45737</v>
       </c>
       <c r="F14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="H14" s="7">
         <v>270</v>
@@ -2132,36 +2132,36 @@
         <v>0</v>
       </c>
       <c r="K14" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L14" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="L14" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="M14" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="77.7" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15" s="4">
         <v>45726</v>
       </c>
       <c r="C15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="E15" s="6">
         <v>45737</v>
       </c>
       <c r="F15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="H15" s="7">
         <v>370</v>
@@ -2173,36 +2173,36 @@
         <v>0</v>
       </c>
       <c r="K15" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L15" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="L15" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="M15" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="63.6" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" s="4">
         <v>45726</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="E16" s="6">
         <v>45737</v>
       </c>
       <c r="F16" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="H16" s="7">
         <v>750</v>
@@ -2214,36 +2214,36 @@
         <v>0</v>
       </c>
       <c r="K16" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L16" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="L16" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="M16" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="48" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B17" s="4">
         <v>45726</v>
       </c>
       <c r="C17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="E17" s="6">
         <v>45737</v>
       </c>
       <c r="F17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="H17" s="7">
         <v>750</v>
@@ -2255,36 +2255,36 @@
         <v>0</v>
       </c>
       <c r="K17" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L17" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="L17" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="M17" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="48" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="4">
         <v>45726</v>
       </c>
       <c r="C18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="E18" s="6">
         <v>45737</v>
       </c>
       <c r="F18" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="H18" s="7">
         <v>570</v>
@@ -2296,36 +2296,36 @@
         <v>0</v>
       </c>
       <c r="K18" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L18" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="L18" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="M18" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="47.7" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B19" s="4">
         <v>45726</v>
       </c>
       <c r="C19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="E19" s="6">
         <v>45737</v>
       </c>
       <c r="F19" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>63</v>
       </c>
       <c r="H19" s="7">
         <v>570</v>
@@ -2337,36 +2337,36 @@
         <v>0</v>
       </c>
       <c r="K19" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L19" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="L19" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="M19" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="48" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" s="4">
         <v>45726</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="E20" s="6">
         <v>45737</v>
       </c>
       <c r="F20" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>65</v>
       </c>
       <c r="H20" s="7">
         <v>850</v>
@@ -2378,36 +2378,36 @@
         <v>0</v>
       </c>
       <c r="K20" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L20" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="L20" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="M20" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="48" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B21" s="4">
         <v>45726</v>
       </c>
       <c r="C21" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="E21" s="6">
         <v>45737</v>
       </c>
       <c r="F21" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>65</v>
       </c>
       <c r="H21" s="7">
         <v>850</v>
@@ -2419,36 +2419,36 @@
         <v>0</v>
       </c>
       <c r="K21" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L21" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="L21" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="M21" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="48" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B22" s="4">
         <v>45726</v>
       </c>
       <c r="C22" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="E22" s="6">
         <v>45737</v>
       </c>
       <c r="F22" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="H22" s="7">
         <v>650</v>
@@ -2460,36 +2460,36 @@
         <v>0</v>
       </c>
       <c r="K22" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L22" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="L22" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="M22" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="48" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B23" s="4">
         <v>45726</v>
       </c>
       <c r="C23" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="E23" s="6">
         <v>45737</v>
       </c>
       <c r="F23" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="H23" s="7">
         <v>650</v>
@@ -2501,36 +2501,36 @@
         <v>0</v>
       </c>
       <c r="K23" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L23" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="L23" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="M23" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="48" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B24" s="4">
         <v>45726</v>
       </c>
       <c r="C24" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="E24" s="6">
         <v>45737</v>
       </c>
       <c r="F24" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="H24" s="7">
         <v>750</v>
@@ -2542,36 +2542,36 @@
         <v>0</v>
       </c>
       <c r="K24" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L24" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="L24" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="M24" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="49.65" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B25" s="4">
         <v>45726</v>
       </c>
       <c r="C25" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="E25" s="6">
         <v>45737</v>
       </c>
       <c r="F25" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="H25" s="7">
         <v>750</v>
@@ -2583,36 +2583,36 @@
         <v>0</v>
       </c>
       <c r="K25" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L25" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="L25" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="M25" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="49.65" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B26" s="4">
         <v>45726</v>
       </c>
       <c r="C26" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="E26" s="6">
         <v>45737</v>
       </c>
       <c r="F26" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>71</v>
       </c>
       <c r="H26" s="7">
         <v>570</v>
@@ -2624,36 +2624,36 @@
         <v>0</v>
       </c>
       <c r="K26" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L26" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="L26" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="M26" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="60" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B27" s="4">
         <v>45726</v>
       </c>
       <c r="C27" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="E27" s="6">
         <v>45737</v>
       </c>
       <c r="F27" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G27" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>71</v>
       </c>
       <c r="H27" s="7">
         <v>570</v>
@@ -2665,36 +2665,36 @@
         <v>0</v>
       </c>
       <c r="K27" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L27" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="L27" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="M27" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="60" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B28" s="4">
         <v>45726</v>
       </c>
       <c r="C28" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="E28" s="6">
         <v>45737</v>
       </c>
       <c r="F28" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G28" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="H28" s="7">
         <v>750</v>
@@ -2706,36 +2706,36 @@
         <v>0</v>
       </c>
       <c r="K28" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L28" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="L28" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="M28" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="35.700000000000003" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B29" s="4">
         <v>45726</v>
       </c>
       <c r="C29" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="E29" s="6">
         <v>45737</v>
       </c>
       <c r="F29" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G29" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="H29" s="7">
         <v>750</v>
@@ -2747,36 +2747,36 @@
         <v>0</v>
       </c>
       <c r="K29" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L29" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="L29" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="M29" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="35.700000000000003" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B30" s="4">
         <v>45726</v>
       </c>
       <c r="C30" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="E30" s="6">
         <v>45737</v>
       </c>
       <c r="F30" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G30" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="H30" s="7">
         <v>570</v>
@@ -2788,36 +2788,36 @@
         <v>0</v>
       </c>
       <c r="K30" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L30" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="L30" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="M30" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="62.1" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B31" s="4">
         <v>45726</v>
       </c>
       <c r="C31" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="E31" s="6">
         <v>45737</v>
       </c>
       <c r="F31" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G31" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="H31" s="7">
         <v>570</v>
@@ -2829,36 +2829,36 @@
         <v>0</v>
       </c>
       <c r="K31" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L31" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="L31" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="M31" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="62.1" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B32" s="4">
         <v>45726</v>
       </c>
       <c r="C32" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="E32" s="6">
         <v>45737</v>
       </c>
       <c r="F32" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G32" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>77</v>
       </c>
       <c r="H32" s="7">
         <v>370</v>
@@ -2870,36 +2870,36 @@
         <v>0</v>
       </c>
       <c r="K32" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L32" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="L32" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="M32" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="62.1" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B33" s="4">
         <v>45726</v>
       </c>
       <c r="C33" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="E33" s="6">
         <v>45737</v>
       </c>
       <c r="F33" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G33" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>77</v>
       </c>
       <c r="H33" s="7">
         <v>370</v>
@@ -2911,36 +2911,36 @@
         <v>0</v>
       </c>
       <c r="K33" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L33" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="L33" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="M33" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="62.1" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B34" s="4">
         <v>45726</v>
       </c>
       <c r="C34" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="E34" s="6">
         <v>45737</v>
       </c>
       <c r="F34" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G34" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>79</v>
       </c>
       <c r="H34" s="7">
         <v>270</v>
@@ -2952,36 +2952,36 @@
         <v>0</v>
       </c>
       <c r="K34" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L34" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="L34" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="M34" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="48" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B35" s="4">
         <v>45726</v>
       </c>
       <c r="C35" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="E35" s="6">
         <v>45737</v>
       </c>
       <c r="F35" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G35" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>79</v>
       </c>
       <c r="H35" s="7">
         <v>270</v>
@@ -2993,13 +2993,13 @@
         <v>0</v>
       </c>
       <c r="K35" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L35" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="L35" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="M35" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="48" customHeight="1">

--- a/Data_file/import_PO1.xlsx
+++ b/Data_file/import_PO1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="82">
   <si>
     <t>date_order</t>
   </si>
@@ -31,24 +31,6 @@
   </si>
   <si>
     <t>partner_id</t>
-  </si>
-  <si>
-    <t>date_planned</t>
-  </si>
-  <si>
-    <t>old_product_code</t>
-  </si>
-  <si>
-    <t>product_id</t>
-  </si>
-  <si>
-    <t>price_unit</t>
-  </si>
-  <si>
-    <t>product_qty</t>
-  </si>
-  <si>
-    <t>quantity</t>
   </si>
   <si>
     <t>notes</t>
@@ -268,10 +250,25 @@
     <t>7%</t>
   </si>
   <si>
-    <t>picking_type_id</t>
+    <t>คลังวัตถุดิบ 2</t>
   </si>
   <si>
-    <t>คลังวัตถุดิบ 2</t>
+    <t>ราคา</t>
+  </si>
+  <si>
+    <t>จำนวน</t>
+  </si>
+  <si>
+    <t>คลังสินค้า</t>
+  </si>
+  <si>
+    <t>ชื่อสินค้า</t>
+  </si>
+  <si>
+    <t>รหัสสินค้า</t>
+  </si>
+  <si>
+    <t>วันที่รับเข้า</t>
   </si>
 </sst>
 </file>
@@ -1555,21 +1552,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M489"/>
+  <dimension ref="A1:L489"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C30" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K35"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="1" max="14" width="16.33203125" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="16.33203125" style="1"/>
+    <col min="1" max="13" width="16.33203125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="16.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20.25" customHeight="1">
+    <row r="1" spans="1:12" ht="20.25" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1581,54 +1578,51 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:12" ht="63.9" customHeight="1">
+      <c r="A2" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="63.9" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="B2" s="4">
         <v>45702</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E2" s="6">
         <v>45719</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H2" s="7">
         <v>23</v>
@@ -1636,40 +1630,37 @@
       <c r="I2" s="8">
         <v>11</v>
       </c>
-      <c r="J2" s="8">
-        <v>0</v>
+      <c r="J2" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="63.6" customHeight="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="63.6" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4">
         <v>45702</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E3" s="6">
         <v>45719</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H3" s="7">
         <v>80</v>
@@ -1677,40 +1668,37 @@
       <c r="I3" s="8">
         <v>121</v>
       </c>
-      <c r="J3" s="8">
-        <v>0</v>
+      <c r="J3" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="49.65" customHeight="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="49.65" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4">
         <v>45702</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E4" s="6">
         <v>45719</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H4" s="7">
         <v>129</v>
@@ -1718,40 +1706,37 @@
       <c r="I4" s="8">
         <v>22</v>
       </c>
-      <c r="J4" s="8">
-        <v>0</v>
+      <c r="J4" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="49.65" customHeight="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="49.65" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B5" s="4">
         <v>45702</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E5" s="6">
         <v>45719</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H5" s="7">
         <v>82</v>
@@ -1759,40 +1744,37 @@
       <c r="I5" s="8">
         <v>11</v>
       </c>
-      <c r="J5" s="8">
-        <v>0</v>
+      <c r="J5" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="49.65" customHeight="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="49.65" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4">
         <v>45702</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E6" s="6">
         <v>45719</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H6" s="7">
         <v>159</v>
@@ -1800,40 +1782,37 @@
       <c r="I6" s="8">
         <v>22</v>
       </c>
-      <c r="J6" s="8">
-        <v>0</v>
+      <c r="J6" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="61.65" customHeight="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="61.65" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B7" s="4">
         <v>45702</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E7" s="6">
         <v>45719</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H7" s="7">
         <v>148</v>
@@ -1841,40 +1820,37 @@
       <c r="I7" s="8">
         <v>121</v>
       </c>
-      <c r="J7" s="8">
-        <v>0</v>
+      <c r="J7" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="49.65" customHeight="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="49.65" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B8" s="4">
         <v>45702</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E8" s="6">
         <v>45719</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H8" s="7">
         <v>603</v>
@@ -1882,40 +1858,37 @@
       <c r="I8" s="8">
         <v>11</v>
       </c>
-      <c r="J8" s="8">
-        <v>0</v>
+      <c r="J8" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="49.65" customHeight="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="49.65" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B9" s="4">
         <v>45702</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E9" s="6">
         <v>45719</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H9" s="7">
         <v>705</v>
@@ -1923,40 +1896,37 @@
       <c r="I9" s="8">
         <v>11</v>
       </c>
-      <c r="J9" s="8">
-        <v>0</v>
+      <c r="J9" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="49.65" customHeight="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="49.65" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B10" s="4">
         <v>45726</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E10" s="6">
         <v>45737</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H10" s="7">
         <v>760.32</v>
@@ -1964,40 +1934,37 @@
       <c r="I10" s="8">
         <v>150</v>
       </c>
-      <c r="J10" s="8">
-        <v>0</v>
+      <c r="J10" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="49.65" customHeight="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="49.65" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B11" s="4">
         <v>45726</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E11" s="6">
         <v>45737</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H11" s="7">
         <v>1214.9532999999999</v>
@@ -2005,40 +1972,37 @@
       <c r="I11" s="8">
         <v>90</v>
       </c>
-      <c r="J11" s="8">
-        <v>0</v>
+      <c r="J11" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="49.65" customHeight="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="49.65" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B12" s="4">
         <v>45726</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E12" s="6">
         <v>45737</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H12" s="7">
         <v>50</v>
@@ -2046,40 +2010,37 @@
       <c r="I12" s="8">
         <v>174</v>
       </c>
-      <c r="J12" s="8">
-        <v>0</v>
+      <c r="J12" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="49.65" customHeight="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="49.65" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B13" s="4">
         <v>45726</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E13" s="6">
         <v>45737</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H13" s="7">
         <v>50</v>
@@ -2087,40 +2048,37 @@
       <c r="I13" s="8">
         <v>462</v>
       </c>
-      <c r="J13" s="8">
-        <v>0</v>
+      <c r="J13" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="77.7" customHeight="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="77.7" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B14" s="4">
         <v>45726</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E14" s="6">
         <v>45737</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H14" s="7">
         <v>270</v>
@@ -2128,40 +2086,37 @@
       <c r="I14" s="8">
         <v>20</v>
       </c>
-      <c r="J14" s="8">
-        <v>0</v>
+      <c r="J14" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="77.7" customHeight="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="77.7" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B15" s="4">
         <v>45726</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E15" s="6">
         <v>45737</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H15" s="7">
         <v>370</v>
@@ -2169,40 +2124,37 @@
       <c r="I15" s="8">
         <v>6</v>
       </c>
-      <c r="J15" s="8">
-        <v>0</v>
+      <c r="J15" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="63.6" customHeight="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="63.6" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B16" s="4">
         <v>45726</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E16" s="6">
         <v>45737</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H16" s="7">
         <v>750</v>
@@ -2210,40 +2162,37 @@
       <c r="I16" s="8">
         <v>4</v>
       </c>
-      <c r="J16" s="8">
-        <v>0</v>
+      <c r="J16" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="48" customHeight="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="48" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B17" s="4">
         <v>45726</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E17" s="6">
         <v>45737</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H17" s="7">
         <v>750</v>
@@ -2251,40 +2200,37 @@
       <c r="I17" s="8">
         <v>2</v>
       </c>
-      <c r="J17" s="8">
-        <v>0</v>
+      <c r="J17" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="48" customHeight="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="48" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B18" s="4">
         <v>45726</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E18" s="6">
         <v>45737</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="H18" s="7">
         <v>570</v>
@@ -2292,40 +2238,37 @@
       <c r="I18" s="8">
         <v>4</v>
       </c>
-      <c r="J18" s="8">
-        <v>0</v>
+      <c r="J18" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="47.7" customHeight="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="47.7" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B19" s="4">
         <v>45726</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E19" s="6">
         <v>45737</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H19" s="7">
         <v>570</v>
@@ -2333,40 +2276,37 @@
       <c r="I19" s="8">
         <v>2</v>
       </c>
-      <c r="J19" s="8">
-        <v>0</v>
+      <c r="J19" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="48" customHeight="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="48" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B20" s="4">
         <v>45726</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E20" s="6">
         <v>45737</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H20" s="7">
         <v>850</v>
@@ -2374,40 +2314,37 @@
       <c r="I20" s="8">
         <v>2</v>
       </c>
-      <c r="J20" s="8">
-        <v>0</v>
+      <c r="J20" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="M20" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="48" customHeight="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="48" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B21" s="4">
         <v>45726</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E21" s="6">
         <v>45737</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
         <v>850</v>
@@ -2415,40 +2352,37 @@
       <c r="I21" s="8">
         <v>2</v>
       </c>
-      <c r="J21" s="8">
-        <v>0</v>
+      <c r="J21" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="M21" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="48" customHeight="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="48" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B22" s="4">
         <v>45726</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E22" s="6">
         <v>45737</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H22" s="7">
         <v>650</v>
@@ -2456,40 +2390,37 @@
       <c r="I22" s="8">
         <v>2</v>
       </c>
-      <c r="J22" s="8">
-        <v>0</v>
+      <c r="J22" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="M22" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="48" customHeight="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="48" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B23" s="4">
         <v>45726</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E23" s="6">
         <v>45737</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H23" s="7">
         <v>650</v>
@@ -2497,40 +2428,37 @@
       <c r="I23" s="8">
         <v>2</v>
       </c>
-      <c r="J23" s="8">
-        <v>0</v>
+      <c r="J23" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="M23" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="48" customHeight="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="48" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B24" s="4">
         <v>45726</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E24" s="6">
         <v>45737</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H24" s="7">
         <v>750</v>
@@ -2538,40 +2466,37 @@
       <c r="I24" s="8">
         <v>2</v>
       </c>
-      <c r="J24" s="8">
-        <v>0</v>
+      <c r="J24" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="M24" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="49.65" customHeight="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="49.65" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B25" s="4">
         <v>45726</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E25" s="6">
         <v>45737</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H25" s="7">
         <v>750</v>
@@ -2579,40 +2504,37 @@
       <c r="I25" s="8">
         <v>2</v>
       </c>
-      <c r="J25" s="8">
-        <v>0</v>
+      <c r="J25" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="M25" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="49.65" customHeight="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="49.65" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B26" s="4">
         <v>45726</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E26" s="6">
         <v>45737</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="H26" s="7">
         <v>570</v>
@@ -2620,40 +2542,37 @@
       <c r="I26" s="8">
         <v>2</v>
       </c>
-      <c r="J26" s="8">
-        <v>0</v>
+      <c r="J26" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="M26" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="60" customHeight="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="60" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B27" s="4">
         <v>45726</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E27" s="6">
         <v>45737</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="H27" s="7">
         <v>570</v>
@@ -2661,40 +2580,37 @@
       <c r="I27" s="8">
         <v>2</v>
       </c>
-      <c r="J27" s="8">
-        <v>0</v>
+      <c r="J27" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="M27" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="60" customHeight="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="60" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B28" s="4">
         <v>45726</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E28" s="6">
         <v>45737</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H28" s="7">
         <v>750</v>
@@ -2702,40 +2618,37 @@
       <c r="I28" s="8">
         <v>2</v>
       </c>
-      <c r="J28" s="8">
-        <v>0</v>
+      <c r="J28" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="M28" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="35.700000000000003" customHeight="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="35.700000000000003" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B29" s="4">
         <v>45726</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E29" s="6">
         <v>45737</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H29" s="7">
         <v>750</v>
@@ -2743,40 +2656,37 @@
       <c r="I29" s="8">
         <v>2</v>
       </c>
-      <c r="J29" s="8">
-        <v>0</v>
+      <c r="J29" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="M29" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="35.700000000000003" customHeight="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="35.700000000000003" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B30" s="4">
         <v>45726</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E30" s="6">
         <v>45737</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H30" s="7">
         <v>570</v>
@@ -2784,40 +2694,37 @@
       <c r="I30" s="8">
         <v>2</v>
       </c>
-      <c r="J30" s="8">
-        <v>0</v>
+      <c r="J30" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="M30" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="62.1" customHeight="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="62.1" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B31" s="4">
         <v>45726</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E31" s="6">
         <v>45737</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H31" s="7">
         <v>570</v>
@@ -2825,40 +2732,37 @@
       <c r="I31" s="8">
         <v>2</v>
       </c>
-      <c r="J31" s="8">
-        <v>0</v>
+      <c r="J31" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="M31" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="62.1" customHeight="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="62.1" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B32" s="4">
         <v>45726</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E32" s="6">
         <v>45737</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H32" s="7">
         <v>370</v>
@@ -2866,40 +2770,37 @@
       <c r="I32" s="8">
         <v>4</v>
       </c>
-      <c r="J32" s="8">
-        <v>0</v>
+      <c r="J32" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="M32" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="62.1" customHeight="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="62.1" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B33" s="4">
         <v>45726</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E33" s="6">
         <v>45737</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H33" s="7">
         <v>370</v>
@@ -2907,40 +2808,37 @@
       <c r="I33" s="8">
         <v>4</v>
       </c>
-      <c r="J33" s="8">
-        <v>0</v>
+      <c r="J33" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="M33" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="62.1" customHeight="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="62.1" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B34" s="4">
         <v>45726</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E34" s="6">
         <v>45737</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H34" s="7">
         <v>270</v>
@@ -2948,40 +2846,37 @@
       <c r="I34" s="8">
         <v>4</v>
       </c>
-      <c r="J34" s="8">
-        <v>0</v>
+      <c r="J34" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="M34" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="48" customHeight="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="48" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B35" s="4">
         <v>45726</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E35" s="6">
         <v>45737</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H35" s="7">
         <v>270</v>
@@ -2989,20 +2884,17 @@
       <c r="I35" s="8">
         <v>4</v>
       </c>
-      <c r="J35" s="8">
-        <v>0</v>
+      <c r="J35" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="M35" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="48" customHeight="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="48" customHeight="1">
       <c r="A36" s="3"/>
       <c r="B36" s="4"/>
       <c r="C36" s="5"/>
@@ -3012,12 +2904,11 @@
       <c r="G36" s="5"/>
       <c r="H36" s="7"/>
       <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
+      <c r="J36" s="5"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-    </row>
-    <row r="37" spans="1:13" ht="48" customHeight="1">
+    </row>
+    <row r="37" spans="1:12" ht="48" customHeight="1">
       <c r="A37" s="3"/>
       <c r="B37" s="4"/>
       <c r="C37" s="5"/>
@@ -3027,12 +2918,11 @@
       <c r="G37" s="5"/>
       <c r="H37" s="7"/>
       <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
+      <c r="J37" s="5"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-    </row>
-    <row r="38" spans="1:13" ht="48" customHeight="1">
+    </row>
+    <row r="38" spans="1:12" ht="48" customHeight="1">
       <c r="A38" s="3"/>
       <c r="B38" s="4"/>
       <c r="C38" s="5"/>
@@ -3042,12 +2932,11 @@
       <c r="G38" s="5"/>
       <c r="H38" s="7"/>
       <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
+      <c r="J38" s="5"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-    </row>
-    <row r="39" spans="1:13" ht="48" customHeight="1">
+    </row>
+    <row r="39" spans="1:12" ht="48" customHeight="1">
       <c r="A39" s="3"/>
       <c r="B39" s="4"/>
       <c r="C39" s="5"/>
@@ -3057,12 +2946,11 @@
       <c r="G39" s="5"/>
       <c r="H39" s="7"/>
       <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
+      <c r="J39" s="5"/>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-    </row>
-    <row r="40" spans="1:13" ht="48" customHeight="1">
+    </row>
+    <row r="40" spans="1:12" ht="48" customHeight="1">
       <c r="A40" s="3"/>
       <c r="B40" s="4"/>
       <c r="C40" s="5"/>
@@ -3072,12 +2960,11 @@
       <c r="G40" s="5"/>
       <c r="H40" s="7"/>
       <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
+      <c r="J40" s="5"/>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-    </row>
-    <row r="41" spans="1:13" ht="48" customHeight="1">
+    </row>
+    <row r="41" spans="1:12" ht="48" customHeight="1">
       <c r="A41" s="3"/>
       <c r="B41" s="4"/>
       <c r="C41" s="5"/>
@@ -3087,12 +2974,11 @@
       <c r="G41" s="5"/>
       <c r="H41" s="7"/>
       <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
+      <c r="J41" s="5"/>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-    </row>
-    <row r="42" spans="1:13" ht="48" customHeight="1">
+    </row>
+    <row r="42" spans="1:12" ht="48" customHeight="1">
       <c r="A42" s="3"/>
       <c r="B42" s="4"/>
       <c r="C42" s="5"/>
@@ -3102,12 +2988,11 @@
       <c r="G42" s="5"/>
       <c r="H42" s="7"/>
       <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
+      <c r="J42" s="5"/>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-    </row>
-    <row r="43" spans="1:13" ht="48" customHeight="1">
+    </row>
+    <row r="43" spans="1:12" ht="48" customHeight="1">
       <c r="A43" s="3"/>
       <c r="B43" s="4"/>
       <c r="C43" s="5"/>
@@ -3117,12 +3002,11 @@
       <c r="G43" s="5"/>
       <c r="H43" s="7"/>
       <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
+      <c r="J43" s="5"/>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-    </row>
-    <row r="44" spans="1:13" ht="48" customHeight="1">
+    </row>
+    <row r="44" spans="1:12" ht="48" customHeight="1">
       <c r="A44" s="3"/>
       <c r="B44" s="4"/>
       <c r="C44" s="5"/>
@@ -3132,12 +3016,11 @@
       <c r="G44" s="5"/>
       <c r="H44" s="7"/>
       <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
+      <c r="J44" s="5"/>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-    </row>
-    <row r="45" spans="1:13" ht="48" customHeight="1">
+    </row>
+    <row r="45" spans="1:12" ht="48" customHeight="1">
       <c r="A45" s="3"/>
       <c r="B45" s="4"/>
       <c r="C45" s="5"/>
@@ -3147,12 +3030,11 @@
       <c r="G45" s="5"/>
       <c r="H45" s="7"/>
       <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
+      <c r="J45" s="5"/>
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-    </row>
-    <row r="46" spans="1:13" ht="48" customHeight="1">
+    </row>
+    <row r="46" spans="1:12" ht="48" customHeight="1">
       <c r="A46" s="3"/>
       <c r="B46" s="4"/>
       <c r="C46" s="5"/>
@@ -3162,12 +3044,11 @@
       <c r="G46" s="5"/>
       <c r="H46" s="7"/>
       <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
+      <c r="J46" s="5"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-    </row>
-    <row r="47" spans="1:13" ht="48" customHeight="1">
+    </row>
+    <row r="47" spans="1:12" ht="48" customHeight="1">
       <c r="A47" s="3"/>
       <c r="B47" s="4"/>
       <c r="C47" s="5"/>
@@ -3177,12 +3058,11 @@
       <c r="G47" s="5"/>
       <c r="H47" s="7"/>
       <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
+      <c r="J47" s="5"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
-    </row>
-    <row r="48" spans="1:13" ht="48" customHeight="1">
+    </row>
+    <row r="48" spans="1:12" ht="48" customHeight="1">
       <c r="A48" s="3"/>
       <c r="B48" s="4"/>
       <c r="C48" s="5"/>
@@ -3192,12 +3072,11 @@
       <c r="G48" s="5"/>
       <c r="H48" s="7"/>
       <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
+      <c r="J48" s="5"/>
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
-    </row>
-    <row r="49" spans="1:13" ht="48" customHeight="1">
+    </row>
+    <row r="49" spans="1:12" ht="48" customHeight="1">
       <c r="A49" s="3"/>
       <c r="B49" s="4"/>
       <c r="C49" s="5"/>
@@ -3207,12 +3086,11 @@
       <c r="G49" s="5"/>
       <c r="H49" s="7"/>
       <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
+      <c r="J49" s="5"/>
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
-    </row>
-    <row r="50" spans="1:13" ht="48" customHeight="1">
+    </row>
+    <row r="50" spans="1:12" ht="48" customHeight="1">
       <c r="A50" s="3"/>
       <c r="B50" s="4"/>
       <c r="C50" s="5"/>
@@ -3222,12 +3100,11 @@
       <c r="G50" s="5"/>
       <c r="H50" s="7"/>
       <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
+      <c r="J50" s="5"/>
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
-    </row>
-    <row r="51" spans="1:13" ht="74.099999999999994" customHeight="1">
+    </row>
+    <row r="51" spans="1:12" ht="74.099999999999994" customHeight="1">
       <c r="A51" s="3"/>
       <c r="B51" s="4"/>
       <c r="C51" s="5"/>
@@ -3237,12 +3114,11 @@
       <c r="G51" s="5"/>
       <c r="H51" s="7"/>
       <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
+      <c r="J51" s="5"/>
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
-    </row>
-    <row r="52" spans="1:13" ht="75.599999999999994" customHeight="1">
+    </row>
+    <row r="52" spans="1:12" ht="75.599999999999994" customHeight="1">
       <c r="A52" s="3"/>
       <c r="B52" s="4"/>
       <c r="C52" s="5"/>
@@ -3252,12 +3128,11 @@
       <c r="G52" s="5"/>
       <c r="H52" s="7"/>
       <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
+      <c r="J52" s="5"/>
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-    </row>
-    <row r="53" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="53" spans="1:12" ht="49.65" customHeight="1">
       <c r="A53" s="3"/>
       <c r="B53" s="4"/>
       <c r="C53" s="5"/>
@@ -3267,12 +3142,11 @@
       <c r="G53" s="5"/>
       <c r="H53" s="7"/>
       <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
+      <c r="J53" s="5"/>
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-    </row>
-    <row r="54" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="54" spans="1:12" ht="49.65" customHeight="1">
       <c r="A54" s="3"/>
       <c r="B54" s="4"/>
       <c r="C54" s="5"/>
@@ -3282,12 +3156,11 @@
       <c r="G54" s="5"/>
       <c r="H54" s="7"/>
       <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
+      <c r="J54" s="5"/>
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
-      <c r="M54" s="5"/>
-    </row>
-    <row r="55" spans="1:13" ht="63.6" customHeight="1">
+    </row>
+    <row r="55" spans="1:12" ht="63.6" customHeight="1">
       <c r="A55" s="3"/>
       <c r="B55" s="4"/>
       <c r="C55" s="5"/>
@@ -3297,12 +3170,11 @@
       <c r="G55" s="5"/>
       <c r="H55" s="7"/>
       <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
+      <c r="J55" s="5"/>
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
-      <c r="M55" s="5"/>
-    </row>
-    <row r="56" spans="1:13" ht="74.099999999999994" customHeight="1">
+    </row>
+    <row r="56" spans="1:12" ht="74.099999999999994" customHeight="1">
       <c r="A56" s="3"/>
       <c r="B56" s="4"/>
       <c r="C56" s="5"/>
@@ -3312,12 +3184,11 @@
       <c r="G56" s="5"/>
       <c r="H56" s="7"/>
       <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
+      <c r="J56" s="5"/>
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
-      <c r="M56" s="5"/>
-    </row>
-    <row r="57" spans="1:13" ht="63.6" customHeight="1">
+    </row>
+    <row r="57" spans="1:12" ht="63.6" customHeight="1">
       <c r="A57" s="3"/>
       <c r="B57" s="4"/>
       <c r="C57" s="5"/>
@@ -3327,12 +3198,11 @@
       <c r="G57" s="5"/>
       <c r="H57" s="7"/>
       <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
+      <c r="J57" s="5"/>
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
-      <c r="M57" s="5"/>
-    </row>
-    <row r="58" spans="1:13" ht="99.6" customHeight="1">
+    </row>
+    <row r="58" spans="1:12" ht="99.6" customHeight="1">
       <c r="A58" s="3"/>
       <c r="B58" s="4"/>
       <c r="C58" s="5"/>
@@ -3342,12 +3212,11 @@
       <c r="G58" s="5"/>
       <c r="H58" s="7"/>
       <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
+      <c r="J58" s="5"/>
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
-      <c r="M58" s="5"/>
-    </row>
-    <row r="59" spans="1:13" ht="72" customHeight="1">
+    </row>
+    <row r="59" spans="1:12" ht="72" customHeight="1">
       <c r="A59" s="3"/>
       <c r="B59" s="4"/>
       <c r="C59" s="5"/>
@@ -3357,12 +3226,11 @@
       <c r="G59" s="5"/>
       <c r="H59" s="7"/>
       <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
+      <c r="J59" s="5"/>
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
-      <c r="M59" s="5"/>
-    </row>
-    <row r="60" spans="1:13" ht="89.7" customHeight="1">
+    </row>
+    <row r="60" spans="1:12" ht="89.7" customHeight="1">
       <c r="A60" s="3"/>
       <c r="B60" s="4"/>
       <c r="C60" s="5"/>
@@ -3372,12 +3240,11 @@
       <c r="G60" s="5"/>
       <c r="H60" s="7"/>
       <c r="I60" s="8"/>
-      <c r="J60" s="8"/>
+      <c r="J60" s="5"/>
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
-      <c r="M60" s="5"/>
-    </row>
-    <row r="61" spans="1:13" ht="77.7" customHeight="1">
+    </row>
+    <row r="61" spans="1:12" ht="77.7" customHeight="1">
       <c r="A61" s="3"/>
       <c r="B61" s="4"/>
       <c r="C61" s="5"/>
@@ -3387,12 +3254,11 @@
       <c r="G61" s="5"/>
       <c r="H61" s="7"/>
       <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
+      <c r="J61" s="5"/>
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
-      <c r="M61" s="5"/>
-    </row>
-    <row r="62" spans="1:13" ht="77.7" customHeight="1">
+    </row>
+    <row r="62" spans="1:12" ht="77.7" customHeight="1">
       <c r="A62" s="3"/>
       <c r="B62" s="4"/>
       <c r="C62" s="5"/>
@@ -3402,12 +3268,11 @@
       <c r="G62" s="5"/>
       <c r="H62" s="7"/>
       <c r="I62" s="8"/>
-      <c r="J62" s="8"/>
+      <c r="J62" s="5"/>
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
-      <c r="M62" s="5"/>
-    </row>
-    <row r="63" spans="1:13" ht="77.7" customHeight="1">
+    </row>
+    <row r="63" spans="1:12" ht="77.7" customHeight="1">
       <c r="A63" s="3"/>
       <c r="B63" s="4"/>
       <c r="C63" s="5"/>
@@ -3417,12 +3282,11 @@
       <c r="G63" s="5"/>
       <c r="H63" s="7"/>
       <c r="I63" s="8"/>
-      <c r="J63" s="8"/>
+      <c r="J63" s="5"/>
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
-      <c r="M63" s="5"/>
-    </row>
-    <row r="64" spans="1:13" ht="77.7" customHeight="1">
+    </row>
+    <row r="64" spans="1:12" ht="77.7" customHeight="1">
       <c r="A64" s="3"/>
       <c r="B64" s="4"/>
       <c r="C64" s="5"/>
@@ -3432,12 +3296,11 @@
       <c r="G64" s="5"/>
       <c r="H64" s="7"/>
       <c r="I64" s="8"/>
-      <c r="J64" s="8"/>
+      <c r="J64" s="5"/>
       <c r="K64" s="5"/>
       <c r="L64" s="5"/>
-      <c r="M64" s="5"/>
-    </row>
-    <row r="65" spans="1:13" ht="77.7" customHeight="1">
+    </row>
+    <row r="65" spans="1:12" ht="77.7" customHeight="1">
       <c r="A65" s="3"/>
       <c r="B65" s="4"/>
       <c r="C65" s="5"/>
@@ -3447,12 +3310,11 @@
       <c r="G65" s="5"/>
       <c r="H65" s="7"/>
       <c r="I65" s="8"/>
-      <c r="J65" s="8"/>
+      <c r="J65" s="5"/>
       <c r="K65" s="5"/>
       <c r="L65" s="5"/>
-      <c r="M65" s="5"/>
-    </row>
-    <row r="66" spans="1:13" ht="77.7" customHeight="1">
+    </row>
+    <row r="66" spans="1:12" ht="77.7" customHeight="1">
       <c r="A66" s="3"/>
       <c r="B66" s="4"/>
       <c r="C66" s="5"/>
@@ -3462,12 +3324,11 @@
       <c r="G66" s="5"/>
       <c r="H66" s="7"/>
       <c r="I66" s="8"/>
-      <c r="J66" s="8"/>
+      <c r="J66" s="5"/>
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
-      <c r="M66" s="5"/>
-    </row>
-    <row r="67" spans="1:13" ht="77.7" customHeight="1">
+    </row>
+    <row r="67" spans="1:12" ht="77.7" customHeight="1">
       <c r="A67" s="3"/>
       <c r="B67" s="4"/>
       <c r="C67" s="5"/>
@@ -3477,12 +3338,11 @@
       <c r="G67" s="5"/>
       <c r="H67" s="7"/>
       <c r="I67" s="8"/>
-      <c r="J67" s="8"/>
+      <c r="J67" s="5"/>
       <c r="K67" s="5"/>
       <c r="L67" s="5"/>
-      <c r="M67" s="5"/>
-    </row>
-    <row r="68" spans="1:13" ht="77.7" customHeight="1">
+    </row>
+    <row r="68" spans="1:12" ht="77.7" customHeight="1">
       <c r="A68" s="3"/>
       <c r="B68" s="4"/>
       <c r="C68" s="5"/>
@@ -3492,12 +3352,11 @@
       <c r="G68" s="5"/>
       <c r="H68" s="7"/>
       <c r="I68" s="8"/>
-      <c r="J68" s="8"/>
+      <c r="J68" s="5"/>
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
-      <c r="M68" s="5"/>
-    </row>
-    <row r="69" spans="1:13" ht="77.7" customHeight="1">
+    </row>
+    <row r="69" spans="1:12" ht="77.7" customHeight="1">
       <c r="A69" s="3"/>
       <c r="B69" s="4"/>
       <c r="C69" s="5"/>
@@ -3507,12 +3366,11 @@
       <c r="G69" s="5"/>
       <c r="H69" s="7"/>
       <c r="I69" s="8"/>
-      <c r="J69" s="8"/>
+      <c r="J69" s="5"/>
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
-      <c r="M69" s="5"/>
-    </row>
-    <row r="70" spans="1:13" ht="77.7" customHeight="1">
+    </row>
+    <row r="70" spans="1:12" ht="77.7" customHeight="1">
       <c r="A70" s="3"/>
       <c r="B70" s="4"/>
       <c r="C70" s="5"/>
@@ -3522,12 +3380,11 @@
       <c r="G70" s="5"/>
       <c r="H70" s="7"/>
       <c r="I70" s="8"/>
-      <c r="J70" s="8"/>
+      <c r="J70" s="5"/>
       <c r="K70" s="5"/>
       <c r="L70" s="5"/>
-      <c r="M70" s="5"/>
-    </row>
-    <row r="71" spans="1:13" ht="77.7" customHeight="1">
+    </row>
+    <row r="71" spans="1:12" ht="77.7" customHeight="1">
       <c r="A71" s="3"/>
       <c r="B71" s="4"/>
       <c r="C71" s="5"/>
@@ -3537,12 +3394,11 @@
       <c r="G71" s="5"/>
       <c r="H71" s="7"/>
       <c r="I71" s="8"/>
-      <c r="J71" s="8"/>
+      <c r="J71" s="5"/>
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
-      <c r="M71" s="5"/>
-    </row>
-    <row r="72" spans="1:13" ht="86.1" customHeight="1">
+    </row>
+    <row r="72" spans="1:12" ht="86.1" customHeight="1">
       <c r="A72" s="3"/>
       <c r="B72" s="4"/>
       <c r="C72" s="5"/>
@@ -3552,12 +3408,11 @@
       <c r="G72" s="5"/>
       <c r="H72" s="7"/>
       <c r="I72" s="8"/>
-      <c r="J72" s="8"/>
+      <c r="J72" s="5"/>
       <c r="K72" s="5"/>
       <c r="L72" s="5"/>
-      <c r="M72" s="5"/>
-    </row>
-    <row r="73" spans="1:13" ht="62.1" customHeight="1">
+    </row>
+    <row r="73" spans="1:12" ht="62.1" customHeight="1">
       <c r="A73" s="3"/>
       <c r="B73" s="4"/>
       <c r="C73" s="5"/>
@@ -3567,12 +3422,11 @@
       <c r="G73" s="5"/>
       <c r="H73" s="7"/>
       <c r="I73" s="8"/>
-      <c r="J73" s="8"/>
+      <c r="J73" s="5"/>
       <c r="K73" s="5"/>
       <c r="L73" s="5"/>
-      <c r="M73" s="5"/>
-    </row>
-    <row r="74" spans="1:13" ht="63.6" customHeight="1">
+    </row>
+    <row r="74" spans="1:12" ht="63.6" customHeight="1">
       <c r="A74" s="3"/>
       <c r="B74" s="4"/>
       <c r="C74" s="5"/>
@@ -3582,12 +3436,11 @@
       <c r="G74" s="5"/>
       <c r="H74" s="7"/>
       <c r="I74" s="8"/>
-      <c r="J74" s="8"/>
+      <c r="J74" s="5"/>
       <c r="K74" s="5"/>
       <c r="L74" s="5"/>
-      <c r="M74" s="5"/>
-    </row>
-    <row r="75" spans="1:13" ht="77.7" customHeight="1">
+    </row>
+    <row r="75" spans="1:12" ht="77.7" customHeight="1">
       <c r="A75" s="3"/>
       <c r="B75" s="4"/>
       <c r="C75" s="5"/>
@@ -3597,12 +3450,11 @@
       <c r="G75" s="5"/>
       <c r="H75" s="7"/>
       <c r="I75" s="8"/>
-      <c r="J75" s="8"/>
+      <c r="J75" s="5"/>
       <c r="K75" s="5"/>
       <c r="L75" s="5"/>
-      <c r="M75" s="5"/>
-    </row>
-    <row r="76" spans="1:13" ht="77.7" customHeight="1">
+    </row>
+    <row r="76" spans="1:12" ht="77.7" customHeight="1">
       <c r="A76" s="3"/>
       <c r="B76" s="4"/>
       <c r="C76" s="5"/>
@@ -3612,12 +3464,11 @@
       <c r="G76" s="5"/>
       <c r="H76" s="7"/>
       <c r="I76" s="8"/>
-      <c r="J76" s="8"/>
+      <c r="J76" s="5"/>
       <c r="K76" s="5"/>
       <c r="L76" s="5"/>
-      <c r="M76" s="5"/>
-    </row>
-    <row r="77" spans="1:13" ht="77.7" customHeight="1">
+    </row>
+    <row r="77" spans="1:12" ht="77.7" customHeight="1">
       <c r="A77" s="3"/>
       <c r="B77" s="4"/>
       <c r="C77" s="5"/>
@@ -3627,12 +3478,11 @@
       <c r="G77" s="5"/>
       <c r="H77" s="7"/>
       <c r="I77" s="8"/>
-      <c r="J77" s="8"/>
+      <c r="J77" s="5"/>
       <c r="K77" s="5"/>
       <c r="L77" s="5"/>
-      <c r="M77" s="5"/>
-    </row>
-    <row r="78" spans="1:13" ht="77.7" customHeight="1">
+    </row>
+    <row r="78" spans="1:12" ht="77.7" customHeight="1">
       <c r="A78" s="3"/>
       <c r="B78" s="4"/>
       <c r="C78" s="5"/>
@@ -3642,12 +3492,11 @@
       <c r="G78" s="5"/>
       <c r="H78" s="7"/>
       <c r="I78" s="8"/>
-      <c r="J78" s="8"/>
+      <c r="J78" s="5"/>
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
-      <c r="M78" s="5"/>
-    </row>
-    <row r="79" spans="1:13" ht="77.7" customHeight="1">
+    </row>
+    <row r="79" spans="1:12" ht="77.7" customHeight="1">
       <c r="A79" s="3"/>
       <c r="B79" s="4"/>
       <c r="C79" s="5"/>
@@ -3657,12 +3506,11 @@
       <c r="G79" s="5"/>
       <c r="H79" s="7"/>
       <c r="I79" s="8"/>
-      <c r="J79" s="8"/>
+      <c r="J79" s="5"/>
       <c r="K79" s="5"/>
       <c r="L79" s="5"/>
-      <c r="M79" s="5"/>
-    </row>
-    <row r="80" spans="1:13" ht="77.7" customHeight="1">
+    </row>
+    <row r="80" spans="1:12" ht="77.7" customHeight="1">
       <c r="A80" s="3"/>
       <c r="B80" s="4"/>
       <c r="C80" s="5"/>
@@ -3672,12 +3520,11 @@
       <c r="G80" s="5"/>
       <c r="H80" s="7"/>
       <c r="I80" s="8"/>
-      <c r="J80" s="8"/>
+      <c r="J80" s="5"/>
       <c r="K80" s="5"/>
       <c r="L80" s="5"/>
-      <c r="M80" s="5"/>
-    </row>
-    <row r="81" spans="1:13" ht="77.7" customHeight="1">
+    </row>
+    <row r="81" spans="1:12" ht="77.7" customHeight="1">
       <c r="A81" s="3"/>
       <c r="B81" s="4"/>
       <c r="C81" s="5"/>
@@ -3687,12 +3534,11 @@
       <c r="G81" s="5"/>
       <c r="H81" s="7"/>
       <c r="I81" s="8"/>
-      <c r="J81" s="8"/>
+      <c r="J81" s="5"/>
       <c r="K81" s="5"/>
       <c r="L81" s="5"/>
-      <c r="M81" s="5"/>
-    </row>
-    <row r="82" spans="1:13" ht="77.7" customHeight="1">
+    </row>
+    <row r="82" spans="1:12" ht="77.7" customHeight="1">
       <c r="A82" s="3"/>
       <c r="B82" s="4"/>
       <c r="C82" s="5"/>
@@ -3702,12 +3548,11 @@
       <c r="G82" s="5"/>
       <c r="H82" s="7"/>
       <c r="I82" s="8"/>
-      <c r="J82" s="8"/>
+      <c r="J82" s="5"/>
       <c r="K82" s="5"/>
       <c r="L82" s="5"/>
-      <c r="M82" s="5"/>
-    </row>
-    <row r="83" spans="1:13" ht="77.7" customHeight="1">
+    </row>
+    <row r="83" spans="1:12" ht="77.7" customHeight="1">
       <c r="A83" s="3"/>
       <c r="B83" s="4"/>
       <c r="C83" s="5"/>
@@ -3717,12 +3562,11 @@
       <c r="G83" s="5"/>
       <c r="H83" s="7"/>
       <c r="I83" s="8"/>
-      <c r="J83" s="8"/>
+      <c r="J83" s="5"/>
       <c r="K83" s="5"/>
       <c r="L83" s="5"/>
-      <c r="M83" s="5"/>
-    </row>
-    <row r="84" spans="1:13" ht="77.7" customHeight="1">
+    </row>
+    <row r="84" spans="1:12" ht="77.7" customHeight="1">
       <c r="A84" s="3"/>
       <c r="B84" s="4"/>
       <c r="C84" s="5"/>
@@ -3732,12 +3576,11 @@
       <c r="G84" s="5"/>
       <c r="H84" s="7"/>
       <c r="I84" s="8"/>
-      <c r="J84" s="8"/>
+      <c r="J84" s="5"/>
       <c r="K84" s="5"/>
       <c r="L84" s="5"/>
-      <c r="M84" s="5"/>
-    </row>
-    <row r="85" spans="1:13" ht="77.7" customHeight="1">
+    </row>
+    <row r="85" spans="1:12" ht="77.7" customHeight="1">
       <c r="A85" s="3"/>
       <c r="B85" s="4"/>
       <c r="C85" s="5"/>
@@ -3747,12 +3590,11 @@
       <c r="G85" s="5"/>
       <c r="H85" s="7"/>
       <c r="I85" s="8"/>
-      <c r="J85" s="8"/>
+      <c r="J85" s="5"/>
       <c r="K85" s="5"/>
       <c r="L85" s="5"/>
-      <c r="M85" s="5"/>
-    </row>
-    <row r="86" spans="1:13" ht="77.7" customHeight="1">
+    </row>
+    <row r="86" spans="1:12" ht="77.7" customHeight="1">
       <c r="A86" s="3"/>
       <c r="B86" s="4"/>
       <c r="C86" s="5"/>
@@ -3762,12 +3604,11 @@
       <c r="G86" s="5"/>
       <c r="H86" s="7"/>
       <c r="I86" s="8"/>
-      <c r="J86" s="8"/>
+      <c r="J86" s="5"/>
       <c r="K86" s="5"/>
       <c r="L86" s="5"/>
-      <c r="M86" s="5"/>
-    </row>
-    <row r="87" spans="1:13" ht="77.7" customHeight="1">
+    </row>
+    <row r="87" spans="1:12" ht="77.7" customHeight="1">
       <c r="A87" s="3"/>
       <c r="B87" s="4"/>
       <c r="C87" s="5"/>
@@ -3777,12 +3618,11 @@
       <c r="G87" s="5"/>
       <c r="H87" s="7"/>
       <c r="I87" s="8"/>
-      <c r="J87" s="8"/>
+      <c r="J87" s="5"/>
       <c r="K87" s="5"/>
       <c r="L87" s="5"/>
-      <c r="M87" s="5"/>
-    </row>
-    <row r="88" spans="1:13" ht="133.65" customHeight="1">
+    </row>
+    <row r="88" spans="1:12" ht="133.65" customHeight="1">
       <c r="A88" s="3"/>
       <c r="B88" s="4"/>
       <c r="C88" s="5"/>
@@ -3792,12 +3632,11 @@
       <c r="G88" s="5"/>
       <c r="H88" s="7"/>
       <c r="I88" s="8"/>
-      <c r="J88" s="8"/>
+      <c r="J88" s="5"/>
       <c r="K88" s="5"/>
       <c r="L88" s="5"/>
-      <c r="M88" s="5"/>
-    </row>
-    <row r="89" spans="1:13" ht="63.6" customHeight="1">
+    </row>
+    <row r="89" spans="1:12" ht="63.6" customHeight="1">
       <c r="A89" s="3"/>
       <c r="B89" s="4"/>
       <c r="C89" s="5"/>
@@ -3807,12 +3646,11 @@
       <c r="G89" s="5"/>
       <c r="H89" s="7"/>
       <c r="I89" s="8"/>
-      <c r="J89" s="8"/>
+      <c r="J89" s="5"/>
       <c r="K89" s="5"/>
       <c r="L89" s="5"/>
-      <c r="M89" s="5"/>
-    </row>
-    <row r="90" spans="1:13" ht="77.7" customHeight="1">
+    </row>
+    <row r="90" spans="1:12" ht="77.7" customHeight="1">
       <c r="A90" s="3"/>
       <c r="B90" s="4"/>
       <c r="C90" s="5"/>
@@ -3822,12 +3660,11 @@
       <c r="G90" s="5"/>
       <c r="H90" s="7"/>
       <c r="I90" s="8"/>
-      <c r="J90" s="8"/>
+      <c r="J90" s="5"/>
       <c r="K90" s="5"/>
       <c r="L90" s="5"/>
-      <c r="M90" s="5"/>
-    </row>
-    <row r="91" spans="1:13" ht="77.7" customHeight="1">
+    </row>
+    <row r="91" spans="1:12" ht="77.7" customHeight="1">
       <c r="A91" s="3"/>
       <c r="B91" s="4"/>
       <c r="C91" s="5"/>
@@ -3837,12 +3674,11 @@
       <c r="G91" s="5"/>
       <c r="H91" s="7"/>
       <c r="I91" s="8"/>
-      <c r="J91" s="8"/>
+      <c r="J91" s="5"/>
       <c r="K91" s="5"/>
       <c r="L91" s="5"/>
-      <c r="M91" s="5"/>
-    </row>
-    <row r="92" spans="1:13" ht="77.7" customHeight="1">
+    </row>
+    <row r="92" spans="1:12" ht="77.7" customHeight="1">
       <c r="A92" s="3"/>
       <c r="B92" s="4"/>
       <c r="C92" s="5"/>
@@ -3852,12 +3688,11 @@
       <c r="G92" s="5"/>
       <c r="H92" s="7"/>
       <c r="I92" s="8"/>
-      <c r="J92" s="8"/>
+      <c r="J92" s="5"/>
       <c r="K92" s="5"/>
       <c r="L92" s="5"/>
-      <c r="M92" s="5"/>
-    </row>
-    <row r="93" spans="1:13" ht="77.7" customHeight="1">
+    </row>
+    <row r="93" spans="1:12" ht="77.7" customHeight="1">
       <c r="A93" s="3"/>
       <c r="B93" s="4"/>
       <c r="C93" s="5"/>
@@ -3867,12 +3702,11 @@
       <c r="G93" s="5"/>
       <c r="H93" s="7"/>
       <c r="I93" s="8"/>
-      <c r="J93" s="8"/>
+      <c r="J93" s="5"/>
       <c r="K93" s="5"/>
       <c r="L93" s="5"/>
-      <c r="M93" s="5"/>
-    </row>
-    <row r="94" spans="1:13" ht="77.7" customHeight="1">
+    </row>
+    <row r="94" spans="1:12" ht="77.7" customHeight="1">
       <c r="A94" s="3"/>
       <c r="B94" s="4"/>
       <c r="C94" s="5"/>
@@ -3882,12 +3716,11 @@
       <c r="G94" s="5"/>
       <c r="H94" s="7"/>
       <c r="I94" s="8"/>
-      <c r="J94" s="8"/>
+      <c r="J94" s="5"/>
       <c r="K94" s="5"/>
       <c r="L94" s="5"/>
-      <c r="M94" s="5"/>
-    </row>
-    <row r="95" spans="1:13" ht="77.7" customHeight="1">
+    </row>
+    <row r="95" spans="1:12" ht="77.7" customHeight="1">
       <c r="A95" s="3"/>
       <c r="B95" s="4"/>
       <c r="C95" s="5"/>
@@ -3897,12 +3730,11 @@
       <c r="G95" s="5"/>
       <c r="H95" s="7"/>
       <c r="I95" s="8"/>
-      <c r="J95" s="8"/>
+      <c r="J95" s="5"/>
       <c r="K95" s="5"/>
       <c r="L95" s="5"/>
-      <c r="M95" s="5"/>
-    </row>
-    <row r="96" spans="1:13" ht="105.6" customHeight="1">
+    </row>
+    <row r="96" spans="1:12" ht="105.6" customHeight="1">
       <c r="A96" s="3"/>
       <c r="B96" s="4"/>
       <c r="C96" s="5"/>
@@ -3912,12 +3744,11 @@
       <c r="G96" s="5"/>
       <c r="H96" s="7"/>
       <c r="I96" s="8"/>
-      <c r="J96" s="8"/>
+      <c r="J96" s="5"/>
       <c r="K96" s="5"/>
       <c r="L96" s="5"/>
-      <c r="M96" s="5"/>
-    </row>
-    <row r="97" spans="1:13" ht="105.6" customHeight="1">
+    </row>
+    <row r="97" spans="1:12" ht="105.6" customHeight="1">
       <c r="A97" s="3"/>
       <c r="B97" s="4"/>
       <c r="C97" s="5"/>
@@ -3927,12 +3758,11 @@
       <c r="G97" s="5"/>
       <c r="H97" s="7"/>
       <c r="I97" s="8"/>
-      <c r="J97" s="8"/>
+      <c r="J97" s="5"/>
       <c r="K97" s="5"/>
       <c r="L97" s="5"/>
-      <c r="M97" s="5"/>
-    </row>
-    <row r="98" spans="1:13" ht="105.6" customHeight="1">
+    </row>
+    <row r="98" spans="1:12" ht="105.6" customHeight="1">
       <c r="A98" s="3"/>
       <c r="B98" s="4"/>
       <c r="C98" s="5"/>
@@ -3942,12 +3772,11 @@
       <c r="G98" s="5"/>
       <c r="H98" s="7"/>
       <c r="I98" s="8"/>
-      <c r="J98" s="8"/>
+      <c r="J98" s="5"/>
       <c r="K98" s="5"/>
       <c r="L98" s="5"/>
-      <c r="M98" s="5"/>
-    </row>
-    <row r="99" spans="1:13" ht="105.6" customHeight="1">
+    </row>
+    <row r="99" spans="1:12" ht="105.6" customHeight="1">
       <c r="A99" s="3"/>
       <c r="B99" s="4"/>
       <c r="C99" s="5"/>
@@ -3957,12 +3786,11 @@
       <c r="G99" s="5"/>
       <c r="H99" s="7"/>
       <c r="I99" s="8"/>
-      <c r="J99" s="8"/>
+      <c r="J99" s="5"/>
       <c r="K99" s="5"/>
       <c r="L99" s="5"/>
-      <c r="M99" s="5"/>
-    </row>
-    <row r="100" spans="1:13" ht="77.7" customHeight="1">
+    </row>
+    <row r="100" spans="1:12" ht="77.7" customHeight="1">
       <c r="A100" s="3"/>
       <c r="B100" s="4"/>
       <c r="C100" s="5"/>
@@ -3972,12 +3800,11 @@
       <c r="G100" s="5"/>
       <c r="H100" s="7"/>
       <c r="I100" s="8"/>
-      <c r="J100" s="8"/>
+      <c r="J100" s="5"/>
       <c r="K100" s="5"/>
       <c r="L100" s="5"/>
-      <c r="M100" s="5"/>
-    </row>
-    <row r="101" spans="1:13" ht="77.7" customHeight="1">
+    </row>
+    <row r="101" spans="1:12" ht="77.7" customHeight="1">
       <c r="A101" s="3"/>
       <c r="B101" s="4"/>
       <c r="C101" s="5"/>
@@ -3987,12 +3814,11 @@
       <c r="G101" s="5"/>
       <c r="H101" s="7"/>
       <c r="I101" s="8"/>
-      <c r="J101" s="8"/>
+      <c r="J101" s="5"/>
       <c r="K101" s="5"/>
       <c r="L101" s="5"/>
-      <c r="M101" s="5"/>
-    </row>
-    <row r="102" spans="1:13" ht="77.7" customHeight="1">
+    </row>
+    <row r="102" spans="1:12" ht="77.7" customHeight="1">
       <c r="A102" s="3"/>
       <c r="B102" s="4"/>
       <c r="C102" s="5"/>
@@ -4002,12 +3828,11 @@
       <c r="G102" s="5"/>
       <c r="H102" s="7"/>
       <c r="I102" s="8"/>
-      <c r="J102" s="8"/>
+      <c r="J102" s="5"/>
       <c r="K102" s="5"/>
       <c r="L102" s="5"/>
-      <c r="M102" s="5"/>
-    </row>
-    <row r="103" spans="1:13" ht="77.7" customHeight="1">
+    </row>
+    <row r="103" spans="1:12" ht="77.7" customHeight="1">
       <c r="A103" s="3"/>
       <c r="B103" s="4"/>
       <c r="C103" s="5"/>
@@ -4017,12 +3842,11 @@
       <c r="G103" s="5"/>
       <c r="H103" s="7"/>
       <c r="I103" s="8"/>
-      <c r="J103" s="8"/>
+      <c r="J103" s="5"/>
       <c r="K103" s="5"/>
       <c r="L103" s="5"/>
-      <c r="M103" s="5"/>
-    </row>
-    <row r="104" spans="1:13" ht="97.65" customHeight="1">
+    </row>
+    <row r="104" spans="1:12" ht="97.65" customHeight="1">
       <c r="A104" s="3"/>
       <c r="B104" s="4"/>
       <c r="C104" s="5"/>
@@ -4032,12 +3856,11 @@
       <c r="G104" s="5"/>
       <c r="H104" s="7"/>
       <c r="I104" s="8"/>
-      <c r="J104" s="8"/>
+      <c r="J104" s="5"/>
       <c r="K104" s="5"/>
       <c r="L104" s="5"/>
-      <c r="M104" s="5"/>
-    </row>
-    <row r="105" spans="1:13" ht="61.65" customHeight="1">
+    </row>
+    <row r="105" spans="1:12" ht="61.65" customHeight="1">
       <c r="A105" s="3"/>
       <c r="B105" s="4"/>
       <c r="C105" s="5"/>
@@ -4047,12 +3870,11 @@
       <c r="G105" s="5"/>
       <c r="H105" s="7"/>
       <c r="I105" s="8"/>
-      <c r="J105" s="8"/>
+      <c r="J105" s="5"/>
       <c r="K105" s="5"/>
       <c r="L105" s="5"/>
-      <c r="M105" s="5"/>
-    </row>
-    <row r="106" spans="1:13" ht="150" customHeight="1">
+    </row>
+    <row r="106" spans="1:12" ht="150" customHeight="1">
       <c r="A106" s="3"/>
       <c r="B106" s="4"/>
       <c r="C106" s="5"/>
@@ -4062,12 +3884,11 @@
       <c r="G106" s="5"/>
       <c r="H106" s="7"/>
       <c r="I106" s="8"/>
-      <c r="J106" s="8"/>
+      <c r="J106" s="5"/>
       <c r="K106" s="5"/>
       <c r="L106" s="5"/>
-      <c r="M106" s="5"/>
-    </row>
-    <row r="107" spans="1:13" ht="150" customHeight="1">
+    </row>
+    <row r="107" spans="1:12" ht="150" customHeight="1">
       <c r="A107" s="3"/>
       <c r="B107" s="4"/>
       <c r="C107" s="5"/>
@@ -4077,12 +3898,11 @@
       <c r="G107" s="5"/>
       <c r="H107" s="7"/>
       <c r="I107" s="8"/>
-      <c r="J107" s="8"/>
+      <c r="J107" s="5"/>
       <c r="K107" s="5"/>
       <c r="L107" s="5"/>
-      <c r="M107" s="5"/>
-    </row>
-    <row r="108" spans="1:13" ht="150" customHeight="1">
+    </row>
+    <row r="108" spans="1:12" ht="150" customHeight="1">
       <c r="A108" s="3"/>
       <c r="B108" s="4"/>
       <c r="C108" s="5"/>
@@ -4092,12 +3912,11 @@
       <c r="G108" s="5"/>
       <c r="H108" s="7"/>
       <c r="I108" s="8"/>
-      <c r="J108" s="8"/>
+      <c r="J108" s="5"/>
       <c r="K108" s="5"/>
       <c r="L108" s="5"/>
-      <c r="M108" s="5"/>
-    </row>
-    <row r="109" spans="1:13" ht="150" customHeight="1">
+    </row>
+    <row r="109" spans="1:12" ht="150" customHeight="1">
       <c r="A109" s="3"/>
       <c r="B109" s="4"/>
       <c r="C109" s="5"/>
@@ -4107,12 +3926,11 @@
       <c r="G109" s="5"/>
       <c r="H109" s="7"/>
       <c r="I109" s="8"/>
-      <c r="J109" s="8"/>
+      <c r="J109" s="5"/>
       <c r="K109" s="5"/>
       <c r="L109" s="5"/>
-      <c r="M109" s="5"/>
-    </row>
-    <row r="110" spans="1:13" ht="150" customHeight="1">
+    </row>
+    <row r="110" spans="1:12" ht="150" customHeight="1">
       <c r="A110" s="3"/>
       <c r="B110" s="4"/>
       <c r="C110" s="5"/>
@@ -4122,12 +3940,11 @@
       <c r="G110" s="5"/>
       <c r="H110" s="7"/>
       <c r="I110" s="8"/>
-      <c r="J110" s="8"/>
+      <c r="J110" s="5"/>
       <c r="K110" s="5"/>
       <c r="L110" s="5"/>
-      <c r="M110" s="5"/>
-    </row>
-    <row r="111" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="111" spans="1:12" ht="49.65" customHeight="1">
       <c r="A111" s="3"/>
       <c r="B111" s="4"/>
       <c r="C111" s="5"/>
@@ -4137,12 +3954,11 @@
       <c r="G111" s="5"/>
       <c r="H111" s="7"/>
       <c r="I111" s="8"/>
-      <c r="J111" s="8"/>
+      <c r="J111" s="5"/>
       <c r="K111" s="5"/>
       <c r="L111" s="5"/>
-      <c r="M111" s="5"/>
-    </row>
-    <row r="112" spans="1:13" ht="76.05" customHeight="1">
+    </row>
+    <row r="112" spans="1:12" ht="76.05" customHeight="1">
       <c r="A112" s="3"/>
       <c r="B112" s="4"/>
       <c r="C112" s="5"/>
@@ -4152,12 +3968,11 @@
       <c r="G112" s="5"/>
       <c r="H112" s="7"/>
       <c r="I112" s="8"/>
-      <c r="J112" s="8"/>
+      <c r="J112" s="5"/>
       <c r="K112" s="5"/>
       <c r="L112" s="5"/>
-      <c r="M112" s="5"/>
-    </row>
-    <row r="113" spans="1:13" ht="76.05" customHeight="1">
+    </row>
+    <row r="113" spans="1:12" ht="76.05" customHeight="1">
       <c r="A113" s="3"/>
       <c r="B113" s="4"/>
       <c r="C113" s="5"/>
@@ -4167,12 +3982,11 @@
       <c r="G113" s="5"/>
       <c r="H113" s="7"/>
       <c r="I113" s="8"/>
-      <c r="J113" s="8"/>
+      <c r="J113" s="5"/>
       <c r="K113" s="5"/>
       <c r="L113" s="5"/>
-      <c r="M113" s="5"/>
-    </row>
-    <row r="114" spans="1:13" ht="76.05" customHeight="1">
+    </row>
+    <row r="114" spans="1:12" ht="76.05" customHeight="1">
       <c r="A114" s="3"/>
       <c r="B114" s="4"/>
       <c r="C114" s="5"/>
@@ -4182,12 +3996,11 @@
       <c r="G114" s="5"/>
       <c r="H114" s="7"/>
       <c r="I114" s="8"/>
-      <c r="J114" s="8"/>
+      <c r="J114" s="5"/>
       <c r="K114" s="5"/>
       <c r="L114" s="5"/>
-      <c r="M114" s="5"/>
-    </row>
-    <row r="115" spans="1:13" ht="76.05" customHeight="1">
+    </row>
+    <row r="115" spans="1:12" ht="76.05" customHeight="1">
       <c r="A115" s="3"/>
       <c r="B115" s="4"/>
       <c r="C115" s="5"/>
@@ -4197,12 +4010,11 @@
       <c r="G115" s="5"/>
       <c r="H115" s="7"/>
       <c r="I115" s="8"/>
-      <c r="J115" s="8"/>
+      <c r="J115" s="5"/>
       <c r="K115" s="5"/>
       <c r="L115" s="5"/>
-      <c r="M115" s="5"/>
-    </row>
-    <row r="116" spans="1:13" ht="76.05" customHeight="1">
+    </row>
+    <row r="116" spans="1:12" ht="76.05" customHeight="1">
       <c r="A116" s="3"/>
       <c r="B116" s="4"/>
       <c r="C116" s="5"/>
@@ -4212,12 +4024,11 @@
       <c r="G116" s="5"/>
       <c r="H116" s="7"/>
       <c r="I116" s="8"/>
-      <c r="J116" s="8"/>
+      <c r="J116" s="5"/>
       <c r="K116" s="5"/>
       <c r="L116" s="5"/>
-      <c r="M116" s="5"/>
-    </row>
-    <row r="117" spans="1:13" ht="104.1" customHeight="1">
+    </row>
+    <row r="117" spans="1:12" ht="104.1" customHeight="1">
       <c r="A117" s="3"/>
       <c r="B117" s="4"/>
       <c r="C117" s="5"/>
@@ -4227,12 +4038,11 @@
       <c r="G117" s="5"/>
       <c r="H117" s="7"/>
       <c r="I117" s="8"/>
-      <c r="J117" s="8"/>
+      <c r="J117" s="5"/>
       <c r="K117" s="5"/>
       <c r="L117" s="5"/>
-      <c r="M117" s="5"/>
-    </row>
-    <row r="118" spans="1:13" ht="104.1" customHeight="1">
+    </row>
+    <row r="118" spans="1:12" ht="104.1" customHeight="1">
       <c r="A118" s="3"/>
       <c r="B118" s="4"/>
       <c r="C118" s="5"/>
@@ -4242,12 +4052,11 @@
       <c r="G118" s="5"/>
       <c r="H118" s="7"/>
       <c r="I118" s="8"/>
-      <c r="J118" s="8"/>
+      <c r="J118" s="5"/>
       <c r="K118" s="5"/>
       <c r="L118" s="5"/>
-      <c r="M118" s="5"/>
-    </row>
-    <row r="119" spans="1:13" ht="104.1" customHeight="1">
+    </row>
+    <row r="119" spans="1:12" ht="104.1" customHeight="1">
       <c r="A119" s="3"/>
       <c r="B119" s="4"/>
       <c r="C119" s="5"/>
@@ -4257,12 +4066,11 @@
       <c r="G119" s="5"/>
       <c r="H119" s="7"/>
       <c r="I119" s="8"/>
-      <c r="J119" s="8"/>
+      <c r="J119" s="5"/>
       <c r="K119" s="5"/>
       <c r="L119" s="5"/>
-      <c r="M119" s="5"/>
-    </row>
-    <row r="120" spans="1:13" ht="104.1" customHeight="1">
+    </row>
+    <row r="120" spans="1:12" ht="104.1" customHeight="1">
       <c r="A120" s="3"/>
       <c r="B120" s="4"/>
       <c r="C120" s="5"/>
@@ -4272,12 +4080,11 @@
       <c r="G120" s="5"/>
       <c r="H120" s="7"/>
       <c r="I120" s="8"/>
-      <c r="J120" s="8"/>
+      <c r="J120" s="5"/>
       <c r="K120" s="5"/>
       <c r="L120" s="5"/>
-      <c r="M120" s="5"/>
-    </row>
-    <row r="121" spans="1:13" ht="104.1" customHeight="1">
+    </row>
+    <row r="121" spans="1:12" ht="104.1" customHeight="1">
       <c r="A121" s="3"/>
       <c r="B121" s="4"/>
       <c r="C121" s="5"/>
@@ -4287,12 +4094,11 @@
       <c r="G121" s="5"/>
       <c r="H121" s="7"/>
       <c r="I121" s="8"/>
-      <c r="J121" s="8"/>
+      <c r="J121" s="5"/>
       <c r="K121" s="5"/>
       <c r="L121" s="5"/>
-      <c r="M121" s="5"/>
-    </row>
-    <row r="122" spans="1:13" ht="61.65" customHeight="1">
+    </row>
+    <row r="122" spans="1:12" ht="61.65" customHeight="1">
       <c r="A122" s="3"/>
       <c r="B122" s="4"/>
       <c r="C122" s="5"/>
@@ -4302,12 +4108,11 @@
       <c r="G122" s="5"/>
       <c r="H122" s="7"/>
       <c r="I122" s="8"/>
-      <c r="J122" s="8"/>
+      <c r="J122" s="5"/>
       <c r="K122" s="5"/>
       <c r="L122" s="5"/>
-      <c r="M122" s="5"/>
-    </row>
-    <row r="123" spans="1:13" ht="35.700000000000003" customHeight="1">
+    </row>
+    <row r="123" spans="1:12" ht="35.700000000000003" customHeight="1">
       <c r="A123" s="3"/>
       <c r="B123" s="4"/>
       <c r="C123" s="5"/>
@@ -4317,12 +4122,11 @@
       <c r="G123" s="5"/>
       <c r="H123" s="7"/>
       <c r="I123" s="8"/>
-      <c r="J123" s="8"/>
+      <c r="J123" s="5"/>
       <c r="K123" s="5"/>
       <c r="L123" s="5"/>
-      <c r="M123" s="5"/>
-    </row>
-    <row r="124" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="124" spans="1:12" ht="49.65" customHeight="1">
       <c r="A124" s="3"/>
       <c r="B124" s="4"/>
       <c r="C124" s="5"/>
@@ -4332,12 +4136,11 @@
       <c r="G124" s="5"/>
       <c r="H124" s="7"/>
       <c r="I124" s="8"/>
-      <c r="J124" s="8"/>
+      <c r="J124" s="5"/>
       <c r="K124" s="5"/>
       <c r="L124" s="5"/>
-      <c r="M124" s="5"/>
-    </row>
-    <row r="125" spans="1:13" ht="59.7" customHeight="1">
+    </row>
+    <row r="125" spans="1:12" ht="59.7" customHeight="1">
       <c r="A125" s="3"/>
       <c r="B125" s="4"/>
       <c r="C125" s="5"/>
@@ -4347,12 +4150,11 @@
       <c r="G125" s="5"/>
       <c r="H125" s="7"/>
       <c r="I125" s="8"/>
-      <c r="J125" s="8"/>
+      <c r="J125" s="5"/>
       <c r="K125" s="5"/>
       <c r="L125" s="5"/>
-      <c r="M125" s="5"/>
-    </row>
-    <row r="126" spans="1:13" ht="59.7" customHeight="1">
+    </row>
+    <row r="126" spans="1:12" ht="59.7" customHeight="1">
       <c r="A126" s="3"/>
       <c r="B126" s="4"/>
       <c r="C126" s="5"/>
@@ -4362,12 +4164,11 @@
       <c r="G126" s="5"/>
       <c r="H126" s="7"/>
       <c r="I126" s="8"/>
-      <c r="J126" s="8"/>
+      <c r="J126" s="5"/>
       <c r="K126" s="5"/>
       <c r="L126" s="5"/>
-      <c r="M126" s="5"/>
-    </row>
-    <row r="127" spans="1:13" ht="74.099999999999994" customHeight="1">
+    </row>
+    <row r="127" spans="1:12" ht="74.099999999999994" customHeight="1">
       <c r="A127" s="3"/>
       <c r="B127" s="4"/>
       <c r="C127" s="5"/>
@@ -4377,12 +4178,11 @@
       <c r="G127" s="5"/>
       <c r="H127" s="7"/>
       <c r="I127" s="8"/>
-      <c r="J127" s="8"/>
+      <c r="J127" s="5"/>
       <c r="K127" s="5"/>
       <c r="L127" s="5"/>
-      <c r="M127" s="5"/>
-    </row>
-    <row r="128" spans="1:13" ht="74.099999999999994" customHeight="1">
+    </row>
+    <row r="128" spans="1:12" ht="74.099999999999994" customHeight="1">
       <c r="A128" s="3"/>
       <c r="B128" s="4"/>
       <c r="C128" s="5"/>
@@ -4392,12 +4192,11 @@
       <c r="G128" s="5"/>
       <c r="H128" s="7"/>
       <c r="I128" s="8"/>
-      <c r="J128" s="8"/>
+      <c r="J128" s="5"/>
       <c r="K128" s="5"/>
       <c r="L128" s="5"/>
-      <c r="M128" s="5"/>
-    </row>
-    <row r="129" spans="1:13" ht="74.099999999999994" customHeight="1">
+    </row>
+    <row r="129" spans="1:12" ht="74.099999999999994" customHeight="1">
       <c r="A129" s="3"/>
       <c r="B129" s="4"/>
       <c r="C129" s="5"/>
@@ -4407,12 +4206,11 @@
       <c r="G129" s="5"/>
       <c r="H129" s="7"/>
       <c r="I129" s="8"/>
-      <c r="J129" s="8"/>
+      <c r="J129" s="5"/>
       <c r="K129" s="5"/>
       <c r="L129" s="5"/>
-      <c r="M129" s="5"/>
-    </row>
-    <row r="130" spans="1:13" ht="74.099999999999994" customHeight="1">
+    </row>
+    <row r="130" spans="1:12" ht="74.099999999999994" customHeight="1">
       <c r="A130" s="3"/>
       <c r="B130" s="4"/>
       <c r="C130" s="5"/>
@@ -4422,12 +4220,11 @@
       <c r="G130" s="5"/>
       <c r="H130" s="7"/>
       <c r="I130" s="8"/>
-      <c r="J130" s="8"/>
+      <c r="J130" s="5"/>
       <c r="K130" s="5"/>
       <c r="L130" s="5"/>
-      <c r="M130" s="5"/>
-    </row>
-    <row r="131" spans="1:13" ht="89.7" customHeight="1">
+    </row>
+    <row r="131" spans="1:12" ht="89.7" customHeight="1">
       <c r="A131" s="3"/>
       <c r="B131" s="4"/>
       <c r="C131" s="5"/>
@@ -4437,12 +4234,11 @@
       <c r="G131" s="5"/>
       <c r="H131" s="7"/>
       <c r="I131" s="8"/>
-      <c r="J131" s="8"/>
+      <c r="J131" s="5"/>
       <c r="K131" s="5"/>
       <c r="L131" s="5"/>
-      <c r="M131" s="5"/>
-    </row>
-    <row r="132" spans="1:13" ht="63.6" customHeight="1">
+    </row>
+    <row r="132" spans="1:12" ht="63.6" customHeight="1">
       <c r="A132" s="3"/>
       <c r="B132" s="4"/>
       <c r="C132" s="5"/>
@@ -4452,12 +4248,11 @@
       <c r="G132" s="5"/>
       <c r="H132" s="7"/>
       <c r="I132" s="8"/>
-      <c r="J132" s="8"/>
+      <c r="J132" s="5"/>
       <c r="K132" s="5"/>
       <c r="L132" s="5"/>
-      <c r="M132" s="5"/>
-    </row>
-    <row r="133" spans="1:13" ht="63.6" customHeight="1">
+    </row>
+    <row r="133" spans="1:12" ht="63.6" customHeight="1">
       <c r="A133" s="3"/>
       <c r="B133" s="4"/>
       <c r="C133" s="5"/>
@@ -4467,12 +4262,11 @@
       <c r="G133" s="5"/>
       <c r="H133" s="7"/>
       <c r="I133" s="8"/>
-      <c r="J133" s="8"/>
+      <c r="J133" s="5"/>
       <c r="K133" s="5"/>
       <c r="L133" s="5"/>
-      <c r="M133" s="5"/>
-    </row>
-    <row r="134" spans="1:13" ht="63.6" customHeight="1">
+    </row>
+    <row r="134" spans="1:12" ht="63.6" customHeight="1">
       <c r="A134" s="3"/>
       <c r="B134" s="4"/>
       <c r="C134" s="5"/>
@@ -4482,12 +4276,11 @@
       <c r="G134" s="5"/>
       <c r="H134" s="7"/>
       <c r="I134" s="8"/>
-      <c r="J134" s="8"/>
+      <c r="J134" s="5"/>
       <c r="K134" s="5"/>
       <c r="L134" s="5"/>
-      <c r="M134" s="5"/>
-    </row>
-    <row r="135" spans="1:13" ht="63.6" customHeight="1">
+    </row>
+    <row r="135" spans="1:12" ht="63.6" customHeight="1">
       <c r="A135" s="3"/>
       <c r="B135" s="4"/>
       <c r="C135" s="5"/>
@@ -4497,12 +4290,11 @@
       <c r="G135" s="5"/>
       <c r="H135" s="7"/>
       <c r="I135" s="8"/>
-      <c r="J135" s="8"/>
+      <c r="J135" s="5"/>
       <c r="K135" s="5"/>
       <c r="L135" s="5"/>
-      <c r="M135" s="5"/>
-    </row>
-    <row r="136" spans="1:13" ht="63.6" customHeight="1">
+    </row>
+    <row r="136" spans="1:12" ht="63.6" customHeight="1">
       <c r="A136" s="3"/>
       <c r="B136" s="4"/>
       <c r="C136" s="5"/>
@@ -4512,12 +4304,11 @@
       <c r="G136" s="5"/>
       <c r="H136" s="7"/>
       <c r="I136" s="8"/>
-      <c r="J136" s="8"/>
+      <c r="J136" s="5"/>
       <c r="K136" s="5"/>
       <c r="L136" s="5"/>
-      <c r="M136" s="5"/>
-    </row>
-    <row r="137" spans="1:13" ht="77.7" customHeight="1">
+    </row>
+    <row r="137" spans="1:12" ht="77.7" customHeight="1">
       <c r="A137" s="3"/>
       <c r="B137" s="4"/>
       <c r="C137" s="5"/>
@@ -4527,12 +4318,11 @@
       <c r="G137" s="5"/>
       <c r="H137" s="7"/>
       <c r="I137" s="8"/>
-      <c r="J137" s="8"/>
+      <c r="J137" s="5"/>
       <c r="K137" s="5"/>
       <c r="L137" s="5"/>
-      <c r="M137" s="5"/>
-    </row>
-    <row r="138" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="138" spans="1:12" ht="49.65" customHeight="1">
       <c r="A138" s="3"/>
       <c r="B138" s="4"/>
       <c r="C138" s="5"/>
@@ -4542,12 +4332,11 @@
       <c r="G138" s="5"/>
       <c r="H138" s="7"/>
       <c r="I138" s="8"/>
-      <c r="J138" s="8"/>
+      <c r="J138" s="5"/>
       <c r="K138" s="5"/>
       <c r="L138" s="5"/>
-      <c r="M138" s="5"/>
-    </row>
-    <row r="139" spans="1:13" ht="63.6" customHeight="1">
+    </row>
+    <row r="139" spans="1:12" ht="63.6" customHeight="1">
       <c r="A139" s="3"/>
       <c r="B139" s="4"/>
       <c r="C139" s="5"/>
@@ -4557,12 +4346,11 @@
       <c r="G139" s="5"/>
       <c r="H139" s="7"/>
       <c r="I139" s="8"/>
-      <c r="J139" s="8"/>
+      <c r="J139" s="5"/>
       <c r="K139" s="5"/>
-      <c r="L139" s="5"/>
-      <c r="M139" s="9"/>
-    </row>
-    <row r="140" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L139" s="9"/>
+    </row>
+    <row r="140" spans="1:12" ht="49.65" customHeight="1">
       <c r="A140" s="3"/>
       <c r="B140" s="4"/>
       <c r="C140" s="5"/>
@@ -4572,12 +4360,11 @@
       <c r="G140" s="5"/>
       <c r="H140" s="7"/>
       <c r="I140" s="8"/>
-      <c r="J140" s="8"/>
+      <c r="J140" s="5"/>
       <c r="K140" s="5"/>
-      <c r="L140" s="5"/>
-      <c r="M140" s="9"/>
-    </row>
-    <row r="141" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L140" s="9"/>
+    </row>
+    <row r="141" spans="1:12" ht="49.65" customHeight="1">
       <c r="A141" s="3"/>
       <c r="B141" s="4"/>
       <c r="C141" s="5"/>
@@ -4587,12 +4374,11 @@
       <c r="G141" s="5"/>
       <c r="H141" s="7"/>
       <c r="I141" s="8"/>
-      <c r="J141" s="8"/>
+      <c r="J141" s="5"/>
       <c r="K141" s="5"/>
       <c r="L141" s="5"/>
-      <c r="M141" s="5"/>
-    </row>
-    <row r="142" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="142" spans="1:12" ht="49.65" customHeight="1">
       <c r="A142" s="10"/>
       <c r="B142" s="4"/>
       <c r="C142" s="5"/>
@@ -4602,12 +4388,11 @@
       <c r="G142" s="5"/>
       <c r="H142" s="7"/>
       <c r="I142" s="8"/>
-      <c r="J142" s="8"/>
+      <c r="J142" s="9"/>
       <c r="K142" s="9"/>
-      <c r="L142" s="9"/>
-      <c r="M142" s="5"/>
-    </row>
-    <row r="143" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L142" s="5"/>
+    </row>
+    <row r="143" spans="1:12" ht="49.65" customHeight="1">
       <c r="A143" s="10"/>
       <c r="B143" s="4"/>
       <c r="C143" s="5"/>
@@ -4617,12 +4402,11 @@
       <c r="G143" s="5"/>
       <c r="H143" s="7"/>
       <c r="I143" s="8"/>
-      <c r="J143" s="8"/>
+      <c r="J143" s="9"/>
       <c r="K143" s="9"/>
-      <c r="L143" s="9"/>
-      <c r="M143" s="5"/>
-    </row>
-    <row r="144" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L143" s="5"/>
+    </row>
+    <row r="144" spans="1:12" ht="49.65" customHeight="1">
       <c r="A144" s="10"/>
       <c r="B144" s="4"/>
       <c r="C144" s="5"/>
@@ -4632,12 +4416,11 @@
       <c r="G144" s="5"/>
       <c r="H144" s="7"/>
       <c r="I144" s="8"/>
-      <c r="J144" s="8"/>
+      <c r="J144" s="9"/>
       <c r="K144" s="9"/>
-      <c r="L144" s="9"/>
-      <c r="M144" s="5"/>
-    </row>
-    <row r="145" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L144" s="5"/>
+    </row>
+    <row r="145" spans="1:12" ht="49.65" customHeight="1">
       <c r="A145" s="10"/>
       <c r="B145" s="4"/>
       <c r="C145" s="5"/>
@@ -4647,12 +4430,11 @@
       <c r="G145" s="5"/>
       <c r="H145" s="7"/>
       <c r="I145" s="8"/>
-      <c r="J145" s="8"/>
+      <c r="J145" s="9"/>
       <c r="K145" s="9"/>
-      <c r="L145" s="9"/>
-      <c r="M145" s="5"/>
-    </row>
-    <row r="146" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L145" s="5"/>
+    </row>
+    <row r="146" spans="1:12" ht="49.65" customHeight="1">
       <c r="A146" s="10"/>
       <c r="B146" s="4"/>
       <c r="C146" s="5"/>
@@ -4662,12 +4444,11 @@
       <c r="G146" s="5"/>
       <c r="H146" s="7"/>
       <c r="I146" s="8"/>
-      <c r="J146" s="8"/>
+      <c r="J146" s="9"/>
       <c r="K146" s="9"/>
-      <c r="L146" s="9"/>
-      <c r="M146" s="5"/>
-    </row>
-    <row r="147" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L146" s="5"/>
+    </row>
+    <row r="147" spans="1:12" ht="49.65" customHeight="1">
       <c r="A147" s="10"/>
       <c r="B147" s="4"/>
       <c r="C147" s="5"/>
@@ -4677,12 +4458,11 @@
       <c r="G147" s="5"/>
       <c r="H147" s="7"/>
       <c r="I147" s="8"/>
-      <c r="J147" s="8"/>
+      <c r="J147" s="9"/>
       <c r="K147" s="9"/>
-      <c r="L147" s="9"/>
-      <c r="M147" s="5"/>
-    </row>
-    <row r="148" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L147" s="5"/>
+    </row>
+    <row r="148" spans="1:12" ht="49.65" customHeight="1">
       <c r="A148" s="10"/>
       <c r="B148" s="4"/>
       <c r="C148" s="5"/>
@@ -4692,12 +4472,11 @@
       <c r="G148" s="5"/>
       <c r="H148" s="7"/>
       <c r="I148" s="8"/>
-      <c r="J148" s="8"/>
+      <c r="J148" s="9"/>
       <c r="K148" s="9"/>
-      <c r="L148" s="9"/>
-      <c r="M148" s="5"/>
-    </row>
-    <row r="149" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L148" s="5"/>
+    </row>
+    <row r="149" spans="1:12" ht="49.65" customHeight="1">
       <c r="A149" s="10"/>
       <c r="B149" s="4"/>
       <c r="C149" s="5"/>
@@ -4707,12 +4486,11 @@
       <c r="G149" s="5"/>
       <c r="H149" s="7"/>
       <c r="I149" s="8"/>
-      <c r="J149" s="8"/>
+      <c r="J149" s="9"/>
       <c r="K149" s="9"/>
-      <c r="L149" s="9"/>
-      <c r="M149" s="5"/>
-    </row>
-    <row r="150" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L149" s="5"/>
+    </row>
+    <row r="150" spans="1:12" ht="49.65" customHeight="1">
       <c r="A150" s="10"/>
       <c r="B150" s="4"/>
       <c r="C150" s="5"/>
@@ -4722,12 +4500,11 @@
       <c r="G150" s="5"/>
       <c r="H150" s="7"/>
       <c r="I150" s="8"/>
-      <c r="J150" s="8"/>
+      <c r="J150" s="9"/>
       <c r="K150" s="9"/>
-      <c r="L150" s="9"/>
-      <c r="M150" s="5"/>
-    </row>
-    <row r="151" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L150" s="5"/>
+    </row>
+    <row r="151" spans="1:12" ht="49.65" customHeight="1">
       <c r="A151" s="10"/>
       <c r="B151" s="4"/>
       <c r="C151" s="5"/>
@@ -4737,12 +4514,11 @@
       <c r="G151" s="5"/>
       <c r="H151" s="7"/>
       <c r="I151" s="8"/>
-      <c r="J151" s="8"/>
+      <c r="J151" s="9"/>
       <c r="K151" s="9"/>
-      <c r="L151" s="9"/>
-      <c r="M151" s="5"/>
-    </row>
-    <row r="152" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L151" s="5"/>
+    </row>
+    <row r="152" spans="1:12" ht="49.65" customHeight="1">
       <c r="A152" s="10"/>
       <c r="B152" s="4"/>
       <c r="C152" s="5"/>
@@ -4752,12 +4528,11 @@
       <c r="G152" s="5"/>
       <c r="H152" s="7"/>
       <c r="I152" s="8"/>
-      <c r="J152" s="8"/>
+      <c r="J152" s="9"/>
       <c r="K152" s="9"/>
-      <c r="L152" s="9"/>
-      <c r="M152" s="5"/>
-    </row>
-    <row r="153" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L152" s="5"/>
+    </row>
+    <row r="153" spans="1:12" ht="49.65" customHeight="1">
       <c r="A153" s="10"/>
       <c r="B153" s="4"/>
       <c r="C153" s="5"/>
@@ -4767,12 +4542,11 @@
       <c r="G153" s="5"/>
       <c r="H153" s="7"/>
       <c r="I153" s="8"/>
-      <c r="J153" s="8"/>
+      <c r="J153" s="9"/>
       <c r="K153" s="9"/>
-      <c r="L153" s="9"/>
-      <c r="M153" s="5"/>
-    </row>
-    <row r="154" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L153" s="5"/>
+    </row>
+    <row r="154" spans="1:12" ht="49.65" customHeight="1">
       <c r="A154" s="10"/>
       <c r="B154" s="4"/>
       <c r="C154" s="5"/>
@@ -4782,12 +4556,11 @@
       <c r="G154" s="5"/>
       <c r="H154" s="7"/>
       <c r="I154" s="8"/>
-      <c r="J154" s="8"/>
+      <c r="J154" s="9"/>
       <c r="K154" s="9"/>
-      <c r="L154" s="9"/>
-      <c r="M154" s="5"/>
-    </row>
-    <row r="155" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L154" s="5"/>
+    </row>
+    <row r="155" spans="1:12" ht="49.65" customHeight="1">
       <c r="A155" s="10"/>
       <c r="B155" s="4"/>
       <c r="C155" s="5"/>
@@ -4797,12 +4570,11 @@
       <c r="G155" s="5"/>
       <c r="H155" s="7"/>
       <c r="I155" s="8"/>
-      <c r="J155" s="8"/>
+      <c r="J155" s="9"/>
       <c r="K155" s="9"/>
-      <c r="L155" s="9"/>
-      <c r="M155" s="5"/>
-    </row>
-    <row r="156" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L155" s="5"/>
+    </row>
+    <row r="156" spans="1:12" ht="49.65" customHeight="1">
       <c r="A156" s="10"/>
       <c r="B156" s="4"/>
       <c r="C156" s="5"/>
@@ -4812,12 +4584,11 @@
       <c r="G156" s="5"/>
       <c r="H156" s="7"/>
       <c r="I156" s="8"/>
-      <c r="J156" s="8"/>
+      <c r="J156" s="9"/>
       <c r="K156" s="9"/>
-      <c r="L156" s="9"/>
-      <c r="M156" s="5"/>
-    </row>
-    <row r="157" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L156" s="5"/>
+    </row>
+    <row r="157" spans="1:12" ht="49.65" customHeight="1">
       <c r="A157" s="10"/>
       <c r="B157" s="4"/>
       <c r="C157" s="5"/>
@@ -4827,12 +4598,11 @@
       <c r="G157" s="5"/>
       <c r="H157" s="7"/>
       <c r="I157" s="8"/>
-      <c r="J157" s="8"/>
+      <c r="J157" s="9"/>
       <c r="K157" s="9"/>
-      <c r="L157" s="9"/>
-      <c r="M157" s="5"/>
-    </row>
-    <row r="158" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L157" s="5"/>
+    </row>
+    <row r="158" spans="1:12" ht="49.65" customHeight="1">
       <c r="A158" s="10"/>
       <c r="B158" s="4"/>
       <c r="C158" s="5"/>
@@ -4842,12 +4612,11 @@
       <c r="G158" s="5"/>
       <c r="H158" s="7"/>
       <c r="I158" s="8"/>
-      <c r="J158" s="8"/>
+      <c r="J158" s="9"/>
       <c r="K158" s="9"/>
-      <c r="L158" s="9"/>
-      <c r="M158" s="5"/>
-    </row>
-    <row r="159" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L158" s="5"/>
+    </row>
+    <row r="159" spans="1:12" ht="49.65" customHeight="1">
       <c r="A159" s="10"/>
       <c r="B159" s="4"/>
       <c r="C159" s="5"/>
@@ -4857,12 +4626,11 @@
       <c r="G159" s="5"/>
       <c r="H159" s="7"/>
       <c r="I159" s="8"/>
-      <c r="J159" s="8"/>
+      <c r="J159" s="9"/>
       <c r="K159" s="9"/>
-      <c r="L159" s="9"/>
-      <c r="M159" s="5"/>
-    </row>
-    <row r="160" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L159" s="5"/>
+    </row>
+    <row r="160" spans="1:12" ht="49.65" customHeight="1">
       <c r="A160" s="10"/>
       <c r="B160" s="4"/>
       <c r="C160" s="5"/>
@@ -4872,12 +4640,11 @@
       <c r="G160" s="5"/>
       <c r="H160" s="7"/>
       <c r="I160" s="8"/>
-      <c r="J160" s="8"/>
+      <c r="J160" s="9"/>
       <c r="K160" s="9"/>
-      <c r="L160" s="9"/>
-      <c r="M160" s="5"/>
-    </row>
-    <row r="161" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L160" s="5"/>
+    </row>
+    <row r="161" spans="1:12" ht="49.65" customHeight="1">
       <c r="A161" s="10"/>
       <c r="B161" s="4"/>
       <c r="C161" s="5"/>
@@ -4887,12 +4654,11 @@
       <c r="G161" s="5"/>
       <c r="H161" s="7"/>
       <c r="I161" s="8"/>
-      <c r="J161" s="8"/>
+      <c r="J161" s="9"/>
       <c r="K161" s="9"/>
-      <c r="L161" s="9"/>
-      <c r="M161" s="5"/>
-    </row>
-    <row r="162" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L161" s="5"/>
+    </row>
+    <row r="162" spans="1:12" ht="49.65" customHeight="1">
       <c r="A162" s="10"/>
       <c r="B162" s="4"/>
       <c r="C162" s="5"/>
@@ -4902,12 +4668,11 @@
       <c r="G162" s="5"/>
       <c r="H162" s="7"/>
       <c r="I162" s="8"/>
-      <c r="J162" s="8"/>
+      <c r="J162" s="9"/>
       <c r="K162" s="9"/>
       <c r="L162" s="9"/>
-      <c r="M162" s="9"/>
-    </row>
-    <row r="163" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="163" spans="1:12" ht="49.65" customHeight="1">
       <c r="A163" s="10"/>
       <c r="B163" s="4"/>
       <c r="C163" s="5"/>
@@ -4917,12 +4682,11 @@
       <c r="G163" s="5"/>
       <c r="H163" s="7"/>
       <c r="I163" s="8"/>
-      <c r="J163" s="8"/>
+      <c r="J163" s="9"/>
       <c r="K163" s="9"/>
       <c r="L163" s="9"/>
-      <c r="M163" s="9"/>
-    </row>
-    <row r="164" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="164" spans="1:12" ht="49.65" customHeight="1">
       <c r="A164" s="10"/>
       <c r="B164" s="4"/>
       <c r="C164" s="5"/>
@@ -4932,12 +4696,11 @@
       <c r="G164" s="5"/>
       <c r="H164" s="7"/>
       <c r="I164" s="8"/>
-      <c r="J164" s="8"/>
+      <c r="J164" s="9"/>
       <c r="K164" s="9"/>
-      <c r="L164" s="9"/>
-      <c r="M164" s="5"/>
-    </row>
-    <row r="165" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L164" s="5"/>
+    </row>
+    <row r="165" spans="1:12" ht="49.65" customHeight="1">
       <c r="A165" s="10"/>
       <c r="B165" s="4"/>
       <c r="C165" s="5"/>
@@ -4947,12 +4710,11 @@
       <c r="G165" s="5"/>
       <c r="H165" s="7"/>
       <c r="I165" s="8"/>
-      <c r="J165" s="8"/>
+      <c r="J165" s="9"/>
       <c r="K165" s="9"/>
-      <c r="L165" s="9"/>
-      <c r="M165" s="5"/>
-    </row>
-    <row r="166" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L165" s="5"/>
+    </row>
+    <row r="166" spans="1:12" ht="49.65" customHeight="1">
       <c r="A166" s="10"/>
       <c r="B166" s="4"/>
       <c r="C166" s="5"/>
@@ -4962,12 +4724,11 @@
       <c r="G166" s="5"/>
       <c r="H166" s="7"/>
       <c r="I166" s="8"/>
-      <c r="J166" s="8"/>
+      <c r="J166" s="9"/>
       <c r="K166" s="9"/>
-      <c r="L166" s="9"/>
-      <c r="M166" s="5"/>
-    </row>
-    <row r="167" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L166" s="5"/>
+    </row>
+    <row r="167" spans="1:12" ht="49.65" customHeight="1">
       <c r="A167" s="10"/>
       <c r="B167" s="4"/>
       <c r="C167" s="5"/>
@@ -4977,12 +4738,11 @@
       <c r="G167" s="5"/>
       <c r="H167" s="7"/>
       <c r="I167" s="8"/>
-      <c r="J167" s="8"/>
+      <c r="J167" s="9"/>
       <c r="K167" s="9"/>
-      <c r="L167" s="9"/>
-      <c r="M167" s="5"/>
-    </row>
-    <row r="168" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L167" s="5"/>
+    </row>
+    <row r="168" spans="1:12" ht="49.65" customHeight="1">
       <c r="A168" s="10"/>
       <c r="B168" s="4"/>
       <c r="C168" s="5"/>
@@ -4992,12 +4752,11 @@
       <c r="G168" s="5"/>
       <c r="H168" s="7"/>
       <c r="I168" s="8"/>
-      <c r="J168" s="8"/>
+      <c r="J168" s="9"/>
       <c r="K168" s="9"/>
-      <c r="L168" s="9"/>
-      <c r="M168" s="5"/>
-    </row>
-    <row r="169" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L168" s="5"/>
+    </row>
+    <row r="169" spans="1:12" ht="49.65" customHeight="1">
       <c r="A169" s="10"/>
       <c r="B169" s="4"/>
       <c r="C169" s="5"/>
@@ -5007,12 +4766,11 @@
       <c r="G169" s="5"/>
       <c r="H169" s="7"/>
       <c r="I169" s="8"/>
-      <c r="J169" s="8"/>
+      <c r="J169" s="9"/>
       <c r="K169" s="9"/>
-      <c r="L169" s="9"/>
-      <c r="M169" s="5"/>
-    </row>
-    <row r="170" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L169" s="5"/>
+    </row>
+    <row r="170" spans="1:12" ht="49.65" customHeight="1">
       <c r="A170" s="10"/>
       <c r="B170" s="4"/>
       <c r="C170" s="5"/>
@@ -5022,12 +4780,11 @@
       <c r="G170" s="5"/>
       <c r="H170" s="7"/>
       <c r="I170" s="8"/>
-      <c r="J170" s="8"/>
+      <c r="J170" s="5"/>
       <c r="K170" s="5"/>
       <c r="L170" s="5"/>
-      <c r="M170" s="5"/>
-    </row>
-    <row r="171" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="171" spans="1:12" ht="49.65" customHeight="1">
       <c r="A171" s="10"/>
       <c r="B171" s="4"/>
       <c r="C171" s="5"/>
@@ -5037,12 +4794,11 @@
       <c r="G171" s="5"/>
       <c r="H171" s="7"/>
       <c r="I171" s="8"/>
-      <c r="J171" s="8"/>
+      <c r="J171" s="5"/>
       <c r="K171" s="5"/>
       <c r="L171" s="5"/>
-      <c r="M171" s="5"/>
-    </row>
-    <row r="172" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="172" spans="1:12" ht="49.65" customHeight="1">
       <c r="A172" s="10"/>
       <c r="B172" s="4"/>
       <c r="C172" s="5"/>
@@ -5052,12 +4808,11 @@
       <c r="G172" s="5"/>
       <c r="H172" s="7"/>
       <c r="I172" s="8"/>
-      <c r="J172" s="8"/>
+      <c r="J172" s="5"/>
       <c r="K172" s="5"/>
       <c r="L172" s="5"/>
-      <c r="M172" s="5"/>
-    </row>
-    <row r="173" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="173" spans="1:12" ht="49.65" customHeight="1">
       <c r="A173" s="10"/>
       <c r="B173" s="4"/>
       <c r="C173" s="5"/>
@@ -5067,12 +4822,11 @@
       <c r="G173" s="5"/>
       <c r="H173" s="7"/>
       <c r="I173" s="8"/>
-      <c r="J173" s="8"/>
+      <c r="J173" s="9"/>
       <c r="K173" s="9"/>
       <c r="L173" s="9"/>
-      <c r="M173" s="9"/>
-    </row>
-    <row r="174" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="174" spans="1:12" ht="49.65" customHeight="1">
       <c r="A174" s="10"/>
       <c r="B174" s="4"/>
       <c r="C174" s="5"/>
@@ -5082,12 +4836,11 @@
       <c r="G174" s="5"/>
       <c r="H174" s="7"/>
       <c r="I174" s="8"/>
-      <c r="J174" s="8"/>
+      <c r="J174" s="9"/>
       <c r="K174" s="9"/>
       <c r="L174" s="9"/>
-      <c r="M174" s="9"/>
-    </row>
-    <row r="175" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="175" spans="1:12" ht="49.65" customHeight="1">
       <c r="A175" s="10"/>
       <c r="B175" s="4"/>
       <c r="C175" s="5"/>
@@ -5097,12 +4850,11 @@
       <c r="G175" s="5"/>
       <c r="H175" s="7"/>
       <c r="I175" s="8"/>
-      <c r="J175" s="8"/>
+      <c r="J175" s="9"/>
       <c r="K175" s="9"/>
       <c r="L175" s="9"/>
-      <c r="M175" s="9"/>
-    </row>
-    <row r="176" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="176" spans="1:12" ht="49.65" customHeight="1">
       <c r="A176" s="10"/>
       <c r="B176" s="4"/>
       <c r="C176" s="5"/>
@@ -5112,12 +4864,11 @@
       <c r="G176" s="5"/>
       <c r="H176" s="7"/>
       <c r="I176" s="8"/>
-      <c r="J176" s="8"/>
+      <c r="J176" s="9"/>
       <c r="K176" s="9"/>
       <c r="L176" s="9"/>
-      <c r="M176" s="9"/>
-    </row>
-    <row r="177" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="177" spans="1:12" ht="49.65" customHeight="1">
       <c r="A177" s="10"/>
       <c r="B177" s="4"/>
       <c r="C177" s="5"/>
@@ -5127,12 +4878,11 @@
       <c r="G177" s="5"/>
       <c r="H177" s="7"/>
       <c r="I177" s="8"/>
-      <c r="J177" s="8"/>
+      <c r="J177" s="9"/>
       <c r="K177" s="9"/>
-      <c r="L177" s="9"/>
-      <c r="M177" s="5"/>
-    </row>
-    <row r="178" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L177" s="5"/>
+    </row>
+    <row r="178" spans="1:12" ht="49.65" customHeight="1">
       <c r="A178" s="10"/>
       <c r="B178" s="4"/>
       <c r="C178" s="5"/>
@@ -5142,12 +4892,11 @@
       <c r="G178" s="5"/>
       <c r="H178" s="7"/>
       <c r="I178" s="8"/>
-      <c r="J178" s="8"/>
+      <c r="J178" s="9"/>
       <c r="K178" s="9"/>
-      <c r="L178" s="9"/>
-      <c r="M178" s="5"/>
-    </row>
-    <row r="179" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L178" s="5"/>
+    </row>
+    <row r="179" spans="1:12" ht="49.65" customHeight="1">
       <c r="A179" s="10"/>
       <c r="B179" s="4"/>
       <c r="C179" s="5"/>
@@ -5157,12 +4906,11 @@
       <c r="G179" s="5"/>
       <c r="H179" s="7"/>
       <c r="I179" s="8"/>
-      <c r="J179" s="8"/>
+      <c r="J179" s="9"/>
       <c r="K179" s="9"/>
-      <c r="L179" s="9"/>
-      <c r="M179" s="5"/>
-    </row>
-    <row r="180" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L179" s="5"/>
+    </row>
+    <row r="180" spans="1:12" ht="49.65" customHeight="1">
       <c r="A180" s="10"/>
       <c r="B180" s="4"/>
       <c r="C180" s="5"/>
@@ -5172,12 +4920,11 @@
       <c r="G180" s="5"/>
       <c r="H180" s="7"/>
       <c r="I180" s="8"/>
-      <c r="J180" s="8"/>
+      <c r="J180" s="9"/>
       <c r="K180" s="9"/>
-      <c r="L180" s="9"/>
-      <c r="M180" s="5"/>
-    </row>
-    <row r="181" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L180" s="5"/>
+    </row>
+    <row r="181" spans="1:12" ht="49.65" customHeight="1">
       <c r="A181" s="10"/>
       <c r="B181" s="4"/>
       <c r="C181" s="5"/>
@@ -5187,12 +4934,11 @@
       <c r="G181" s="5"/>
       <c r="H181" s="7"/>
       <c r="I181" s="8"/>
-      <c r="J181" s="8"/>
+      <c r="J181" s="9"/>
       <c r="K181" s="9"/>
-      <c r="L181" s="9"/>
-      <c r="M181" s="5"/>
-    </row>
-    <row r="182" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L181" s="5"/>
+    </row>
+    <row r="182" spans="1:12" ht="49.65" customHeight="1">
       <c r="A182" s="10"/>
       <c r="B182" s="4"/>
       <c r="C182" s="5"/>
@@ -5202,12 +4948,11 @@
       <c r="G182" s="5"/>
       <c r="H182" s="7"/>
       <c r="I182" s="8"/>
-      <c r="J182" s="8"/>
+      <c r="J182" s="9"/>
       <c r="K182" s="9"/>
-      <c r="L182" s="9"/>
-      <c r="M182" s="5"/>
-    </row>
-    <row r="183" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L182" s="5"/>
+    </row>
+    <row r="183" spans="1:12" ht="49.65" customHeight="1">
       <c r="A183" s="10"/>
       <c r="B183" s="4"/>
       <c r="C183" s="5"/>
@@ -5217,12 +4962,11 @@
       <c r="G183" s="5"/>
       <c r="H183" s="7"/>
       <c r="I183" s="8"/>
-      <c r="J183" s="8"/>
+      <c r="J183" s="9"/>
       <c r="K183" s="9"/>
-      <c r="L183" s="9"/>
-      <c r="M183" s="5"/>
-    </row>
-    <row r="184" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L183" s="5"/>
+    </row>
+    <row r="184" spans="1:12" ht="49.65" customHeight="1">
       <c r="A184" s="10"/>
       <c r="B184" s="4"/>
       <c r="C184" s="5"/>
@@ -5232,12 +4976,11 @@
       <c r="G184" s="5"/>
       <c r="H184" s="7"/>
       <c r="I184" s="8"/>
-      <c r="J184" s="8"/>
+      <c r="J184" s="9"/>
       <c r="K184" s="9"/>
-      <c r="L184" s="9"/>
-      <c r="M184" s="5"/>
-    </row>
-    <row r="185" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L184" s="5"/>
+    </row>
+    <row r="185" spans="1:12" ht="49.65" customHeight="1">
       <c r="A185" s="10"/>
       <c r="B185" s="4"/>
       <c r="C185" s="5"/>
@@ -5247,12 +4990,11 @@
       <c r="G185" s="5"/>
       <c r="H185" s="7"/>
       <c r="I185" s="8"/>
-      <c r="J185" s="8"/>
+      <c r="J185" s="9"/>
       <c r="K185" s="9"/>
-      <c r="L185" s="9"/>
-      <c r="M185" s="5"/>
-    </row>
-    <row r="186" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L185" s="5"/>
+    </row>
+    <row r="186" spans="1:12" ht="49.65" customHeight="1">
       <c r="A186" s="10"/>
       <c r="B186" s="4"/>
       <c r="C186" s="5"/>
@@ -5262,12 +5004,11 @@
       <c r="G186" s="5"/>
       <c r="H186" s="7"/>
       <c r="I186" s="8"/>
-      <c r="J186" s="8"/>
+      <c r="J186" s="9"/>
       <c r="K186" s="9"/>
       <c r="L186" s="9"/>
-      <c r="M186" s="9"/>
-    </row>
-    <row r="187" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="187" spans="1:12" ht="49.65" customHeight="1">
       <c r="A187" s="10"/>
       <c r="B187" s="4"/>
       <c r="C187" s="5"/>
@@ -5277,12 +5018,11 @@
       <c r="G187" s="5"/>
       <c r="H187" s="7"/>
       <c r="I187" s="8"/>
-      <c r="J187" s="8"/>
+      <c r="J187" s="9"/>
       <c r="K187" s="9"/>
       <c r="L187" s="9"/>
-      <c r="M187" s="9"/>
-    </row>
-    <row r="188" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="188" spans="1:12" ht="49.65" customHeight="1">
       <c r="A188" s="10"/>
       <c r="B188" s="4"/>
       <c r="C188" s="5"/>
@@ -5292,12 +5032,11 @@
       <c r="G188" s="5"/>
       <c r="H188" s="7"/>
       <c r="I188" s="8"/>
-      <c r="J188" s="8"/>
+      <c r="J188" s="9"/>
       <c r="K188" s="9"/>
       <c r="L188" s="9"/>
-      <c r="M188" s="9"/>
-    </row>
-    <row r="189" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="189" spans="1:12" ht="49.65" customHeight="1">
       <c r="A189" s="10"/>
       <c r="B189" s="4"/>
       <c r="C189" s="5"/>
@@ -5307,12 +5046,11 @@
       <c r="G189" s="5"/>
       <c r="H189" s="7"/>
       <c r="I189" s="8"/>
-      <c r="J189" s="8"/>
+      <c r="J189" s="9"/>
       <c r="K189" s="9"/>
       <c r="L189" s="9"/>
-      <c r="M189" s="9"/>
-    </row>
-    <row r="190" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="190" spans="1:12" ht="49.65" customHeight="1">
       <c r="A190" s="10"/>
       <c r="B190" s="4"/>
       <c r="C190" s="5"/>
@@ -5322,12 +5060,11 @@
       <c r="G190" s="5"/>
       <c r="H190" s="7"/>
       <c r="I190" s="8"/>
-      <c r="J190" s="8"/>
+      <c r="J190" s="9"/>
       <c r="K190" s="9"/>
       <c r="L190" s="9"/>
-      <c r="M190" s="9"/>
-    </row>
-    <row r="191" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="191" spans="1:12" ht="49.65" customHeight="1">
       <c r="A191" s="10"/>
       <c r="B191" s="4"/>
       <c r="C191" s="5"/>
@@ -5337,12 +5074,11 @@
       <c r="G191" s="5"/>
       <c r="H191" s="7"/>
       <c r="I191" s="8"/>
-      <c r="J191" s="8"/>
+      <c r="J191" s="9"/>
       <c r="K191" s="9"/>
       <c r="L191" s="9"/>
-      <c r="M191" s="9"/>
-    </row>
-    <row r="192" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="192" spans="1:12" ht="49.65" customHeight="1">
       <c r="A192" s="10"/>
       <c r="B192" s="4"/>
       <c r="C192" s="5"/>
@@ -5352,12 +5088,11 @@
       <c r="G192" s="5"/>
       <c r="H192" s="7"/>
       <c r="I192" s="8"/>
-      <c r="J192" s="8"/>
+      <c r="J192" s="9"/>
       <c r="K192" s="9"/>
       <c r="L192" s="9"/>
-      <c r="M192" s="9"/>
-    </row>
-    <row r="193" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="193" spans="1:12" ht="49.65" customHeight="1">
       <c r="A193" s="10"/>
       <c r="B193" s="4"/>
       <c r="C193" s="5"/>
@@ -5367,12 +5102,11 @@
       <c r="G193" s="5"/>
       <c r="H193" s="7"/>
       <c r="I193" s="8"/>
-      <c r="J193" s="8"/>
+      <c r="J193" s="9"/>
       <c r="K193" s="9"/>
       <c r="L193" s="9"/>
-      <c r="M193" s="9"/>
-    </row>
-    <row r="194" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="194" spans="1:12" ht="49.65" customHeight="1">
       <c r="A194" s="10"/>
       <c r="B194" s="4"/>
       <c r="C194" s="5"/>
@@ -5382,12 +5116,11 @@
       <c r="G194" s="5"/>
       <c r="H194" s="7"/>
       <c r="I194" s="8"/>
-      <c r="J194" s="8"/>
+      <c r="J194" s="9"/>
       <c r="K194" s="9"/>
       <c r="L194" s="9"/>
-      <c r="M194" s="9"/>
-    </row>
-    <row r="195" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="195" spans="1:12" ht="49.65" customHeight="1">
       <c r="A195" s="10"/>
       <c r="B195" s="4"/>
       <c r="C195" s="5"/>
@@ -5397,12 +5130,11 @@
       <c r="G195" s="5"/>
       <c r="H195" s="7"/>
       <c r="I195" s="8"/>
-      <c r="J195" s="8"/>
+      <c r="J195" s="5"/>
       <c r="K195" s="5"/>
       <c r="L195" s="5"/>
-      <c r="M195" s="5"/>
-    </row>
-    <row r="196" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="196" spans="1:12" ht="49.65" customHeight="1">
       <c r="A196" s="10"/>
       <c r="B196" s="4"/>
       <c r="C196" s="5"/>
@@ -5412,12 +5144,11 @@
       <c r="G196" s="5"/>
       <c r="H196" s="7"/>
       <c r="I196" s="8"/>
-      <c r="J196" s="8"/>
+      <c r="J196" s="9"/>
       <c r="K196" s="9"/>
-      <c r="L196" s="9"/>
-      <c r="M196" s="5"/>
-    </row>
-    <row r="197" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L196" s="5"/>
+    </row>
+    <row r="197" spans="1:12" ht="49.65" customHeight="1">
       <c r="A197" s="10"/>
       <c r="B197" s="4"/>
       <c r="C197" s="5"/>
@@ -5427,12 +5158,11 @@
       <c r="G197" s="5"/>
       <c r="H197" s="7"/>
       <c r="I197" s="8"/>
-      <c r="J197" s="8"/>
+      <c r="J197" s="9"/>
       <c r="K197" s="9"/>
       <c r="L197" s="9"/>
-      <c r="M197" s="9"/>
-    </row>
-    <row r="198" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="198" spans="1:12" ht="49.65" customHeight="1">
       <c r="A198" s="10"/>
       <c r="B198" s="4"/>
       <c r="C198" s="5"/>
@@ -5442,12 +5172,11 @@
       <c r="G198" s="5"/>
       <c r="H198" s="7"/>
       <c r="I198" s="8"/>
-      <c r="J198" s="8"/>
+      <c r="J198" s="9"/>
       <c r="K198" s="9"/>
       <c r="L198" s="9"/>
-      <c r="M198" s="9"/>
-    </row>
-    <row r="199" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="199" spans="1:12" ht="49.65" customHeight="1">
       <c r="A199" s="10"/>
       <c r="B199" s="4"/>
       <c r="C199" s="5"/>
@@ -5457,12 +5186,11 @@
       <c r="G199" s="5"/>
       <c r="H199" s="7"/>
       <c r="I199" s="8"/>
-      <c r="J199" s="8"/>
+      <c r="J199" s="9"/>
       <c r="K199" s="9"/>
       <c r="L199" s="9"/>
-      <c r="M199" s="9"/>
-    </row>
-    <row r="200" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="200" spans="1:12" ht="49.65" customHeight="1">
       <c r="A200" s="10"/>
       <c r="B200" s="4"/>
       <c r="C200" s="5"/>
@@ -5472,12 +5200,11 @@
       <c r="G200" s="5"/>
       <c r="H200" s="7"/>
       <c r="I200" s="8"/>
-      <c r="J200" s="8"/>
+      <c r="J200" s="9"/>
       <c r="K200" s="9"/>
       <c r="L200" s="9"/>
-      <c r="M200" s="9"/>
-    </row>
-    <row r="201" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="201" spans="1:12" ht="49.65" customHeight="1">
       <c r="A201" s="10"/>
       <c r="B201" s="4"/>
       <c r="C201" s="5"/>
@@ -5487,12 +5214,11 @@
       <c r="G201" s="5"/>
       <c r="H201" s="7"/>
       <c r="I201" s="8"/>
-      <c r="J201" s="8"/>
+      <c r="J201" s="9"/>
       <c r="K201" s="9"/>
       <c r="L201" s="9"/>
-      <c r="M201" s="9"/>
-    </row>
-    <row r="202" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="202" spans="1:12" ht="49.65" customHeight="1">
       <c r="A202" s="10"/>
       <c r="B202" s="4"/>
       <c r="C202" s="5"/>
@@ -5502,12 +5228,11 @@
       <c r="G202" s="5"/>
       <c r="H202" s="7"/>
       <c r="I202" s="8"/>
-      <c r="J202" s="8"/>
+      <c r="J202" s="9"/>
       <c r="K202" s="9"/>
       <c r="L202" s="9"/>
-      <c r="M202" s="9"/>
-    </row>
-    <row r="203" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="203" spans="1:12" ht="49.65" customHeight="1">
       <c r="A203" s="10"/>
       <c r="B203" s="4"/>
       <c r="C203" s="5"/>
@@ -5517,12 +5242,11 @@
       <c r="G203" s="5"/>
       <c r="H203" s="7"/>
       <c r="I203" s="8"/>
-      <c r="J203" s="8"/>
+      <c r="J203" s="9"/>
       <c r="K203" s="9"/>
       <c r="L203" s="9"/>
-      <c r="M203" s="9"/>
-    </row>
-    <row r="204" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="204" spans="1:12" ht="49.65" customHeight="1">
       <c r="A204" s="10"/>
       <c r="B204" s="4"/>
       <c r="C204" s="5"/>
@@ -5532,12 +5256,11 @@
       <c r="G204" s="5"/>
       <c r="H204" s="7"/>
       <c r="I204" s="8"/>
-      <c r="J204" s="8"/>
+      <c r="J204" s="9"/>
       <c r="K204" s="9"/>
       <c r="L204" s="9"/>
-      <c r="M204" s="9"/>
-    </row>
-    <row r="205" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="205" spans="1:12" ht="49.65" customHeight="1">
       <c r="A205" s="10"/>
       <c r="B205" s="4"/>
       <c r="C205" s="5"/>
@@ -5547,12 +5270,11 @@
       <c r="G205" s="5"/>
       <c r="H205" s="7"/>
       <c r="I205" s="8"/>
-      <c r="J205" s="8"/>
+      <c r="J205" s="5"/>
       <c r="K205" s="5"/>
       <c r="L205" s="5"/>
-      <c r="M205" s="5"/>
-    </row>
-    <row r="206" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="206" spans="1:12" ht="49.65" customHeight="1">
       <c r="A206" s="10"/>
       <c r="B206" s="4"/>
       <c r="C206" s="5"/>
@@ -5562,12 +5284,11 @@
       <c r="G206" s="5"/>
       <c r="H206" s="7"/>
       <c r="I206" s="8"/>
-      <c r="J206" s="8"/>
+      <c r="J206" s="9"/>
       <c r="K206" s="9"/>
-      <c r="L206" s="9"/>
-      <c r="M206" s="5"/>
-    </row>
-    <row r="207" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L206" s="5"/>
+    </row>
+    <row r="207" spans="1:12" ht="49.65" customHeight="1">
       <c r="A207" s="10"/>
       <c r="B207" s="4"/>
       <c r="C207" s="5"/>
@@ -5577,12 +5298,11 @@
       <c r="G207" s="5"/>
       <c r="H207" s="7"/>
       <c r="I207" s="8"/>
-      <c r="J207" s="8"/>
+      <c r="J207" s="9"/>
       <c r="K207" s="9"/>
-      <c r="L207" s="9"/>
-      <c r="M207" s="5"/>
-    </row>
-    <row r="208" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L207" s="5"/>
+    </row>
+    <row r="208" spans="1:12" ht="49.65" customHeight="1">
       <c r="A208" s="10"/>
       <c r="B208" s="4"/>
       <c r="C208" s="5"/>
@@ -5592,12 +5312,11 @@
       <c r="G208" s="5"/>
       <c r="H208" s="7"/>
       <c r="I208" s="8"/>
-      <c r="J208" s="8"/>
+      <c r="J208" s="9"/>
       <c r="K208" s="9"/>
       <c r="L208" s="9"/>
-      <c r="M208" s="9"/>
-    </row>
-    <row r="209" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="209" spans="1:12" ht="49.65" customHeight="1">
       <c r="A209" s="10"/>
       <c r="B209" s="4"/>
       <c r="C209" s="5"/>
@@ -5607,12 +5326,11 @@
       <c r="G209" s="5"/>
       <c r="H209" s="7"/>
       <c r="I209" s="8"/>
-      <c r="J209" s="8"/>
+      <c r="J209" s="9"/>
       <c r="K209" s="9"/>
       <c r="L209" s="9"/>
-      <c r="M209" s="9"/>
-    </row>
-    <row r="210" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="210" spans="1:12" ht="49.65" customHeight="1">
       <c r="A210" s="10"/>
       <c r="B210" s="4"/>
       <c r="C210" s="5"/>
@@ -5622,12 +5340,11 @@
       <c r="G210" s="5"/>
       <c r="H210" s="7"/>
       <c r="I210" s="8"/>
-      <c r="J210" s="8"/>
+      <c r="J210" s="9"/>
       <c r="K210" s="9"/>
       <c r="L210" s="9"/>
-      <c r="M210" s="9"/>
-    </row>
-    <row r="211" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="211" spans="1:12" ht="49.65" customHeight="1">
       <c r="A211" s="10"/>
       <c r="B211" s="4"/>
       <c r="C211" s="5"/>
@@ -5637,12 +5354,11 @@
       <c r="G211" s="5"/>
       <c r="H211" s="7"/>
       <c r="I211" s="8"/>
-      <c r="J211" s="8"/>
+      <c r="J211" s="9"/>
       <c r="K211" s="9"/>
-      <c r="L211" s="9"/>
-      <c r="M211" s="5"/>
-    </row>
-    <row r="212" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L211" s="5"/>
+    </row>
+    <row r="212" spans="1:12" ht="49.65" customHeight="1">
       <c r="A212" s="10"/>
       <c r="B212" s="4"/>
       <c r="C212" s="5"/>
@@ -5652,12 +5368,11 @@
       <c r="G212" s="5"/>
       <c r="H212" s="7"/>
       <c r="I212" s="8"/>
-      <c r="J212" s="8"/>
+      <c r="J212" s="9"/>
       <c r="K212" s="9"/>
-      <c r="L212" s="9"/>
-      <c r="M212" s="5"/>
-    </row>
-    <row r="213" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L212" s="5"/>
+    </row>
+    <row r="213" spans="1:12" ht="49.65" customHeight="1">
       <c r="A213" s="10"/>
       <c r="B213" s="4"/>
       <c r="C213" s="5"/>
@@ -5667,12 +5382,11 @@
       <c r="G213" s="5"/>
       <c r="H213" s="7"/>
       <c r="I213" s="8"/>
-      <c r="J213" s="8"/>
+      <c r="J213" s="9"/>
       <c r="K213" s="9"/>
-      <c r="L213" s="9"/>
-      <c r="M213" s="5"/>
-    </row>
-    <row r="214" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L213" s="5"/>
+    </row>
+    <row r="214" spans="1:12" ht="49.65" customHeight="1">
       <c r="A214" s="10"/>
       <c r="B214" s="4"/>
       <c r="C214" s="5"/>
@@ -5682,12 +5396,11 @@
       <c r="G214" s="5"/>
       <c r="H214" s="7"/>
       <c r="I214" s="8"/>
-      <c r="J214" s="8"/>
+      <c r="J214" s="9"/>
       <c r="K214" s="9"/>
-      <c r="L214" s="9"/>
-      <c r="M214" s="5"/>
-    </row>
-    <row r="215" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L214" s="5"/>
+    </row>
+    <row r="215" spans="1:12" ht="49.65" customHeight="1">
       <c r="A215" s="10"/>
       <c r="B215" s="4"/>
       <c r="C215" s="5"/>
@@ -5697,12 +5410,11 @@
       <c r="G215" s="5"/>
       <c r="H215" s="7"/>
       <c r="I215" s="8"/>
-      <c r="J215" s="8"/>
+      <c r="J215" s="9"/>
       <c r="K215" s="9"/>
-      <c r="L215" s="9"/>
-      <c r="M215" s="5"/>
-    </row>
-    <row r="216" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L215" s="5"/>
+    </row>
+    <row r="216" spans="1:12" ht="49.65" customHeight="1">
       <c r="A216" s="10"/>
       <c r="B216" s="4"/>
       <c r="C216" s="5"/>
@@ -5712,12 +5424,11 @@
       <c r="G216" s="5"/>
       <c r="H216" s="7"/>
       <c r="I216" s="8"/>
-      <c r="J216" s="8"/>
+      <c r="J216" s="9"/>
       <c r="K216" s="9"/>
-      <c r="L216" s="9"/>
-      <c r="M216" s="5"/>
-    </row>
-    <row r="217" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L216" s="5"/>
+    </row>
+    <row r="217" spans="1:12" ht="49.65" customHeight="1">
       <c r="A217" s="10"/>
       <c r="B217" s="4"/>
       <c r="C217" s="5"/>
@@ -5727,12 +5438,11 @@
       <c r="G217" s="5"/>
       <c r="H217" s="7"/>
       <c r="I217" s="8"/>
-      <c r="J217" s="8"/>
+      <c r="J217" s="9"/>
       <c r="K217" s="9"/>
-      <c r="L217" s="9"/>
-      <c r="M217" s="5"/>
-    </row>
-    <row r="218" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L217" s="5"/>
+    </row>
+    <row r="218" spans="1:12" ht="49.65" customHeight="1">
       <c r="A218" s="10"/>
       <c r="B218" s="4"/>
       <c r="C218" s="5"/>
@@ -5742,12 +5452,11 @@
       <c r="G218" s="5"/>
       <c r="H218" s="7"/>
       <c r="I218" s="8"/>
-      <c r="J218" s="8"/>
+      <c r="J218" s="9"/>
       <c r="K218" s="9"/>
-      <c r="L218" s="9"/>
-      <c r="M218" s="5"/>
-    </row>
-    <row r="219" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L218" s="5"/>
+    </row>
+    <row r="219" spans="1:12" ht="49.65" customHeight="1">
       <c r="A219" s="10"/>
       <c r="B219" s="4"/>
       <c r="C219" s="5"/>
@@ -5757,12 +5466,11 @@
       <c r="G219" s="5"/>
       <c r="H219" s="7"/>
       <c r="I219" s="8"/>
-      <c r="J219" s="8"/>
+      <c r="J219" s="9"/>
       <c r="K219" s="9"/>
-      <c r="L219" s="9"/>
-      <c r="M219" s="5"/>
-    </row>
-    <row r="220" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L219" s="5"/>
+    </row>
+    <row r="220" spans="1:12" ht="49.65" customHeight="1">
       <c r="A220" s="10"/>
       <c r="B220" s="4"/>
       <c r="C220" s="5"/>
@@ -5772,12 +5480,11 @@
       <c r="G220" s="5"/>
       <c r="H220" s="7"/>
       <c r="I220" s="8"/>
-      <c r="J220" s="8"/>
+      <c r="J220" s="9"/>
       <c r="K220" s="9"/>
-      <c r="L220" s="9"/>
-      <c r="M220" s="5"/>
-    </row>
-    <row r="221" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L220" s="5"/>
+    </row>
+    <row r="221" spans="1:12" ht="49.65" customHeight="1">
       <c r="A221" s="10"/>
       <c r="B221" s="4"/>
       <c r="C221" s="5"/>
@@ -5787,12 +5494,11 @@
       <c r="G221" s="5"/>
       <c r="H221" s="7"/>
       <c r="I221" s="8"/>
-      <c r="J221" s="8"/>
+      <c r="J221" s="9"/>
       <c r="K221" s="9"/>
-      <c r="L221" s="9"/>
-      <c r="M221" s="5"/>
-    </row>
-    <row r="222" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L221" s="5"/>
+    </row>
+    <row r="222" spans="1:12" ht="49.65" customHeight="1">
       <c r="A222" s="10"/>
       <c r="B222" s="4"/>
       <c r="C222" s="5"/>
@@ -5802,12 +5508,11 @@
       <c r="G222" s="5"/>
       <c r="H222" s="7"/>
       <c r="I222" s="8"/>
-      <c r="J222" s="8"/>
+      <c r="J222" s="9"/>
       <c r="K222" s="9"/>
-      <c r="L222" s="9"/>
-      <c r="M222" s="5"/>
-    </row>
-    <row r="223" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L222" s="5"/>
+    </row>
+    <row r="223" spans="1:12" ht="49.65" customHeight="1">
       <c r="A223" s="10"/>
       <c r="B223" s="4"/>
       <c r="C223" s="5"/>
@@ -5817,12 +5522,11 @@
       <c r="G223" s="5"/>
       <c r="H223" s="7"/>
       <c r="I223" s="8"/>
-      <c r="J223" s="8"/>
+      <c r="J223" s="9"/>
       <c r="K223" s="9"/>
-      <c r="L223" s="9"/>
-      <c r="M223" s="5"/>
-    </row>
-    <row r="224" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L223" s="5"/>
+    </row>
+    <row r="224" spans="1:12" ht="49.65" customHeight="1">
       <c r="A224" s="10"/>
       <c r="B224" s="4"/>
       <c r="C224" s="5"/>
@@ -5832,12 +5536,11 @@
       <c r="G224" s="5"/>
       <c r="H224" s="7"/>
       <c r="I224" s="8"/>
-      <c r="J224" s="8"/>
+      <c r="J224" s="9"/>
       <c r="K224" s="9"/>
-      <c r="L224" s="9"/>
-      <c r="M224" s="5"/>
-    </row>
-    <row r="225" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L224" s="5"/>
+    </row>
+    <row r="225" spans="1:12" ht="49.65" customHeight="1">
       <c r="A225" s="10"/>
       <c r="B225" s="4"/>
       <c r="C225" s="5"/>
@@ -5847,12 +5550,11 @@
       <c r="G225" s="5"/>
       <c r="H225" s="7"/>
       <c r="I225" s="8"/>
-      <c r="J225" s="8"/>
+      <c r="J225" s="9"/>
       <c r="K225" s="9"/>
-      <c r="L225" s="9"/>
-      <c r="M225" s="5"/>
-    </row>
-    <row r="226" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L225" s="5"/>
+    </row>
+    <row r="226" spans="1:12" ht="49.65" customHeight="1">
       <c r="A226" s="10"/>
       <c r="B226" s="4"/>
       <c r="C226" s="5"/>
@@ -5862,12 +5564,11 @@
       <c r="G226" s="5"/>
       <c r="H226" s="7"/>
       <c r="I226" s="8"/>
-      <c r="J226" s="8"/>
+      <c r="J226" s="9"/>
       <c r="K226" s="9"/>
-      <c r="L226" s="9"/>
-      <c r="M226" s="5"/>
-    </row>
-    <row r="227" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L226" s="5"/>
+    </row>
+    <row r="227" spans="1:12" ht="49.65" customHeight="1">
       <c r="A227" s="10"/>
       <c r="B227" s="4"/>
       <c r="C227" s="5"/>
@@ -5877,12 +5578,11 @@
       <c r="G227" s="5"/>
       <c r="H227" s="7"/>
       <c r="I227" s="8"/>
-      <c r="J227" s="8"/>
+      <c r="J227" s="9"/>
       <c r="K227" s="9"/>
-      <c r="L227" s="9"/>
-      <c r="M227" s="5"/>
-    </row>
-    <row r="228" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L227" s="5"/>
+    </row>
+    <row r="228" spans="1:12" ht="49.65" customHeight="1">
       <c r="A228" s="10"/>
       <c r="B228" s="4"/>
       <c r="C228" s="5"/>
@@ -5892,12 +5592,11 @@
       <c r="G228" s="5"/>
       <c r="H228" s="7"/>
       <c r="I228" s="8"/>
-      <c r="J228" s="8"/>
+      <c r="J228" s="9"/>
       <c r="K228" s="9"/>
-      <c r="L228" s="9"/>
-      <c r="M228" s="5"/>
-    </row>
-    <row r="229" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L228" s="5"/>
+    </row>
+    <row r="229" spans="1:12" ht="49.65" customHeight="1">
       <c r="A229" s="10"/>
       <c r="B229" s="4"/>
       <c r="C229" s="5"/>
@@ -5907,12 +5606,11 @@
       <c r="G229" s="5"/>
       <c r="H229" s="7"/>
       <c r="I229" s="8"/>
-      <c r="J229" s="8"/>
+      <c r="J229" s="9"/>
       <c r="K229" s="9"/>
-      <c r="L229" s="9"/>
-      <c r="M229" s="5"/>
-    </row>
-    <row r="230" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L229" s="5"/>
+    </row>
+    <row r="230" spans="1:12" ht="49.65" customHeight="1">
       <c r="A230" s="10"/>
       <c r="B230" s="4"/>
       <c r="C230" s="5"/>
@@ -5922,12 +5620,11 @@
       <c r="G230" s="5"/>
       <c r="H230" s="7"/>
       <c r="I230" s="8"/>
-      <c r="J230" s="8"/>
+      <c r="J230" s="9"/>
       <c r="K230" s="9"/>
-      <c r="L230" s="9"/>
-      <c r="M230" s="5"/>
-    </row>
-    <row r="231" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L230" s="5"/>
+    </row>
+    <row r="231" spans="1:12" ht="49.65" customHeight="1">
       <c r="A231" s="10"/>
       <c r="B231" s="4"/>
       <c r="C231" s="5"/>
@@ -5937,12 +5634,11 @@
       <c r="G231" s="5"/>
       <c r="H231" s="7"/>
       <c r="I231" s="8"/>
-      <c r="J231" s="8"/>
+      <c r="J231" s="9"/>
       <c r="K231" s="9"/>
-      <c r="L231" s="9"/>
-      <c r="M231" s="5"/>
-    </row>
-    <row r="232" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L231" s="5"/>
+    </row>
+    <row r="232" spans="1:12" ht="49.65" customHeight="1">
       <c r="A232" s="10"/>
       <c r="B232" s="4"/>
       <c r="C232" s="5"/>
@@ -5952,12 +5648,11 @@
       <c r="G232" s="5"/>
       <c r="H232" s="7"/>
       <c r="I232" s="8"/>
-      <c r="J232" s="8"/>
+      <c r="J232" s="9"/>
       <c r="K232" s="9"/>
-      <c r="L232" s="9"/>
-      <c r="M232" s="5"/>
-    </row>
-    <row r="233" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L232" s="5"/>
+    </row>
+    <row r="233" spans="1:12" ht="49.65" customHeight="1">
       <c r="A233" s="10"/>
       <c r="B233" s="4"/>
       <c r="C233" s="5"/>
@@ -5967,12 +5662,11 @@
       <c r="G233" s="5"/>
       <c r="H233" s="7"/>
       <c r="I233" s="8"/>
-      <c r="J233" s="8"/>
+      <c r="J233" s="9"/>
       <c r="K233" s="9"/>
       <c r="L233" s="9"/>
-      <c r="M233" s="9"/>
-    </row>
-    <row r="234" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="234" spans="1:12" ht="49.65" customHeight="1">
       <c r="A234" s="10"/>
       <c r="B234" s="4"/>
       <c r="C234" s="5"/>
@@ -5982,12 +5676,11 @@
       <c r="G234" s="5"/>
       <c r="H234" s="7"/>
       <c r="I234" s="8"/>
-      <c r="J234" s="8"/>
+      <c r="J234" s="9"/>
       <c r="K234" s="9"/>
-      <c r="L234" s="9"/>
-      <c r="M234" s="5"/>
-    </row>
-    <row r="235" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L234" s="5"/>
+    </row>
+    <row r="235" spans="1:12" ht="49.65" customHeight="1">
       <c r="A235" s="10"/>
       <c r="B235" s="4"/>
       <c r="C235" s="5"/>
@@ -5997,12 +5690,11 @@
       <c r="G235" s="5"/>
       <c r="H235" s="7"/>
       <c r="I235" s="8"/>
-      <c r="J235" s="8"/>
+      <c r="J235" s="9"/>
       <c r="K235" s="9"/>
-      <c r="L235" s="9"/>
-      <c r="M235" s="5"/>
-    </row>
-    <row r="236" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L235" s="5"/>
+    </row>
+    <row r="236" spans="1:12" ht="49.65" customHeight="1">
       <c r="A236" s="10"/>
       <c r="B236" s="4"/>
       <c r="C236" s="5"/>
@@ -6012,12 +5704,11 @@
       <c r="G236" s="5"/>
       <c r="H236" s="7"/>
       <c r="I236" s="8"/>
-      <c r="J236" s="8"/>
+      <c r="J236" s="9"/>
       <c r="K236" s="9"/>
-      <c r="L236" s="9"/>
-      <c r="M236" s="5"/>
-    </row>
-    <row r="237" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L236" s="5"/>
+    </row>
+    <row r="237" spans="1:12" ht="49.65" customHeight="1">
       <c r="A237" s="10"/>
       <c r="B237" s="4"/>
       <c r="C237" s="5"/>
@@ -6027,12 +5718,11 @@
       <c r="G237" s="5"/>
       <c r="H237" s="7"/>
       <c r="I237" s="8"/>
-      <c r="J237" s="8"/>
+      <c r="J237" s="9"/>
       <c r="K237" s="9"/>
-      <c r="L237" s="9"/>
-      <c r="M237" s="5"/>
-    </row>
-    <row r="238" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L237" s="5"/>
+    </row>
+    <row r="238" spans="1:12" ht="49.65" customHeight="1">
       <c r="A238" s="10"/>
       <c r="B238" s="4"/>
       <c r="C238" s="5"/>
@@ -6042,12 +5732,11 @@
       <c r="G238" s="5"/>
       <c r="H238" s="7"/>
       <c r="I238" s="8"/>
-      <c r="J238" s="8"/>
+      <c r="J238" s="9"/>
       <c r="K238" s="9"/>
-      <c r="L238" s="9"/>
-      <c r="M238" s="5"/>
-    </row>
-    <row r="239" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L238" s="5"/>
+    </row>
+    <row r="239" spans="1:12" ht="49.65" customHeight="1">
       <c r="A239" s="10"/>
       <c r="B239" s="4"/>
       <c r="C239" s="5"/>
@@ -6057,12 +5746,11 @@
       <c r="G239" s="5"/>
       <c r="H239" s="7"/>
       <c r="I239" s="8"/>
-      <c r="J239" s="8"/>
+      <c r="J239" s="9"/>
       <c r="K239" s="9"/>
-      <c r="L239" s="9"/>
-      <c r="M239" s="5"/>
-    </row>
-    <row r="240" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L239" s="5"/>
+    </row>
+    <row r="240" spans="1:12" ht="49.65" customHeight="1">
       <c r="A240" s="10"/>
       <c r="B240" s="4"/>
       <c r="C240" s="5"/>
@@ -6072,12 +5760,11 @@
       <c r="G240" s="5"/>
       <c r="H240" s="7"/>
       <c r="I240" s="8"/>
-      <c r="J240" s="8"/>
+      <c r="J240" s="9"/>
       <c r="K240" s="9"/>
-      <c r="L240" s="9"/>
-      <c r="M240" s="5"/>
-    </row>
-    <row r="241" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L240" s="5"/>
+    </row>
+    <row r="241" spans="1:12" ht="49.65" customHeight="1">
       <c r="A241" s="10"/>
       <c r="B241" s="4"/>
       <c r="C241" s="5"/>
@@ -6087,12 +5774,11 @@
       <c r="G241" s="5"/>
       <c r="H241" s="7"/>
       <c r="I241" s="8"/>
-      <c r="J241" s="8"/>
+      <c r="J241" s="9"/>
       <c r="K241" s="9"/>
-      <c r="L241" s="9"/>
-      <c r="M241" s="5"/>
-    </row>
-    <row r="242" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L241" s="5"/>
+    </row>
+    <row r="242" spans="1:12" ht="49.65" customHeight="1">
       <c r="A242" s="10"/>
       <c r="B242" s="4"/>
       <c r="C242" s="5"/>
@@ -6102,12 +5788,11 @@
       <c r="G242" s="5"/>
       <c r="H242" s="7"/>
       <c r="I242" s="8"/>
-      <c r="J242" s="8"/>
+      <c r="J242" s="9"/>
       <c r="K242" s="9"/>
-      <c r="L242" s="9"/>
-      <c r="M242" s="5"/>
-    </row>
-    <row r="243" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L242" s="5"/>
+    </row>
+    <row r="243" spans="1:12" ht="49.65" customHeight="1">
       <c r="A243" s="10"/>
       <c r="B243" s="4"/>
       <c r="C243" s="5"/>
@@ -6117,12 +5802,11 @@
       <c r="G243" s="5"/>
       <c r="H243" s="7"/>
       <c r="I243" s="8"/>
-      <c r="J243" s="8"/>
+      <c r="J243" s="9"/>
       <c r="K243" s="9"/>
-      <c r="L243" s="9"/>
-      <c r="M243" s="5"/>
-    </row>
-    <row r="244" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L243" s="5"/>
+    </row>
+    <row r="244" spans="1:12" ht="49.65" customHeight="1">
       <c r="A244" s="10"/>
       <c r="B244" s="4"/>
       <c r="C244" s="5"/>
@@ -6132,12 +5816,11 @@
       <c r="G244" s="5"/>
       <c r="H244" s="7"/>
       <c r="I244" s="8"/>
-      <c r="J244" s="8"/>
+      <c r="J244" s="9"/>
       <c r="K244" s="9"/>
-      <c r="L244" s="9"/>
-      <c r="M244" s="5"/>
-    </row>
-    <row r="245" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L244" s="5"/>
+    </row>
+    <row r="245" spans="1:12" ht="49.65" customHeight="1">
       <c r="A245" s="10"/>
       <c r="B245" s="4"/>
       <c r="C245" s="5"/>
@@ -6147,12 +5830,11 @@
       <c r="G245" s="5"/>
       <c r="H245" s="7"/>
       <c r="I245" s="8"/>
-      <c r="J245" s="8"/>
+      <c r="J245" s="9"/>
       <c r="K245" s="9"/>
-      <c r="L245" s="9"/>
-      <c r="M245" s="5"/>
-    </row>
-    <row r="246" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L245" s="5"/>
+    </row>
+    <row r="246" spans="1:12" ht="49.65" customHeight="1">
       <c r="A246" s="10"/>
       <c r="B246" s="4"/>
       <c r="C246" s="5"/>
@@ -6162,12 +5844,11 @@
       <c r="G246" s="5"/>
       <c r="H246" s="7"/>
       <c r="I246" s="8"/>
-      <c r="J246" s="8"/>
+      <c r="J246" s="9"/>
       <c r="K246" s="9"/>
-      <c r="L246" s="9"/>
-      <c r="M246" s="5"/>
-    </row>
-    <row r="247" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L246" s="5"/>
+    </row>
+    <row r="247" spans="1:12" ht="49.65" customHeight="1">
       <c r="A247" s="10"/>
       <c r="B247" s="4"/>
       <c r="C247" s="5"/>
@@ -6177,12 +5858,11 @@
       <c r="G247" s="5"/>
       <c r="H247" s="7"/>
       <c r="I247" s="8"/>
-      <c r="J247" s="8"/>
+      <c r="J247" s="9"/>
       <c r="K247" s="9"/>
-      <c r="L247" s="9"/>
-      <c r="M247" s="5"/>
-    </row>
-    <row r="248" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L247" s="5"/>
+    </row>
+    <row r="248" spans="1:12" ht="49.65" customHeight="1">
       <c r="A248" s="10"/>
       <c r="B248" s="4"/>
       <c r="C248" s="5"/>
@@ -6192,12 +5872,11 @@
       <c r="G248" s="5"/>
       <c r="H248" s="7"/>
       <c r="I248" s="8"/>
-      <c r="J248" s="8"/>
+      <c r="J248" s="9"/>
       <c r="K248" s="9"/>
-      <c r="L248" s="9"/>
-      <c r="M248" s="5"/>
-    </row>
-    <row r="249" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L248" s="5"/>
+    </row>
+    <row r="249" spans="1:12" ht="49.65" customHeight="1">
       <c r="A249" s="10"/>
       <c r="B249" s="4"/>
       <c r="C249" s="5"/>
@@ -6207,12 +5886,11 @@
       <c r="G249" s="5"/>
       <c r="H249" s="7"/>
       <c r="I249" s="8"/>
-      <c r="J249" s="8"/>
+      <c r="J249" s="9"/>
       <c r="K249" s="9"/>
-      <c r="L249" s="9"/>
-      <c r="M249" s="5"/>
-    </row>
-    <row r="250" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L249" s="5"/>
+    </row>
+    <row r="250" spans="1:12" ht="49.65" customHeight="1">
       <c r="A250" s="10"/>
       <c r="B250" s="4"/>
       <c r="C250" s="5"/>
@@ -6222,12 +5900,11 @@
       <c r="G250" s="5"/>
       <c r="H250" s="7"/>
       <c r="I250" s="8"/>
-      <c r="J250" s="8"/>
+      <c r="J250" s="9"/>
       <c r="K250" s="9"/>
-      <c r="L250" s="9"/>
-      <c r="M250" s="5"/>
-    </row>
-    <row r="251" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L250" s="5"/>
+    </row>
+    <row r="251" spans="1:12" ht="49.65" customHeight="1">
       <c r="A251" s="10"/>
       <c r="B251" s="4"/>
       <c r="C251" s="5"/>
@@ -6237,12 +5914,11 @@
       <c r="G251" s="5"/>
       <c r="H251" s="7"/>
       <c r="I251" s="8"/>
-      <c r="J251" s="8"/>
+      <c r="J251" s="9"/>
       <c r="K251" s="9"/>
-      <c r="L251" s="9"/>
-      <c r="M251" s="5"/>
-    </row>
-    <row r="252" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L251" s="5"/>
+    </row>
+    <row r="252" spans="1:12" ht="49.65" customHeight="1">
       <c r="A252" s="10"/>
       <c r="B252" s="4"/>
       <c r="C252" s="5"/>
@@ -6252,12 +5928,11 @@
       <c r="G252" s="5"/>
       <c r="H252" s="7"/>
       <c r="I252" s="8"/>
-      <c r="J252" s="8"/>
+      <c r="J252" s="9"/>
       <c r="K252" s="9"/>
-      <c r="L252" s="9"/>
-      <c r="M252" s="5"/>
-    </row>
-    <row r="253" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L252" s="5"/>
+    </row>
+    <row r="253" spans="1:12" ht="49.65" customHeight="1">
       <c r="A253" s="10"/>
       <c r="B253" s="4"/>
       <c r="C253" s="5"/>
@@ -6267,12 +5942,11 @@
       <c r="G253" s="5"/>
       <c r="H253" s="7"/>
       <c r="I253" s="8"/>
-      <c r="J253" s="8"/>
+      <c r="J253" s="9"/>
       <c r="K253" s="9"/>
-      <c r="L253" s="9"/>
-      <c r="M253" s="5"/>
-    </row>
-    <row r="254" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L253" s="5"/>
+    </row>
+    <row r="254" spans="1:12" ht="49.65" customHeight="1">
       <c r="A254" s="10"/>
       <c r="B254" s="4"/>
       <c r="C254" s="5"/>
@@ -6282,12 +5956,11 @@
       <c r="G254" s="5"/>
       <c r="H254" s="7"/>
       <c r="I254" s="8"/>
-      <c r="J254" s="8"/>
+      <c r="J254" s="9"/>
       <c r="K254" s="9"/>
-      <c r="L254" s="9"/>
-      <c r="M254" s="5"/>
-    </row>
-    <row r="255" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L254" s="5"/>
+    </row>
+    <row r="255" spans="1:12" ht="49.65" customHeight="1">
       <c r="A255" s="10"/>
       <c r="B255" s="4"/>
       <c r="C255" s="5"/>
@@ -6297,12 +5970,11 @@
       <c r="G255" s="5"/>
       <c r="H255" s="7"/>
       <c r="I255" s="8"/>
-      <c r="J255" s="8"/>
+      <c r="J255" s="9"/>
       <c r="K255" s="9"/>
-      <c r="L255" s="9"/>
-      <c r="M255" s="5"/>
-    </row>
-    <row r="256" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L255" s="5"/>
+    </row>
+    <row r="256" spans="1:12" ht="49.65" customHeight="1">
       <c r="A256" s="10"/>
       <c r="B256" s="4"/>
       <c r="C256" s="5"/>
@@ -6312,12 +5984,11 @@
       <c r="G256" s="5"/>
       <c r="H256" s="7"/>
       <c r="I256" s="8"/>
-      <c r="J256" s="8"/>
+      <c r="J256" s="9"/>
       <c r="K256" s="9"/>
       <c r="L256" s="9"/>
-      <c r="M256" s="9"/>
-    </row>
-    <row r="257" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="257" spans="1:12" ht="49.65" customHeight="1">
       <c r="A257" s="10"/>
       <c r="B257" s="4"/>
       <c r="C257" s="5"/>
@@ -6327,12 +5998,11 @@
       <c r="G257" s="5"/>
       <c r="H257" s="7"/>
       <c r="I257" s="8"/>
-      <c r="J257" s="8"/>
+      <c r="J257" s="9"/>
       <c r="K257" s="9"/>
       <c r="L257" s="9"/>
-      <c r="M257" s="9"/>
-    </row>
-    <row r="258" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="258" spans="1:12" ht="49.65" customHeight="1">
       <c r="A258" s="10"/>
       <c r="B258" s="4"/>
       <c r="C258" s="5"/>
@@ -6342,12 +6012,11 @@
       <c r="G258" s="5"/>
       <c r="H258" s="7"/>
       <c r="I258" s="8"/>
-      <c r="J258" s="8"/>
+      <c r="J258" s="9"/>
       <c r="K258" s="9"/>
       <c r="L258" s="9"/>
-      <c r="M258" s="9"/>
-    </row>
-    <row r="259" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="259" spans="1:12" ht="49.65" customHeight="1">
       <c r="A259" s="10"/>
       <c r="B259" s="4"/>
       <c r="C259" s="5"/>
@@ -6357,12 +6026,11 @@
       <c r="G259" s="5"/>
       <c r="H259" s="7"/>
       <c r="I259" s="8"/>
-      <c r="J259" s="8"/>
+      <c r="J259" s="9"/>
       <c r="K259" s="9"/>
       <c r="L259" s="9"/>
-      <c r="M259" s="9"/>
-    </row>
-    <row r="260" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="260" spans="1:12" ht="49.65" customHeight="1">
       <c r="A260" s="10"/>
       <c r="B260" s="4"/>
       <c r="C260" s="5"/>
@@ -6372,12 +6040,11 @@
       <c r="G260" s="5"/>
       <c r="H260" s="7"/>
       <c r="I260" s="8"/>
-      <c r="J260" s="8"/>
+      <c r="J260" s="9"/>
       <c r="K260" s="9"/>
       <c r="L260" s="9"/>
-      <c r="M260" s="9"/>
-    </row>
-    <row r="261" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="261" spans="1:12" ht="49.65" customHeight="1">
       <c r="A261" s="10"/>
       <c r="B261" s="4"/>
       <c r="C261" s="5"/>
@@ -6387,12 +6054,11 @@
       <c r="G261" s="5"/>
       <c r="H261" s="7"/>
       <c r="I261" s="8"/>
-      <c r="J261" s="8"/>
+      <c r="J261" s="9"/>
       <c r="K261" s="9"/>
       <c r="L261" s="9"/>
-      <c r="M261" s="9"/>
-    </row>
-    <row r="262" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="262" spans="1:12" ht="49.65" customHeight="1">
       <c r="A262" s="10"/>
       <c r="B262" s="4"/>
       <c r="C262" s="5"/>
@@ -6402,12 +6068,11 @@
       <c r="G262" s="5"/>
       <c r="H262" s="7"/>
       <c r="I262" s="8"/>
-      <c r="J262" s="8"/>
+      <c r="J262" s="9"/>
       <c r="K262" s="9"/>
       <c r="L262" s="9"/>
-      <c r="M262" s="9"/>
-    </row>
-    <row r="263" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="263" spans="1:12" ht="49.65" customHeight="1">
       <c r="A263" s="10"/>
       <c r="B263" s="4"/>
       <c r="C263" s="5"/>
@@ -6417,12 +6082,11 @@
       <c r="G263" s="5"/>
       <c r="H263" s="7"/>
       <c r="I263" s="8"/>
-      <c r="J263" s="8"/>
+      <c r="J263" s="9"/>
       <c r="K263" s="9"/>
       <c r="L263" s="9"/>
-      <c r="M263" s="9"/>
-    </row>
-    <row r="264" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="264" spans="1:12" ht="49.65" customHeight="1">
       <c r="A264" s="10"/>
       <c r="B264" s="4"/>
       <c r="C264" s="5"/>
@@ -6432,12 +6096,11 @@
       <c r="G264" s="5"/>
       <c r="H264" s="7"/>
       <c r="I264" s="8"/>
-      <c r="J264" s="8"/>
+      <c r="J264" s="9"/>
       <c r="K264" s="9"/>
       <c r="L264" s="9"/>
-      <c r="M264" s="9"/>
-    </row>
-    <row r="265" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="265" spans="1:12" ht="49.65" customHeight="1">
       <c r="A265" s="10"/>
       <c r="B265" s="4"/>
       <c r="C265" s="5"/>
@@ -6447,12 +6110,11 @@
       <c r="G265" s="5"/>
       <c r="H265" s="7"/>
       <c r="I265" s="8"/>
-      <c r="J265" s="8"/>
+      <c r="J265" s="9"/>
       <c r="K265" s="9"/>
       <c r="L265" s="9"/>
-      <c r="M265" s="9"/>
-    </row>
-    <row r="266" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="266" spans="1:12" ht="49.65" customHeight="1">
       <c r="A266" s="10"/>
       <c r="B266" s="4"/>
       <c r="C266" s="5"/>
@@ -6462,12 +6124,11 @@
       <c r="G266" s="5"/>
       <c r="H266" s="7"/>
       <c r="I266" s="8"/>
-      <c r="J266" s="8"/>
+      <c r="J266" s="9"/>
       <c r="K266" s="9"/>
       <c r="L266" s="9"/>
-      <c r="M266" s="9"/>
-    </row>
-    <row r="267" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="267" spans="1:12" ht="49.65" customHeight="1">
       <c r="A267" s="10"/>
       <c r="B267" s="4"/>
       <c r="C267" s="5"/>
@@ -6477,12 +6138,11 @@
       <c r="G267" s="5"/>
       <c r="H267" s="7"/>
       <c r="I267" s="8"/>
-      <c r="J267" s="8"/>
+      <c r="J267" s="9"/>
       <c r="K267" s="9"/>
       <c r="L267" s="9"/>
-      <c r="M267" s="9"/>
-    </row>
-    <row r="268" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="268" spans="1:12" ht="49.65" customHeight="1">
       <c r="A268" s="10"/>
       <c r="B268" s="4"/>
       <c r="C268" s="5"/>
@@ -6492,12 +6152,11 @@
       <c r="G268" s="5"/>
       <c r="H268" s="7"/>
       <c r="I268" s="8"/>
-      <c r="J268" s="8"/>
+      <c r="J268" s="9"/>
       <c r="K268" s="9"/>
       <c r="L268" s="9"/>
-      <c r="M268" s="9"/>
-    </row>
-    <row r="269" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="269" spans="1:12" ht="49.65" customHeight="1">
       <c r="A269" s="10"/>
       <c r="B269" s="4"/>
       <c r="C269" s="5"/>
@@ -6507,12 +6166,11 @@
       <c r="G269" s="5"/>
       <c r="H269" s="7"/>
       <c r="I269" s="8"/>
-      <c r="J269" s="8"/>
+      <c r="J269" s="9"/>
       <c r="K269" s="9"/>
       <c r="L269" s="9"/>
-      <c r="M269" s="9"/>
-    </row>
-    <row r="270" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="270" spans="1:12" ht="49.65" customHeight="1">
       <c r="A270" s="10"/>
       <c r="B270" s="4"/>
       <c r="C270" s="5"/>
@@ -6522,12 +6180,11 @@
       <c r="G270" s="5"/>
       <c r="H270" s="7"/>
       <c r="I270" s="8"/>
-      <c r="J270" s="8"/>
+      <c r="J270" s="9"/>
       <c r="K270" s="9"/>
       <c r="L270" s="9"/>
-      <c r="M270" s="9"/>
-    </row>
-    <row r="271" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="271" spans="1:12" ht="49.65" customHeight="1">
       <c r="A271" s="10"/>
       <c r="B271" s="4"/>
       <c r="C271" s="5"/>
@@ -6537,12 +6194,11 @@
       <c r="G271" s="5"/>
       <c r="H271" s="7"/>
       <c r="I271" s="8"/>
-      <c r="J271" s="8"/>
+      <c r="J271" s="9"/>
       <c r="K271" s="9"/>
       <c r="L271" s="9"/>
-      <c r="M271" s="9"/>
-    </row>
-    <row r="272" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="272" spans="1:12" ht="49.65" customHeight="1">
       <c r="A272" s="10"/>
       <c r="B272" s="4"/>
       <c r="C272" s="5"/>
@@ -6552,12 +6208,11 @@
       <c r="G272" s="5"/>
       <c r="H272" s="7"/>
       <c r="I272" s="8"/>
-      <c r="J272" s="8"/>
+      <c r="J272" s="9"/>
       <c r="K272" s="9"/>
       <c r="L272" s="9"/>
-      <c r="M272" s="9"/>
-    </row>
-    <row r="273" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="273" spans="1:12" ht="49.65" customHeight="1">
       <c r="A273" s="10"/>
       <c r="B273" s="4"/>
       <c r="C273" s="5"/>
@@ -6567,12 +6222,11 @@
       <c r="G273" s="5"/>
       <c r="H273" s="7"/>
       <c r="I273" s="8"/>
-      <c r="J273" s="8"/>
+      <c r="J273" s="9"/>
       <c r="K273" s="9"/>
       <c r="L273" s="9"/>
-      <c r="M273" s="9"/>
-    </row>
-    <row r="274" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="274" spans="1:12" ht="49.65" customHeight="1">
       <c r="A274" s="10"/>
       <c r="B274" s="4"/>
       <c r="C274" s="5"/>
@@ -6582,12 +6236,11 @@
       <c r="G274" s="5"/>
       <c r="H274" s="7"/>
       <c r="I274" s="8"/>
-      <c r="J274" s="8"/>
+      <c r="J274" s="9"/>
       <c r="K274" s="9"/>
       <c r="L274" s="9"/>
-      <c r="M274" s="9"/>
-    </row>
-    <row r="275" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="275" spans="1:12" ht="49.65" customHeight="1">
       <c r="A275" s="10"/>
       <c r="B275" s="4"/>
       <c r="C275" s="5"/>
@@ -6597,12 +6250,11 @@
       <c r="G275" s="5"/>
       <c r="H275" s="7"/>
       <c r="I275" s="8"/>
-      <c r="J275" s="8"/>
+      <c r="J275" s="9"/>
       <c r="K275" s="9"/>
       <c r="L275" s="9"/>
-      <c r="M275" s="9"/>
-    </row>
-    <row r="276" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="276" spans="1:12" ht="49.65" customHeight="1">
       <c r="A276" s="10"/>
       <c r="B276" s="4"/>
       <c r="C276" s="5"/>
@@ -6612,12 +6264,11 @@
       <c r="G276" s="5"/>
       <c r="H276" s="7"/>
       <c r="I276" s="8"/>
-      <c r="J276" s="8"/>
+      <c r="J276" s="9"/>
       <c r="K276" s="9"/>
       <c r="L276" s="9"/>
-      <c r="M276" s="9"/>
-    </row>
-    <row r="277" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="277" spans="1:12" ht="49.65" customHeight="1">
       <c r="A277" s="10"/>
       <c r="B277" s="4"/>
       <c r="C277" s="5"/>
@@ -6627,12 +6278,11 @@
       <c r="G277" s="5"/>
       <c r="H277" s="7"/>
       <c r="I277" s="8"/>
-      <c r="J277" s="8"/>
+      <c r="J277" s="9"/>
       <c r="K277" s="9"/>
       <c r="L277" s="9"/>
-      <c r="M277" s="9"/>
-    </row>
-    <row r="278" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="278" spans="1:12" ht="49.65" customHeight="1">
       <c r="A278" s="10"/>
       <c r="B278" s="4"/>
       <c r="C278" s="5"/>
@@ -6642,12 +6292,11 @@
       <c r="G278" s="5"/>
       <c r="H278" s="7"/>
       <c r="I278" s="8"/>
-      <c r="J278" s="8"/>
+      <c r="J278" s="9"/>
       <c r="K278" s="9"/>
       <c r="L278" s="9"/>
-      <c r="M278" s="9"/>
-    </row>
-    <row r="279" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="279" spans="1:12" ht="49.65" customHeight="1">
       <c r="A279" s="10"/>
       <c r="B279" s="4"/>
       <c r="C279" s="5"/>
@@ -6657,12 +6306,11 @@
       <c r="G279" s="5"/>
       <c r="H279" s="7"/>
       <c r="I279" s="8"/>
-      <c r="J279" s="8"/>
+      <c r="J279" s="9"/>
       <c r="K279" s="9"/>
       <c r="L279" s="9"/>
-      <c r="M279" s="9"/>
-    </row>
-    <row r="280" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="280" spans="1:12" ht="49.65" customHeight="1">
       <c r="A280" s="10"/>
       <c r="B280" s="4"/>
       <c r="C280" s="5"/>
@@ -6672,12 +6320,11 @@
       <c r="G280" s="5"/>
       <c r="H280" s="7"/>
       <c r="I280" s="8"/>
-      <c r="J280" s="8"/>
+      <c r="J280" s="9"/>
       <c r="K280" s="9"/>
       <c r="L280" s="9"/>
-      <c r="M280" s="9"/>
-    </row>
-    <row r="281" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="281" spans="1:12" ht="49.65" customHeight="1">
       <c r="A281" s="10"/>
       <c r="B281" s="4"/>
       <c r="C281" s="5"/>
@@ -6687,12 +6334,11 @@
       <c r="G281" s="5"/>
       <c r="H281" s="7"/>
       <c r="I281" s="8"/>
-      <c r="J281" s="8"/>
+      <c r="J281" s="9"/>
       <c r="K281" s="9"/>
       <c r="L281" s="9"/>
-      <c r="M281" s="9"/>
-    </row>
-    <row r="282" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="282" spans="1:12" ht="49.65" customHeight="1">
       <c r="A282" s="10"/>
       <c r="B282" s="4"/>
       <c r="C282" s="5"/>
@@ -6702,12 +6348,11 @@
       <c r="G282" s="5"/>
       <c r="H282" s="7"/>
       <c r="I282" s="8"/>
-      <c r="J282" s="8"/>
+      <c r="J282" s="9"/>
       <c r="K282" s="9"/>
       <c r="L282" s="9"/>
-      <c r="M282" s="9"/>
-    </row>
-    <row r="283" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="283" spans="1:12" ht="49.65" customHeight="1">
       <c r="A283" s="10"/>
       <c r="B283" s="4"/>
       <c r="C283" s="5"/>
@@ -6717,12 +6362,11 @@
       <c r="G283" s="5"/>
       <c r="H283" s="7"/>
       <c r="I283" s="8"/>
-      <c r="J283" s="8"/>
+      <c r="J283" s="9"/>
       <c r="K283" s="9"/>
       <c r="L283" s="9"/>
-      <c r="M283" s="9"/>
-    </row>
-    <row r="284" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="284" spans="1:12" ht="49.65" customHeight="1">
       <c r="A284" s="10"/>
       <c r="B284" s="4"/>
       <c r="C284" s="5"/>
@@ -6732,12 +6376,11 @@
       <c r="G284" s="5"/>
       <c r="H284" s="7"/>
       <c r="I284" s="8"/>
-      <c r="J284" s="8"/>
+      <c r="J284" s="9"/>
       <c r="K284" s="9"/>
       <c r="L284" s="9"/>
-      <c r="M284" s="9"/>
-    </row>
-    <row r="285" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="285" spans="1:12" ht="49.65" customHeight="1">
       <c r="A285" s="10"/>
       <c r="B285" s="4"/>
       <c r="C285" s="5"/>
@@ -6747,12 +6390,11 @@
       <c r="G285" s="5"/>
       <c r="H285" s="7"/>
       <c r="I285" s="8"/>
-      <c r="J285" s="8"/>
+      <c r="J285" s="9"/>
       <c r="K285" s="9"/>
       <c r="L285" s="9"/>
-      <c r="M285" s="9"/>
-    </row>
-    <row r="286" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="286" spans="1:12" ht="49.65" customHeight="1">
       <c r="A286" s="10"/>
       <c r="B286" s="4"/>
       <c r="C286" s="5"/>
@@ -6762,12 +6404,11 @@
       <c r="G286" s="5"/>
       <c r="H286" s="7"/>
       <c r="I286" s="8"/>
-      <c r="J286" s="8"/>
+      <c r="J286" s="9"/>
       <c r="K286" s="9"/>
       <c r="L286" s="9"/>
-      <c r="M286" s="9"/>
-    </row>
-    <row r="287" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="287" spans="1:12" ht="49.65" customHeight="1">
       <c r="A287" s="10"/>
       <c r="B287" s="4"/>
       <c r="C287" s="5"/>
@@ -6777,12 +6418,11 @@
       <c r="G287" s="5"/>
       <c r="H287" s="7"/>
       <c r="I287" s="8"/>
-      <c r="J287" s="8"/>
+      <c r="J287" s="9"/>
       <c r="K287" s="9"/>
       <c r="L287" s="9"/>
-      <c r="M287" s="9"/>
-    </row>
-    <row r="288" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="288" spans="1:12" ht="49.65" customHeight="1">
       <c r="A288" s="10"/>
       <c r="B288" s="4"/>
       <c r="C288" s="5"/>
@@ -6792,12 +6432,11 @@
       <c r="G288" s="5"/>
       <c r="H288" s="7"/>
       <c r="I288" s="8"/>
-      <c r="J288" s="8"/>
+      <c r="J288" s="9"/>
       <c r="K288" s="9"/>
       <c r="L288" s="9"/>
-      <c r="M288" s="9"/>
-    </row>
-    <row r="289" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="289" spans="1:12" ht="49.65" customHeight="1">
       <c r="A289" s="10"/>
       <c r="B289" s="4"/>
       <c r="C289" s="5"/>
@@ -6807,12 +6446,11 @@
       <c r="G289" s="5"/>
       <c r="H289" s="7"/>
       <c r="I289" s="8"/>
-      <c r="J289" s="8"/>
+      <c r="J289" s="9"/>
       <c r="K289" s="9"/>
       <c r="L289" s="9"/>
-      <c r="M289" s="9"/>
-    </row>
-    <row r="290" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="290" spans="1:12" ht="49.65" customHeight="1">
       <c r="A290" s="10"/>
       <c r="B290" s="4"/>
       <c r="C290" s="5"/>
@@ -6822,12 +6460,11 @@
       <c r="G290" s="5"/>
       <c r="H290" s="7"/>
       <c r="I290" s="8"/>
-      <c r="J290" s="8"/>
+      <c r="J290" s="9"/>
       <c r="K290" s="9"/>
       <c r="L290" s="9"/>
-      <c r="M290" s="9"/>
-    </row>
-    <row r="291" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="291" spans="1:12" ht="49.65" customHeight="1">
       <c r="A291" s="10"/>
       <c r="B291" s="4"/>
       <c r="C291" s="5"/>
@@ -6837,12 +6474,11 @@
       <c r="G291" s="5"/>
       <c r="H291" s="7"/>
       <c r="I291" s="8"/>
-      <c r="J291" s="8"/>
+      <c r="J291" s="9"/>
       <c r="K291" s="9"/>
       <c r="L291" s="9"/>
-      <c r="M291" s="9"/>
-    </row>
-    <row r="292" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="292" spans="1:12" ht="49.65" customHeight="1">
       <c r="A292" s="10"/>
       <c r="B292" s="4"/>
       <c r="C292" s="5"/>
@@ -6852,12 +6488,11 @@
       <c r="G292" s="5"/>
       <c r="H292" s="7"/>
       <c r="I292" s="8"/>
-      <c r="J292" s="8"/>
+      <c r="J292" s="9"/>
       <c r="K292" s="9"/>
       <c r="L292" s="9"/>
-      <c r="M292" s="9"/>
-    </row>
-    <row r="293" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="293" spans="1:12" ht="49.65" customHeight="1">
       <c r="A293" s="10"/>
       <c r="B293" s="4"/>
       <c r="C293" s="5"/>
@@ -6867,12 +6502,11 @@
       <c r="G293" s="5"/>
       <c r="H293" s="7"/>
       <c r="I293" s="8"/>
-      <c r="J293" s="8"/>
+      <c r="J293" s="9"/>
       <c r="K293" s="9"/>
       <c r="L293" s="9"/>
-      <c r="M293" s="9"/>
-    </row>
-    <row r="294" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="294" spans="1:12" ht="49.65" customHeight="1">
       <c r="A294" s="10"/>
       <c r="B294" s="4"/>
       <c r="C294" s="5"/>
@@ -6882,12 +6516,11 @@
       <c r="G294" s="5"/>
       <c r="H294" s="7"/>
       <c r="I294" s="8"/>
-      <c r="J294" s="8"/>
+      <c r="J294" s="9"/>
       <c r="K294" s="9"/>
       <c r="L294" s="9"/>
-      <c r="M294" s="9"/>
-    </row>
-    <row r="295" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="295" spans="1:12" ht="49.65" customHeight="1">
       <c r="A295" s="10"/>
       <c r="B295" s="4"/>
       <c r="C295" s="5"/>
@@ -6897,12 +6530,11 @@
       <c r="G295" s="5"/>
       <c r="H295" s="7"/>
       <c r="I295" s="8"/>
-      <c r="J295" s="8"/>
+      <c r="J295" s="9"/>
       <c r="K295" s="9"/>
       <c r="L295" s="9"/>
-      <c r="M295" s="9"/>
-    </row>
-    <row r="296" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="296" spans="1:12" ht="49.65" customHeight="1">
       <c r="A296" s="10"/>
       <c r="B296" s="4"/>
       <c r="C296" s="5"/>
@@ -6912,12 +6544,11 @@
       <c r="G296" s="5"/>
       <c r="H296" s="7"/>
       <c r="I296" s="8"/>
-      <c r="J296" s="8"/>
+      <c r="J296" s="9"/>
       <c r="K296" s="9"/>
       <c r="L296" s="9"/>
-      <c r="M296" s="9"/>
-    </row>
-    <row r="297" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="297" spans="1:12" ht="49.65" customHeight="1">
       <c r="A297" s="10"/>
       <c r="B297" s="4"/>
       <c r="C297" s="5"/>
@@ -6927,12 +6558,11 @@
       <c r="G297" s="5"/>
       <c r="H297" s="7"/>
       <c r="I297" s="8"/>
-      <c r="J297" s="8"/>
+      <c r="J297" s="9"/>
       <c r="K297" s="9"/>
       <c r="L297" s="9"/>
-      <c r="M297" s="9"/>
-    </row>
-    <row r="298" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="298" spans="1:12" ht="49.65" customHeight="1">
       <c r="A298" s="10"/>
       <c r="B298" s="4"/>
       <c r="C298" s="5"/>
@@ -6942,12 +6572,11 @@
       <c r="G298" s="5"/>
       <c r="H298" s="7"/>
       <c r="I298" s="8"/>
-      <c r="J298" s="8"/>
+      <c r="J298" s="9"/>
       <c r="K298" s="9"/>
       <c r="L298" s="9"/>
-      <c r="M298" s="9"/>
-    </row>
-    <row r="299" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="299" spans="1:12" ht="49.65" customHeight="1">
       <c r="A299" s="10"/>
       <c r="B299" s="4"/>
       <c r="C299" s="5"/>
@@ -6957,12 +6586,11 @@
       <c r="G299" s="5"/>
       <c r="H299" s="7"/>
       <c r="I299" s="8"/>
-      <c r="J299" s="8"/>
+      <c r="J299" s="9"/>
       <c r="K299" s="9"/>
       <c r="L299" s="9"/>
-      <c r="M299" s="9"/>
-    </row>
-    <row r="300" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="300" spans="1:12" ht="49.65" customHeight="1">
       <c r="A300" s="10"/>
       <c r="B300" s="4"/>
       <c r="C300" s="5"/>
@@ -6972,12 +6600,11 @@
       <c r="G300" s="5"/>
       <c r="H300" s="7"/>
       <c r="I300" s="8"/>
-      <c r="J300" s="8"/>
+      <c r="J300" s="9"/>
       <c r="K300" s="9"/>
       <c r="L300" s="9"/>
-      <c r="M300" s="9"/>
-    </row>
-    <row r="301" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="301" spans="1:12" ht="49.65" customHeight="1">
       <c r="A301" s="10"/>
       <c r="B301" s="4"/>
       <c r="C301" s="5"/>
@@ -6987,12 +6614,11 @@
       <c r="G301" s="5"/>
       <c r="H301" s="7"/>
       <c r="I301" s="8"/>
-      <c r="J301" s="8"/>
+      <c r="J301" s="9"/>
       <c r="K301" s="9"/>
       <c r="L301" s="9"/>
-      <c r="M301" s="9"/>
-    </row>
-    <row r="302" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="302" spans="1:12" ht="49.65" customHeight="1">
       <c r="A302" s="10"/>
       <c r="B302" s="4"/>
       <c r="C302" s="5"/>
@@ -7002,12 +6628,11 @@
       <c r="G302" s="5"/>
       <c r="H302" s="7"/>
       <c r="I302" s="8"/>
-      <c r="J302" s="8"/>
+      <c r="J302" s="9"/>
       <c r="K302" s="9"/>
       <c r="L302" s="9"/>
-      <c r="M302" s="9"/>
-    </row>
-    <row r="303" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="303" spans="1:12" ht="49.65" customHeight="1">
       <c r="A303" s="10"/>
       <c r="B303" s="4"/>
       <c r="C303" s="5"/>
@@ -7017,12 +6642,11 @@
       <c r="G303" s="5"/>
       <c r="H303" s="7"/>
       <c r="I303" s="8"/>
-      <c r="J303" s="8"/>
+      <c r="J303" s="9"/>
       <c r="K303" s="9"/>
       <c r="L303" s="9"/>
-      <c r="M303" s="9"/>
-    </row>
-    <row r="304" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="304" spans="1:12" ht="49.65" customHeight="1">
       <c r="A304" s="10"/>
       <c r="B304" s="4"/>
       <c r="C304" s="5"/>
@@ -7032,12 +6656,11 @@
       <c r="G304" s="5"/>
       <c r="H304" s="7"/>
       <c r="I304" s="8"/>
-      <c r="J304" s="8"/>
+      <c r="J304" s="9"/>
       <c r="K304" s="9"/>
       <c r="L304" s="9"/>
-      <c r="M304" s="9"/>
-    </row>
-    <row r="305" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="305" spans="1:12" ht="49.65" customHeight="1">
       <c r="A305" s="10"/>
       <c r="B305" s="4"/>
       <c r="C305" s="5"/>
@@ -7047,12 +6670,11 @@
       <c r="G305" s="5"/>
       <c r="H305" s="7"/>
       <c r="I305" s="8"/>
-      <c r="J305" s="8"/>
+      <c r="J305" s="9"/>
       <c r="K305" s="9"/>
       <c r="L305" s="9"/>
-      <c r="M305" s="9"/>
-    </row>
-    <row r="306" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="306" spans="1:12" ht="49.65" customHeight="1">
       <c r="A306" s="10"/>
       <c r="B306" s="4"/>
       <c r="C306" s="5"/>
@@ -7062,12 +6684,11 @@
       <c r="G306" s="5"/>
       <c r="H306" s="7"/>
       <c r="I306" s="8"/>
-      <c r="J306" s="8"/>
+      <c r="J306" s="9"/>
       <c r="K306" s="9"/>
       <c r="L306" s="9"/>
-      <c r="M306" s="9"/>
-    </row>
-    <row r="307" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="307" spans="1:12" ht="49.65" customHeight="1">
       <c r="A307" s="10"/>
       <c r="B307" s="4"/>
       <c r="C307" s="5"/>
@@ -7077,12 +6698,11 @@
       <c r="G307" s="5"/>
       <c r="H307" s="7"/>
       <c r="I307" s="8"/>
-      <c r="J307" s="8"/>
+      <c r="J307" s="9"/>
       <c r="K307" s="9"/>
       <c r="L307" s="9"/>
-      <c r="M307" s="9"/>
-    </row>
-    <row r="308" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="308" spans="1:12" ht="49.65" customHeight="1">
       <c r="A308" s="10"/>
       <c r="B308" s="4"/>
       <c r="C308" s="5"/>
@@ -7092,12 +6712,11 @@
       <c r="G308" s="5"/>
       <c r="H308" s="7"/>
       <c r="I308" s="8"/>
-      <c r="J308" s="8"/>
+      <c r="J308" s="9"/>
       <c r="K308" s="9"/>
       <c r="L308" s="9"/>
-      <c r="M308" s="9"/>
-    </row>
-    <row r="309" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="309" spans="1:12" ht="49.65" customHeight="1">
       <c r="A309" s="10"/>
       <c r="B309" s="4"/>
       <c r="C309" s="5"/>
@@ -7107,12 +6726,11 @@
       <c r="G309" s="5"/>
       <c r="H309" s="7"/>
       <c r="I309" s="8"/>
-      <c r="J309" s="8"/>
+      <c r="J309" s="9"/>
       <c r="K309" s="9"/>
       <c r="L309" s="9"/>
-      <c r="M309" s="9"/>
-    </row>
-    <row r="310" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="310" spans="1:12" ht="49.65" customHeight="1">
       <c r="A310" s="10"/>
       <c r="B310" s="4"/>
       <c r="C310" s="5"/>
@@ -7122,12 +6740,11 @@
       <c r="G310" s="5"/>
       <c r="H310" s="7"/>
       <c r="I310" s="8"/>
-      <c r="J310" s="8"/>
+      <c r="J310" s="9"/>
       <c r="K310" s="9"/>
       <c r="L310" s="9"/>
-      <c r="M310" s="9"/>
-    </row>
-    <row r="311" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="311" spans="1:12" ht="49.65" customHeight="1">
       <c r="A311" s="10"/>
       <c r="B311" s="4"/>
       <c r="C311" s="5"/>
@@ -7137,12 +6754,11 @@
       <c r="G311" s="5"/>
       <c r="H311" s="7"/>
       <c r="I311" s="8"/>
-      <c r="J311" s="8"/>
+      <c r="J311" s="9"/>
       <c r="K311" s="9"/>
       <c r="L311" s="9"/>
-      <c r="M311" s="9"/>
-    </row>
-    <row r="312" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="312" spans="1:12" ht="49.65" customHeight="1">
       <c r="A312" s="10"/>
       <c r="B312" s="4"/>
       <c r="C312" s="5"/>
@@ -7152,12 +6768,11 @@
       <c r="G312" s="5"/>
       <c r="H312" s="7"/>
       <c r="I312" s="8"/>
-      <c r="J312" s="8"/>
+      <c r="J312" s="9"/>
       <c r="K312" s="9"/>
       <c r="L312" s="9"/>
-      <c r="M312" s="9"/>
-    </row>
-    <row r="313" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="313" spans="1:12" ht="49.65" customHeight="1">
       <c r="A313" s="10"/>
       <c r="B313" s="4"/>
       <c r="C313" s="5"/>
@@ -7167,12 +6782,11 @@
       <c r="G313" s="5"/>
       <c r="H313" s="7"/>
       <c r="I313" s="8"/>
-      <c r="J313" s="8"/>
+      <c r="J313" s="9"/>
       <c r="K313" s="9"/>
       <c r="L313" s="9"/>
-      <c r="M313" s="9"/>
-    </row>
-    <row r="314" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="314" spans="1:12" ht="49.65" customHeight="1">
       <c r="A314" s="10"/>
       <c r="B314" s="4"/>
       <c r="C314" s="5"/>
@@ -7182,12 +6796,11 @@
       <c r="G314" s="5"/>
       <c r="H314" s="7"/>
       <c r="I314" s="8"/>
-      <c r="J314" s="8"/>
+      <c r="J314" s="9"/>
       <c r="K314" s="9"/>
       <c r="L314" s="9"/>
-      <c r="M314" s="9"/>
-    </row>
-    <row r="315" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="315" spans="1:12" ht="49.65" customHeight="1">
       <c r="A315" s="10"/>
       <c r="B315" s="4"/>
       <c r="C315" s="5"/>
@@ -7197,12 +6810,11 @@
       <c r="G315" s="5"/>
       <c r="H315" s="7"/>
       <c r="I315" s="8"/>
-      <c r="J315" s="8"/>
+      <c r="J315" s="9"/>
       <c r="K315" s="9"/>
       <c r="L315" s="9"/>
-      <c r="M315" s="9"/>
-    </row>
-    <row r="316" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="316" spans="1:12" ht="49.65" customHeight="1">
       <c r="A316" s="10"/>
       <c r="B316" s="4"/>
       <c r="C316" s="5"/>
@@ -7212,12 +6824,11 @@
       <c r="G316" s="5"/>
       <c r="H316" s="7"/>
       <c r="I316" s="8"/>
-      <c r="J316" s="8"/>
+      <c r="J316" s="9"/>
       <c r="K316" s="9"/>
       <c r="L316" s="9"/>
-      <c r="M316" s="9"/>
-    </row>
-    <row r="317" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="317" spans="1:12" ht="49.65" customHeight="1">
       <c r="A317" s="10"/>
       <c r="B317" s="4"/>
       <c r="C317" s="5"/>
@@ -7227,12 +6838,11 @@
       <c r="G317" s="5"/>
       <c r="H317" s="7"/>
       <c r="I317" s="8"/>
-      <c r="J317" s="8"/>
+      <c r="J317" s="9"/>
       <c r="K317" s="9"/>
       <c r="L317" s="9"/>
-      <c r="M317" s="9"/>
-    </row>
-    <row r="318" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="318" spans="1:12" ht="49.65" customHeight="1">
       <c r="A318" s="10"/>
       <c r="B318" s="4"/>
       <c r="C318" s="5"/>
@@ -7242,12 +6852,11 @@
       <c r="G318" s="5"/>
       <c r="H318" s="7"/>
       <c r="I318" s="8"/>
-      <c r="J318" s="8"/>
+      <c r="J318" s="9"/>
       <c r="K318" s="9"/>
       <c r="L318" s="9"/>
-      <c r="M318" s="9"/>
-    </row>
-    <row r="319" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="319" spans="1:12" ht="49.65" customHeight="1">
       <c r="A319" s="10"/>
       <c r="B319" s="4"/>
       <c r="C319" s="5"/>
@@ -7257,12 +6866,11 @@
       <c r="G319" s="5"/>
       <c r="H319" s="7"/>
       <c r="I319" s="8"/>
-      <c r="J319" s="8"/>
+      <c r="J319" s="9"/>
       <c r="K319" s="9"/>
       <c r="L319" s="9"/>
-      <c r="M319" s="9"/>
-    </row>
-    <row r="320" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="320" spans="1:12" ht="49.65" customHeight="1">
       <c r="A320" s="10"/>
       <c r="B320" s="4"/>
       <c r="C320" s="5"/>
@@ -7272,12 +6880,11 @@
       <c r="G320" s="5"/>
       <c r="H320" s="7"/>
       <c r="I320" s="8"/>
-      <c r="J320" s="8"/>
+      <c r="J320" s="9"/>
       <c r="K320" s="9"/>
       <c r="L320" s="9"/>
-      <c r="M320" s="9"/>
-    </row>
-    <row r="321" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="321" spans="1:12" ht="49.65" customHeight="1">
       <c r="A321" s="10"/>
       <c r="B321" s="4"/>
       <c r="C321" s="5"/>
@@ -7287,12 +6894,11 @@
       <c r="G321" s="5"/>
       <c r="H321" s="7"/>
       <c r="I321" s="8"/>
-      <c r="J321" s="8"/>
+      <c r="J321" s="9"/>
       <c r="K321" s="9"/>
       <c r="L321" s="9"/>
-      <c r="M321" s="9"/>
-    </row>
-    <row r="322" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="322" spans="1:12" ht="49.65" customHeight="1">
       <c r="A322" s="10"/>
       <c r="B322" s="4"/>
       <c r="C322" s="5"/>
@@ -7302,12 +6908,11 @@
       <c r="G322" s="5"/>
       <c r="H322" s="7"/>
       <c r="I322" s="8"/>
-      <c r="J322" s="8"/>
+      <c r="J322" s="9"/>
       <c r="K322" s="9"/>
       <c r="L322" s="9"/>
-      <c r="M322" s="9"/>
-    </row>
-    <row r="323" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="323" spans="1:12" ht="49.65" customHeight="1">
       <c r="A323" s="10"/>
       <c r="B323" s="4"/>
       <c r="C323" s="5"/>
@@ -7317,12 +6922,11 @@
       <c r="G323" s="5"/>
       <c r="H323" s="7"/>
       <c r="I323" s="8"/>
-      <c r="J323" s="8"/>
+      <c r="J323" s="9"/>
       <c r="K323" s="9"/>
       <c r="L323" s="9"/>
-      <c r="M323" s="9"/>
-    </row>
-    <row r="324" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="324" spans="1:12" ht="49.65" customHeight="1">
       <c r="A324" s="10"/>
       <c r="B324" s="4"/>
       <c r="C324" s="5"/>
@@ -7332,12 +6936,11 @@
       <c r="G324" s="5"/>
       <c r="H324" s="7"/>
       <c r="I324" s="8"/>
-      <c r="J324" s="8"/>
+      <c r="J324" s="9"/>
       <c r="K324" s="9"/>
       <c r="L324" s="9"/>
-      <c r="M324" s="9"/>
-    </row>
-    <row r="325" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="325" spans="1:12" ht="49.65" customHeight="1">
       <c r="A325" s="10"/>
       <c r="B325" s="4"/>
       <c r="C325" s="5"/>
@@ -7347,12 +6950,11 @@
       <c r="G325" s="5"/>
       <c r="H325" s="7"/>
       <c r="I325" s="8"/>
-      <c r="J325" s="8"/>
+      <c r="J325" s="9"/>
       <c r="K325" s="9"/>
       <c r="L325" s="9"/>
-      <c r="M325" s="9"/>
-    </row>
-    <row r="326" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="326" spans="1:12" ht="49.65" customHeight="1">
       <c r="A326" s="10"/>
       <c r="B326" s="4"/>
       <c r="C326" s="5"/>
@@ -7362,12 +6964,11 @@
       <c r="G326" s="5"/>
       <c r="H326" s="7"/>
       <c r="I326" s="8"/>
-      <c r="J326" s="8"/>
+      <c r="J326" s="9"/>
       <c r="K326" s="9"/>
       <c r="L326" s="9"/>
-      <c r="M326" s="9"/>
-    </row>
-    <row r="327" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="327" spans="1:12" ht="49.65" customHeight="1">
       <c r="A327" s="10"/>
       <c r="B327" s="4"/>
       <c r="C327" s="5"/>
@@ -7377,12 +6978,11 @@
       <c r="G327" s="5"/>
       <c r="H327" s="7"/>
       <c r="I327" s="8"/>
-      <c r="J327" s="8"/>
+      <c r="J327" s="9"/>
       <c r="K327" s="9"/>
       <c r="L327" s="9"/>
-      <c r="M327" s="9"/>
-    </row>
-    <row r="328" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="328" spans="1:12" ht="49.65" customHeight="1">
       <c r="A328" s="10"/>
       <c r="B328" s="4"/>
       <c r="C328" s="5"/>
@@ -7392,12 +6992,11 @@
       <c r="G328" s="5"/>
       <c r="H328" s="7"/>
       <c r="I328" s="8"/>
-      <c r="J328" s="8"/>
+      <c r="J328" s="9"/>
       <c r="K328" s="9"/>
       <c r="L328" s="9"/>
-      <c r="M328" s="9"/>
-    </row>
-    <row r="329" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="329" spans="1:12" ht="49.65" customHeight="1">
       <c r="A329" s="10"/>
       <c r="B329" s="4"/>
       <c r="C329" s="5"/>
@@ -7407,12 +7006,11 @@
       <c r="G329" s="5"/>
       <c r="H329" s="7"/>
       <c r="I329" s="8"/>
-      <c r="J329" s="8"/>
+      <c r="J329" s="9"/>
       <c r="K329" s="9"/>
-      <c r="L329" s="9"/>
-      <c r="M329" s="5"/>
-    </row>
-    <row r="330" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L329" s="5"/>
+    </row>
+    <row r="330" spans="1:12" ht="49.65" customHeight="1">
       <c r="A330" s="10"/>
       <c r="B330" s="4"/>
       <c r="C330" s="5"/>
@@ -7422,12 +7020,11 @@
       <c r="G330" s="5"/>
       <c r="H330" s="7"/>
       <c r="I330" s="8"/>
-      <c r="J330" s="8"/>
+      <c r="J330" s="9"/>
       <c r="K330" s="9"/>
-      <c r="L330" s="9"/>
-      <c r="M330" s="5"/>
-    </row>
-    <row r="331" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L330" s="5"/>
+    </row>
+    <row r="331" spans="1:12" ht="49.65" customHeight="1">
       <c r="A331" s="10"/>
       <c r="B331" s="4"/>
       <c r="C331" s="5"/>
@@ -7437,12 +7034,11 @@
       <c r="G331" s="5"/>
       <c r="H331" s="7"/>
       <c r="I331" s="8"/>
-      <c r="J331" s="8"/>
+      <c r="J331" s="9"/>
       <c r="K331" s="9"/>
-      <c r="L331" s="9"/>
-      <c r="M331" s="5"/>
-    </row>
-    <row r="332" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L331" s="5"/>
+    </row>
+    <row r="332" spans="1:12" ht="49.65" customHeight="1">
       <c r="A332" s="10"/>
       <c r="B332" s="4"/>
       <c r="C332" s="5"/>
@@ -7452,12 +7048,11 @@
       <c r="G332" s="5"/>
       <c r="H332" s="7"/>
       <c r="I332" s="8"/>
-      <c r="J332" s="8"/>
+      <c r="J332" s="9"/>
       <c r="K332" s="9"/>
-      <c r="L332" s="9"/>
-      <c r="M332" s="5"/>
-    </row>
-    <row r="333" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L332" s="5"/>
+    </row>
+    <row r="333" spans="1:12" ht="49.65" customHeight="1">
       <c r="A333" s="10"/>
       <c r="B333" s="4"/>
       <c r="C333" s="5"/>
@@ -7467,12 +7062,11 @@
       <c r="G333" s="5"/>
       <c r="H333" s="7"/>
       <c r="I333" s="8"/>
-      <c r="J333" s="8"/>
+      <c r="J333" s="9"/>
       <c r="K333" s="9"/>
-      <c r="L333" s="9"/>
-      <c r="M333" s="5"/>
-    </row>
-    <row r="334" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L333" s="5"/>
+    </row>
+    <row r="334" spans="1:12" ht="49.65" customHeight="1">
       <c r="A334" s="10"/>
       <c r="B334" s="4"/>
       <c r="C334" s="5"/>
@@ -7482,12 +7076,11 @@
       <c r="G334" s="5"/>
       <c r="H334" s="7"/>
       <c r="I334" s="8"/>
-      <c r="J334" s="8"/>
+      <c r="J334" s="9"/>
       <c r="K334" s="9"/>
-      <c r="L334" s="9"/>
-      <c r="M334" s="5"/>
-    </row>
-    <row r="335" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L334" s="5"/>
+    </row>
+    <row r="335" spans="1:12" ht="49.65" customHeight="1">
       <c r="A335" s="10"/>
       <c r="B335" s="4"/>
       <c r="C335" s="5"/>
@@ -7497,12 +7090,11 @@
       <c r="G335" s="5"/>
       <c r="H335" s="7"/>
       <c r="I335" s="8"/>
-      <c r="J335" s="8"/>
+      <c r="J335" s="9"/>
       <c r="K335" s="9"/>
-      <c r="L335" s="9"/>
-      <c r="M335" s="5"/>
-    </row>
-    <row r="336" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L335" s="5"/>
+    </row>
+    <row r="336" spans="1:12" ht="49.65" customHeight="1">
       <c r="A336" s="10"/>
       <c r="B336" s="4"/>
       <c r="C336" s="5"/>
@@ -7512,12 +7104,11 @@
       <c r="G336" s="5"/>
       <c r="H336" s="7"/>
       <c r="I336" s="8"/>
-      <c r="J336" s="8"/>
+      <c r="J336" s="9"/>
       <c r="K336" s="9"/>
-      <c r="L336" s="9"/>
-      <c r="M336" s="5"/>
-    </row>
-    <row r="337" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L336" s="5"/>
+    </row>
+    <row r="337" spans="1:12" ht="49.65" customHeight="1">
       <c r="A337" s="10"/>
       <c r="B337" s="4"/>
       <c r="C337" s="5"/>
@@ -7527,12 +7118,11 @@
       <c r="G337" s="5"/>
       <c r="H337" s="7"/>
       <c r="I337" s="8"/>
-      <c r="J337" s="8"/>
+      <c r="J337" s="9"/>
       <c r="K337" s="9"/>
-      <c r="L337" s="9"/>
-      <c r="M337" s="5"/>
-    </row>
-    <row r="338" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L337" s="5"/>
+    </row>
+    <row r="338" spans="1:12" ht="49.65" customHeight="1">
       <c r="A338" s="10"/>
       <c r="B338" s="4"/>
       <c r="C338" s="5"/>
@@ -7542,12 +7132,11 @@
       <c r="G338" s="5"/>
       <c r="H338" s="7"/>
       <c r="I338" s="8"/>
-      <c r="J338" s="8"/>
+      <c r="J338" s="9"/>
       <c r="K338" s="9"/>
-      <c r="L338" s="9"/>
-      <c r="M338" s="5"/>
-    </row>
-    <row r="339" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L338" s="5"/>
+    </row>
+    <row r="339" spans="1:12" ht="49.65" customHeight="1">
       <c r="A339" s="10"/>
       <c r="B339" s="4"/>
       <c r="C339" s="5"/>
@@ -7557,12 +7146,11 @@
       <c r="G339" s="5"/>
       <c r="H339" s="7"/>
       <c r="I339" s="8"/>
-      <c r="J339" s="8"/>
+      <c r="J339" s="9"/>
       <c r="K339" s="9"/>
-      <c r="L339" s="9"/>
-      <c r="M339" s="5"/>
-    </row>
-    <row r="340" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L339" s="5"/>
+    </row>
+    <row r="340" spans="1:12" ht="49.65" customHeight="1">
       <c r="A340" s="10"/>
       <c r="B340" s="4"/>
       <c r="C340" s="5"/>
@@ -7572,12 +7160,11 @@
       <c r="G340" s="5"/>
       <c r="H340" s="7"/>
       <c r="I340" s="8"/>
-      <c r="J340" s="8"/>
+      <c r="J340" s="9"/>
       <c r="K340" s="9"/>
-      <c r="L340" s="9"/>
-      <c r="M340" s="5"/>
-    </row>
-    <row r="341" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L340" s="5"/>
+    </row>
+    <row r="341" spans="1:12" ht="49.65" customHeight="1">
       <c r="A341" s="10"/>
       <c r="B341" s="4"/>
       <c r="C341" s="5"/>
@@ -7587,12 +7174,11 @@
       <c r="G341" s="5"/>
       <c r="H341" s="7"/>
       <c r="I341" s="8"/>
-      <c r="J341" s="8"/>
+      <c r="J341" s="9"/>
       <c r="K341" s="9"/>
-      <c r="L341" s="9"/>
-      <c r="M341" s="5"/>
-    </row>
-    <row r="342" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L341" s="5"/>
+    </row>
+    <row r="342" spans="1:12" ht="49.65" customHeight="1">
       <c r="A342" s="10"/>
       <c r="B342" s="4"/>
       <c r="C342" s="5"/>
@@ -7602,12 +7188,11 @@
       <c r="G342" s="5"/>
       <c r="H342" s="7"/>
       <c r="I342" s="8"/>
-      <c r="J342" s="8"/>
+      <c r="J342" s="9"/>
       <c r="K342" s="9"/>
-      <c r="L342" s="9"/>
-      <c r="M342" s="5"/>
-    </row>
-    <row r="343" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L342" s="5"/>
+    </row>
+    <row r="343" spans="1:12" ht="49.65" customHeight="1">
       <c r="A343" s="10"/>
       <c r="B343" s="4"/>
       <c r="C343" s="5"/>
@@ -7617,12 +7202,11 @@
       <c r="G343" s="5"/>
       <c r="H343" s="7"/>
       <c r="I343" s="8"/>
-      <c r="J343" s="8"/>
+      <c r="J343" s="9"/>
       <c r="K343" s="9"/>
-      <c r="L343" s="9"/>
-      <c r="M343" s="5"/>
-    </row>
-    <row r="344" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L343" s="5"/>
+    </row>
+    <row r="344" spans="1:12" ht="49.65" customHeight="1">
       <c r="A344" s="10"/>
       <c r="B344" s="4"/>
       <c r="C344" s="5"/>
@@ -7632,12 +7216,11 @@
       <c r="G344" s="5"/>
       <c r="H344" s="7"/>
       <c r="I344" s="8"/>
-      <c r="J344" s="8"/>
+      <c r="J344" s="9"/>
       <c r="K344" s="9"/>
-      <c r="L344" s="9"/>
-      <c r="M344" s="5"/>
-    </row>
-    <row r="345" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L344" s="5"/>
+    </row>
+    <row r="345" spans="1:12" ht="49.65" customHeight="1">
       <c r="A345" s="10"/>
       <c r="B345" s="4"/>
       <c r="C345" s="5"/>
@@ -7647,12 +7230,11 @@
       <c r="G345" s="5"/>
       <c r="H345" s="7"/>
       <c r="I345" s="8"/>
-      <c r="J345" s="8"/>
+      <c r="J345" s="9"/>
       <c r="K345" s="9"/>
-      <c r="L345" s="9"/>
-      <c r="M345" s="5"/>
-    </row>
-    <row r="346" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L345" s="5"/>
+    </row>
+    <row r="346" spans="1:12" ht="49.65" customHeight="1">
       <c r="A346" s="10"/>
       <c r="B346" s="4"/>
       <c r="C346" s="5"/>
@@ -7662,12 +7244,11 @@
       <c r="G346" s="5"/>
       <c r="H346" s="7"/>
       <c r="I346" s="8"/>
-      <c r="J346" s="8"/>
+      <c r="J346" s="9"/>
       <c r="K346" s="9"/>
-      <c r="L346" s="9"/>
-      <c r="M346" s="5"/>
-    </row>
-    <row r="347" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L346" s="5"/>
+    </row>
+    <row r="347" spans="1:12" ht="49.65" customHeight="1">
       <c r="A347" s="10"/>
       <c r="B347" s="4"/>
       <c r="C347" s="5"/>
@@ -7677,12 +7258,11 @@
       <c r="G347" s="5"/>
       <c r="H347" s="7"/>
       <c r="I347" s="8"/>
-      <c r="J347" s="8"/>
+      <c r="J347" s="9"/>
       <c r="K347" s="9"/>
-      <c r="L347" s="9"/>
-      <c r="M347" s="5"/>
-    </row>
-    <row r="348" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L347" s="5"/>
+    </row>
+    <row r="348" spans="1:12" ht="49.65" customHeight="1">
       <c r="A348" s="10"/>
       <c r="B348" s="4"/>
       <c r="C348" s="5"/>
@@ -7692,12 +7272,11 @@
       <c r="G348" s="5"/>
       <c r="H348" s="7"/>
       <c r="I348" s="8"/>
-      <c r="J348" s="8"/>
+      <c r="J348" s="9"/>
       <c r="K348" s="9"/>
-      <c r="L348" s="9"/>
-      <c r="M348" s="5"/>
-    </row>
-    <row r="349" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L348" s="5"/>
+    </row>
+    <row r="349" spans="1:12" ht="49.65" customHeight="1">
       <c r="A349" s="10"/>
       <c r="B349" s="4"/>
       <c r="C349" s="5"/>
@@ -7707,12 +7286,11 @@
       <c r="G349" s="5"/>
       <c r="H349" s="7"/>
       <c r="I349" s="8"/>
-      <c r="J349" s="8"/>
+      <c r="J349" s="9"/>
       <c r="K349" s="9"/>
-      <c r="L349" s="9"/>
-      <c r="M349" s="5"/>
-    </row>
-    <row r="350" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L349" s="5"/>
+    </row>
+    <row r="350" spans="1:12" ht="49.65" customHeight="1">
       <c r="A350" s="10"/>
       <c r="B350" s="4"/>
       <c r="C350" s="5"/>
@@ -7722,12 +7300,11 @@
       <c r="G350" s="5"/>
       <c r="H350" s="7"/>
       <c r="I350" s="8"/>
-      <c r="J350" s="8"/>
+      <c r="J350" s="9"/>
       <c r="K350" s="9"/>
-      <c r="L350" s="9"/>
-      <c r="M350" s="5"/>
-    </row>
-    <row r="351" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L350" s="5"/>
+    </row>
+    <row r="351" spans="1:12" ht="49.65" customHeight="1">
       <c r="A351" s="10"/>
       <c r="B351" s="4"/>
       <c r="C351" s="5"/>
@@ -7737,12 +7314,11 @@
       <c r="G351" s="5"/>
       <c r="H351" s="7"/>
       <c r="I351" s="8"/>
-      <c r="J351" s="8"/>
+      <c r="J351" s="9"/>
       <c r="K351" s="9"/>
-      <c r="L351" s="9"/>
-      <c r="M351" s="5"/>
-    </row>
-    <row r="352" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L351" s="5"/>
+    </row>
+    <row r="352" spans="1:12" ht="49.65" customHeight="1">
       <c r="A352" s="10"/>
       <c r="B352" s="4"/>
       <c r="C352" s="5"/>
@@ -7752,12 +7328,11 @@
       <c r="G352" s="5"/>
       <c r="H352" s="7"/>
       <c r="I352" s="8"/>
-      <c r="J352" s="8"/>
+      <c r="J352" s="9"/>
       <c r="K352" s="9"/>
-      <c r="L352" s="9"/>
-      <c r="M352" s="5"/>
-    </row>
-    <row r="353" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L352" s="5"/>
+    </row>
+    <row r="353" spans="1:12" ht="49.65" customHeight="1">
       <c r="A353" s="10"/>
       <c r="B353" s="4"/>
       <c r="C353" s="5"/>
@@ -7767,12 +7342,11 @@
       <c r="G353" s="5"/>
       <c r="H353" s="7"/>
       <c r="I353" s="8"/>
-      <c r="J353" s="8"/>
+      <c r="J353" s="9"/>
       <c r="K353" s="9"/>
-      <c r="L353" s="9"/>
-      <c r="M353" s="5"/>
-    </row>
-    <row r="354" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L353" s="5"/>
+    </row>
+    <row r="354" spans="1:12" ht="49.65" customHeight="1">
       <c r="A354" s="10"/>
       <c r="B354" s="4"/>
       <c r="C354" s="5"/>
@@ -7782,12 +7356,11 @@
       <c r="G354" s="5"/>
       <c r="H354" s="7"/>
       <c r="I354" s="8"/>
-      <c r="J354" s="8"/>
+      <c r="J354" s="9"/>
       <c r="K354" s="9"/>
-      <c r="L354" s="9"/>
-      <c r="M354" s="5"/>
-    </row>
-    <row r="355" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L354" s="5"/>
+    </row>
+    <row r="355" spans="1:12" ht="49.65" customHeight="1">
       <c r="A355" s="10"/>
       <c r="B355" s="4"/>
       <c r="C355" s="5"/>
@@ -7797,12 +7370,11 @@
       <c r="G355" s="5"/>
       <c r="H355" s="7"/>
       <c r="I355" s="8"/>
-      <c r="J355" s="8"/>
+      <c r="J355" s="9"/>
       <c r="K355" s="9"/>
-      <c r="L355" s="9"/>
-      <c r="M355" s="5"/>
-    </row>
-    <row r="356" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L355" s="5"/>
+    </row>
+    <row r="356" spans="1:12" ht="49.65" customHeight="1">
       <c r="A356" s="10"/>
       <c r="B356" s="4"/>
       <c r="C356" s="5"/>
@@ -7812,12 +7384,11 @@
       <c r="G356" s="5"/>
       <c r="H356" s="7"/>
       <c r="I356" s="8"/>
-      <c r="J356" s="8"/>
+      <c r="J356" s="9"/>
       <c r="K356" s="9"/>
-      <c r="L356" s="9"/>
-      <c r="M356" s="5"/>
-    </row>
-    <row r="357" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L356" s="5"/>
+    </row>
+    <row r="357" spans="1:12" ht="49.65" customHeight="1">
       <c r="A357" s="10"/>
       <c r="B357" s="4"/>
       <c r="C357" s="5"/>
@@ -7827,12 +7398,11 @@
       <c r="G357" s="5"/>
       <c r="H357" s="7"/>
       <c r="I357" s="8"/>
-      <c r="J357" s="8"/>
+      <c r="J357" s="9"/>
       <c r="K357" s="9"/>
-      <c r="L357" s="9"/>
-      <c r="M357" s="5"/>
-    </row>
-    <row r="358" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L357" s="5"/>
+    </row>
+    <row r="358" spans="1:12" ht="49.65" customHeight="1">
       <c r="A358" s="10"/>
       <c r="B358" s="4"/>
       <c r="C358" s="5"/>
@@ -7842,12 +7412,11 @@
       <c r="G358" s="5"/>
       <c r="H358" s="7"/>
       <c r="I358" s="8"/>
-      <c r="J358" s="8"/>
+      <c r="J358" s="9"/>
       <c r="K358" s="9"/>
-      <c r="L358" s="9"/>
-      <c r="M358" s="5"/>
-    </row>
-    <row r="359" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L358" s="5"/>
+    </row>
+    <row r="359" spans="1:12" ht="49.65" customHeight="1">
       <c r="A359" s="10"/>
       <c r="B359" s="4"/>
       <c r="C359" s="5"/>
@@ -7857,12 +7426,11 @@
       <c r="G359" s="5"/>
       <c r="H359" s="7"/>
       <c r="I359" s="8"/>
-      <c r="J359" s="8"/>
+      <c r="J359" s="9"/>
       <c r="K359" s="9"/>
-      <c r="L359" s="9"/>
-      <c r="M359" s="5"/>
-    </row>
-    <row r="360" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L359" s="5"/>
+    </row>
+    <row r="360" spans="1:12" ht="49.65" customHeight="1">
       <c r="A360" s="10"/>
       <c r="B360" s="4"/>
       <c r="C360" s="5"/>
@@ -7872,12 +7440,11 @@
       <c r="G360" s="5"/>
       <c r="H360" s="7"/>
       <c r="I360" s="8"/>
-      <c r="J360" s="8"/>
+      <c r="J360" s="9"/>
       <c r="K360" s="9"/>
-      <c r="L360" s="9"/>
-      <c r="M360" s="5"/>
-    </row>
-    <row r="361" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L360" s="5"/>
+    </row>
+    <row r="361" spans="1:12" ht="49.65" customHeight="1">
       <c r="A361" s="10"/>
       <c r="B361" s="4"/>
       <c r="C361" s="5"/>
@@ -7887,12 +7454,11 @@
       <c r="G361" s="5"/>
       <c r="H361" s="7"/>
       <c r="I361" s="8"/>
-      <c r="J361" s="8"/>
+      <c r="J361" s="9"/>
       <c r="K361" s="9"/>
-      <c r="L361" s="9"/>
-      <c r="M361" s="5"/>
-    </row>
-    <row r="362" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L361" s="5"/>
+    </row>
+    <row r="362" spans="1:12" ht="49.65" customHeight="1">
       <c r="A362" s="10"/>
       <c r="B362" s="4"/>
       <c r="C362" s="5"/>
@@ -7902,12 +7468,11 @@
       <c r="G362" s="5"/>
       <c r="H362" s="7"/>
       <c r="I362" s="8"/>
-      <c r="J362" s="8"/>
+      <c r="J362" s="9"/>
       <c r="K362" s="9"/>
       <c r="L362" s="9"/>
-      <c r="M362" s="9"/>
-    </row>
-    <row r="363" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="363" spans="1:12" ht="49.65" customHeight="1">
       <c r="A363" s="10"/>
       <c r="B363" s="4"/>
       <c r="C363" s="5"/>
@@ -7917,12 +7482,11 @@
       <c r="G363" s="5"/>
       <c r="H363" s="7"/>
       <c r="I363" s="8"/>
-      <c r="J363" s="8"/>
+      <c r="J363" s="9"/>
       <c r="K363" s="9"/>
       <c r="L363" s="9"/>
-      <c r="M363" s="9"/>
-    </row>
-    <row r="364" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="364" spans="1:12" ht="49.65" customHeight="1">
       <c r="A364" s="10"/>
       <c r="B364" s="4"/>
       <c r="C364" s="5"/>
@@ -7932,12 +7496,11 @@
       <c r="G364" s="5"/>
       <c r="H364" s="7"/>
       <c r="I364" s="8"/>
-      <c r="J364" s="8"/>
+      <c r="J364" s="9"/>
       <c r="K364" s="9"/>
       <c r="L364" s="9"/>
-      <c r="M364" s="9"/>
-    </row>
-    <row r="365" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="365" spans="1:12" ht="49.65" customHeight="1">
       <c r="A365" s="10"/>
       <c r="B365" s="4"/>
       <c r="C365" s="5"/>
@@ -7947,12 +7510,11 @@
       <c r="G365" s="5"/>
       <c r="H365" s="7"/>
       <c r="I365" s="8"/>
-      <c r="J365" s="8"/>
+      <c r="J365" s="9"/>
       <c r="K365" s="9"/>
       <c r="L365" s="9"/>
-      <c r="M365" s="9"/>
-    </row>
-    <row r="366" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="366" spans="1:12" ht="49.65" customHeight="1">
       <c r="A366" s="10"/>
       <c r="B366" s="4"/>
       <c r="C366" s="5"/>
@@ -7962,12 +7524,11 @@
       <c r="G366" s="5"/>
       <c r="H366" s="7"/>
       <c r="I366" s="8"/>
-      <c r="J366" s="8"/>
+      <c r="J366" s="9"/>
       <c r="K366" s="9"/>
       <c r="L366" s="9"/>
-      <c r="M366" s="9"/>
-    </row>
-    <row r="367" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="367" spans="1:12" ht="49.65" customHeight="1">
       <c r="A367" s="10"/>
       <c r="B367" s="4"/>
       <c r="C367" s="5"/>
@@ -7977,12 +7538,11 @@
       <c r="G367" s="5"/>
       <c r="H367" s="7"/>
       <c r="I367" s="8"/>
-      <c r="J367" s="8"/>
+      <c r="J367" s="9"/>
       <c r="K367" s="9"/>
       <c r="L367" s="9"/>
-      <c r="M367" s="9"/>
-    </row>
-    <row r="368" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="368" spans="1:12" ht="49.65" customHeight="1">
       <c r="A368" s="10"/>
       <c r="B368" s="4"/>
       <c r="C368" s="5"/>
@@ -7992,12 +7552,11 @@
       <c r="G368" s="5"/>
       <c r="H368" s="7"/>
       <c r="I368" s="8"/>
-      <c r="J368" s="8"/>
+      <c r="J368" s="9"/>
       <c r="K368" s="9"/>
       <c r="L368" s="9"/>
-      <c r="M368" s="9"/>
-    </row>
-    <row r="369" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="369" spans="1:12" ht="49.65" customHeight="1">
       <c r="A369" s="10"/>
       <c r="B369" s="4"/>
       <c r="C369" s="5"/>
@@ -8007,12 +7566,11 @@
       <c r="G369" s="5"/>
       <c r="H369" s="7"/>
       <c r="I369" s="8"/>
-      <c r="J369" s="8"/>
+      <c r="J369" s="9"/>
       <c r="K369" s="9"/>
       <c r="L369" s="9"/>
-      <c r="M369" s="9"/>
-    </row>
-    <row r="370" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="370" spans="1:12" ht="49.65" customHeight="1">
       <c r="A370" s="10"/>
       <c r="B370" s="4"/>
       <c r="C370" s="5"/>
@@ -8022,12 +7580,11 @@
       <c r="G370" s="5"/>
       <c r="H370" s="7"/>
       <c r="I370" s="8"/>
-      <c r="J370" s="8"/>
+      <c r="J370" s="9"/>
       <c r="K370" s="9"/>
       <c r="L370" s="9"/>
-      <c r="M370" s="9"/>
-    </row>
-    <row r="371" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="371" spans="1:12" ht="49.65" customHeight="1">
       <c r="A371" s="10"/>
       <c r="B371" s="4"/>
       <c r="C371" s="5"/>
@@ -8037,12 +7594,11 @@
       <c r="G371" s="5"/>
       <c r="H371" s="7"/>
       <c r="I371" s="8"/>
-      <c r="J371" s="8"/>
+      <c r="J371" s="9"/>
       <c r="K371" s="9"/>
       <c r="L371" s="9"/>
-      <c r="M371" s="9"/>
-    </row>
-    <row r="372" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="372" spans="1:12" ht="49.65" customHeight="1">
       <c r="A372" s="10"/>
       <c r="B372" s="4"/>
       <c r="C372" s="5"/>
@@ -8052,12 +7608,11 @@
       <c r="G372" s="5"/>
       <c r="H372" s="7"/>
       <c r="I372" s="8"/>
-      <c r="J372" s="8"/>
+      <c r="J372" s="9"/>
       <c r="K372" s="9"/>
       <c r="L372" s="9"/>
-      <c r="M372" s="9"/>
-    </row>
-    <row r="373" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="373" spans="1:12" ht="49.65" customHeight="1">
       <c r="A373" s="10"/>
       <c r="B373" s="4"/>
       <c r="C373" s="5"/>
@@ -8067,12 +7622,11 @@
       <c r="G373" s="5"/>
       <c r="H373" s="7"/>
       <c r="I373" s="8"/>
-      <c r="J373" s="8"/>
+      <c r="J373" s="9"/>
       <c r="K373" s="9"/>
       <c r="L373" s="9"/>
-      <c r="M373" s="9"/>
-    </row>
-    <row r="374" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="374" spans="1:12" ht="49.65" customHeight="1">
       <c r="A374" s="10"/>
       <c r="B374" s="4"/>
       <c r="C374" s="5"/>
@@ -8082,12 +7636,11 @@
       <c r="G374" s="5"/>
       <c r="H374" s="7"/>
       <c r="I374" s="8"/>
-      <c r="J374" s="8"/>
+      <c r="J374" s="9"/>
       <c r="K374" s="9"/>
       <c r="L374" s="9"/>
-      <c r="M374" s="9"/>
-    </row>
-    <row r="375" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="375" spans="1:12" ht="49.65" customHeight="1">
       <c r="A375" s="10"/>
       <c r="B375" s="4"/>
       <c r="C375" s="5"/>
@@ -8097,12 +7650,11 @@
       <c r="G375" s="5"/>
       <c r="H375" s="7"/>
       <c r="I375" s="8"/>
-      <c r="J375" s="8"/>
+      <c r="J375" s="9"/>
       <c r="K375" s="9"/>
       <c r="L375" s="9"/>
-      <c r="M375" s="9"/>
-    </row>
-    <row r="376" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="376" spans="1:12" ht="49.65" customHeight="1">
       <c r="A376" s="10"/>
       <c r="B376" s="4"/>
       <c r="C376" s="5"/>
@@ -8112,12 +7664,11 @@
       <c r="G376" s="5"/>
       <c r="H376" s="7"/>
       <c r="I376" s="8"/>
-      <c r="J376" s="8"/>
+      <c r="J376" s="9"/>
       <c r="K376" s="9"/>
       <c r="L376" s="9"/>
-      <c r="M376" s="9"/>
-    </row>
-    <row r="377" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="377" spans="1:12" ht="49.65" customHeight="1">
       <c r="A377" s="10"/>
       <c r="B377" s="4"/>
       <c r="C377" s="5"/>
@@ -8127,12 +7678,11 @@
       <c r="G377" s="5"/>
       <c r="H377" s="7"/>
       <c r="I377" s="8"/>
-      <c r="J377" s="8"/>
+      <c r="J377" s="9"/>
       <c r="K377" s="9"/>
       <c r="L377" s="9"/>
-      <c r="M377" s="9"/>
-    </row>
-    <row r="378" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="378" spans="1:12" ht="49.65" customHeight="1">
       <c r="A378" s="10"/>
       <c r="B378" s="4"/>
       <c r="C378" s="5"/>
@@ -8142,12 +7692,11 @@
       <c r="G378" s="5"/>
       <c r="H378" s="7"/>
       <c r="I378" s="8"/>
-      <c r="J378" s="8"/>
+      <c r="J378" s="9"/>
       <c r="K378" s="9"/>
       <c r="L378" s="9"/>
-      <c r="M378" s="9"/>
-    </row>
-    <row r="379" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="379" spans="1:12" ht="49.65" customHeight="1">
       <c r="A379" s="10"/>
       <c r="B379" s="4"/>
       <c r="C379" s="5"/>
@@ -8157,12 +7706,11 @@
       <c r="G379" s="5"/>
       <c r="H379" s="7"/>
       <c r="I379" s="8"/>
-      <c r="J379" s="8"/>
+      <c r="J379" s="9"/>
       <c r="K379" s="9"/>
       <c r="L379" s="9"/>
-      <c r="M379" s="9"/>
-    </row>
-    <row r="380" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="380" spans="1:12" ht="49.65" customHeight="1">
       <c r="A380" s="10"/>
       <c r="B380" s="4"/>
       <c r="C380" s="5"/>
@@ -8172,12 +7720,11 @@
       <c r="G380" s="5"/>
       <c r="H380" s="7"/>
       <c r="I380" s="8"/>
-      <c r="J380" s="8"/>
+      <c r="J380" s="9"/>
       <c r="K380" s="9"/>
       <c r="L380" s="9"/>
-      <c r="M380" s="9"/>
-    </row>
-    <row r="381" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="381" spans="1:12" ht="49.65" customHeight="1">
       <c r="A381" s="10"/>
       <c r="B381" s="4"/>
       <c r="C381" s="5"/>
@@ -8187,12 +7734,11 @@
       <c r="G381" s="5"/>
       <c r="H381" s="7"/>
       <c r="I381" s="8"/>
-      <c r="J381" s="8"/>
+      <c r="J381" s="9"/>
       <c r="K381" s="9"/>
       <c r="L381" s="9"/>
-      <c r="M381" s="9"/>
-    </row>
-    <row r="382" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="382" spans="1:12" ht="49.65" customHeight="1">
       <c r="A382" s="10"/>
       <c r="B382" s="4"/>
       <c r="C382" s="5"/>
@@ -8202,12 +7748,11 @@
       <c r="G382" s="5"/>
       <c r="H382" s="7"/>
       <c r="I382" s="8"/>
-      <c r="J382" s="8"/>
+      <c r="J382" s="9"/>
       <c r="K382" s="9"/>
       <c r="L382" s="9"/>
-      <c r="M382" s="9"/>
-    </row>
-    <row r="383" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="383" spans="1:12" ht="49.65" customHeight="1">
       <c r="A383" s="10"/>
       <c r="B383" s="4"/>
       <c r="C383" s="5"/>
@@ -8217,12 +7762,11 @@
       <c r="G383" s="5"/>
       <c r="H383" s="7"/>
       <c r="I383" s="8"/>
-      <c r="J383" s="8"/>
+      <c r="J383" s="9"/>
       <c r="K383" s="9"/>
       <c r="L383" s="9"/>
-      <c r="M383" s="9"/>
-    </row>
-    <row r="384" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="384" spans="1:12" ht="49.65" customHeight="1">
       <c r="A384" s="10"/>
       <c r="B384" s="4"/>
       <c r="C384" s="5"/>
@@ -8232,12 +7776,11 @@
       <c r="G384" s="5"/>
       <c r="H384" s="7"/>
       <c r="I384" s="8"/>
-      <c r="J384" s="8"/>
+      <c r="J384" s="9"/>
       <c r="K384" s="9"/>
       <c r="L384" s="9"/>
-      <c r="M384" s="9"/>
-    </row>
-    <row r="385" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="385" spans="1:12" ht="49.65" customHeight="1">
       <c r="A385" s="10"/>
       <c r="B385" s="4"/>
       <c r="C385" s="5"/>
@@ -8247,12 +7790,11 @@
       <c r="G385" s="5"/>
       <c r="H385" s="7"/>
       <c r="I385" s="8"/>
-      <c r="J385" s="8"/>
+      <c r="J385" s="9"/>
       <c r="K385" s="9"/>
       <c r="L385" s="9"/>
-      <c r="M385" s="9"/>
-    </row>
-    <row r="386" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="386" spans="1:12" ht="49.65" customHeight="1">
       <c r="A386" s="10"/>
       <c r="B386" s="4"/>
       <c r="C386" s="5"/>
@@ -8262,12 +7804,11 @@
       <c r="G386" s="5"/>
       <c r="H386" s="7"/>
       <c r="I386" s="8"/>
-      <c r="J386" s="8"/>
+      <c r="J386" s="9"/>
       <c r="K386" s="9"/>
       <c r="L386" s="9"/>
-      <c r="M386" s="9"/>
-    </row>
-    <row r="387" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="387" spans="1:12" ht="49.65" customHeight="1">
       <c r="A387" s="10"/>
       <c r="B387" s="4"/>
       <c r="C387" s="5"/>
@@ -8277,12 +7818,11 @@
       <c r="G387" s="5"/>
       <c r="H387" s="7"/>
       <c r="I387" s="8"/>
-      <c r="J387" s="8"/>
+      <c r="J387" s="9"/>
       <c r="K387" s="9"/>
       <c r="L387" s="9"/>
-      <c r="M387" s="9"/>
-    </row>
-    <row r="388" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="388" spans="1:12" ht="49.65" customHeight="1">
       <c r="A388" s="10"/>
       <c r="B388" s="4"/>
       <c r="C388" s="5"/>
@@ -8292,12 +7832,11 @@
       <c r="G388" s="5"/>
       <c r="H388" s="7"/>
       <c r="I388" s="8"/>
-      <c r="J388" s="8"/>
+      <c r="J388" s="9"/>
       <c r="K388" s="9"/>
       <c r="L388" s="9"/>
-      <c r="M388" s="9"/>
-    </row>
-    <row r="389" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="389" spans="1:12" ht="49.65" customHeight="1">
       <c r="A389" s="10"/>
       <c r="B389" s="4"/>
       <c r="C389" s="5"/>
@@ -8307,12 +7846,11 @@
       <c r="G389" s="5"/>
       <c r="H389" s="7"/>
       <c r="I389" s="8"/>
-      <c r="J389" s="8"/>
+      <c r="J389" s="9"/>
       <c r="K389" s="9"/>
       <c r="L389" s="9"/>
-      <c r="M389" s="9"/>
-    </row>
-    <row r="390" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="390" spans="1:12" ht="49.65" customHeight="1">
       <c r="A390" s="10"/>
       <c r="B390" s="4"/>
       <c r="C390" s="5"/>
@@ -8322,12 +7860,11 @@
       <c r="G390" s="5"/>
       <c r="H390" s="7"/>
       <c r="I390" s="8"/>
-      <c r="J390" s="8"/>
+      <c r="J390" s="9"/>
       <c r="K390" s="9"/>
       <c r="L390" s="9"/>
-      <c r="M390" s="9"/>
-    </row>
-    <row r="391" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="391" spans="1:12" ht="49.65" customHeight="1">
       <c r="A391" s="10"/>
       <c r="B391" s="4"/>
       <c r="C391" s="5"/>
@@ -8337,12 +7874,11 @@
       <c r="G391" s="5"/>
       <c r="H391" s="7"/>
       <c r="I391" s="8"/>
-      <c r="J391" s="8"/>
+      <c r="J391" s="9"/>
       <c r="K391" s="9"/>
       <c r="L391" s="9"/>
-      <c r="M391" s="9"/>
-    </row>
-    <row r="392" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="392" spans="1:12" ht="49.65" customHeight="1">
       <c r="A392" s="10"/>
       <c r="B392" s="4"/>
       <c r="C392" s="5"/>
@@ -8352,12 +7888,11 @@
       <c r="G392" s="5"/>
       <c r="H392" s="7"/>
       <c r="I392" s="8"/>
-      <c r="J392" s="8"/>
+      <c r="J392" s="9"/>
       <c r="K392" s="9"/>
       <c r="L392" s="9"/>
-      <c r="M392" s="9"/>
-    </row>
-    <row r="393" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="393" spans="1:12" ht="49.65" customHeight="1">
       <c r="A393" s="10"/>
       <c r="B393" s="4"/>
       <c r="C393" s="5"/>
@@ -8367,12 +7902,11 @@
       <c r="G393" s="5"/>
       <c r="H393" s="7"/>
       <c r="I393" s="8"/>
-      <c r="J393" s="8"/>
+      <c r="J393" s="9"/>
       <c r="K393" s="9"/>
       <c r="L393" s="9"/>
-      <c r="M393" s="9"/>
-    </row>
-    <row r="394" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="394" spans="1:12" ht="49.65" customHeight="1">
       <c r="A394" s="10"/>
       <c r="B394" s="4"/>
       <c r="C394" s="5"/>
@@ -8382,12 +7916,11 @@
       <c r="G394" s="5"/>
       <c r="H394" s="7"/>
       <c r="I394" s="8"/>
-      <c r="J394" s="8"/>
+      <c r="J394" s="9"/>
       <c r="K394" s="9"/>
       <c r="L394" s="9"/>
-      <c r="M394" s="9"/>
-    </row>
-    <row r="395" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="395" spans="1:12" ht="49.65" customHeight="1">
       <c r="A395" s="10"/>
       <c r="B395" s="4"/>
       <c r="C395" s="5"/>
@@ -8397,12 +7930,11 @@
       <c r="G395" s="5"/>
       <c r="H395" s="7"/>
       <c r="I395" s="8"/>
-      <c r="J395" s="8"/>
+      <c r="J395" s="9"/>
       <c r="K395" s="9"/>
       <c r="L395" s="9"/>
-      <c r="M395" s="9"/>
-    </row>
-    <row r="396" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="396" spans="1:12" ht="49.65" customHeight="1">
       <c r="A396" s="10"/>
       <c r="B396" s="4"/>
       <c r="C396" s="5"/>
@@ -8412,12 +7944,11 @@
       <c r="G396" s="5"/>
       <c r="H396" s="7"/>
       <c r="I396" s="8"/>
-      <c r="J396" s="8"/>
+      <c r="J396" s="9"/>
       <c r="K396" s="9"/>
       <c r="L396" s="9"/>
-      <c r="M396" s="9"/>
-    </row>
-    <row r="397" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="397" spans="1:12" ht="49.65" customHeight="1">
       <c r="A397" s="10"/>
       <c r="B397" s="4"/>
       <c r="C397" s="5"/>
@@ -8427,12 +7958,11 @@
       <c r="G397" s="5"/>
       <c r="H397" s="7"/>
       <c r="I397" s="8"/>
-      <c r="J397" s="8"/>
+      <c r="J397" s="9"/>
       <c r="K397" s="9"/>
       <c r="L397" s="9"/>
-      <c r="M397" s="9"/>
-    </row>
-    <row r="398" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="398" spans="1:12" ht="49.65" customHeight="1">
       <c r="A398" s="10"/>
       <c r="B398" s="4"/>
       <c r="C398" s="5"/>
@@ -8442,12 +7972,11 @@
       <c r="G398" s="5"/>
       <c r="H398" s="7"/>
       <c r="I398" s="8"/>
-      <c r="J398" s="8"/>
+      <c r="J398" s="9"/>
       <c r="K398" s="9"/>
       <c r="L398" s="9"/>
-      <c r="M398" s="9"/>
-    </row>
-    <row r="399" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="399" spans="1:12" ht="49.65" customHeight="1">
       <c r="A399" s="10"/>
       <c r="B399" s="4"/>
       <c r="C399" s="5"/>
@@ -8457,12 +7986,11 @@
       <c r="G399" s="5"/>
       <c r="H399" s="7"/>
       <c r="I399" s="8"/>
-      <c r="J399" s="8"/>
+      <c r="J399" s="9"/>
       <c r="K399" s="9"/>
       <c r="L399" s="9"/>
-      <c r="M399" s="9"/>
-    </row>
-    <row r="400" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="400" spans="1:12" ht="49.65" customHeight="1">
       <c r="A400" s="10"/>
       <c r="B400" s="4"/>
       <c r="C400" s="5"/>
@@ -8472,12 +8000,11 @@
       <c r="G400" s="5"/>
       <c r="H400" s="7"/>
       <c r="I400" s="8"/>
-      <c r="J400" s="8"/>
+      <c r="J400" s="9"/>
       <c r="K400" s="9"/>
       <c r="L400" s="9"/>
-      <c r="M400" s="9"/>
-    </row>
-    <row r="401" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="401" spans="1:12" ht="49.65" customHeight="1">
       <c r="A401" s="10"/>
       <c r="B401" s="4"/>
       <c r="C401" s="5"/>
@@ -8487,12 +8014,11 @@
       <c r="G401" s="5"/>
       <c r="H401" s="7"/>
       <c r="I401" s="8"/>
-      <c r="J401" s="8"/>
+      <c r="J401" s="9"/>
       <c r="K401" s="9"/>
       <c r="L401" s="9"/>
-      <c r="M401" s="9"/>
-    </row>
-    <row r="402" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="402" spans="1:12" ht="49.65" customHeight="1">
       <c r="A402" s="10"/>
       <c r="B402" s="4"/>
       <c r="C402" s="5"/>
@@ -8502,12 +8028,11 @@
       <c r="G402" s="5"/>
       <c r="H402" s="7"/>
       <c r="I402" s="8"/>
-      <c r="J402" s="8"/>
+      <c r="J402" s="9"/>
       <c r="K402" s="9"/>
       <c r="L402" s="9"/>
-      <c r="M402" s="9"/>
-    </row>
-    <row r="403" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="403" spans="1:12" ht="49.65" customHeight="1">
       <c r="A403" s="10"/>
       <c r="B403" s="4"/>
       <c r="C403" s="5"/>
@@ -8517,12 +8042,11 @@
       <c r="G403" s="5"/>
       <c r="H403" s="7"/>
       <c r="I403" s="8"/>
-      <c r="J403" s="8"/>
+      <c r="J403" s="9"/>
       <c r="K403" s="9"/>
       <c r="L403" s="9"/>
-      <c r="M403" s="9"/>
-    </row>
-    <row r="404" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="404" spans="1:12" ht="49.65" customHeight="1">
       <c r="A404" s="10"/>
       <c r="B404" s="4"/>
       <c r="C404" s="5"/>
@@ -8532,12 +8056,11 @@
       <c r="G404" s="5"/>
       <c r="H404" s="7"/>
       <c r="I404" s="8"/>
-      <c r="J404" s="8"/>
+      <c r="J404" s="9"/>
       <c r="K404" s="9"/>
       <c r="L404" s="9"/>
-      <c r="M404" s="9"/>
-    </row>
-    <row r="405" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="405" spans="1:12" ht="49.65" customHeight="1">
       <c r="A405" s="10"/>
       <c r="B405" s="4"/>
       <c r="C405" s="5"/>
@@ -8547,12 +8070,11 @@
       <c r="G405" s="5"/>
       <c r="H405" s="7"/>
       <c r="I405" s="8"/>
-      <c r="J405" s="8"/>
+      <c r="J405" s="9"/>
       <c r="K405" s="9"/>
       <c r="L405" s="9"/>
-      <c r="M405" s="9"/>
-    </row>
-    <row r="406" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="406" spans="1:12" ht="49.65" customHeight="1">
       <c r="A406" s="10"/>
       <c r="B406" s="4"/>
       <c r="C406" s="5"/>
@@ -8562,12 +8084,11 @@
       <c r="G406" s="5"/>
       <c r="H406" s="7"/>
       <c r="I406" s="8"/>
-      <c r="J406" s="8"/>
+      <c r="J406" s="9"/>
       <c r="K406" s="9"/>
       <c r="L406" s="9"/>
-      <c r="M406" s="9"/>
-    </row>
-    <row r="407" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="407" spans="1:12" ht="49.65" customHeight="1">
       <c r="A407" s="10"/>
       <c r="B407" s="4"/>
       <c r="C407" s="5"/>
@@ -8577,12 +8098,11 @@
       <c r="G407" s="5"/>
       <c r="H407" s="7"/>
       <c r="I407" s="8"/>
-      <c r="J407" s="8"/>
+      <c r="J407" s="9"/>
       <c r="K407" s="9"/>
       <c r="L407" s="9"/>
-      <c r="M407" s="9"/>
-    </row>
-    <row r="408" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="408" spans="1:12" ht="49.65" customHeight="1">
       <c r="A408" s="10"/>
       <c r="B408" s="4"/>
       <c r="C408" s="5"/>
@@ -8592,12 +8112,11 @@
       <c r="G408" s="5"/>
       <c r="H408" s="7"/>
       <c r="I408" s="8"/>
-      <c r="J408" s="8"/>
+      <c r="J408" s="9"/>
       <c r="K408" s="9"/>
       <c r="L408" s="9"/>
-      <c r="M408" s="9"/>
-    </row>
-    <row r="409" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="409" spans="1:12" ht="49.65" customHeight="1">
       <c r="A409" s="10"/>
       <c r="B409" s="4"/>
       <c r="C409" s="5"/>
@@ -8607,12 +8126,11 @@
       <c r="G409" s="5"/>
       <c r="H409" s="7"/>
       <c r="I409" s="8"/>
-      <c r="J409" s="8"/>
+      <c r="J409" s="9"/>
       <c r="K409" s="9"/>
       <c r="L409" s="9"/>
-      <c r="M409" s="9"/>
-    </row>
-    <row r="410" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="410" spans="1:12" ht="49.65" customHeight="1">
       <c r="A410" s="10"/>
       <c r="B410" s="4"/>
       <c r="C410" s="5"/>
@@ -8622,12 +8140,11 @@
       <c r="G410" s="5"/>
       <c r="H410" s="7"/>
       <c r="I410" s="8"/>
-      <c r="J410" s="8"/>
+      <c r="J410" s="9"/>
       <c r="K410" s="9"/>
       <c r="L410" s="9"/>
-      <c r="M410" s="9"/>
-    </row>
-    <row r="411" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="411" spans="1:12" ht="49.65" customHeight="1">
       <c r="A411" s="10"/>
       <c r="B411" s="4"/>
       <c r="C411" s="5"/>
@@ -8637,12 +8154,11 @@
       <c r="G411" s="5"/>
       <c r="H411" s="7"/>
       <c r="I411" s="8"/>
-      <c r="J411" s="8"/>
+      <c r="J411" s="9"/>
       <c r="K411" s="9"/>
       <c r="L411" s="9"/>
-      <c r="M411" s="9"/>
-    </row>
-    <row r="412" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="412" spans="1:12" ht="49.65" customHeight="1">
       <c r="A412" s="10"/>
       <c r="B412" s="4"/>
       <c r="C412" s="5"/>
@@ -8652,12 +8168,11 @@
       <c r="G412" s="5"/>
       <c r="H412" s="7"/>
       <c r="I412" s="8"/>
-      <c r="J412" s="8"/>
+      <c r="J412" s="9"/>
       <c r="K412" s="9"/>
       <c r="L412" s="9"/>
-      <c r="M412" s="9"/>
-    </row>
-    <row r="413" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="413" spans="1:12" ht="49.65" customHeight="1">
       <c r="A413" s="10"/>
       <c r="B413" s="4"/>
       <c r="C413" s="5"/>
@@ -8667,12 +8182,11 @@
       <c r="G413" s="5"/>
       <c r="H413" s="7"/>
       <c r="I413" s="8"/>
-      <c r="J413" s="8"/>
+      <c r="J413" s="5"/>
       <c r="K413" s="5"/>
-      <c r="L413" s="5"/>
-      <c r="M413" s="9"/>
-    </row>
-    <row r="414" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L413" s="9"/>
+    </row>
+    <row r="414" spans="1:12" ht="49.65" customHeight="1">
       <c r="A414" s="10"/>
       <c r="B414" s="4"/>
       <c r="C414" s="5"/>
@@ -8682,12 +8196,11 @@
       <c r="G414" s="5"/>
       <c r="H414" s="7"/>
       <c r="I414" s="8"/>
-      <c r="J414" s="8"/>
+      <c r="J414" s="5"/>
       <c r="K414" s="5"/>
-      <c r="L414" s="5"/>
-      <c r="M414" s="9"/>
-    </row>
-    <row r="415" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L414" s="9"/>
+    </row>
+    <row r="415" spans="1:12" ht="49.65" customHeight="1">
       <c r="A415" s="10"/>
       <c r="B415" s="4"/>
       <c r="C415" s="5"/>
@@ -8697,12 +8210,11 @@
       <c r="G415" s="5"/>
       <c r="H415" s="7"/>
       <c r="I415" s="8"/>
-      <c r="J415" s="8"/>
+      <c r="J415" s="5"/>
       <c r="K415" s="5"/>
       <c r="L415" s="5"/>
-      <c r="M415" s="5"/>
-    </row>
-    <row r="416" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="416" spans="1:12" ht="49.65" customHeight="1">
       <c r="A416" s="10"/>
       <c r="B416" s="4"/>
       <c r="C416" s="5"/>
@@ -8712,12 +8224,11 @@
       <c r="G416" s="5"/>
       <c r="H416" s="7"/>
       <c r="I416" s="8"/>
-      <c r="J416" s="8"/>
+      <c r="J416" s="5"/>
       <c r="K416" s="5"/>
       <c r="L416" s="5"/>
-      <c r="M416" s="5"/>
-    </row>
-    <row r="417" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="417" spans="1:12" ht="49.65" customHeight="1">
       <c r="A417" s="10"/>
       <c r="B417" s="4"/>
       <c r="C417" s="5"/>
@@ -8727,12 +8238,11 @@
       <c r="G417" s="5"/>
       <c r="H417" s="7"/>
       <c r="I417" s="8"/>
-      <c r="J417" s="8"/>
+      <c r="J417" s="5"/>
       <c r="K417" s="5"/>
       <c r="L417" s="5"/>
-      <c r="M417" s="5"/>
-    </row>
-    <row r="418" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="418" spans="1:12" ht="49.65" customHeight="1">
       <c r="A418" s="10"/>
       <c r="B418" s="4"/>
       <c r="C418" s="5"/>
@@ -8742,12 +8252,11 @@
       <c r="G418" s="5"/>
       <c r="H418" s="7"/>
       <c r="I418" s="8"/>
-      <c r="J418" s="8"/>
+      <c r="J418" s="5"/>
       <c r="K418" s="5"/>
       <c r="L418" s="5"/>
-      <c r="M418" s="5"/>
-    </row>
-    <row r="419" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="419" spans="1:12" ht="49.65" customHeight="1">
       <c r="A419" s="10"/>
       <c r="B419" s="4"/>
       <c r="C419" s="5"/>
@@ -8757,12 +8266,11 @@
       <c r="G419" s="5"/>
       <c r="H419" s="7"/>
       <c r="I419" s="8"/>
-      <c r="J419" s="8"/>
+      <c r="J419" s="5"/>
       <c r="K419" s="5"/>
       <c r="L419" s="5"/>
-      <c r="M419" s="5"/>
-    </row>
-    <row r="420" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="420" spans="1:12" ht="49.65" customHeight="1">
       <c r="A420" s="10"/>
       <c r="B420" s="4"/>
       <c r="C420" s="5"/>
@@ -8772,12 +8280,11 @@
       <c r="G420" s="5"/>
       <c r="H420" s="7"/>
       <c r="I420" s="8"/>
-      <c r="J420" s="8"/>
+      <c r="J420" s="5"/>
       <c r="K420" s="5"/>
       <c r="L420" s="5"/>
-      <c r="M420" s="5"/>
-    </row>
-    <row r="421" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="421" spans="1:12" ht="49.65" customHeight="1">
       <c r="A421" s="10"/>
       <c r="B421" s="4"/>
       <c r="C421" s="5"/>
@@ -8787,12 +8294,11 @@
       <c r="G421" s="5"/>
       <c r="H421" s="7"/>
       <c r="I421" s="8"/>
-      <c r="J421" s="8"/>
+      <c r="J421" s="5"/>
       <c r="K421" s="5"/>
       <c r="L421" s="5"/>
-      <c r="M421" s="5"/>
-    </row>
-    <row r="422" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="422" spans="1:12" ht="49.65" customHeight="1">
       <c r="A422" s="10"/>
       <c r="B422" s="4"/>
       <c r="C422" s="5"/>
@@ -8802,12 +8308,11 @@
       <c r="G422" s="5"/>
       <c r="H422" s="7"/>
       <c r="I422" s="8"/>
-      <c r="J422" s="8"/>
+      <c r="J422" s="5"/>
       <c r="K422" s="5"/>
       <c r="L422" s="5"/>
-      <c r="M422" s="5"/>
-    </row>
-    <row r="423" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="423" spans="1:12" ht="49.65" customHeight="1">
       <c r="A423" s="10"/>
       <c r="B423" s="4"/>
       <c r="C423" s="5"/>
@@ -8817,12 +8322,11 @@
       <c r="G423" s="5"/>
       <c r="H423" s="7"/>
       <c r="I423" s="8"/>
-      <c r="J423" s="8"/>
+      <c r="J423" s="5"/>
       <c r="K423" s="5"/>
       <c r="L423" s="5"/>
-      <c r="M423" s="5"/>
-    </row>
-    <row r="424" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="424" spans="1:12" ht="49.65" customHeight="1">
       <c r="A424" s="10"/>
       <c r="B424" s="4"/>
       <c r="C424" s="5"/>
@@ -8832,12 +8336,11 @@
       <c r="G424" s="5"/>
       <c r="H424" s="7"/>
       <c r="I424" s="8"/>
-      <c r="J424" s="8"/>
+      <c r="J424" s="5"/>
       <c r="K424" s="5"/>
       <c r="L424" s="5"/>
-      <c r="M424" s="5"/>
-    </row>
-    <row r="425" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="425" spans="1:12" ht="49.65" customHeight="1">
       <c r="A425" s="10"/>
       <c r="B425" s="4"/>
       <c r="C425" s="5"/>
@@ -8847,12 +8350,11 @@
       <c r="G425" s="5"/>
       <c r="H425" s="7"/>
       <c r="I425" s="8"/>
-      <c r="J425" s="8"/>
+      <c r="J425" s="5"/>
       <c r="K425" s="5"/>
       <c r="L425" s="5"/>
-      <c r="M425" s="5"/>
-    </row>
-    <row r="426" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="426" spans="1:12" ht="49.65" customHeight="1">
       <c r="A426" s="10"/>
       <c r="B426" s="4"/>
       <c r="C426" s="5"/>
@@ -8862,12 +8364,11 @@
       <c r="G426" s="5"/>
       <c r="H426" s="7"/>
       <c r="I426" s="8"/>
-      <c r="J426" s="8"/>
+      <c r="J426" s="5"/>
       <c r="K426" s="5"/>
       <c r="L426" s="5"/>
-      <c r="M426" s="5"/>
-    </row>
-    <row r="427" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="427" spans="1:12" ht="49.65" customHeight="1">
       <c r="A427" s="10"/>
       <c r="B427" s="4"/>
       <c r="C427" s="5"/>
@@ -8877,12 +8378,11 @@
       <c r="G427" s="5"/>
       <c r="H427" s="7"/>
       <c r="I427" s="8"/>
-      <c r="J427" s="8"/>
+      <c r="J427" s="5"/>
       <c r="K427" s="5"/>
       <c r="L427" s="5"/>
-      <c r="M427" s="5"/>
-    </row>
-    <row r="428" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="428" spans="1:12" ht="49.65" customHeight="1">
       <c r="A428" s="10"/>
       <c r="B428" s="4"/>
       <c r="C428" s="5"/>
@@ -8892,12 +8392,11 @@
       <c r="G428" s="5"/>
       <c r="H428" s="7"/>
       <c r="I428" s="8"/>
-      <c r="J428" s="8"/>
+      <c r="J428" s="5"/>
       <c r="K428" s="5"/>
       <c r="L428" s="5"/>
-      <c r="M428" s="5"/>
-    </row>
-    <row r="429" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="429" spans="1:12" ht="49.65" customHeight="1">
       <c r="A429" s="10"/>
       <c r="B429" s="4"/>
       <c r="C429" s="5"/>
@@ -8907,12 +8406,11 @@
       <c r="G429" s="5"/>
       <c r="H429" s="7"/>
       <c r="I429" s="8"/>
-      <c r="J429" s="8"/>
+      <c r="J429" s="5"/>
       <c r="K429" s="5"/>
       <c r="L429" s="5"/>
-      <c r="M429" s="5"/>
-    </row>
-    <row r="430" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="430" spans="1:12" ht="49.65" customHeight="1">
       <c r="A430" s="10"/>
       <c r="B430" s="4"/>
       <c r="C430" s="5"/>
@@ -8922,12 +8420,11 @@
       <c r="G430" s="5"/>
       <c r="H430" s="7"/>
       <c r="I430" s="8"/>
-      <c r="J430" s="8"/>
+      <c r="J430" s="5"/>
       <c r="K430" s="5"/>
       <c r="L430" s="5"/>
-      <c r="M430" s="5"/>
-    </row>
-    <row r="431" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="431" spans="1:12" ht="49.65" customHeight="1">
       <c r="A431" s="10"/>
       <c r="B431" s="4"/>
       <c r="C431" s="5"/>
@@ -8937,12 +8434,11 @@
       <c r="G431" s="5"/>
       <c r="H431" s="7"/>
       <c r="I431" s="8"/>
-      <c r="J431" s="8"/>
+      <c r="J431" s="5"/>
       <c r="K431" s="5"/>
       <c r="L431" s="5"/>
-      <c r="M431" s="5"/>
-    </row>
-    <row r="432" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="432" spans="1:12" ht="49.65" customHeight="1">
       <c r="A432" s="10"/>
       <c r="B432" s="4"/>
       <c r="C432" s="5"/>
@@ -8952,12 +8448,11 @@
       <c r="G432" s="5"/>
       <c r="H432" s="7"/>
       <c r="I432" s="8"/>
-      <c r="J432" s="8"/>
+      <c r="J432" s="5"/>
       <c r="K432" s="5"/>
       <c r="L432" s="5"/>
-      <c r="M432" s="5"/>
-    </row>
-    <row r="433" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="433" spans="1:12" ht="49.65" customHeight="1">
       <c r="A433" s="10"/>
       <c r="B433" s="4"/>
       <c r="C433" s="5"/>
@@ -8967,12 +8462,11 @@
       <c r="G433" s="5"/>
       <c r="H433" s="7"/>
       <c r="I433" s="8"/>
-      <c r="J433" s="8"/>
+      <c r="J433" s="5"/>
       <c r="K433" s="5"/>
       <c r="L433" s="5"/>
-      <c r="M433" s="5"/>
-    </row>
-    <row r="434" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="434" spans="1:12" ht="49.65" customHeight="1">
       <c r="A434" s="10"/>
       <c r="B434" s="4"/>
       <c r="C434" s="5"/>
@@ -8982,12 +8476,11 @@
       <c r="G434" s="5"/>
       <c r="H434" s="7"/>
       <c r="I434" s="8"/>
-      <c r="J434" s="8"/>
+      <c r="J434" s="5"/>
       <c r="K434" s="5"/>
       <c r="L434" s="5"/>
-      <c r="M434" s="5"/>
-    </row>
-    <row r="435" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="435" spans="1:12" ht="49.65" customHeight="1">
       <c r="A435" s="10"/>
       <c r="B435" s="4"/>
       <c r="C435" s="5"/>
@@ -8997,12 +8490,11 @@
       <c r="G435" s="5"/>
       <c r="H435" s="7"/>
       <c r="I435" s="8"/>
-      <c r="J435" s="8"/>
+      <c r="J435" s="5"/>
       <c r="K435" s="5"/>
       <c r="L435" s="5"/>
-      <c r="M435" s="5"/>
-    </row>
-    <row r="436" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="436" spans="1:12" ht="49.65" customHeight="1">
       <c r="A436" s="10"/>
       <c r="B436" s="4"/>
       <c r="C436" s="5"/>
@@ -9012,12 +8504,11 @@
       <c r="G436" s="5"/>
       <c r="H436" s="7"/>
       <c r="I436" s="8"/>
-      <c r="J436" s="8"/>
+      <c r="J436" s="5"/>
       <c r="K436" s="5"/>
       <c r="L436" s="5"/>
-      <c r="M436" s="5"/>
-    </row>
-    <row r="437" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="437" spans="1:12" ht="49.65" customHeight="1">
       <c r="A437" s="10"/>
       <c r="B437" s="4"/>
       <c r="C437" s="5"/>
@@ -9027,12 +8518,11 @@
       <c r="G437" s="5"/>
       <c r="H437" s="7"/>
       <c r="I437" s="8"/>
-      <c r="J437" s="8"/>
+      <c r="J437" s="5"/>
       <c r="K437" s="5"/>
       <c r="L437" s="5"/>
-      <c r="M437" s="5"/>
-    </row>
-    <row r="438" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="438" spans="1:12" ht="49.65" customHeight="1">
       <c r="A438" s="10"/>
       <c r="B438" s="4"/>
       <c r="C438" s="5"/>
@@ -9042,12 +8532,11 @@
       <c r="G438" s="5"/>
       <c r="H438" s="7"/>
       <c r="I438" s="8"/>
-      <c r="J438" s="8"/>
+      <c r="J438" s="5"/>
       <c r="K438" s="5"/>
       <c r="L438" s="5"/>
-      <c r="M438" s="5"/>
-    </row>
-    <row r="439" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="439" spans="1:12" ht="49.65" customHeight="1">
       <c r="A439" s="10"/>
       <c r="B439" s="4"/>
       <c r="C439" s="5"/>
@@ -9057,12 +8546,11 @@
       <c r="G439" s="5"/>
       <c r="H439" s="7"/>
       <c r="I439" s="8"/>
-      <c r="J439" s="8"/>
+      <c r="J439" s="5"/>
       <c r="K439" s="5"/>
       <c r="L439" s="5"/>
-      <c r="M439" s="5"/>
-    </row>
-    <row r="440" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="440" spans="1:12" ht="49.65" customHeight="1">
       <c r="A440" s="10"/>
       <c r="B440" s="4"/>
       <c r="C440" s="5"/>
@@ -9072,12 +8560,11 @@
       <c r="G440" s="5"/>
       <c r="H440" s="7"/>
       <c r="I440" s="8"/>
-      <c r="J440" s="8"/>
+      <c r="J440" s="5"/>
       <c r="K440" s="5"/>
       <c r="L440" s="5"/>
-      <c r="M440" s="5"/>
-    </row>
-    <row r="441" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="441" spans="1:12" ht="49.65" customHeight="1">
       <c r="A441" s="10"/>
       <c r="B441" s="4"/>
       <c r="C441" s="5"/>
@@ -9087,12 +8574,11 @@
       <c r="G441" s="5"/>
       <c r="H441" s="7"/>
       <c r="I441" s="8"/>
-      <c r="J441" s="8"/>
+      <c r="J441" s="5"/>
       <c r="K441" s="5"/>
       <c r="L441" s="5"/>
-      <c r="M441" s="5"/>
-    </row>
-    <row r="442" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="442" spans="1:12" ht="49.65" customHeight="1">
       <c r="A442" s="10"/>
       <c r="B442" s="4"/>
       <c r="C442" s="5"/>
@@ -9102,12 +8588,11 @@
       <c r="G442" s="5"/>
       <c r="H442" s="7"/>
       <c r="I442" s="8"/>
-      <c r="J442" s="8"/>
+      <c r="J442" s="5"/>
       <c r="K442" s="5"/>
       <c r="L442" s="5"/>
-      <c r="M442" s="5"/>
-    </row>
-    <row r="443" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="443" spans="1:12" ht="49.65" customHeight="1">
       <c r="A443" s="10"/>
       <c r="B443" s="4"/>
       <c r="C443" s="5"/>
@@ -9117,12 +8602,11 @@
       <c r="G443" s="5"/>
       <c r="H443" s="7"/>
       <c r="I443" s="8"/>
-      <c r="J443" s="8"/>
+      <c r="J443" s="5"/>
       <c r="K443" s="5"/>
       <c r="L443" s="5"/>
-      <c r="M443" s="5"/>
-    </row>
-    <row r="444" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="444" spans="1:12" ht="49.65" customHeight="1">
       <c r="A444" s="10"/>
       <c r="B444" s="4"/>
       <c r="C444" s="5"/>
@@ -9132,12 +8616,11 @@
       <c r="G444" s="5"/>
       <c r="H444" s="7"/>
       <c r="I444" s="8"/>
-      <c r="J444" s="8"/>
+      <c r="J444" s="5"/>
       <c r="K444" s="5"/>
       <c r="L444" s="5"/>
-      <c r="M444" s="5"/>
-    </row>
-    <row r="445" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="445" spans="1:12" ht="49.65" customHeight="1">
       <c r="A445" s="10"/>
       <c r="B445" s="4"/>
       <c r="C445" s="5"/>
@@ -9147,12 +8630,11 @@
       <c r="G445" s="5"/>
       <c r="H445" s="7"/>
       <c r="I445" s="8"/>
-      <c r="J445" s="8"/>
+      <c r="J445" s="5"/>
       <c r="K445" s="5"/>
       <c r="L445" s="5"/>
-      <c r="M445" s="5"/>
-    </row>
-    <row r="446" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="446" spans="1:12" ht="49.65" customHeight="1">
       <c r="A446" s="10"/>
       <c r="B446" s="4"/>
       <c r="C446" s="5"/>
@@ -9162,12 +8644,11 @@
       <c r="G446" s="5"/>
       <c r="H446" s="7"/>
       <c r="I446" s="8"/>
-      <c r="J446" s="8"/>
+      <c r="J446" s="5"/>
       <c r="K446" s="5"/>
       <c r="L446" s="5"/>
-      <c r="M446" s="5"/>
-    </row>
-    <row r="447" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="447" spans="1:12" ht="49.65" customHeight="1">
       <c r="A447" s="10"/>
       <c r="B447" s="4"/>
       <c r="C447" s="5"/>
@@ -9177,12 +8658,11 @@
       <c r="G447" s="5"/>
       <c r="H447" s="7"/>
       <c r="I447" s="8"/>
-      <c r="J447" s="8"/>
+      <c r="J447" s="5"/>
       <c r="K447" s="5"/>
       <c r="L447" s="5"/>
-      <c r="M447" s="5"/>
-    </row>
-    <row r="448" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="448" spans="1:12" ht="49.65" customHeight="1">
       <c r="A448" s="10"/>
       <c r="B448" s="4"/>
       <c r="C448" s="5"/>
@@ -9192,12 +8672,11 @@
       <c r="G448" s="5"/>
       <c r="H448" s="7"/>
       <c r="I448" s="8"/>
-      <c r="J448" s="8"/>
+      <c r="J448" s="5"/>
       <c r="K448" s="5"/>
       <c r="L448" s="5"/>
-      <c r="M448" s="5"/>
-    </row>
-    <row r="449" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="449" spans="1:12" ht="49.65" customHeight="1">
       <c r="A449" s="10"/>
       <c r="B449" s="4"/>
       <c r="C449" s="5"/>
@@ -9207,12 +8686,11 @@
       <c r="G449" s="5"/>
       <c r="H449" s="7"/>
       <c r="I449" s="8"/>
-      <c r="J449" s="8"/>
+      <c r="J449" s="5"/>
       <c r="K449" s="5"/>
       <c r="L449" s="5"/>
-      <c r="M449" s="5"/>
-    </row>
-    <row r="450" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="450" spans="1:12" ht="49.65" customHeight="1">
       <c r="A450" s="10"/>
       <c r="B450" s="4"/>
       <c r="C450" s="5"/>
@@ -9222,12 +8700,11 @@
       <c r="G450" s="5"/>
       <c r="H450" s="7"/>
       <c r="I450" s="8"/>
-      <c r="J450" s="8"/>
+      <c r="J450" s="5"/>
       <c r="K450" s="5"/>
       <c r="L450" s="5"/>
-      <c r="M450" s="5"/>
-    </row>
-    <row r="451" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="451" spans="1:12" ht="49.65" customHeight="1">
       <c r="A451" s="10"/>
       <c r="B451" s="4"/>
       <c r="C451" s="5"/>
@@ -9237,12 +8714,11 @@
       <c r="G451" s="5"/>
       <c r="H451" s="7"/>
       <c r="I451" s="8"/>
-      <c r="J451" s="8"/>
+      <c r="J451" s="5"/>
       <c r="K451" s="5"/>
       <c r="L451" s="5"/>
-      <c r="M451" s="5"/>
-    </row>
-    <row r="452" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="452" spans="1:12" ht="49.65" customHeight="1">
       <c r="A452" s="10"/>
       <c r="B452" s="4"/>
       <c r="C452" s="5"/>
@@ -9252,12 +8728,11 @@
       <c r="G452" s="5"/>
       <c r="H452" s="7"/>
       <c r="I452" s="8"/>
-      <c r="J452" s="8"/>
+      <c r="J452" s="5"/>
       <c r="K452" s="5"/>
       <c r="L452" s="5"/>
-      <c r="M452" s="5"/>
-    </row>
-    <row r="453" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="453" spans="1:12" ht="49.65" customHeight="1">
       <c r="A453" s="10"/>
       <c r="B453" s="4"/>
       <c r="C453" s="5"/>
@@ -9267,12 +8742,11 @@
       <c r="G453" s="5"/>
       <c r="H453" s="7"/>
       <c r="I453" s="8"/>
-      <c r="J453" s="8"/>
+      <c r="J453" s="5"/>
       <c r="K453" s="5"/>
       <c r="L453" s="5"/>
-      <c r="M453" s="5"/>
-    </row>
-    <row r="454" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="454" spans="1:12" ht="49.65" customHeight="1">
       <c r="A454" s="10"/>
       <c r="B454" s="4"/>
       <c r="C454" s="5"/>
@@ -9282,12 +8756,11 @@
       <c r="G454" s="5"/>
       <c r="H454" s="7"/>
       <c r="I454" s="8"/>
-      <c r="J454" s="8"/>
+      <c r="J454" s="5"/>
       <c r="K454" s="5"/>
       <c r="L454" s="5"/>
-      <c r="M454" s="5"/>
-    </row>
-    <row r="455" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="455" spans="1:12" ht="49.65" customHeight="1">
       <c r="A455" s="10"/>
       <c r="B455" s="4"/>
       <c r="C455" s="5"/>
@@ -9297,12 +8770,11 @@
       <c r="G455" s="5"/>
       <c r="H455" s="7"/>
       <c r="I455" s="8"/>
-      <c r="J455" s="8"/>
+      <c r="J455" s="5"/>
       <c r="K455" s="5"/>
       <c r="L455" s="5"/>
-      <c r="M455" s="5"/>
-    </row>
-    <row r="456" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="456" spans="1:12" ht="49.65" customHeight="1">
       <c r="A456" s="10"/>
       <c r="B456" s="4"/>
       <c r="C456" s="5"/>
@@ -9312,12 +8784,11 @@
       <c r="G456" s="5"/>
       <c r="H456" s="7"/>
       <c r="I456" s="8"/>
-      <c r="J456" s="8"/>
+      <c r="J456" s="5"/>
       <c r="K456" s="5"/>
       <c r="L456" s="5"/>
-      <c r="M456" s="5"/>
-    </row>
-    <row r="457" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="457" spans="1:12" ht="49.65" customHeight="1">
       <c r="A457" s="10"/>
       <c r="B457" s="4"/>
       <c r="C457" s="5"/>
@@ -9327,12 +8798,11 @@
       <c r="G457" s="5"/>
       <c r="H457" s="7"/>
       <c r="I457" s="8"/>
-      <c r="J457" s="8"/>
+      <c r="J457" s="5"/>
       <c r="K457" s="5"/>
       <c r="L457" s="5"/>
-      <c r="M457" s="5"/>
-    </row>
-    <row r="458" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="458" spans="1:12" ht="49.65" customHeight="1">
       <c r="A458" s="10"/>
       <c r="B458" s="4"/>
       <c r="C458" s="5"/>
@@ -9342,12 +8812,11 @@
       <c r="G458" s="5"/>
       <c r="H458" s="7"/>
       <c r="I458" s="8"/>
-      <c r="J458" s="8"/>
+      <c r="J458" s="9"/>
       <c r="K458" s="9"/>
-      <c r="L458" s="9"/>
-      <c r="M458" s="5"/>
-    </row>
-    <row r="459" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L458" s="5"/>
+    </row>
+    <row r="459" spans="1:12" ht="49.65" customHeight="1">
       <c r="A459" s="10"/>
       <c r="B459" s="4"/>
       <c r="C459" s="5"/>
@@ -9357,12 +8826,11 @@
       <c r="G459" s="5"/>
       <c r="H459" s="7"/>
       <c r="I459" s="8"/>
-      <c r="J459" s="8"/>
+      <c r="J459" s="9"/>
       <c r="K459" s="9"/>
-      <c r="L459" s="9"/>
-      <c r="M459" s="5"/>
-    </row>
-    <row r="460" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L459" s="5"/>
+    </row>
+    <row r="460" spans="1:12" ht="49.65" customHeight="1">
       <c r="A460" s="10"/>
       <c r="B460" s="4"/>
       <c r="C460" s="5"/>
@@ -9372,12 +8840,11 @@
       <c r="G460" s="5"/>
       <c r="H460" s="7"/>
       <c r="I460" s="8"/>
-      <c r="J460" s="8"/>
+      <c r="J460" s="5"/>
       <c r="K460" s="5"/>
       <c r="L460" s="5"/>
-      <c r="M460" s="5"/>
-    </row>
-    <row r="461" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="461" spans="1:12" ht="49.65" customHeight="1">
       <c r="A461" s="10"/>
       <c r="B461" s="4"/>
       <c r="C461" s="5"/>
@@ -9387,12 +8854,11 @@
       <c r="G461" s="5"/>
       <c r="H461" s="7"/>
       <c r="I461" s="8"/>
-      <c r="J461" s="8"/>
+      <c r="J461" s="5"/>
       <c r="K461" s="5"/>
       <c r="L461" s="5"/>
-      <c r="M461" s="5"/>
-    </row>
-    <row r="462" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="462" spans="1:12" ht="49.65" customHeight="1">
       <c r="A462" s="10"/>
       <c r="B462" s="4"/>
       <c r="C462" s="5"/>
@@ -9402,12 +8868,11 @@
       <c r="G462" s="5"/>
       <c r="H462" s="7"/>
       <c r="I462" s="8"/>
-      <c r="J462" s="8"/>
+      <c r="J462" s="5"/>
       <c r="K462" s="5"/>
       <c r="L462" s="5"/>
-      <c r="M462" s="5"/>
-    </row>
-    <row r="463" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="463" spans="1:12" ht="49.65" customHeight="1">
       <c r="A463" s="10"/>
       <c r="B463" s="4"/>
       <c r="C463" s="5"/>
@@ -9417,12 +8882,11 @@
       <c r="G463" s="5"/>
       <c r="H463" s="7"/>
       <c r="I463" s="8"/>
-      <c r="J463" s="8"/>
+      <c r="J463" s="5"/>
       <c r="K463" s="5"/>
       <c r="L463" s="5"/>
-      <c r="M463" s="5"/>
-    </row>
-    <row r="464" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="464" spans="1:12" ht="49.65" customHeight="1">
       <c r="A464" s="10"/>
       <c r="B464" s="4"/>
       <c r="C464" s="5"/>
@@ -9432,12 +8896,11 @@
       <c r="G464" s="5"/>
       <c r="H464" s="7"/>
       <c r="I464" s="8"/>
-      <c r="J464" s="8"/>
+      <c r="J464" s="5"/>
       <c r="K464" s="5"/>
       <c r="L464" s="5"/>
-      <c r="M464" s="5"/>
-    </row>
-    <row r="465" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="465" spans="1:12" ht="49.65" customHeight="1">
       <c r="A465" s="10"/>
       <c r="B465" s="4"/>
       <c r="C465" s="5"/>
@@ -9447,12 +8910,11 @@
       <c r="G465" s="5"/>
       <c r="H465" s="7"/>
       <c r="I465" s="8"/>
-      <c r="J465" s="8"/>
+      <c r="J465" s="5"/>
       <c r="K465" s="5"/>
       <c r="L465" s="5"/>
-      <c r="M465" s="5"/>
-    </row>
-    <row r="466" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="466" spans="1:12" ht="49.65" customHeight="1">
       <c r="A466" s="10"/>
       <c r="B466" s="4"/>
       <c r="C466" s="5"/>
@@ -9462,12 +8924,11 @@
       <c r="G466" s="5"/>
       <c r="H466" s="7"/>
       <c r="I466" s="8"/>
-      <c r="J466" s="8"/>
+      <c r="J466" s="5"/>
       <c r="K466" s="5"/>
       <c r="L466" s="5"/>
-      <c r="M466" s="5"/>
-    </row>
-    <row r="467" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="467" spans="1:12" ht="49.65" customHeight="1">
       <c r="A467" s="10"/>
       <c r="B467" s="4"/>
       <c r="C467" s="5"/>
@@ -9477,12 +8938,11 @@
       <c r="G467" s="5"/>
       <c r="H467" s="7"/>
       <c r="I467" s="8"/>
-      <c r="J467" s="8"/>
+      <c r="J467" s="5"/>
       <c r="K467" s="5"/>
       <c r="L467" s="5"/>
-      <c r="M467" s="5"/>
-    </row>
-    <row r="468" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="468" spans="1:12" ht="49.65" customHeight="1">
       <c r="A468" s="10"/>
       <c r="B468" s="4"/>
       <c r="C468" s="5"/>
@@ -9492,12 +8952,11 @@
       <c r="G468" s="5"/>
       <c r="H468" s="7"/>
       <c r="I468" s="8"/>
-      <c r="J468" s="8"/>
+      <c r="J468" s="5"/>
       <c r="K468" s="5"/>
       <c r="L468" s="5"/>
-      <c r="M468" s="5"/>
-    </row>
-    <row r="469" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="469" spans="1:12" ht="49.65" customHeight="1">
       <c r="A469" s="10"/>
       <c r="B469" s="4"/>
       <c r="C469" s="5"/>
@@ -9507,12 +8966,11 @@
       <c r="G469" s="5"/>
       <c r="H469" s="7"/>
       <c r="I469" s="8"/>
-      <c r="J469" s="8"/>
+      <c r="J469" s="9"/>
       <c r="K469" s="9"/>
-      <c r="L469" s="9"/>
-      <c r="M469" s="5"/>
-    </row>
-    <row r="470" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L469" s="5"/>
+    </row>
+    <row r="470" spans="1:12" ht="49.65" customHeight="1">
       <c r="A470" s="10"/>
       <c r="B470" s="4"/>
       <c r="C470" s="5"/>
@@ -9522,12 +8980,11 @@
       <c r="G470" s="5"/>
       <c r="H470" s="7"/>
       <c r="I470" s="8"/>
-      <c r="J470" s="8"/>
+      <c r="J470" s="9"/>
       <c r="K470" s="9"/>
-      <c r="L470" s="9"/>
-      <c r="M470" s="5"/>
-    </row>
-    <row r="471" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L470" s="5"/>
+    </row>
+    <row r="471" spans="1:12" ht="49.65" customHeight="1">
       <c r="A471" s="10"/>
       <c r="B471" s="4"/>
       <c r="C471" s="5"/>
@@ -9537,12 +8994,11 @@
       <c r="G471" s="5"/>
       <c r="H471" s="7"/>
       <c r="I471" s="8"/>
-      <c r="J471" s="8"/>
+      <c r="J471" s="9"/>
       <c r="K471" s="9"/>
-      <c r="L471" s="9"/>
-      <c r="M471" s="5"/>
-    </row>
-    <row r="472" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L471" s="5"/>
+    </row>
+    <row r="472" spans="1:12" ht="49.65" customHeight="1">
       <c r="A472" s="10"/>
       <c r="B472" s="4"/>
       <c r="C472" s="5"/>
@@ -9552,12 +9008,11 @@
       <c r="G472" s="5"/>
       <c r="H472" s="7"/>
       <c r="I472" s="8"/>
-      <c r="J472" s="8"/>
+      <c r="J472" s="5"/>
       <c r="K472" s="5"/>
       <c r="L472" s="5"/>
-      <c r="M472" s="5"/>
-    </row>
-    <row r="473" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="473" spans="1:12" ht="49.65" customHeight="1">
       <c r="A473" s="10"/>
       <c r="B473" s="4"/>
       <c r="C473" s="5"/>
@@ -9567,12 +9022,11 @@
       <c r="G473" s="5"/>
       <c r="H473" s="7"/>
       <c r="I473" s="8"/>
-      <c r="J473" s="8"/>
+      <c r="J473" s="5"/>
       <c r="K473" s="5"/>
       <c r="L473" s="5"/>
-      <c r="M473" s="5"/>
-    </row>
-    <row r="474" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="474" spans="1:12" ht="49.65" customHeight="1">
       <c r="A474" s="10"/>
       <c r="B474" s="4"/>
       <c r="C474" s="5"/>
@@ -9582,12 +9036,11 @@
       <c r="G474" s="5"/>
       <c r="H474" s="7"/>
       <c r="I474" s="8"/>
-      <c r="J474" s="8"/>
+      <c r="J474" s="5"/>
       <c r="K474" s="5"/>
       <c r="L474" s="5"/>
-      <c r="M474" s="5"/>
-    </row>
-    <row r="475" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="475" spans="1:12" ht="49.65" customHeight="1">
       <c r="A475" s="10"/>
       <c r="B475" s="4"/>
       <c r="C475" s="5"/>
@@ -9597,12 +9050,11 @@
       <c r="G475" s="5"/>
       <c r="H475" s="7"/>
       <c r="I475" s="8"/>
-      <c r="J475" s="8"/>
+      <c r="J475" s="5"/>
       <c r="K475" s="5"/>
-      <c r="L475" s="5"/>
-      <c r="M475" s="9"/>
-    </row>
-    <row r="476" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L475" s="9"/>
+    </row>
+    <row r="476" spans="1:12" ht="49.65" customHeight="1">
       <c r="A476" s="10"/>
       <c r="B476" s="4"/>
       <c r="C476" s="5"/>
@@ -9612,12 +9064,11 @@
       <c r="G476" s="5"/>
       <c r="H476" s="7"/>
       <c r="I476" s="8"/>
-      <c r="J476" s="8"/>
+      <c r="J476" s="5"/>
       <c r="K476" s="5"/>
-      <c r="L476" s="5"/>
-      <c r="M476" s="9"/>
-    </row>
-    <row r="477" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L476" s="9"/>
+    </row>
+    <row r="477" spans="1:12" ht="49.65" customHeight="1">
       <c r="A477" s="10"/>
       <c r="B477" s="4"/>
       <c r="C477" s="5"/>
@@ -9627,12 +9078,11 @@
       <c r="G477" s="5"/>
       <c r="H477" s="7"/>
       <c r="I477" s="8"/>
-      <c r="J477" s="8"/>
+      <c r="J477" s="5"/>
       <c r="K477" s="5"/>
-      <c r="L477" s="5"/>
-      <c r="M477" s="9"/>
-    </row>
-    <row r="478" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L477" s="9"/>
+    </row>
+    <row r="478" spans="1:12" ht="49.65" customHeight="1">
       <c r="A478" s="10"/>
       <c r="B478" s="4"/>
       <c r="C478" s="5"/>
@@ -9642,12 +9092,11 @@
       <c r="G478" s="5"/>
       <c r="H478" s="7"/>
       <c r="I478" s="8"/>
-      <c r="J478" s="8"/>
+      <c r="J478" s="5"/>
       <c r="K478" s="5"/>
-      <c r="L478" s="5"/>
-      <c r="M478" s="9"/>
-    </row>
-    <row r="479" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L478" s="9"/>
+    </row>
+    <row r="479" spans="1:12" ht="49.65" customHeight="1">
       <c r="A479" s="10"/>
       <c r="B479" s="4"/>
       <c r="C479" s="5"/>
@@ -9657,12 +9106,11 @@
       <c r="G479" s="5"/>
       <c r="H479" s="7"/>
       <c r="I479" s="8"/>
-      <c r="J479" s="8"/>
+      <c r="J479" s="5"/>
       <c r="K479" s="5"/>
-      <c r="L479" s="5"/>
-      <c r="M479" s="9"/>
-    </row>
-    <row r="480" spans="1:13" ht="49.65" customHeight="1">
+      <c r="L479" s="9"/>
+    </row>
+    <row r="480" spans="1:12" ht="49.65" customHeight="1">
       <c r="A480" s="10"/>
       <c r="B480" s="4"/>
       <c r="C480" s="5"/>
@@ -9672,12 +9120,11 @@
       <c r="G480" s="5"/>
       <c r="H480" s="7"/>
       <c r="I480" s="8"/>
-      <c r="J480" s="8"/>
+      <c r="J480" s="5"/>
       <c r="K480" s="5"/>
       <c r="L480" s="5"/>
-      <c r="M480" s="5"/>
-    </row>
-    <row r="481" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="481" spans="1:12" ht="49.65" customHeight="1">
       <c r="A481" s="10"/>
       <c r="B481" s="4"/>
       <c r="C481" s="5"/>
@@ -9687,12 +9134,11 @@
       <c r="G481" s="5"/>
       <c r="H481" s="7"/>
       <c r="I481" s="8"/>
-      <c r="J481" s="8"/>
+      <c r="J481" s="5"/>
       <c r="K481" s="5"/>
       <c r="L481" s="5"/>
-      <c r="M481" s="5"/>
-    </row>
-    <row r="482" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="482" spans="1:12" ht="49.65" customHeight="1">
       <c r="A482" s="10"/>
       <c r="B482" s="4"/>
       <c r="C482" s="5"/>
@@ -9702,12 +9148,11 @@
       <c r="G482" s="5"/>
       <c r="H482" s="7"/>
       <c r="I482" s="8"/>
-      <c r="J482" s="8"/>
+      <c r="J482" s="5"/>
       <c r="K482" s="5"/>
       <c r="L482" s="5"/>
-      <c r="M482" s="5"/>
-    </row>
-    <row r="483" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="483" spans="1:12" ht="49.65" customHeight="1">
       <c r="A483" s="10"/>
       <c r="B483" s="4"/>
       <c r="C483" s="5"/>
@@ -9717,12 +9162,11 @@
       <c r="G483" s="5"/>
       <c r="H483" s="7"/>
       <c r="I483" s="8"/>
-      <c r="J483" s="8"/>
+      <c r="J483" s="5"/>
       <c r="K483" s="5"/>
       <c r="L483" s="5"/>
-      <c r="M483" s="5"/>
-    </row>
-    <row r="484" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="484" spans="1:12" ht="49.65" customHeight="1">
       <c r="A484" s="10"/>
       <c r="B484" s="4"/>
       <c r="C484" s="5"/>
@@ -9732,12 +9176,11 @@
       <c r="G484" s="5"/>
       <c r="H484" s="7"/>
       <c r="I484" s="8"/>
-      <c r="J484" s="8"/>
+      <c r="J484" s="5"/>
       <c r="K484" s="5"/>
       <c r="L484" s="5"/>
-      <c r="M484" s="5"/>
-    </row>
-    <row r="485" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="485" spans="1:12" ht="49.65" customHeight="1">
       <c r="A485" s="10"/>
       <c r="B485" s="4"/>
       <c r="C485" s="5"/>
@@ -9747,12 +9190,11 @@
       <c r="G485" s="5"/>
       <c r="H485" s="7"/>
       <c r="I485" s="8"/>
-      <c r="J485" s="8"/>
+      <c r="J485" s="5"/>
       <c r="K485" s="5"/>
       <c r="L485" s="5"/>
-      <c r="M485" s="5"/>
-    </row>
-    <row r="486" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="486" spans="1:12" ht="49.65" customHeight="1">
       <c r="A486" s="10"/>
       <c r="B486" s="4"/>
       <c r="C486" s="5"/>
@@ -9762,12 +9204,11 @@
       <c r="G486" s="5"/>
       <c r="H486" s="7"/>
       <c r="I486" s="8"/>
-      <c r="J486" s="8"/>
+      <c r="J486" s="5"/>
       <c r="K486" s="5"/>
       <c r="L486" s="5"/>
-      <c r="M486" s="5"/>
-    </row>
-    <row r="487" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="487" spans="1:12" ht="49.65" customHeight="1">
       <c r="A487" s="10"/>
       <c r="B487" s="4"/>
       <c r="C487" s="5"/>
@@ -9777,12 +9218,11 @@
       <c r="G487" s="5"/>
       <c r="H487" s="7"/>
       <c r="I487" s="8"/>
-      <c r="J487" s="8"/>
+      <c r="J487" s="5"/>
       <c r="K487" s="5"/>
       <c r="L487" s="5"/>
-      <c r="M487" s="5"/>
-    </row>
-    <row r="488" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="488" spans="1:12" ht="49.65" customHeight="1">
       <c r="A488" s="10"/>
       <c r="B488" s="4"/>
       <c r="C488" s="5"/>
@@ -9792,12 +9232,11 @@
       <c r="G488" s="5"/>
       <c r="H488" s="7"/>
       <c r="I488" s="8"/>
-      <c r="J488" s="8"/>
+      <c r="J488" s="5"/>
       <c r="K488" s="5"/>
       <c r="L488" s="5"/>
-      <c r="M488" s="5"/>
-    </row>
-    <row r="489" spans="1:13" ht="49.65" customHeight="1">
+    </row>
+    <row r="489" spans="1:12" ht="49.65" customHeight="1">
       <c r="A489" s="10"/>
       <c r="B489" s="4"/>
       <c r="C489" s="5"/>
@@ -9807,10 +9246,9 @@
       <c r="G489" s="5"/>
       <c r="H489" s="7"/>
       <c r="I489" s="8"/>
-      <c r="J489" s="8"/>
+      <c r="J489" s="5"/>
       <c r="K489" s="5"/>
       <c r="L489" s="5"/>
-      <c r="M489" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>

--- a/Data_file/import_PO1.xlsx
+++ b/Data_file/import_PO1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="15960" windowHeight="18090"/>
+    <workbookView xWindow="0" yWindow="36" windowWidth="15960" windowHeight="18096"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1818" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2142" uniqueCount="477">
   <si>
     <t>date_order</t>
   </si>
@@ -1469,6 +1469,12 @@
   </si>
   <si>
     <t>description</t>
+  </si>
+  <si>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>OB-PO</t>
   </si>
 </sst>
 </file>
@@ -2773,21 +2779,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M488"/>
+  <dimension ref="A1:N488"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="N55" sqref="N55"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D311" workbookViewId="0">
+      <selection activeCell="N314" sqref="N314"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="1" max="6" width="16.28515625" style="1" customWidth="1"/>
+    <col min="1" max="6" width="16.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="27" style="1" customWidth="1"/>
-    <col min="8" max="13" width="16.28515625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="16.28515625" style="1"/>
+    <col min="8" max="13" width="16.33203125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="16.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20.25" customHeight="1">
+    <row r="1" spans="1:14" ht="20.25" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -2827,8 +2833,11 @@
       <c r="M1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="63.95" customHeight="1">
+      <c r="N1" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="63.9" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -2866,8 +2875,11 @@
       <c r="M2" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="63.6" customHeight="1">
+      <c r="N2" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="63.6" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -2905,8 +2917,11 @@
       <c r="M3" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N3" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="49.65" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -2944,8 +2959,11 @@
       <c r="M4" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N4" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="49.65" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
@@ -2980,8 +2998,11 @@
       <c r="L5" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N5" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="49.65" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
@@ -3016,8 +3037,11 @@
       <c r="L6" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="61.7" customHeight="1">
+      <c r="N6" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="61.65" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
@@ -3052,8 +3076,11 @@
       <c r="L7" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N7" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="49.65" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3088,8 +3115,11 @@
       <c r="L8" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N8" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="49.65" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
@@ -3127,8 +3157,11 @@
       <c r="M9" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N9" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="49.65" customHeight="1">
       <c r="A10" s="10" t="s">
         <v>34</v>
       </c>
@@ -3166,8 +3199,11 @@
       <c r="M10" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N10" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="49.65" customHeight="1">
       <c r="A11" s="10" t="s">
         <v>34</v>
       </c>
@@ -3205,8 +3241,11 @@
       <c r="M11" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N11" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="49.65" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>41</v>
       </c>
@@ -3244,8 +3283,11 @@
       <c r="M12" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N12" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="49.65" customHeight="1">
       <c r="A13" s="10" t="s">
         <v>46</v>
       </c>
@@ -3283,8 +3325,11 @@
       <c r="M13" s="5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="77.650000000000006" customHeight="1">
+      <c r="N13" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="77.7" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>51</v>
       </c>
@@ -3324,8 +3369,11 @@
       <c r="M14" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="77.650000000000006" customHeight="1">
+      <c r="N14" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="77.7" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>51</v>
       </c>
@@ -3365,8 +3413,11 @@
       <c r="M15" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="63.6" customHeight="1">
+      <c r="N15" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="63.6" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>51</v>
       </c>
@@ -3406,8 +3457,11 @@
       <c r="M16" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" ht="48" customHeight="1">
+      <c r="N16" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="48" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>51</v>
       </c>
@@ -3447,8 +3501,11 @@
       <c r="M17" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="48" customHeight="1">
+      <c r="N17" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="48" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>51</v>
       </c>
@@ -3488,8 +3545,11 @@
       <c r="M18" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="47.65" customHeight="1">
+      <c r="N18" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="47.7" customHeight="1">
       <c r="A19" s="3" t="s">
         <v>51</v>
       </c>
@@ -3529,8 +3589,11 @@
       <c r="M19" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" ht="48" customHeight="1">
+      <c r="N19" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="48" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>51</v>
       </c>
@@ -3570,8 +3633,11 @@
       <c r="M20" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" ht="48" customHeight="1">
+      <c r="N20" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="48" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>51</v>
       </c>
@@ -3611,8 +3677,11 @@
       <c r="M21" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" ht="48" customHeight="1">
+      <c r="N21" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="48" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>51</v>
       </c>
@@ -3652,8 +3721,11 @@
       <c r="M22" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" ht="48" customHeight="1">
+      <c r="N22" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="48" customHeight="1">
       <c r="A23" s="3" t="s">
         <v>66</v>
       </c>
@@ -3690,8 +3762,11 @@
       <c r="L23" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" ht="48" customHeight="1">
+      <c r="N23" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="48" customHeight="1">
       <c r="A24" s="3" t="s">
         <v>66</v>
       </c>
@@ -3728,8 +3803,11 @@
       <c r="L24" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N24" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="49.65" customHeight="1">
       <c r="A25" s="3" t="s">
         <v>66</v>
       </c>
@@ -3766,8 +3844,11 @@
       <c r="L25" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N25" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="49.65" customHeight="1">
       <c r="A26" s="3" t="s">
         <v>66</v>
       </c>
@@ -3804,8 +3885,11 @@
       <c r="L26" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" ht="60" customHeight="1">
+      <c r="N26" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="60" customHeight="1">
       <c r="A27" s="3" t="s">
         <v>66</v>
       </c>
@@ -3842,8 +3926,11 @@
       <c r="L27" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" ht="60" customHeight="1">
+      <c r="N27" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="60" customHeight="1">
       <c r="A28" s="3" t="s">
         <v>75</v>
       </c>
@@ -3881,8 +3968,11 @@
       <c r="M28" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" ht="35.65" customHeight="1">
+      <c r="N28" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="35.700000000000003" customHeight="1">
       <c r="A29" s="3" t="s">
         <v>75</v>
       </c>
@@ -3920,8 +4010,11 @@
       <c r="M29" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" ht="35.65" customHeight="1">
+      <c r="N29" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="35.700000000000003" customHeight="1">
       <c r="A30" s="3" t="s">
         <v>82</v>
       </c>
@@ -3959,8 +4052,11 @@
       <c r="M30" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" ht="62.1" customHeight="1">
+      <c r="N30" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="62.1" customHeight="1">
       <c r="A31" s="3" t="s">
         <v>82</v>
       </c>
@@ -3998,8 +4094,11 @@
       <c r="M31" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" ht="62.1" customHeight="1">
+      <c r="N31" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="62.1" customHeight="1">
       <c r="A32" s="3" t="s">
         <v>82</v>
       </c>
@@ -4037,8 +4136,11 @@
       <c r="M32" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" ht="62.1" customHeight="1">
+      <c r="N32" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="62.1" customHeight="1">
       <c r="A33" s="3" t="s">
         <v>82</v>
       </c>
@@ -4076,8 +4178,11 @@
       <c r="M33" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" ht="62.1" customHeight="1">
+      <c r="N33" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="62.1" customHeight="1">
       <c r="A34" s="3" t="s">
         <v>82</v>
       </c>
@@ -4115,8 +4220,11 @@
       <c r="M34" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" ht="48" customHeight="1">
+      <c r="N34" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="48" customHeight="1">
       <c r="A35" s="3" t="s">
         <v>82</v>
       </c>
@@ -4154,8 +4262,11 @@
       <c r="M35" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" ht="48" customHeight="1">
+      <c r="N35" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="48" customHeight="1">
       <c r="A36" s="3" t="s">
         <v>93</v>
       </c>
@@ -4195,8 +4306,11 @@
       <c r="M36" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" ht="48" customHeight="1">
+      <c r="N36" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="48" customHeight="1">
       <c r="A37" s="3" t="s">
         <v>93</v>
       </c>
@@ -4236,8 +4350,11 @@
       <c r="M37" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" ht="48" customHeight="1">
+      <c r="N37" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="48" customHeight="1">
       <c r="A38" s="3" t="s">
         <v>97</v>
       </c>
@@ -4275,8 +4392,11 @@
       <c r="M38" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" ht="48" customHeight="1">
+      <c r="N38" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="48" customHeight="1">
       <c r="A39" s="3" t="s">
         <v>103</v>
       </c>
@@ -4314,8 +4434,11 @@
       <c r="M39" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" ht="48" customHeight="1">
+      <c r="N39" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="48" customHeight="1">
       <c r="A40" s="3" t="s">
         <v>103</v>
       </c>
@@ -4353,8 +4476,11 @@
       <c r="M40" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" ht="48" customHeight="1">
+      <c r="N40" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="48" customHeight="1">
       <c r="A41" s="3" t="s">
         <v>103</v>
       </c>
@@ -4392,8 +4518,11 @@
       <c r="M41" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" ht="48" customHeight="1">
+      <c r="N41" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="48" customHeight="1">
       <c r="A42" s="3" t="s">
         <v>111</v>
       </c>
@@ -4431,8 +4560,11 @@
       <c r="M42" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" ht="48" customHeight="1">
+      <c r="N42" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="48" customHeight="1">
       <c r="A43" s="3" t="s">
         <v>117</v>
       </c>
@@ -4467,8 +4599,11 @@
       <c r="L43" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" ht="48" customHeight="1">
+      <c r="N43" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="48" customHeight="1">
       <c r="A44" s="3" t="s">
         <v>117</v>
       </c>
@@ -4503,8 +4638,11 @@
       <c r="L44" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" ht="48" customHeight="1">
+      <c r="N44" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="48" customHeight="1">
       <c r="A45" s="3" t="s">
         <v>120</v>
       </c>
@@ -4544,8 +4682,11 @@
       <c r="M45" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" ht="48" customHeight="1">
+      <c r="N45" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="48" customHeight="1">
       <c r="A46" s="3" t="s">
         <v>120</v>
       </c>
@@ -4585,8 +4726,11 @@
       <c r="M46" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" ht="48" customHeight="1">
+      <c r="N46" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="48" customHeight="1">
       <c r="A47" s="3" t="s">
         <v>120</v>
       </c>
@@ -4626,8 +4770,11 @@
       <c r="M47" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" ht="48" customHeight="1">
+      <c r="N47" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="48" customHeight="1">
       <c r="A48" s="3" t="s">
         <v>120</v>
       </c>
@@ -4667,8 +4814,11 @@
       <c r="M48" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" ht="48" customHeight="1">
+      <c r="N48" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="48" customHeight="1">
       <c r="A49" s="3" t="s">
         <v>120</v>
       </c>
@@ -4708,8 +4858,11 @@
       <c r="M49" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" ht="74.099999999999994" customHeight="1">
+      <c r="N49" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="74.099999999999994" customHeight="1">
       <c r="A50" s="3" t="s">
         <v>120</v>
       </c>
@@ -4749,8 +4902,11 @@
       <c r="M50" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" ht="75.599999999999994" customHeight="1">
+      <c r="N50" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="75.599999999999994" customHeight="1">
       <c r="A51" s="3" t="s">
         <v>120</v>
       </c>
@@ -4790,8 +4946,11 @@
       <c r="M51" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N51" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="49.65" customHeight="1">
       <c r="A52" s="3" t="s">
         <v>120</v>
       </c>
@@ -4831,8 +4990,11 @@
       <c r="M52" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N52" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="49.65" customHeight="1">
       <c r="A53" s="3" t="s">
         <v>120</v>
       </c>
@@ -4872,8 +5034,11 @@
       <c r="M53" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" ht="63.6" customHeight="1">
+      <c r="N53" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="63.6" customHeight="1">
       <c r="A54" s="3" t="s">
         <v>131</v>
       </c>
@@ -4910,8 +5075,11 @@
       <c r="L54" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" ht="74.099999999999994" customHeight="1">
+      <c r="N54" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="74.099999999999994" customHeight="1">
       <c r="A55" s="3" t="s">
         <v>131</v>
       </c>
@@ -4948,8 +5116,11 @@
       <c r="L55" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" ht="63.6" customHeight="1">
+      <c r="N55" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="63.6" customHeight="1">
       <c r="A56" s="3" t="s">
         <v>135</v>
       </c>
@@ -4984,8 +5155,11 @@
       <c r="L56" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" ht="99.6" customHeight="1">
+      <c r="N56" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="99.6" customHeight="1">
       <c r="A57" s="3" t="s">
         <v>135</v>
       </c>
@@ -5020,8 +5194,11 @@
       <c r="L57" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" ht="72" customHeight="1">
+      <c r="N57" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="72" customHeight="1">
       <c r="A58" s="3" t="s">
         <v>138</v>
       </c>
@@ -5056,8 +5233,11 @@
       <c r="L58" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" ht="89.65" customHeight="1">
+      <c r="N58" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="89.7" customHeight="1">
       <c r="A59" s="3" t="s">
         <v>138</v>
       </c>
@@ -5092,8 +5272,11 @@
       <c r="L59" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" ht="77.650000000000006" customHeight="1">
+      <c r="N59" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="77.7" customHeight="1">
       <c r="A60" s="3" t="s">
         <v>138</v>
       </c>
@@ -5128,8 +5311,11 @@
       <c r="L60" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" ht="77.650000000000006" customHeight="1">
+      <c r="N60" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="77.7" customHeight="1">
       <c r="A61" s="3" t="s">
         <v>138</v>
       </c>
@@ -5164,8 +5350,11 @@
       <c r="L61" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" ht="77.650000000000006" customHeight="1">
+      <c r="N61" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="77.7" customHeight="1">
       <c r="A62" s="3" t="s">
         <v>138</v>
       </c>
@@ -5200,8 +5389,11 @@
       <c r="L62" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" ht="77.650000000000006" customHeight="1">
+      <c r="N62" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="77.7" customHeight="1">
       <c r="A63" s="3" t="s">
         <v>138</v>
       </c>
@@ -5236,8 +5428,11 @@
       <c r="L63" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" ht="77.650000000000006" customHeight="1">
+      <c r="N63" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="77.7" customHeight="1">
       <c r="A64" s="3" t="s">
         <v>138</v>
       </c>
@@ -5272,8 +5467,11 @@
       <c r="L64" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" ht="77.650000000000006" customHeight="1">
+      <c r="N64" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="77.7" customHeight="1">
       <c r="A65" s="3" t="s">
         <v>138</v>
       </c>
@@ -5308,8 +5506,11 @@
       <c r="L65" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" ht="77.650000000000006" customHeight="1">
+      <c r="N65" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="77.7" customHeight="1">
       <c r="A66" s="3" t="s">
         <v>138</v>
       </c>
@@ -5344,8 +5545,11 @@
       <c r="L66" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" ht="77.650000000000006" customHeight="1">
+      <c r="N66" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="77.7" customHeight="1">
       <c r="A67" s="3" t="s">
         <v>138</v>
       </c>
@@ -5380,8 +5584,11 @@
       <c r="L67" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" ht="77.650000000000006" customHeight="1">
+      <c r="N67" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="77.7" customHeight="1">
       <c r="A68" s="3" t="s">
         <v>138</v>
       </c>
@@ -5416,8 +5623,11 @@
       <c r="L68" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" ht="77.650000000000006" customHeight="1">
+      <c r="N68" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="77.7" customHeight="1">
       <c r="A69" s="3" t="s">
         <v>138</v>
       </c>
@@ -5452,8 +5662,11 @@
       <c r="L69" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" ht="77.650000000000006" customHeight="1">
+      <c r="N69" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="77.7" customHeight="1">
       <c r="A70" s="3" t="s">
         <v>138</v>
       </c>
@@ -5488,8 +5701,11 @@
       <c r="L70" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" ht="86.1" customHeight="1">
+      <c r="N70" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="86.1" customHeight="1">
       <c r="A71" s="3" t="s">
         <v>138</v>
       </c>
@@ -5524,8 +5740,11 @@
       <c r="L71" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" ht="62.1" customHeight="1">
+      <c r="N71" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="62.1" customHeight="1">
       <c r="A72" s="3" t="s">
         <v>138</v>
       </c>
@@ -5560,8 +5779,11 @@
       <c r="L72" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" ht="63.6" customHeight="1">
+      <c r="N72" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="63.6" customHeight="1">
       <c r="A73" s="3" t="s">
         <v>138</v>
       </c>
@@ -5596,8 +5818,11 @@
       <c r="L73" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" ht="77.650000000000006" customHeight="1">
+      <c r="N73" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="77.7" customHeight="1">
       <c r="A74" s="3" t="s">
         <v>138</v>
       </c>
@@ -5632,8 +5857,11 @@
       <c r="L74" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" ht="77.650000000000006" customHeight="1">
+      <c r="N74" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="77.7" customHeight="1">
       <c r="A75" s="3" t="s">
         <v>138</v>
       </c>
@@ -5668,8 +5896,11 @@
       <c r="L75" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" ht="77.650000000000006" customHeight="1">
+      <c r="N75" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" ht="77.7" customHeight="1">
       <c r="A76" s="3" t="s">
         <v>158</v>
       </c>
@@ -5704,8 +5935,11 @@
       <c r="L76" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" ht="77.650000000000006" customHeight="1">
+      <c r="N76" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" ht="77.7" customHeight="1">
       <c r="A77" s="3" t="s">
         <v>158</v>
       </c>
@@ -5740,8 +5974,11 @@
       <c r="L77" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" ht="77.650000000000006" customHeight="1">
+      <c r="N77" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" ht="77.7" customHeight="1">
       <c r="A78" s="3" t="s">
         <v>21</v>
       </c>
@@ -5776,8 +6013,11 @@
       <c r="L78" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" ht="77.650000000000006" customHeight="1">
+      <c r="N78" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" ht="77.7" customHeight="1">
       <c r="A79" s="3" t="s">
         <v>21</v>
       </c>
@@ -5812,8 +6052,11 @@
       <c r="L79" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" ht="77.650000000000006" customHeight="1">
+      <c r="N79" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" ht="77.7" customHeight="1">
       <c r="A80" s="3" t="s">
         <v>21</v>
       </c>
@@ -5848,8 +6091,11 @@
       <c r="L80" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" ht="77.650000000000006" customHeight="1">
+      <c r="N80" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" ht="77.7" customHeight="1">
       <c r="A81" s="3" t="s">
         <v>21</v>
       </c>
@@ -5884,8 +6130,11 @@
       <c r="L81" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" ht="77.650000000000006" customHeight="1">
+      <c r="N81" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="77.7" customHeight="1">
       <c r="A82" s="3" t="s">
         <v>161</v>
       </c>
@@ -5920,8 +6169,11 @@
       <c r="L82" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" ht="77.650000000000006" customHeight="1">
+      <c r="N82" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" ht="77.7" customHeight="1">
       <c r="A83" s="3" t="s">
         <v>161</v>
       </c>
@@ -5956,8 +6208,11 @@
       <c r="L83" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" ht="77.650000000000006" customHeight="1">
+      <c r="N83" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" ht="77.7" customHeight="1">
       <c r="A84" s="3" t="s">
         <v>161</v>
       </c>
@@ -5992,8 +6247,11 @@
       <c r="L84" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" ht="77.650000000000006" customHeight="1">
+      <c r="N84" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="77.7" customHeight="1">
       <c r="A85" s="3" t="s">
         <v>161</v>
       </c>
@@ -6028,8 +6286,11 @@
       <c r="L85" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" ht="77.650000000000006" customHeight="1">
+      <c r="N85" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" ht="77.7" customHeight="1">
       <c r="A86" s="3" t="s">
         <v>161</v>
       </c>
@@ -6064,8 +6325,11 @@
       <c r="L86" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" ht="133.69999999999999" customHeight="1">
+      <c r="N86" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" ht="133.65" customHeight="1">
       <c r="A87" s="3" t="s">
         <v>161</v>
       </c>
@@ -6100,8 +6364,11 @@
       <c r="L87" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" ht="63.6" customHeight="1">
+      <c r="N87" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" ht="63.6" customHeight="1">
       <c r="A88" s="3" t="s">
         <v>161</v>
       </c>
@@ -6136,8 +6403,11 @@
       <c r="L88" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" ht="77.650000000000006" customHeight="1">
+      <c r="N88" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" ht="77.7" customHeight="1">
       <c r="A89" s="3" t="s">
         <v>161</v>
       </c>
@@ -6172,8 +6442,11 @@
       <c r="L89" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" ht="77.650000000000006" customHeight="1">
+      <c r="N89" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" ht="77.7" customHeight="1">
       <c r="A90" s="3" t="s">
         <v>161</v>
       </c>
@@ -6208,8 +6481,11 @@
       <c r="L90" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" ht="77.650000000000006" customHeight="1">
+      <c r="N90" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" ht="77.7" customHeight="1">
       <c r="A91" s="3" t="s">
         <v>161</v>
       </c>
@@ -6244,8 +6520,11 @@
       <c r="L91" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" ht="77.650000000000006" customHeight="1">
+      <c r="N91" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" ht="77.7" customHeight="1">
       <c r="A92" s="3" t="s">
         <v>161</v>
       </c>
@@ -6280,8 +6559,11 @@
       <c r="L92" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" ht="77.650000000000006" customHeight="1">
+      <c r="N92" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" ht="77.7" customHeight="1">
       <c r="A93" s="3" t="s">
         <v>161</v>
       </c>
@@ -6316,8 +6598,11 @@
       <c r="L93" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" ht="77.650000000000006" customHeight="1">
+      <c r="N93" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" ht="77.7" customHeight="1">
       <c r="A94" s="3" t="s">
         <v>161</v>
       </c>
@@ -6352,8 +6637,11 @@
       <c r="L94" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" ht="105.6" customHeight="1">
+      <c r="N94" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" ht="105.6" customHeight="1">
       <c r="A95" s="3" t="s">
         <v>161</v>
       </c>
@@ -6388,8 +6676,11 @@
       <c r="L95" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" ht="105.6" customHeight="1">
+      <c r="N95" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" ht="105.6" customHeight="1">
       <c r="A96" s="3" t="s">
         <v>161</v>
       </c>
@@ -6424,8 +6715,11 @@
       <c r="L96" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" ht="105.6" customHeight="1">
+      <c r="N96" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" ht="105.6" customHeight="1">
       <c r="A97" s="3" t="s">
         <v>161</v>
       </c>
@@ -6460,8 +6754,11 @@
       <c r="L97" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" ht="105.6" customHeight="1">
+      <c r="N97" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" ht="105.6" customHeight="1">
       <c r="A98" s="3" t="s">
         <v>161</v>
       </c>
@@ -6496,8 +6793,11 @@
       <c r="L98" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" ht="77.650000000000006" customHeight="1">
+      <c r="N98" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" ht="77.7" customHeight="1">
       <c r="A99" s="3" t="s">
         <v>161</v>
       </c>
@@ -6532,8 +6832,11 @@
       <c r="L99" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" ht="77.650000000000006" customHeight="1">
+      <c r="N99" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" ht="77.7" customHeight="1">
       <c r="A100" s="3" t="s">
         <v>161</v>
       </c>
@@ -6568,8 +6871,11 @@
       <c r="L100" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" ht="77.650000000000006" customHeight="1">
+      <c r="N100" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" ht="77.7" customHeight="1">
       <c r="A101" s="3" t="s">
         <v>161</v>
       </c>
@@ -6604,8 +6910,11 @@
       <c r="L101" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" ht="77.650000000000006" customHeight="1">
+      <c r="N101" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" ht="77.7" customHeight="1">
       <c r="A102" s="3" t="s">
         <v>161</v>
       </c>
@@ -6640,8 +6949,11 @@
       <c r="L102" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" ht="97.7" customHeight="1">
+      <c r="N102" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" ht="97.65" customHeight="1">
       <c r="A103" s="3" t="s">
         <v>161</v>
       </c>
@@ -6676,8 +6988,11 @@
       <c r="L103" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" ht="61.7" customHeight="1">
+      <c r="N103" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" ht="61.65" customHeight="1">
       <c r="A104" s="3" t="s">
         <v>161</v>
       </c>
@@ -6712,8 +7027,11 @@
       <c r="L104" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" ht="150" customHeight="1">
+      <c r="N104" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" ht="150" customHeight="1">
       <c r="A105" s="3" t="s">
         <v>161</v>
       </c>
@@ -6748,8 +7066,11 @@
       <c r="L105" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" ht="150" customHeight="1">
+      <c r="N105" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" ht="150" customHeight="1">
       <c r="A106" s="3" t="s">
         <v>185</v>
       </c>
@@ -6787,8 +7108,11 @@
       <c r="M106" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" ht="150" customHeight="1">
+      <c r="N106" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" ht="150" customHeight="1">
       <c r="A107" s="3" t="s">
         <v>185</v>
       </c>
@@ -6826,8 +7150,11 @@
       <c r="M107" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" ht="150" customHeight="1">
+      <c r="N107" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" ht="150" customHeight="1">
       <c r="A108" s="3" t="s">
         <v>185</v>
       </c>
@@ -6865,8 +7192,11 @@
       <c r="M108" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" ht="150" customHeight="1">
+      <c r="N108" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" ht="150" customHeight="1">
       <c r="A109" s="3" t="s">
         <v>185</v>
       </c>
@@ -6904,8 +7234,11 @@
       <c r="M109" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="110" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N109" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" ht="49.65" customHeight="1">
       <c r="A110" s="3" t="s">
         <v>185</v>
       </c>
@@ -6943,8 +7276,11 @@
       <c r="M110" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="111" spans="1:13" ht="76.150000000000006" customHeight="1">
+      <c r="N110" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" ht="76.2" customHeight="1">
       <c r="A111" s="3" t="s">
         <v>185</v>
       </c>
@@ -6982,8 +7318,11 @@
       <c r="M111" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" ht="76.150000000000006" customHeight="1">
+      <c r="N111" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" ht="76.2" customHeight="1">
       <c r="A112" s="3" t="s">
         <v>185</v>
       </c>
@@ -7021,8 +7360,11 @@
       <c r="M112" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="113" spans="1:13" ht="76.150000000000006" customHeight="1">
+      <c r="N112" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" ht="76.2" customHeight="1">
       <c r="A113" s="3" t="s">
         <v>185</v>
       </c>
@@ -7060,8 +7402,11 @@
       <c r="M113" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="114" spans="1:13" ht="76.150000000000006" customHeight="1">
+      <c r="N113" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" ht="76.2" customHeight="1">
       <c r="A114" s="3" t="s">
         <v>185</v>
       </c>
@@ -7099,8 +7444,11 @@
       <c r="M114" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="115" spans="1:13" ht="76.150000000000006" customHeight="1">
+      <c r="N114" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" ht="76.2" customHeight="1">
       <c r="A115" s="3" t="s">
         <v>199</v>
       </c>
@@ -7138,8 +7486,11 @@
       <c r="M115" s="1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="116" spans="1:13" ht="104.1" customHeight="1">
+      <c r="N115" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" ht="104.1" customHeight="1">
       <c r="A116" s="3" t="s">
         <v>199</v>
       </c>
@@ -7177,8 +7528,11 @@
       <c r="M116" s="1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="117" spans="1:13" ht="104.1" customHeight="1">
+      <c r="N116" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" ht="104.1" customHeight="1">
       <c r="A117" s="3" t="s">
         <v>199</v>
       </c>
@@ -7216,8 +7570,11 @@
       <c r="M117" s="1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="118" spans="1:13" ht="104.1" customHeight="1">
+      <c r="N117" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" ht="104.1" customHeight="1">
       <c r="A118" s="3" t="s">
         <v>199</v>
       </c>
@@ -7255,8 +7612,11 @@
       <c r="M118" s="1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="119" spans="1:13" ht="104.1" customHeight="1">
+      <c r="N118" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" ht="104.1" customHeight="1">
       <c r="A119" s="3" t="s">
         <v>199</v>
       </c>
@@ -7294,8 +7654,11 @@
       <c r="M119" s="1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="120" spans="1:13" ht="104.1" customHeight="1">
+      <c r="N119" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" ht="104.1" customHeight="1">
       <c r="A120" s="3" t="s">
         <v>199</v>
       </c>
@@ -7333,8 +7696,11 @@
       <c r="M120" s="1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="121" spans="1:13" ht="61.7" customHeight="1">
+      <c r="N120" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" ht="61.65" customHeight="1">
       <c r="A121" s="3" t="s">
         <v>199</v>
       </c>
@@ -7372,8 +7738,11 @@
       <c r="M121" s="1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="122" spans="1:13" ht="35.65" customHeight="1">
+      <c r="N121" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" ht="35.700000000000003" customHeight="1">
       <c r="A122" s="3" t="s">
         <v>199</v>
       </c>
@@ -7411,8 +7780,11 @@
       <c r="M122" s="1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="123" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N122" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" ht="49.65" customHeight="1">
       <c r="A123" s="3" t="s">
         <v>199</v>
       </c>
@@ -7450,8 +7822,11 @@
       <c r="M123" s="1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="124" spans="1:13" ht="59.65" customHeight="1">
+      <c r="N123" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" ht="59.7" customHeight="1">
       <c r="A124" s="3" t="s">
         <v>199</v>
       </c>
@@ -7489,8 +7864,11 @@
       <c r="M124" s="1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="125" spans="1:13" ht="59.65" customHeight="1">
+      <c r="N124" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" ht="59.7" customHeight="1">
       <c r="A125" s="3" t="s">
         <v>199</v>
       </c>
@@ -7528,8 +7906,11 @@
       <c r="M125" s="1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="126" spans="1:13" ht="74.099999999999994" customHeight="1">
+      <c r="N125" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" ht="74.099999999999994" customHeight="1">
       <c r="A126" s="3" t="s">
         <v>199</v>
       </c>
@@ -7567,8 +7948,11 @@
       <c r="M126" s="1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="127" spans="1:13" ht="74.099999999999994" customHeight="1">
+      <c r="N126" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" ht="74.099999999999994" customHeight="1">
       <c r="A127" s="3" t="s">
         <v>213</v>
       </c>
@@ -7606,8 +7990,11 @@
       <c r="M127" s="1" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="128" spans="1:13" ht="74.099999999999994" customHeight="1">
+      <c r="N127" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" ht="74.099999999999994" customHeight="1">
       <c r="A128" s="3" t="s">
         <v>213</v>
       </c>
@@ -7645,8 +8032,11 @@
       <c r="M128" s="1" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="129" spans="1:13" ht="74.099999999999994" customHeight="1">
+      <c r="N128" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" ht="74.099999999999994" customHeight="1">
       <c r="A129" s="3" t="s">
         <v>213</v>
       </c>
@@ -7684,8 +8074,11 @@
       <c r="M129" s="1" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="130" spans="1:13" ht="89.65" customHeight="1">
+      <c r="N129" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" ht="89.7" customHeight="1">
       <c r="A130" s="3" t="s">
         <v>213</v>
       </c>
@@ -7723,8 +8116,11 @@
       <c r="M130" s="1" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="131" spans="1:13" ht="63.6" customHeight="1">
+      <c r="N130" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" ht="63.6" customHeight="1">
       <c r="A131" s="3" t="s">
         <v>213</v>
       </c>
@@ -7762,8 +8158,11 @@
       <c r="M131" s="1" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="132" spans="1:13" ht="63.6" customHeight="1">
+      <c r="N131" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" ht="63.6" customHeight="1">
       <c r="A132" s="3" t="s">
         <v>213</v>
       </c>
@@ -7801,8 +8200,11 @@
       <c r="M132" s="1" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="133" spans="1:13" ht="63.6" customHeight="1">
+      <c r="N132" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" ht="63.6" customHeight="1">
       <c r="A133" s="3" t="s">
         <v>213</v>
       </c>
@@ -7840,8 +8242,11 @@
       <c r="M133" s="1" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="134" spans="1:13" ht="63.6" customHeight="1">
+      <c r="N133" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" ht="63.6" customHeight="1">
       <c r="A134" s="3" t="s">
         <v>213</v>
       </c>
@@ -7879,8 +8284,11 @@
       <c r="M134" s="1" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="135" spans="1:13" ht="63.6" customHeight="1">
+      <c r="N134" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" ht="63.6" customHeight="1">
       <c r="A135" s="3" t="s">
         <v>213</v>
       </c>
@@ -7918,8 +8326,11 @@
       <c r="M135" s="1" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="136" spans="1:13" ht="77.650000000000006" customHeight="1">
+      <c r="N135" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" ht="77.7" customHeight="1">
       <c r="A136" s="3" t="s">
         <v>213</v>
       </c>
@@ -7957,8 +8368,11 @@
       <c r="M136" s="1" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="137" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N136" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" ht="49.65" customHeight="1">
       <c r="A137" s="3" t="s">
         <v>213</v>
       </c>
@@ -7996,8 +8410,11 @@
       <c r="M137" s="1" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="138" spans="1:13" ht="63.6" customHeight="1">
+      <c r="N137" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" ht="63.6" customHeight="1">
       <c r="A138" s="3" t="s">
         <v>213</v>
       </c>
@@ -8035,8 +8452,11 @@
       <c r="M138" s="1" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="139" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N138" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" ht="49.65" customHeight="1">
       <c r="A139" s="3" t="s">
         <v>228</v>
       </c>
@@ -8071,8 +8491,11 @@
       <c r="L139" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="140" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N139" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" ht="49.65" customHeight="1">
       <c r="A140" s="3" t="s">
         <v>228</v>
       </c>
@@ -8107,8 +8530,11 @@
       <c r="L140" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="141" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N140" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" ht="49.65" customHeight="1">
       <c r="A141" s="10" t="s">
         <v>228</v>
       </c>
@@ -8143,8 +8569,11 @@
       <c r="L141" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="142" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N141" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" ht="49.65" customHeight="1">
       <c r="A142" s="10" t="s">
         <v>228</v>
       </c>
@@ -8179,8 +8608,11 @@
       <c r="L142" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="143" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N142" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" ht="49.65" customHeight="1">
       <c r="A143" s="10" t="s">
         <v>228</v>
       </c>
@@ -8215,8 +8647,11 @@
       <c r="L143" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="144" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N143" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" ht="49.65" customHeight="1">
       <c r="A144" s="10" t="s">
         <v>228</v>
       </c>
@@ -8251,8 +8686,11 @@
       <c r="L144" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="145" spans="1:12" ht="49.7" customHeight="1">
+      <c r="N144" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" ht="49.65" customHeight="1">
       <c r="A145" s="10" t="s">
         <v>228</v>
       </c>
@@ -8287,8 +8725,11 @@
       <c r="L145" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="146" spans="1:12" ht="49.7" customHeight="1">
+      <c r="N145" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" ht="49.65" customHeight="1">
       <c r="A146" s="10" t="s">
         <v>228</v>
       </c>
@@ -8323,8 +8764,11 @@
       <c r="L146" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="147" spans="1:12" ht="49.7" customHeight="1">
+      <c r="N146" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" ht="49.65" customHeight="1">
       <c r="A147" s="10" t="s">
         <v>228</v>
       </c>
@@ -8359,8 +8803,11 @@
       <c r="L147" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="148" spans="1:12" ht="49.7" customHeight="1">
+      <c r="N147" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" ht="49.65" customHeight="1">
       <c r="A148" s="10" t="s">
         <v>228</v>
       </c>
@@ -8395,8 +8842,11 @@
       <c r="L148" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="149" spans="1:12" ht="49.7" customHeight="1">
+      <c r="N148" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" ht="49.65" customHeight="1">
       <c r="A149" s="10" t="s">
         <v>228</v>
       </c>
@@ -8431,8 +8881,11 @@
       <c r="L149" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="150" spans="1:12" ht="49.7" customHeight="1">
+      <c r="N149" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" ht="49.65" customHeight="1">
       <c r="A150" s="10" t="s">
         <v>228</v>
       </c>
@@ -8467,8 +8920,11 @@
       <c r="L150" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="151" spans="1:12" ht="49.7" customHeight="1">
+      <c r="N150" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" ht="49.65" customHeight="1">
       <c r="A151" s="10" t="s">
         <v>228</v>
       </c>
@@ -8503,8 +8959,11 @@
       <c r="L151" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="152" spans="1:12" ht="49.7" customHeight="1">
+      <c r="N151" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" ht="49.65" customHeight="1">
       <c r="A152" s="10" t="s">
         <v>228</v>
       </c>
@@ -8539,8 +8998,11 @@
       <c r="L152" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="153" spans="1:12" ht="49.7" customHeight="1">
+      <c r="N152" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" ht="49.65" customHeight="1">
       <c r="A153" s="10" t="s">
         <v>228</v>
       </c>
@@ -8575,8 +9037,11 @@
       <c r="L153" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="154" spans="1:12" ht="49.7" customHeight="1">
+      <c r="N153" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" ht="49.65" customHeight="1">
       <c r="A154" s="10" t="s">
         <v>228</v>
       </c>
@@ -8611,8 +9076,11 @@
       <c r="L154" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="155" spans="1:12" ht="49.7" customHeight="1">
+      <c r="N154" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" ht="49.65" customHeight="1">
       <c r="A155" s="10" t="s">
         <v>228</v>
       </c>
@@ -8647,8 +9115,11 @@
       <c r="L155" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="156" spans="1:12" ht="49.7" customHeight="1">
+      <c r="N155" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" ht="49.65" customHeight="1">
       <c r="A156" s="10" t="s">
         <v>228</v>
       </c>
@@ -8683,8 +9154,11 @@
       <c r="L156" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="157" spans="1:12" ht="49.7" customHeight="1">
+      <c r="N156" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" ht="49.65" customHeight="1">
       <c r="A157" s="10" t="s">
         <v>228</v>
       </c>
@@ -8719,8 +9193,11 @@
       <c r="L157" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="158" spans="1:12" ht="49.7" customHeight="1">
+      <c r="N157" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" ht="49.65" customHeight="1">
       <c r="A158" s="10" t="s">
         <v>228</v>
       </c>
@@ -8755,8 +9232,11 @@
       <c r="L158" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="159" spans="1:12" ht="49.7" customHeight="1">
+      <c r="N158" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" ht="49.65" customHeight="1">
       <c r="A159" s="10" t="s">
         <v>228</v>
       </c>
@@ -8791,8 +9271,11 @@
       <c r="L159" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="160" spans="1:12" ht="49.7" customHeight="1">
+      <c r="N159" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" ht="49.65" customHeight="1">
       <c r="A160" s="10" t="s">
         <v>228</v>
       </c>
@@ -8827,8 +9310,11 @@
       <c r="L160" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="161" spans="1:12" ht="49.7" customHeight="1">
+      <c r="N160" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" ht="49.65" customHeight="1">
       <c r="A161" s="10" t="s">
         <v>251</v>
       </c>
@@ -8863,8 +9349,11 @@
       <c r="L161" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="162" spans="1:12" ht="49.7" customHeight="1">
+      <c r="N161" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" ht="49.65" customHeight="1">
       <c r="A162" s="10" t="s">
         <v>251</v>
       </c>
@@ -8899,8 +9388,11 @@
       <c r="L162" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="163" spans="1:12" ht="49.7" customHeight="1">
+      <c r="N162" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" ht="49.65" customHeight="1">
       <c r="A163" s="10" t="s">
         <v>251</v>
       </c>
@@ -8935,8 +9427,11 @@
       <c r="L163" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="164" spans="1:12" ht="49.7" customHeight="1">
+      <c r="N163" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" ht="49.65" customHeight="1">
       <c r="A164" s="10" t="s">
         <v>251</v>
       </c>
@@ -8971,8 +9466,11 @@
       <c r="L164" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="165" spans="1:12" ht="49.7" customHeight="1">
+      <c r="N164" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" ht="49.65" customHeight="1">
       <c r="A165" s="10" t="s">
         <v>251</v>
       </c>
@@ -9007,8 +9505,11 @@
       <c r="L165" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="166" spans="1:12" ht="49.7" customHeight="1">
+      <c r="N165" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" ht="49.65" customHeight="1">
       <c r="A166" s="10" t="s">
         <v>251</v>
       </c>
@@ -9043,8 +9544,11 @@
       <c r="L166" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="167" spans="1:12" ht="49.7" customHeight="1">
+      <c r="N166" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" ht="49.65" customHeight="1">
       <c r="A167" s="10" t="s">
         <v>251</v>
       </c>
@@ -9079,8 +9583,11 @@
       <c r="L167" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="168" spans="1:12" ht="49.7" customHeight="1">
+      <c r="N167" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" ht="49.65" customHeight="1">
       <c r="A168" s="10" t="s">
         <v>251</v>
       </c>
@@ -9115,8 +9622,11 @@
       <c r="L168" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="169" spans="1:12" ht="49.7" customHeight="1">
+      <c r="N168" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" ht="49.65" customHeight="1">
       <c r="A169" s="10" t="s">
         <v>251</v>
       </c>
@@ -9151,8 +9661,11 @@
       <c r="L169" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="170" spans="1:12" ht="49.7" customHeight="1">
+      <c r="N169" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" ht="49.65" customHeight="1">
       <c r="A170" s="10" t="s">
         <v>251</v>
       </c>
@@ -9187,8 +9700,11 @@
       <c r="L170" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="171" spans="1:12" ht="49.7" customHeight="1">
+      <c r="N170" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" ht="49.65" customHeight="1">
       <c r="A171" s="10" t="s">
         <v>251</v>
       </c>
@@ -9223,8 +9739,11 @@
       <c r="L171" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="172" spans="1:12" ht="49.7" customHeight="1">
+      <c r="N171" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" ht="49.65" customHeight="1">
       <c r="A172" s="10" t="s">
         <v>251</v>
       </c>
@@ -9259,8 +9778,11 @@
       <c r="L172" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="173" spans="1:12" ht="49.7" customHeight="1">
+      <c r="N172" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" ht="49.65" customHeight="1">
       <c r="A173" s="10" t="s">
         <v>251</v>
       </c>
@@ -9295,8 +9817,11 @@
       <c r="L173" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="174" spans="1:12" ht="49.7" customHeight="1">
+      <c r="N173" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" ht="49.65" customHeight="1">
       <c r="A174" s="10" t="s">
         <v>251</v>
       </c>
@@ -9331,8 +9856,11 @@
       <c r="L174" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="175" spans="1:12" ht="49.7" customHeight="1">
+      <c r="N174" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" ht="49.65" customHeight="1">
       <c r="A175" s="10" t="s">
         <v>251</v>
       </c>
@@ -9367,8 +9895,11 @@
       <c r="L175" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="176" spans="1:12" ht="49.7" customHeight="1">
+      <c r="N175" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" ht="49.65" customHeight="1">
       <c r="A176" s="10" t="s">
         <v>251</v>
       </c>
@@ -9403,8 +9934,11 @@
       <c r="L176" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="177" spans="1:12" ht="49.7" customHeight="1">
+      <c r="N176" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" ht="49.65" customHeight="1">
       <c r="A177" s="10" t="s">
         <v>251</v>
       </c>
@@ -9439,8 +9973,11 @@
       <c r="L177" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="178" spans="1:12" ht="49.7" customHeight="1">
+      <c r="N177" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" ht="49.65" customHeight="1">
       <c r="A178" s="10" t="s">
         <v>269</v>
       </c>
@@ -9475,8 +10012,11 @@
       <c r="L178" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="179" spans="1:12" ht="49.7" customHeight="1">
+      <c r="N178" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" ht="49.65" customHeight="1">
       <c r="A179" s="10" t="s">
         <v>269</v>
       </c>
@@ -9511,8 +10051,11 @@
       <c r="L179" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="180" spans="1:12" ht="49.7" customHeight="1">
+      <c r="N179" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" ht="49.65" customHeight="1">
       <c r="A180" s="10" t="s">
         <v>272</v>
       </c>
@@ -9547,8 +10090,11 @@
       <c r="L180" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="181" spans="1:12" ht="49.7" customHeight="1">
+      <c r="N180" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" ht="49.65" customHeight="1">
       <c r="A181" s="10" t="s">
         <v>272</v>
       </c>
@@ -9583,8 +10129,11 @@
       <c r="L181" s="12">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="182" spans="1:12" ht="49.7" customHeight="1">
+      <c r="N181" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" ht="49.65" customHeight="1">
       <c r="A182" s="10" t="s">
         <v>272</v>
       </c>
@@ -9619,8 +10168,11 @@
       <c r="L182" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="183" spans="1:12" ht="49.7" customHeight="1">
+      <c r="N182" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" ht="49.65" customHeight="1">
       <c r="A183" s="10" t="s">
         <v>272</v>
       </c>
@@ -9655,8 +10207,11 @@
       <c r="L183" s="12">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="184" spans="1:12" ht="49.7" customHeight="1">
+      <c r="N183" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" ht="49.65" customHeight="1">
       <c r="A184" s="10" t="s">
         <v>277</v>
       </c>
@@ -9691,8 +10246,11 @@
       <c r="L184" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="185" spans="1:12" ht="49.7" customHeight="1">
+      <c r="N184" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" ht="49.65" customHeight="1">
       <c r="A185" s="10" t="s">
         <v>277</v>
       </c>
@@ -9727,8 +10285,11 @@
       <c r="L185" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="186" spans="1:12" ht="49.7" customHeight="1">
+      <c r="N185" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" ht="49.65" customHeight="1">
       <c r="A186" s="10" t="s">
         <v>277</v>
       </c>
@@ -9763,8 +10324,11 @@
       <c r="L186" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="187" spans="1:12" ht="49.7" customHeight="1">
+      <c r="N186" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" ht="49.65" customHeight="1">
       <c r="A187" s="10" t="s">
         <v>277</v>
       </c>
@@ -9799,8 +10363,11 @@
       <c r="L187" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="188" spans="1:12" ht="49.7" customHeight="1">
+      <c r="N187" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" ht="49.65" customHeight="1">
       <c r="A188" s="10" t="s">
         <v>277</v>
       </c>
@@ -9835,8 +10402,11 @@
       <c r="L188" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="189" spans="1:12" ht="49.7" customHeight="1">
+      <c r="N188" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" ht="49.65" customHeight="1">
       <c r="A189" s="10" t="s">
         <v>277</v>
       </c>
@@ -9871,8 +10441,11 @@
       <c r="L189" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="190" spans="1:12" ht="49.7" customHeight="1">
+      <c r="N189" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" ht="49.65" customHeight="1">
       <c r="A190" s="10" t="s">
         <v>277</v>
       </c>
@@ -9907,8 +10480,11 @@
       <c r="L190" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="191" spans="1:12" ht="49.7" customHeight="1">
+      <c r="N190" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" ht="49.65" customHeight="1">
       <c r="A191" s="10" t="s">
         <v>277</v>
       </c>
@@ -9943,8 +10519,11 @@
       <c r="L191" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="192" spans="1:12" ht="49.7" customHeight="1">
+      <c r="N191" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" ht="49.65" customHeight="1">
       <c r="A192" s="10" t="s">
         <v>277</v>
       </c>
@@ -9979,8 +10558,11 @@
       <c r="L192" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="193" spans="1:12" ht="49.7" customHeight="1">
+      <c r="N192" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" ht="49.65" customHeight="1">
       <c r="A193" s="10" t="s">
         <v>277</v>
       </c>
@@ -10015,8 +10597,11 @@
       <c r="L193" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="194" spans="1:12" ht="49.7" customHeight="1">
+      <c r="N193" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" ht="49.65" customHeight="1">
       <c r="A194" s="10" t="s">
         <v>277</v>
       </c>
@@ -10051,8 +10636,11 @@
       <c r="L194" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="195" spans="1:12" ht="49.7" customHeight="1">
+      <c r="N194" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" ht="49.65" customHeight="1">
       <c r="A195" s="10" t="s">
         <v>277</v>
       </c>
@@ -10087,8 +10675,11 @@
       <c r="L195" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="196" spans="1:12" ht="49.7" customHeight="1">
+      <c r="N195" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" ht="49.65" customHeight="1">
       <c r="A196" s="10" t="s">
         <v>277</v>
       </c>
@@ -10123,8 +10714,11 @@
       <c r="L196" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="197" spans="1:12" ht="49.7" customHeight="1">
+      <c r="N196" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" ht="49.65" customHeight="1">
       <c r="A197" s="10" t="s">
         <v>277</v>
       </c>
@@ -10159,8 +10753,11 @@
       <c r="L197" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="198" spans="1:12" ht="49.7" customHeight="1">
+      <c r="N197" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" ht="49.65" customHeight="1">
       <c r="A198" s="10" t="s">
         <v>277</v>
       </c>
@@ -10195,8 +10792,11 @@
       <c r="L198" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="199" spans="1:12" ht="49.7" customHeight="1">
+      <c r="N198" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" ht="49.65" customHeight="1">
       <c r="A199" s="10" t="s">
         <v>277</v>
       </c>
@@ -10231,8 +10831,11 @@
       <c r="L199" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="200" spans="1:12" ht="49.7" customHeight="1">
+      <c r="N199" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" ht="49.65" customHeight="1">
       <c r="A200" s="10" t="s">
         <v>277</v>
       </c>
@@ -10267,8 +10870,11 @@
       <c r="L200" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="201" spans="1:12" ht="49.7" customHeight="1">
+      <c r="N200" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" ht="49.65" customHeight="1">
       <c r="A201" s="10" t="s">
         <v>277</v>
       </c>
@@ -10303,8 +10909,11 @@
       <c r="L201" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="202" spans="1:12" ht="49.7" customHeight="1">
+      <c r="N201" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" ht="49.65" customHeight="1">
       <c r="A202" s="10" t="s">
         <v>277</v>
       </c>
@@ -10339,8 +10948,11 @@
       <c r="L202" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="203" spans="1:12" ht="49.7" customHeight="1">
+      <c r="N202" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" ht="49.65" customHeight="1">
       <c r="A203" s="10" t="s">
         <v>277</v>
       </c>
@@ -10375,8 +10987,11 @@
       <c r="L203" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="204" spans="1:12" ht="49.7" customHeight="1">
+      <c r="N203" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" ht="49.65" customHeight="1">
       <c r="A204" s="10" t="s">
         <v>277</v>
       </c>
@@ -10411,8 +11026,11 @@
       <c r="L204" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="205" spans="1:12" ht="49.7" customHeight="1">
+      <c r="N204" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" ht="49.65" customHeight="1">
       <c r="A205" s="10" t="s">
         <v>277</v>
       </c>
@@ -10447,8 +11065,11 @@
       <c r="L205" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="206" spans="1:12" ht="49.7" customHeight="1">
+      <c r="N205" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" ht="49.65" customHeight="1">
       <c r="A206" s="10" t="s">
         <v>277</v>
       </c>
@@ -10483,8 +11104,11 @@
       <c r="L206" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="207" spans="1:12" ht="49.7" customHeight="1">
+      <c r="N206" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" ht="49.65" customHeight="1">
       <c r="A207" s="10" t="s">
         <v>277</v>
       </c>
@@ -10519,8 +11143,11 @@
       <c r="L207" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="208" spans="1:12" ht="49.7" customHeight="1">
+      <c r="N207" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" ht="49.65" customHeight="1">
       <c r="A208" s="10" t="s">
         <v>277</v>
       </c>
@@ -10555,8 +11182,11 @@
       <c r="L208" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="209" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N208" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" ht="49.65" customHeight="1">
       <c r="A209" s="10" t="s">
         <v>277</v>
       </c>
@@ -10591,8 +11221,11 @@
       <c r="L209" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="210" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N209" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" ht="49.65" customHeight="1">
       <c r="A210" s="10" t="s">
         <v>277</v>
       </c>
@@ -10627,8 +11260,11 @@
       <c r="L210" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="211" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N210" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" ht="49.65" customHeight="1">
       <c r="A211" s="10" t="s">
         <v>277</v>
       </c>
@@ -10663,8 +11299,11 @@
       <c r="L211" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="212" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N211" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" ht="49.65" customHeight="1">
       <c r="A212" s="10" t="s">
         <v>306</v>
       </c>
@@ -10702,8 +11341,11 @@
       <c r="M212" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="213" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N212" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" ht="49.65" customHeight="1">
       <c r="A213" s="10" t="s">
         <v>306</v>
       </c>
@@ -10741,8 +11383,11 @@
       <c r="M213" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="214" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N213" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" ht="49.65" customHeight="1">
       <c r="A214" s="10" t="s">
         <v>306</v>
       </c>
@@ -10780,8 +11425,11 @@
       <c r="M214" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="215" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N214" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" ht="49.65" customHeight="1">
       <c r="A215" s="10" t="s">
         <v>306</v>
       </c>
@@ -10819,8 +11467,11 @@
       <c r="M215" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="216" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N215" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" ht="49.65" customHeight="1">
       <c r="A216" s="10" t="s">
         <v>314</v>
       </c>
@@ -10858,8 +11509,11 @@
       <c r="M216" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="217" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N216" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" ht="49.65" customHeight="1">
       <c r="A217" s="10" t="s">
         <v>314</v>
       </c>
@@ -10897,8 +11551,11 @@
       <c r="M217" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="218" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N217" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" ht="49.65" customHeight="1">
       <c r="A218" s="10" t="s">
         <v>318</v>
       </c>
@@ -10936,8 +11593,11 @@
       <c r="M218" s="1" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="219" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N218" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" ht="49.65" customHeight="1">
       <c r="A219" s="10" t="s">
         <v>318</v>
       </c>
@@ -10975,8 +11635,11 @@
       <c r="M219" s="1" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="220" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N219" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" ht="49.65" customHeight="1">
       <c r="A220" s="10" t="s">
         <v>318</v>
       </c>
@@ -11014,8 +11677,11 @@
       <c r="M220" s="1" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="221" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N220" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" ht="49.65" customHeight="1">
       <c r="A221" s="10" t="s">
         <v>318</v>
       </c>
@@ -11053,8 +11719,11 @@
       <c r="M221" s="1" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="222" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N221" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" ht="49.65" customHeight="1">
       <c r="A222" s="10" t="s">
         <v>318</v>
       </c>
@@ -11092,8 +11761,11 @@
       <c r="M222" s="1" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="223" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N222" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" ht="49.65" customHeight="1">
       <c r="A223" s="10" t="s">
         <v>318</v>
       </c>
@@ -11131,8 +11803,11 @@
       <c r="M223" s="1" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="224" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N223" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" ht="49.65" customHeight="1">
       <c r="A224" s="10" t="s">
         <v>328</v>
       </c>
@@ -11170,8 +11845,11 @@
       <c r="M224" s="1" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="225" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N224" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" ht="49.65" customHeight="1">
       <c r="A225" s="10" t="s">
         <v>328</v>
       </c>
@@ -11209,8 +11887,11 @@
       <c r="M225" s="1" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="226" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N225" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" ht="49.65" customHeight="1">
       <c r="A226" s="10" t="s">
         <v>328</v>
       </c>
@@ -11248,8 +11929,11 @@
       <c r="M226" s="1" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="227" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N226" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" ht="49.65" customHeight="1">
       <c r="A227" s="10" t="s">
         <v>328</v>
       </c>
@@ -11287,8 +11971,11 @@
       <c r="M227" s="1" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="228" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N227" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" ht="49.65" customHeight="1">
       <c r="A228" s="10" t="s">
         <v>328</v>
       </c>
@@ -11326,8 +12013,11 @@
       <c r="M228" s="1" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="229" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N228" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" ht="49.65" customHeight="1">
       <c r="A229" s="10" t="s">
         <v>328</v>
       </c>
@@ -11365,8 +12055,11 @@
       <c r="M229" s="1" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="230" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N229" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" ht="49.65" customHeight="1">
       <c r="A230" s="10" t="s">
         <v>328</v>
       </c>
@@ -11404,8 +12097,11 @@
       <c r="M230" s="1" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="231" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N230" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" ht="49.65" customHeight="1">
       <c r="A231" s="10" t="s">
         <v>328</v>
       </c>
@@ -11443,8 +12139,11 @@
       <c r="M231" s="1" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="232" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N231" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" ht="49.65" customHeight="1">
       <c r="A232" s="10" t="s">
         <v>328</v>
       </c>
@@ -11482,8 +12181,11 @@
       <c r="M232" s="1" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="233" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N232" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" ht="49.65" customHeight="1">
       <c r="A233" s="10" t="s">
         <v>339</v>
       </c>
@@ -11521,8 +12223,11 @@
       <c r="M233" s="5" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="234" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N233" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" ht="49.65" customHeight="1">
       <c r="A234" s="10" t="s">
         <v>344</v>
       </c>
@@ -11557,8 +12262,11 @@
       <c r="L234" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="235" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N234" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" ht="49.65" customHeight="1">
       <c r="A235" s="10" t="s">
         <v>346</v>
       </c>
@@ -11596,8 +12304,11 @@
       <c r="M235" s="1" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="236" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N235" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" ht="49.65" customHeight="1">
       <c r="A236" s="10" t="s">
         <v>346</v>
       </c>
@@ -11635,8 +12346,11 @@
       <c r="M236" s="1" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="237" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N236" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" ht="49.65" customHeight="1">
       <c r="A237" s="10" t="s">
         <v>346</v>
       </c>
@@ -11674,8 +12388,11 @@
       <c r="M237" s="1" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="238" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N237" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" ht="49.65" customHeight="1">
       <c r="A238" s="10" t="s">
         <v>346</v>
       </c>
@@ -11713,8 +12430,11 @@
       <c r="M238" s="1" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="239" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N238" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" ht="49.65" customHeight="1">
       <c r="A239" s="10" t="s">
         <v>346</v>
       </c>
@@ -11752,8 +12472,11 @@
       <c r="M239" s="1" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="240" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N239" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" ht="49.65" customHeight="1">
       <c r="A240" s="10" t="s">
         <v>346</v>
       </c>
@@ -11791,8 +12514,11 @@
       <c r="M240" s="1" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="241" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N240" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" ht="49.65" customHeight="1">
       <c r="A241" s="10" t="s">
         <v>346</v>
       </c>
@@ -11830,8 +12556,11 @@
       <c r="M241" s="1" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="242" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N241" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" ht="49.65" customHeight="1">
       <c r="A242" s="10" t="s">
         <v>346</v>
       </c>
@@ -11869,8 +12598,11 @@
       <c r="M242" s="1" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="243" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N242" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" ht="49.65" customHeight="1">
       <c r="A243" s="10" t="s">
         <v>356</v>
       </c>
@@ -11908,8 +12640,11 @@
       <c r="M243" s="1" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="244" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N243" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" ht="49.65" customHeight="1">
       <c r="A244" s="10" t="s">
         <v>356</v>
       </c>
@@ -11947,8 +12682,11 @@
       <c r="M244" s="1" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="245" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N244" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" ht="49.65" customHeight="1">
       <c r="A245" s="10" t="s">
         <v>356</v>
       </c>
@@ -11986,8 +12724,11 @@
       <c r="M245" s="1" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="246" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N245" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" ht="49.65" customHeight="1">
       <c r="A246" s="10" t="s">
         <v>356</v>
       </c>
@@ -12025,8 +12766,11 @@
       <c r="M246" s="1" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="247" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N246" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" ht="49.65" customHeight="1">
       <c r="A247" s="10" t="s">
         <v>356</v>
       </c>
@@ -12064,8 +12808,11 @@
       <c r="M247" s="1" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="248" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N247" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" ht="49.65" customHeight="1">
       <c r="A248" s="10" t="s">
         <v>356</v>
       </c>
@@ -12103,8 +12850,11 @@
       <c r="M248" s="1" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="249" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N248" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14" ht="49.65" customHeight="1">
       <c r="A249" s="10" t="s">
         <v>364</v>
       </c>
@@ -12142,8 +12892,11 @@
       <c r="M249" s="5" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="250" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N249" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14" ht="49.65" customHeight="1">
       <c r="A250" s="10" t="s">
         <v>364</v>
       </c>
@@ -12181,8 +12934,11 @@
       <c r="M250" s="5" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="251" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N250" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14" ht="49.65" customHeight="1">
       <c r="A251" s="10" t="s">
         <v>82</v>
       </c>
@@ -12220,8 +12976,11 @@
       <c r="M251" s="5" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="252" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N251" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14" ht="49.65" customHeight="1">
       <c r="A252" s="10" t="s">
         <v>82</v>
       </c>
@@ -12259,8 +13018,11 @@
       <c r="M252" s="5" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="253" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N252" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14" ht="49.65" customHeight="1">
       <c r="A253" s="10" t="s">
         <v>82</v>
       </c>
@@ -12298,8 +13060,11 @@
       <c r="M253" s="5" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="254" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N253" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14" ht="49.65" customHeight="1">
       <c r="A254" s="10" t="s">
         <v>82</v>
       </c>
@@ -12337,8 +13102,11 @@
       <c r="M254" s="5" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="255" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N254" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14" ht="49.65" customHeight="1">
       <c r="A255" s="10" t="s">
         <v>82</v>
       </c>
@@ -12376,8 +13144,11 @@
       <c r="M255" s="5" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="256" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N255" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14" ht="49.65" customHeight="1">
       <c r="A256" s="10" t="s">
         <v>82</v>
       </c>
@@ -12415,8 +13186,11 @@
       <c r="M256" s="5" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="257" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N256" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14" ht="49.65" customHeight="1">
       <c r="A257" s="10" t="s">
         <v>368</v>
       </c>
@@ -12451,8 +13225,11 @@
       <c r="L257" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="258" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N257" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14" ht="49.65" customHeight="1">
       <c r="A258" s="10" t="s">
         <v>370</v>
       </c>
@@ -12488,8 +13265,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M258" s="9"/>
-    </row>
-    <row r="259" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N258" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14" ht="49.65" customHeight="1">
       <c r="A259" s="10" t="s">
         <v>370</v>
       </c>
@@ -12525,8 +13305,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M259" s="9"/>
-    </row>
-    <row r="260" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N259" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14" ht="49.65" customHeight="1">
       <c r="A260" s="10" t="s">
         <v>373</v>
       </c>
@@ -12564,8 +13347,11 @@
       <c r="M260" s="5" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="261" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N260" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14" ht="49.65" customHeight="1">
       <c r="A261" s="10" t="s">
         <v>373</v>
       </c>
@@ -12603,8 +13389,11 @@
       <c r="M261" s="5" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="262" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N261" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14" ht="49.65" customHeight="1">
       <c r="A262" s="10" t="s">
         <v>377</v>
       </c>
@@ -12639,8 +13428,11 @@
       <c r="L262" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="263" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N262" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="263" spans="1:14" ht="49.65" customHeight="1">
       <c r="A263" s="10" t="s">
         <v>379</v>
       </c>
@@ -12675,8 +13467,11 @@
       <c r="L263" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="264" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N263" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14" ht="49.65" customHeight="1">
       <c r="A264" s="10" t="s">
         <v>379</v>
       </c>
@@ -12711,8 +13506,11 @@
       <c r="L264" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="265" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N264" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14" ht="49.65" customHeight="1">
       <c r="A265" s="10" t="s">
         <v>379</v>
       </c>
@@ -12747,8 +13545,11 @@
       <c r="L265" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="266" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N265" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="266" spans="1:14" ht="49.65" customHeight="1">
       <c r="A266" s="10" t="s">
         <v>379</v>
       </c>
@@ -12783,8 +13584,11 @@
       <c r="L266" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="267" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N266" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14" ht="49.65" customHeight="1">
       <c r="A267" s="10" t="s">
         <v>379</v>
       </c>
@@ -12819,8 +13623,11 @@
       <c r="L267" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="268" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N267" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14" ht="49.65" customHeight="1">
       <c r="A268" s="10" t="s">
         <v>379</v>
       </c>
@@ -12855,8 +13662,11 @@
       <c r="L268" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="269" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N268" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="269" spans="1:14" ht="49.65" customHeight="1">
       <c r="A269" s="10" t="s">
         <v>386</v>
       </c>
@@ -12891,8 +13701,11 @@
       <c r="L269" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="270" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N269" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14" ht="49.65" customHeight="1">
       <c r="A270" s="10" t="s">
         <v>97</v>
       </c>
@@ -12930,8 +13743,11 @@
       <c r="M270" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="271" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N270" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="271" spans="1:14" ht="49.65" customHeight="1">
       <c r="A271" s="10" t="s">
         <v>388</v>
       </c>
@@ -12967,8 +13783,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M271" s="9"/>
-    </row>
-    <row r="272" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N271" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="272" spans="1:14" ht="49.65" customHeight="1">
       <c r="A272" s="10" t="s">
         <v>388</v>
       </c>
@@ -13004,8 +13823,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M272" s="9"/>
-    </row>
-    <row r="273" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N272" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="273" spans="1:14" ht="49.65" customHeight="1">
       <c r="A273" s="10" t="s">
         <v>388</v>
       </c>
@@ -13041,8 +13863,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M273" s="9"/>
-    </row>
-    <row r="274" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N273" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="274" spans="1:14" ht="49.65" customHeight="1">
       <c r="A274" s="10" t="s">
         <v>388</v>
       </c>
@@ -13078,8 +13903,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M274" s="9"/>
-    </row>
-    <row r="275" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N274" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="275" spans="1:14" ht="49.65" customHeight="1">
       <c r="A275" s="10" t="s">
         <v>388</v>
       </c>
@@ -13115,8 +13943,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M275" s="9"/>
-    </row>
-    <row r="276" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N275" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="276" spans="1:14" ht="49.65" customHeight="1">
       <c r="A276" s="10" t="s">
         <v>388</v>
       </c>
@@ -13152,8 +13983,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M276" s="9"/>
-    </row>
-    <row r="277" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N276" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="277" spans="1:14" ht="49.65" customHeight="1">
       <c r="A277" s="10" t="s">
         <v>388</v>
       </c>
@@ -13189,8 +14023,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M277" s="9"/>
-    </row>
-    <row r="278" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N277" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="278" spans="1:14" ht="49.65" customHeight="1">
       <c r="A278" s="10" t="s">
         <v>388</v>
       </c>
@@ -13226,8 +14063,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M278" s="9"/>
-    </row>
-    <row r="279" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N278" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="279" spans="1:14" ht="49.65" customHeight="1">
       <c r="A279" s="10" t="s">
         <v>388</v>
       </c>
@@ -13263,8 +14103,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M279" s="9"/>
-    </row>
-    <row r="280" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N279" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="280" spans="1:14" ht="49.65" customHeight="1">
       <c r="A280" s="10" t="s">
         <v>398</v>
       </c>
@@ -13302,8 +14145,11 @@
       <c r="M280" s="5" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="281" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N280" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="281" spans="1:14" ht="49.65" customHeight="1">
       <c r="A281" s="10" t="s">
         <v>398</v>
       </c>
@@ -13341,8 +14187,11 @@
       <c r="M281" s="5" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="282" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N281" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="282" spans="1:14" ht="49.65" customHeight="1">
       <c r="A282" s="10" t="s">
         <v>398</v>
       </c>
@@ -13380,8 +14229,11 @@
       <c r="M282" s="5" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="283" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N282" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="283" spans="1:14" ht="49.65" customHeight="1">
       <c r="A283" s="10" t="s">
         <v>398</v>
       </c>
@@ -13419,8 +14271,11 @@
       <c r="M283" s="5" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="284" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N283" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="284" spans="1:14" ht="49.65" customHeight="1">
       <c r="A284" s="10" t="s">
         <v>398</v>
       </c>
@@ -13458,8 +14313,11 @@
       <c r="M284" s="5" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="285" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N284" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14" ht="49.65" customHeight="1">
       <c r="A285" s="10" t="s">
         <v>398</v>
       </c>
@@ -13497,8 +14355,11 @@
       <c r="M285" s="5" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="286" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N285" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="286" spans="1:14" ht="49.65" customHeight="1">
       <c r="A286" s="10" t="s">
         <v>398</v>
       </c>
@@ -13536,8 +14397,11 @@
       <c r="M286" s="5" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="287" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N286" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="287" spans="1:14" ht="49.65" customHeight="1">
       <c r="A287" s="10" t="s">
         <v>398</v>
       </c>
@@ -13575,8 +14439,11 @@
       <c r="M287" s="5" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="288" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N287" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="288" spans="1:14" ht="49.65" customHeight="1">
       <c r="A288" s="10" t="s">
         <v>398</v>
       </c>
@@ -13614,8 +14481,11 @@
       <c r="M288" s="5" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="289" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N288" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="289" spans="1:14" ht="49.65" customHeight="1">
       <c r="A289" s="10" t="s">
         <v>409</v>
       </c>
@@ -13651,8 +14521,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M289" s="9"/>
-    </row>
-    <row r="290" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N289" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="290" spans="1:14" ht="49.65" customHeight="1">
       <c r="A290" s="10" t="s">
         <v>409</v>
       </c>
@@ -13688,8 +14561,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M290" s="9"/>
-    </row>
-    <row r="291" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N290" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="291" spans="1:14" ht="49.65" customHeight="1">
       <c r="A291" s="10" t="s">
         <v>409</v>
       </c>
@@ -13725,8 +14601,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M291" s="9"/>
-    </row>
-    <row r="292" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N291" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="292" spans="1:14" ht="49.65" customHeight="1">
       <c r="A292" s="10" t="s">
         <v>409</v>
       </c>
@@ -13762,8 +14641,11 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M292" s="9"/>
-    </row>
-    <row r="293" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N292" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="293" spans="1:14" ht="49.65" customHeight="1">
       <c r="A293" s="10" t="s">
         <v>414</v>
       </c>
@@ -13803,8 +14685,11 @@
       <c r="M293" s="5" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="294" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N293" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="294" spans="1:14" ht="49.65" customHeight="1">
       <c r="A294" s="10" t="s">
         <v>420</v>
       </c>
@@ -13844,8 +14729,11 @@
       <c r="M294" s="5" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="295" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N294" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="295" spans="1:14" ht="49.65" customHeight="1">
       <c r="A295" s="10" t="s">
         <v>420</v>
       </c>
@@ -13885,8 +14773,11 @@
       <c r="M295" s="5" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="296" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N295" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="296" spans="1:14" ht="49.65" customHeight="1">
       <c r="A296" s="10" t="s">
         <v>424</v>
       </c>
@@ -13924,8 +14815,11 @@
       <c r="M296" s="5" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="297" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N296" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="297" spans="1:14" ht="49.65" customHeight="1">
       <c r="A297" s="10" t="s">
         <v>424</v>
       </c>
@@ -13963,8 +14857,11 @@
       <c r="M297" s="5" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="298" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N297" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="298" spans="1:14" ht="49.65" customHeight="1">
       <c r="A298" s="10" t="s">
         <v>430</v>
       </c>
@@ -14002,8 +14899,11 @@
       <c r="M298" s="5" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="299" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N298" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="299" spans="1:14" ht="49.65" customHeight="1">
       <c r="A299" s="10" t="s">
         <v>430</v>
       </c>
@@ -14041,8 +14941,11 @@
       <c r="M299" s="5" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="300" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N299" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="300" spans="1:14" ht="49.65" customHeight="1">
       <c r="A300" s="10" t="s">
         <v>434</v>
       </c>
@@ -14080,8 +14983,11 @@
       <c r="M300" s="5" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="301" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N300" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="301" spans="1:14" ht="49.65" customHeight="1">
       <c r="A301" s="10" t="s">
         <v>434</v>
       </c>
@@ -14119,8 +15025,11 @@
       <c r="M301" s="5" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="302" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N301" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="302" spans="1:14" ht="49.65" customHeight="1">
       <c r="A302" s="10" t="s">
         <v>117</v>
       </c>
@@ -14155,8 +15064,11 @@
       <c r="L302" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="303" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N302" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="303" spans="1:14" ht="49.65" customHeight="1">
       <c r="A303" s="10" t="s">
         <v>117</v>
       </c>
@@ -14191,8 +15103,11 @@
       <c r="L303" s="12">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="304" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N303" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="304" spans="1:14" ht="49.65" customHeight="1">
       <c r="A304" s="10" t="s">
         <v>438</v>
       </c>
@@ -14230,8 +15145,11 @@
       <c r="M304" s="5" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="305" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N304" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="305" spans="1:14" ht="49.65" customHeight="1">
       <c r="A305" s="10" t="s">
         <v>441</v>
       </c>
@@ -14269,8 +15187,11 @@
       <c r="M305" s="5" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="306" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N305" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="306" spans="1:14" ht="49.65" customHeight="1">
       <c r="A306" s="10" t="s">
         <v>441</v>
       </c>
@@ -14308,8 +15229,11 @@
       <c r="M306" s="5" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="307" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N306" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="307" spans="1:14" ht="49.65" customHeight="1">
       <c r="A307" s="10" t="s">
         <v>441</v>
       </c>
@@ -14347,8 +15271,11 @@
       <c r="M307" s="5" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="308" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N307" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="308" spans="1:14" ht="49.65" customHeight="1">
       <c r="A308" s="10" t="s">
         <v>441</v>
       </c>
@@ -14386,8 +15313,11 @@
       <c r="M308" s="5" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="309" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N308" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="309" spans="1:14" ht="49.65" customHeight="1">
       <c r="A309" s="10" t="s">
         <v>441</v>
       </c>
@@ -14425,8 +15355,11 @@
       <c r="M309" s="5" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="310" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N309" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="310" spans="1:14" ht="49.65" customHeight="1">
       <c r="A310" s="10" t="s">
         <v>441</v>
       </c>
@@ -14464,8 +15397,11 @@
       <c r="M310" s="5" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="311" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N310" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="311" spans="1:14" ht="49.65" customHeight="1">
       <c r="A311" s="10" t="s">
         <v>441</v>
       </c>
@@ -14503,8 +15439,11 @@
       <c r="M311" s="5" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="312" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N311" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="312" spans="1:14" ht="49.65" customHeight="1">
       <c r="A312" s="10" t="s">
         <v>451</v>
       </c>
@@ -14542,8 +15481,11 @@
       <c r="M312" s="5" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="313" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N312" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="313" spans="1:14" ht="49.65" customHeight="1">
       <c r="A313" s="10" t="s">
         <v>451</v>
       </c>
@@ -14581,8 +15523,11 @@
       <c r="M313" s="5" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="314" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N313" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="314" spans="1:14" ht="49.65" customHeight="1">
       <c r="A314" s="10" t="s">
         <v>455</v>
       </c>
@@ -14620,8 +15565,11 @@
       <c r="M314" s="5" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="315" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N314" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="315" spans="1:14" ht="49.65" customHeight="1">
       <c r="A315" s="10" t="s">
         <v>455</v>
       </c>
@@ -14659,8 +15607,11 @@
       <c r="M315" s="5" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="316" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N315" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="316" spans="1:14" ht="49.65" customHeight="1">
       <c r="A316" s="10" t="s">
         <v>455</v>
       </c>
@@ -14698,8 +15649,11 @@
       <c r="M316" s="5" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="317" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N316" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="317" spans="1:14" ht="49.65" customHeight="1">
       <c r="A317" s="10" t="s">
         <v>455</v>
       </c>
@@ -14737,8 +15691,11 @@
       <c r="M317" s="5" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="318" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N317" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="318" spans="1:14" ht="49.65" customHeight="1">
       <c r="A318" s="10" t="s">
         <v>455</v>
       </c>
@@ -14776,8 +15733,11 @@
       <c r="M318" s="5" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="319" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N318" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="319" spans="1:14" ht="49.65" customHeight="1">
       <c r="A319" s="10" t="s">
         <v>455</v>
       </c>
@@ -14815,8 +15775,11 @@
       <c r="M319" s="5" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="320" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N319" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="320" spans="1:14" ht="49.65" customHeight="1">
       <c r="A320" s="10" t="s">
         <v>455</v>
       </c>
@@ -14854,8 +15817,11 @@
       <c r="M320" s="5" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="321" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N320" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="321" spans="1:14" ht="49.65" customHeight="1">
       <c r="A321" s="10" t="s">
         <v>455</v>
       </c>
@@ -14893,8 +15859,11 @@
       <c r="M321" s="5" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="322" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N321" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="322" spans="1:14" ht="49.65" customHeight="1">
       <c r="A322" s="10" t="s">
         <v>455</v>
       </c>
@@ -14932,8 +15901,11 @@
       <c r="M322" s="5" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="323" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N322" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="323" spans="1:14" ht="49.65" customHeight="1">
       <c r="A323" s="10" t="s">
         <v>466</v>
       </c>
@@ -14971,8 +15943,11 @@
       <c r="M323" s="5" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="324" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N323" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="324" spans="1:14" ht="49.65" customHeight="1">
       <c r="A324" s="3" t="s">
         <v>469</v>
       </c>
@@ -15010,8 +15985,11 @@
       <c r="M324" s="5" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="325" spans="1:13" ht="49.7" customHeight="1">
+      <c r="N324" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="325" spans="1:14" ht="49.65" customHeight="1">
       <c r="A325" s="10"/>
       <c r="B325" s="4"/>
       <c r="C325" s="5"/>
@@ -15025,7 +16003,7 @@
       <c r="K325" s="9"/>
       <c r="L325" s="9"/>
     </row>
-    <row r="326" spans="1:13" ht="49.7" customHeight="1">
+    <row r="326" spans="1:14" ht="49.65" customHeight="1">
       <c r="A326" s="10"/>
       <c r="B326" s="4"/>
       <c r="C326" s="5"/>
@@ -15039,7 +16017,7 @@
       <c r="K326" s="9"/>
       <c r="L326" s="9"/>
     </row>
-    <row r="327" spans="1:13" ht="49.7" customHeight="1">
+    <row r="327" spans="1:14" ht="49.65" customHeight="1">
       <c r="A327" s="10"/>
       <c r="B327" s="4"/>
       <c r="C327" s="5"/>
@@ -15053,7 +16031,7 @@
       <c r="K327" s="9"/>
       <c r="L327" s="9"/>
     </row>
-    <row r="328" spans="1:13" ht="49.7" customHeight="1">
+    <row r="328" spans="1:14" ht="49.65" customHeight="1">
       <c r="A328" s="10"/>
       <c r="B328" s="4"/>
       <c r="C328" s="5"/>
@@ -15067,7 +16045,7 @@
       <c r="K328" s="9"/>
       <c r="L328" s="5"/>
     </row>
-    <row r="329" spans="1:13" ht="49.7" customHeight="1">
+    <row r="329" spans="1:14" ht="49.65" customHeight="1">
       <c r="A329" s="10"/>
       <c r="B329" s="4"/>
       <c r="C329" s="5"/>
@@ -15081,7 +16059,7 @@
       <c r="K329" s="9"/>
       <c r="L329" s="5"/>
     </row>
-    <row r="330" spans="1:13" ht="49.7" customHeight="1">
+    <row r="330" spans="1:14" ht="49.65" customHeight="1">
       <c r="A330" s="10"/>
       <c r="B330" s="4"/>
       <c r="C330" s="5"/>
@@ -15095,7 +16073,7 @@
       <c r="K330" s="9"/>
       <c r="L330" s="5"/>
     </row>
-    <row r="331" spans="1:13" ht="49.7" customHeight="1">
+    <row r="331" spans="1:14" ht="49.65" customHeight="1">
       <c r="A331" s="10"/>
       <c r="B331" s="4"/>
       <c r="C331" s="5"/>
@@ -15109,7 +16087,7 @@
       <c r="K331" s="9"/>
       <c r="L331" s="5"/>
     </row>
-    <row r="332" spans="1:13" ht="49.7" customHeight="1">
+    <row r="332" spans="1:14" ht="49.65" customHeight="1">
       <c r="A332" s="10"/>
       <c r="B332" s="4"/>
       <c r="C332" s="5"/>
@@ -15123,7 +16101,7 @@
       <c r="K332" s="9"/>
       <c r="L332" s="5"/>
     </row>
-    <row r="333" spans="1:13" ht="49.7" customHeight="1">
+    <row r="333" spans="1:14" ht="49.65" customHeight="1">
       <c r="A333" s="10"/>
       <c r="B333" s="4"/>
       <c r="C333" s="5"/>
@@ -15137,7 +16115,7 @@
       <c r="K333" s="9"/>
       <c r="L333" s="5"/>
     </row>
-    <row r="334" spans="1:13" ht="49.7" customHeight="1">
+    <row r="334" spans="1:14" ht="49.65" customHeight="1">
       <c r="A334" s="10"/>
       <c r="B334" s="4"/>
       <c r="C334" s="5"/>
@@ -15151,7 +16129,7 @@
       <c r="K334" s="9"/>
       <c r="L334" s="5"/>
     </row>
-    <row r="335" spans="1:13" ht="49.7" customHeight="1">
+    <row r="335" spans="1:14" ht="49.65" customHeight="1">
       <c r="A335" s="10"/>
       <c r="B335" s="4"/>
       <c r="C335" s="5"/>
@@ -15165,7 +16143,7 @@
       <c r="K335" s="9"/>
       <c r="L335" s="5"/>
     </row>
-    <row r="336" spans="1:13" ht="49.7" customHeight="1">
+    <row r="336" spans="1:14" ht="49.65" customHeight="1">
       <c r="A336" s="10"/>
       <c r="B336" s="4"/>
       <c r="C336" s="5"/>
@@ -15179,7 +16157,7 @@
       <c r="K336" s="9"/>
       <c r="L336" s="5"/>
     </row>
-    <row r="337" spans="1:12" ht="49.7" customHeight="1">
+    <row r="337" spans="1:12" ht="49.65" customHeight="1">
       <c r="A337" s="10"/>
       <c r="B337" s="4"/>
       <c r="C337" s="5"/>
@@ -15193,7 +16171,7 @@
       <c r="K337" s="9"/>
       <c r="L337" s="5"/>
     </row>
-    <row r="338" spans="1:12" ht="49.7" customHeight="1">
+    <row r="338" spans="1:12" ht="49.65" customHeight="1">
       <c r="A338" s="10"/>
       <c r="B338" s="4"/>
       <c r="C338" s="5"/>
@@ -15207,7 +16185,7 @@
       <c r="K338" s="9"/>
       <c r="L338" s="5"/>
     </row>
-    <row r="339" spans="1:12" ht="49.7" customHeight="1">
+    <row r="339" spans="1:12" ht="49.65" customHeight="1">
       <c r="A339" s="10"/>
       <c r="B339" s="4"/>
       <c r="C339" s="5"/>
@@ -15221,7 +16199,7 @@
       <c r="K339" s="9"/>
       <c r="L339" s="5"/>
     </row>
-    <row r="340" spans="1:12" ht="49.7" customHeight="1">
+    <row r="340" spans="1:12" ht="49.65" customHeight="1">
       <c r="A340" s="10"/>
       <c r="B340" s="4"/>
       <c r="C340" s="5"/>
@@ -15235,7 +16213,7 @@
       <c r="K340" s="9"/>
       <c r="L340" s="5"/>
     </row>
-    <row r="341" spans="1:12" ht="49.7" customHeight="1">
+    <row r="341" spans="1:12" ht="49.65" customHeight="1">
       <c r="A341" s="10"/>
       <c r="B341" s="4"/>
       <c r="C341" s="5"/>
@@ -15249,7 +16227,7 @@
       <c r="K341" s="9"/>
       <c r="L341" s="5"/>
     </row>
-    <row r="342" spans="1:12" ht="49.7" customHeight="1">
+    <row r="342" spans="1:12" ht="49.65" customHeight="1">
       <c r="A342" s="10"/>
       <c r="B342" s="4"/>
       <c r="C342" s="5"/>
@@ -15263,7 +16241,7 @@
       <c r="K342" s="9"/>
       <c r="L342" s="5"/>
     </row>
-    <row r="343" spans="1:12" ht="49.7" customHeight="1">
+    <row r="343" spans="1:12" ht="49.65" customHeight="1">
       <c r="A343" s="10"/>
       <c r="B343" s="4"/>
       <c r="C343" s="5"/>
@@ -15277,7 +16255,7 @@
       <c r="K343" s="9"/>
       <c r="L343" s="5"/>
     </row>
-    <row r="344" spans="1:12" ht="49.7" customHeight="1">
+    <row r="344" spans="1:12" ht="49.65" customHeight="1">
       <c r="A344" s="10"/>
       <c r="B344" s="4"/>
       <c r="C344" s="5"/>
@@ -15291,7 +16269,7 @@
       <c r="K344" s="9"/>
       <c r="L344" s="5"/>
     </row>
-    <row r="345" spans="1:12" ht="49.7" customHeight="1">
+    <row r="345" spans="1:12" ht="49.65" customHeight="1">
       <c r="A345" s="10"/>
       <c r="B345" s="4"/>
       <c r="C345" s="5"/>
@@ -15305,7 +16283,7 @@
       <c r="K345" s="9"/>
       <c r="L345" s="5"/>
     </row>
-    <row r="346" spans="1:12" ht="49.7" customHeight="1">
+    <row r="346" spans="1:12" ht="49.65" customHeight="1">
       <c r="A346" s="10"/>
       <c r="B346" s="4"/>
       <c r="C346" s="5"/>
@@ -15319,7 +16297,7 @@
       <c r="K346" s="9"/>
       <c r="L346" s="5"/>
     </row>
-    <row r="347" spans="1:12" ht="49.7" customHeight="1">
+    <row r="347" spans="1:12" ht="49.65" customHeight="1">
       <c r="A347" s="10"/>
       <c r="B347" s="4"/>
       <c r="C347" s="5"/>
@@ -15333,7 +16311,7 @@
       <c r="K347" s="9"/>
       <c r="L347" s="5"/>
     </row>
-    <row r="348" spans="1:12" ht="49.7" customHeight="1">
+    <row r="348" spans="1:12" ht="49.65" customHeight="1">
       <c r="A348" s="10"/>
       <c r="B348" s="4"/>
       <c r="C348" s="5"/>
@@ -15347,7 +16325,7 @@
       <c r="K348" s="9"/>
       <c r="L348" s="5"/>
     </row>
-    <row r="349" spans="1:12" ht="49.7" customHeight="1">
+    <row r="349" spans="1:12" ht="49.65" customHeight="1">
       <c r="A349" s="10"/>
       <c r="B349" s="4"/>
       <c r="C349" s="5"/>
@@ -15361,7 +16339,7 @@
       <c r="K349" s="9"/>
       <c r="L349" s="5"/>
     </row>
-    <row r="350" spans="1:12" ht="49.7" customHeight="1">
+    <row r="350" spans="1:12" ht="49.65" customHeight="1">
       <c r="A350" s="10"/>
       <c r="B350" s="4"/>
       <c r="C350" s="5"/>
@@ -15375,7 +16353,7 @@
       <c r="K350" s="9"/>
       <c r="L350" s="5"/>
     </row>
-    <row r="351" spans="1:12" ht="49.7" customHeight="1">
+    <row r="351" spans="1:12" ht="49.65" customHeight="1">
       <c r="A351" s="10"/>
       <c r="B351" s="4"/>
       <c r="C351" s="5"/>
@@ -15389,7 +16367,7 @@
       <c r="K351" s="9"/>
       <c r="L351" s="5"/>
     </row>
-    <row r="352" spans="1:12" ht="49.7" customHeight="1">
+    <row r="352" spans="1:12" ht="49.65" customHeight="1">
       <c r="A352" s="10"/>
       <c r="B352" s="4"/>
       <c r="C352" s="5"/>
@@ -15403,7 +16381,7 @@
       <c r="K352" s="9"/>
       <c r="L352" s="5"/>
     </row>
-    <row r="353" spans="1:12" ht="49.7" customHeight="1">
+    <row r="353" spans="1:12" ht="49.65" customHeight="1">
       <c r="A353" s="10"/>
       <c r="B353" s="4"/>
       <c r="C353" s="5"/>
@@ -15417,7 +16395,7 @@
       <c r="K353" s="9"/>
       <c r="L353" s="5"/>
     </row>
-    <row r="354" spans="1:12" ht="49.7" customHeight="1">
+    <row r="354" spans="1:12" ht="49.65" customHeight="1">
       <c r="A354" s="10"/>
       <c r="B354" s="4"/>
       <c r="C354" s="5"/>
@@ -15431,7 +16409,7 @@
       <c r="K354" s="9"/>
       <c r="L354" s="5"/>
     </row>
-    <row r="355" spans="1:12" ht="49.7" customHeight="1">
+    <row r="355" spans="1:12" ht="49.65" customHeight="1">
       <c r="A355" s="10"/>
       <c r="B355" s="4"/>
       <c r="C355" s="5"/>
@@ -15445,7 +16423,7 @@
       <c r="K355" s="9"/>
       <c r="L355" s="5"/>
     </row>
-    <row r="356" spans="1:12" ht="49.7" customHeight="1">
+    <row r="356" spans="1:12" ht="49.65" customHeight="1">
       <c r="A356" s="10"/>
       <c r="B356" s="4"/>
       <c r="C356" s="5"/>
@@ -15459,7 +16437,7 @@
       <c r="K356" s="9"/>
       <c r="L356" s="5"/>
     </row>
-    <row r="357" spans="1:12" ht="49.7" customHeight="1">
+    <row r="357" spans="1:12" ht="49.65" customHeight="1">
       <c r="A357" s="10"/>
       <c r="B357" s="4"/>
       <c r="C357" s="5"/>
@@ -15473,7 +16451,7 @@
       <c r="K357" s="9"/>
       <c r="L357" s="5"/>
     </row>
-    <row r="358" spans="1:12" ht="49.7" customHeight="1">
+    <row r="358" spans="1:12" ht="49.65" customHeight="1">
       <c r="A358" s="10"/>
       <c r="B358" s="4"/>
       <c r="C358" s="5"/>
@@ -15487,7 +16465,7 @@
       <c r="K358" s="9"/>
       <c r="L358" s="5"/>
     </row>
-    <row r="359" spans="1:12" ht="49.7" customHeight="1">
+    <row r="359" spans="1:12" ht="49.65" customHeight="1">
       <c r="A359" s="10"/>
       <c r="B359" s="4"/>
       <c r="C359" s="5"/>
@@ -15501,7 +16479,7 @@
       <c r="K359" s="9"/>
       <c r="L359" s="5"/>
     </row>
-    <row r="360" spans="1:12" ht="49.7" customHeight="1">
+    <row r="360" spans="1:12" ht="49.65" customHeight="1">
       <c r="A360" s="10"/>
       <c r="B360" s="4"/>
       <c r="C360" s="5"/>
@@ -15515,7 +16493,7 @@
       <c r="K360" s="9"/>
       <c r="L360" s="5"/>
     </row>
-    <row r="361" spans="1:12" ht="49.7" customHeight="1">
+    <row r="361" spans="1:12" ht="49.65" customHeight="1">
       <c r="A361" s="10"/>
       <c r="B361" s="4"/>
       <c r="C361" s="5"/>
@@ -15529,7 +16507,7 @@
       <c r="K361" s="9"/>
       <c r="L361" s="9"/>
     </row>
-    <row r="362" spans="1:12" ht="49.7" customHeight="1">
+    <row r="362" spans="1:12" ht="49.65" customHeight="1">
       <c r="A362" s="10"/>
       <c r="B362" s="4"/>
       <c r="C362" s="5"/>
@@ -15543,7 +16521,7 @@
       <c r="K362" s="9"/>
       <c r="L362" s="9"/>
     </row>
-    <row r="363" spans="1:12" ht="49.7" customHeight="1">
+    <row r="363" spans="1:12" ht="49.65" customHeight="1">
       <c r="A363" s="10"/>
       <c r="B363" s="4"/>
       <c r="C363" s="5"/>
@@ -15557,7 +16535,7 @@
       <c r="K363" s="9"/>
       <c r="L363" s="9"/>
     </row>
-    <row r="364" spans="1:12" ht="49.7" customHeight="1">
+    <row r="364" spans="1:12" ht="49.65" customHeight="1">
       <c r="A364" s="10"/>
       <c r="B364" s="4"/>
       <c r="C364" s="5"/>
@@ -15571,7 +16549,7 @@
       <c r="K364" s="9"/>
       <c r="L364" s="9"/>
     </row>
-    <row r="365" spans="1:12" ht="49.7" customHeight="1">
+    <row r="365" spans="1:12" ht="49.65" customHeight="1">
       <c r="A365" s="10"/>
       <c r="B365" s="4"/>
       <c r="C365" s="5"/>
@@ -15585,7 +16563,7 @@
       <c r="K365" s="9"/>
       <c r="L365" s="9"/>
     </row>
-    <row r="366" spans="1:12" ht="49.7" customHeight="1">
+    <row r="366" spans="1:12" ht="49.65" customHeight="1">
       <c r="A366" s="10"/>
       <c r="B366" s="4"/>
       <c r="C366" s="5"/>
@@ -15599,7 +16577,7 @@
       <c r="K366" s="9"/>
       <c r="L366" s="9"/>
     </row>
-    <row r="367" spans="1:12" ht="49.7" customHeight="1">
+    <row r="367" spans="1:12" ht="49.65" customHeight="1">
       <c r="A367" s="10"/>
       <c r="B367" s="4"/>
       <c r="C367" s="5"/>
@@ -15613,7 +16591,7 @@
       <c r="K367" s="9"/>
       <c r="L367" s="9"/>
     </row>
-    <row r="368" spans="1:12" ht="49.7" customHeight="1">
+    <row r="368" spans="1:12" ht="49.65" customHeight="1">
       <c r="A368" s="10"/>
       <c r="B368" s="4"/>
       <c r="C368" s="5"/>
@@ -15627,7 +16605,7 @@
       <c r="K368" s="9"/>
       <c r="L368" s="9"/>
     </row>
-    <row r="369" spans="1:12" ht="49.7" customHeight="1">
+    <row r="369" spans="1:12" ht="49.65" customHeight="1">
       <c r="A369" s="10"/>
       <c r="B369" s="4"/>
       <c r="C369" s="5"/>
@@ -15641,7 +16619,7 @@
       <c r="K369" s="9"/>
       <c r="L369" s="9"/>
     </row>
-    <row r="370" spans="1:12" ht="49.7" customHeight="1">
+    <row r="370" spans="1:12" ht="49.65" customHeight="1">
       <c r="A370" s="10"/>
       <c r="B370" s="4"/>
       <c r="C370" s="5"/>
@@ -15655,7 +16633,7 @@
       <c r="K370" s="9"/>
       <c r="L370" s="9"/>
     </row>
-    <row r="371" spans="1:12" ht="49.7" customHeight="1">
+    <row r="371" spans="1:12" ht="49.65" customHeight="1">
       <c r="A371" s="10"/>
       <c r="B371" s="4"/>
       <c r="C371" s="5"/>
@@ -15669,7 +16647,7 @@
       <c r="K371" s="9"/>
       <c r="L371" s="9"/>
     </row>
-    <row r="372" spans="1:12" ht="49.7" customHeight="1">
+    <row r="372" spans="1:12" ht="49.65" customHeight="1">
       <c r="A372" s="10"/>
       <c r="B372" s="4"/>
       <c r="C372" s="5"/>
@@ -15683,7 +16661,7 @@
       <c r="K372" s="9"/>
       <c r="L372" s="9"/>
     </row>
-    <row r="373" spans="1:12" ht="49.7" customHeight="1">
+    <row r="373" spans="1:12" ht="49.65" customHeight="1">
       <c r="A373" s="10"/>
       <c r="B373" s="4"/>
       <c r="C373" s="5"/>
@@ -15697,7 +16675,7 @@
       <c r="K373" s="9"/>
       <c r="L373" s="9"/>
     </row>
-    <row r="374" spans="1:12" ht="49.7" customHeight="1">
+    <row r="374" spans="1:12" ht="49.65" customHeight="1">
       <c r="A374" s="10"/>
       <c r="B374" s="4"/>
       <c r="C374" s="5"/>
@@ -15711,7 +16689,7 @@
       <c r="K374" s="9"/>
       <c r="L374" s="9"/>
     </row>
-    <row r="375" spans="1:12" ht="49.7" customHeight="1">
+    <row r="375" spans="1:12" ht="49.65" customHeight="1">
       <c r="A375" s="10"/>
       <c r="B375" s="4"/>
       <c r="C375" s="5"/>
@@ -15725,7 +16703,7 @@
       <c r="K375" s="9"/>
       <c r="L375" s="9"/>
     </row>
-    <row r="376" spans="1:12" ht="49.7" customHeight="1">
+    <row r="376" spans="1:12" ht="49.65" customHeight="1">
       <c r="A376" s="10"/>
       <c r="B376" s="4"/>
       <c r="C376" s="5"/>
@@ -15739,7 +16717,7 @@
       <c r="K376" s="9"/>
       <c r="L376" s="9"/>
     </row>
-    <row r="377" spans="1:12" ht="49.7" customHeight="1">
+    <row r="377" spans="1:12" ht="49.65" customHeight="1">
       <c r="A377" s="10"/>
       <c r="B377" s="4"/>
       <c r="C377" s="5"/>
@@ -15753,7 +16731,7 @@
       <c r="K377" s="9"/>
       <c r="L377" s="9"/>
     </row>
-    <row r="378" spans="1:12" ht="49.7" customHeight="1">
+    <row r="378" spans="1:12" ht="49.65" customHeight="1">
       <c r="A378" s="10"/>
       <c r="B378" s="4"/>
       <c r="C378" s="5"/>
@@ -15767,7 +16745,7 @@
       <c r="K378" s="9"/>
       <c r="L378" s="9"/>
     </row>
-    <row r="379" spans="1:12" ht="49.7" customHeight="1">
+    <row r="379" spans="1:12" ht="49.65" customHeight="1">
       <c r="A379" s="10"/>
       <c r="B379" s="4"/>
       <c r="C379" s="5"/>
@@ -15781,7 +16759,7 @@
       <c r="K379" s="9"/>
       <c r="L379" s="9"/>
     </row>
-    <row r="380" spans="1:12" ht="49.7" customHeight="1">
+    <row r="380" spans="1:12" ht="49.65" customHeight="1">
       <c r="A380" s="10"/>
       <c r="B380" s="4"/>
       <c r="C380" s="5"/>
@@ -15795,7 +16773,7 @@
       <c r="K380" s="9"/>
       <c r="L380" s="9"/>
     </row>
-    <row r="381" spans="1:12" ht="49.7" customHeight="1">
+    <row r="381" spans="1:12" ht="49.65" customHeight="1">
       <c r="A381" s="10"/>
       <c r="B381" s="4"/>
       <c r="C381" s="5"/>
@@ -15809,7 +16787,7 @@
       <c r="K381" s="9"/>
       <c r="L381" s="9"/>
     </row>
-    <row r="382" spans="1:12" ht="49.7" customHeight="1">
+    <row r="382" spans="1:12" ht="49.65" customHeight="1">
       <c r="A382" s="10"/>
       <c r="B382" s="4"/>
       <c r="C382" s="5"/>
@@ -15823,7 +16801,7 @@
       <c r="K382" s="9"/>
       <c r="L382" s="9"/>
     </row>
-    <row r="383" spans="1:12" ht="49.7" customHeight="1">
+    <row r="383" spans="1:12" ht="49.65" customHeight="1">
       <c r="A383" s="10"/>
       <c r="B383" s="4"/>
       <c r="C383" s="5"/>
@@ -15837,7 +16815,7 @@
       <c r="K383" s="9"/>
       <c r="L383" s="9"/>
     </row>
-    <row r="384" spans="1:12" ht="49.7" customHeight="1">
+    <row r="384" spans="1:12" ht="49.65" customHeight="1">
       <c r="A384" s="10"/>
       <c r="B384" s="4"/>
       <c r="C384" s="5"/>
@@ -15851,7 +16829,7 @@
       <c r="K384" s="9"/>
       <c r="L384" s="9"/>
     </row>
-    <row r="385" spans="1:12" ht="49.7" customHeight="1">
+    <row r="385" spans="1:12" ht="49.65" customHeight="1">
       <c r="A385" s="10"/>
       <c r="B385" s="4"/>
       <c r="C385" s="5"/>
@@ -15865,7 +16843,7 @@
       <c r="K385" s="9"/>
       <c r="L385" s="9"/>
     </row>
-    <row r="386" spans="1:12" ht="49.7" customHeight="1">
+    <row r="386" spans="1:12" ht="49.65" customHeight="1">
       <c r="A386" s="10"/>
       <c r="B386" s="4"/>
       <c r="C386" s="5"/>
@@ -15879,7 +16857,7 @@
       <c r="K386" s="9"/>
       <c r="L386" s="9"/>
     </row>
-    <row r="387" spans="1:12" ht="49.7" customHeight="1">
+    <row r="387" spans="1:12" ht="49.65" customHeight="1">
       <c r="A387" s="10"/>
       <c r="B387" s="4"/>
       <c r="C387" s="5"/>
@@ -15893,7 +16871,7 @@
       <c r="K387" s="9"/>
       <c r="L387" s="9"/>
     </row>
-    <row r="388" spans="1:12" ht="49.7" customHeight="1">
+    <row r="388" spans="1:12" ht="49.65" customHeight="1">
       <c r="A388" s="10"/>
       <c r="B388" s="4"/>
       <c r="C388" s="5"/>
@@ -15907,7 +16885,7 @@
       <c r="K388" s="9"/>
       <c r="L388" s="9"/>
     </row>
-    <row r="389" spans="1:12" ht="49.7" customHeight="1">
+    <row r="389" spans="1:12" ht="49.65" customHeight="1">
       <c r="A389" s="10"/>
       <c r="B389" s="4"/>
       <c r="C389" s="5"/>
@@ -15921,7 +16899,7 @@
       <c r="K389" s="9"/>
       <c r="L389" s="9"/>
     </row>
-    <row r="390" spans="1:12" ht="49.7" customHeight="1">
+    <row r="390" spans="1:12" ht="49.65" customHeight="1">
       <c r="A390" s="10"/>
       <c r="B390" s="4"/>
       <c r="C390" s="5"/>
@@ -15935,7 +16913,7 @@
       <c r="K390" s="9"/>
       <c r="L390" s="9"/>
     </row>
-    <row r="391" spans="1:12" ht="49.7" customHeight="1">
+    <row r="391" spans="1:12" ht="49.65" customHeight="1">
       <c r="A391" s="10"/>
       <c r="B391" s="4"/>
       <c r="C391" s="5"/>
@@ -15949,7 +16927,7 @@
       <c r="K391" s="9"/>
       <c r="L391" s="9"/>
     </row>
-    <row r="392" spans="1:12" ht="49.7" customHeight="1">
+    <row r="392" spans="1:12" ht="49.65" customHeight="1">
       <c r="A392" s="10"/>
       <c r="B392" s="4"/>
       <c r="C392" s="5"/>
@@ -15963,7 +16941,7 @@
       <c r="K392" s="9"/>
       <c r="L392" s="9"/>
     </row>
-    <row r="393" spans="1:12" ht="49.7" customHeight="1">
+    <row r="393" spans="1:12" ht="49.65" customHeight="1">
       <c r="A393" s="10"/>
       <c r="B393" s="4"/>
       <c r="C393" s="5"/>
@@ -15977,7 +16955,7 @@
       <c r="K393" s="9"/>
       <c r="L393" s="9"/>
     </row>
-    <row r="394" spans="1:12" ht="49.7" customHeight="1">
+    <row r="394" spans="1:12" ht="49.65" customHeight="1">
       <c r="A394" s="10"/>
       <c r="B394" s="4"/>
       <c r="C394" s="5"/>
@@ -15991,7 +16969,7 @@
       <c r="K394" s="9"/>
       <c r="L394" s="9"/>
     </row>
-    <row r="395" spans="1:12" ht="49.7" customHeight="1">
+    <row r="395" spans="1:12" ht="49.65" customHeight="1">
       <c r="A395" s="10"/>
       <c r="B395" s="4"/>
       <c r="C395" s="5"/>
@@ -16005,7 +16983,7 @@
       <c r="K395" s="9"/>
       <c r="L395" s="9"/>
     </row>
-    <row r="396" spans="1:12" ht="49.7" customHeight="1">
+    <row r="396" spans="1:12" ht="49.65" customHeight="1">
       <c r="A396" s="10"/>
       <c r="B396" s="4"/>
       <c r="C396" s="5"/>
@@ -16019,7 +16997,7 @@
       <c r="K396" s="9"/>
       <c r="L396" s="9"/>
     </row>
-    <row r="397" spans="1:12" ht="49.7" customHeight="1">
+    <row r="397" spans="1:12" ht="49.65" customHeight="1">
       <c r="A397" s="10"/>
       <c r="B397" s="4"/>
       <c r="C397" s="5"/>
@@ -16033,7 +17011,7 @@
       <c r="K397" s="9"/>
       <c r="L397" s="9"/>
     </row>
-    <row r="398" spans="1:12" ht="49.7" customHeight="1">
+    <row r="398" spans="1:12" ht="49.65" customHeight="1">
       <c r="A398" s="10"/>
       <c r="B398" s="4"/>
       <c r="C398" s="5"/>
@@ -16047,7 +17025,7 @@
       <c r="K398" s="9"/>
       <c r="L398" s="9"/>
     </row>
-    <row r="399" spans="1:12" ht="49.7" customHeight="1">
+    <row r="399" spans="1:12" ht="49.65" customHeight="1">
       <c r="A399" s="10"/>
       <c r="B399" s="4"/>
       <c r="C399" s="5"/>
@@ -16061,7 +17039,7 @@
       <c r="K399" s="9"/>
       <c r="L399" s="9"/>
     </row>
-    <row r="400" spans="1:12" ht="49.7" customHeight="1">
+    <row r="400" spans="1:12" ht="49.65" customHeight="1">
       <c r="A400" s="10"/>
       <c r="B400" s="4"/>
       <c r="C400" s="5"/>
@@ -16075,7 +17053,7 @@
       <c r="K400" s="9"/>
       <c r="L400" s="9"/>
     </row>
-    <row r="401" spans="1:12" ht="49.7" customHeight="1">
+    <row r="401" spans="1:12" ht="49.65" customHeight="1">
       <c r="A401" s="10"/>
       <c r="B401" s="4"/>
       <c r="C401" s="5"/>
@@ -16089,7 +17067,7 @@
       <c r="K401" s="9"/>
       <c r="L401" s="9"/>
     </row>
-    <row r="402" spans="1:12" ht="49.7" customHeight="1">
+    <row r="402" spans="1:12" ht="49.65" customHeight="1">
       <c r="A402" s="10"/>
       <c r="B402" s="4"/>
       <c r="C402" s="5"/>
@@ -16103,7 +17081,7 @@
       <c r="K402" s="9"/>
       <c r="L402" s="9"/>
     </row>
-    <row r="403" spans="1:12" ht="49.7" customHeight="1">
+    <row r="403" spans="1:12" ht="49.65" customHeight="1">
       <c r="A403" s="10"/>
       <c r="B403" s="4"/>
       <c r="C403" s="5"/>
@@ -16117,7 +17095,7 @@
       <c r="K403" s="9"/>
       <c r="L403" s="9"/>
     </row>
-    <row r="404" spans="1:12" ht="49.7" customHeight="1">
+    <row r="404" spans="1:12" ht="49.65" customHeight="1">
       <c r="A404" s="10"/>
       <c r="B404" s="4"/>
       <c r="C404" s="5"/>
@@ -16131,7 +17109,7 @@
       <c r="K404" s="9"/>
       <c r="L404" s="9"/>
     </row>
-    <row r="405" spans="1:12" ht="49.7" customHeight="1">
+    <row r="405" spans="1:12" ht="49.65" customHeight="1">
       <c r="A405" s="10"/>
       <c r="B405" s="4"/>
       <c r="C405" s="5"/>
@@ -16145,7 +17123,7 @@
       <c r="K405" s="9"/>
       <c r="L405" s="9"/>
     </row>
-    <row r="406" spans="1:12" ht="49.7" customHeight="1">
+    <row r="406" spans="1:12" ht="49.65" customHeight="1">
       <c r="A406" s="10"/>
       <c r="B406" s="4"/>
       <c r="C406" s="5"/>
@@ -16159,7 +17137,7 @@
       <c r="K406" s="9"/>
       <c r="L406" s="9"/>
     </row>
-    <row r="407" spans="1:12" ht="49.7" customHeight="1">
+    <row r="407" spans="1:12" ht="49.65" customHeight="1">
       <c r="A407" s="10"/>
       <c r="B407" s="4"/>
       <c r="C407" s="5"/>
@@ -16173,7 +17151,7 @@
       <c r="K407" s="9"/>
       <c r="L407" s="9"/>
     </row>
-    <row r="408" spans="1:12" ht="49.7" customHeight="1">
+    <row r="408" spans="1:12" ht="49.65" customHeight="1">
       <c r="A408" s="10"/>
       <c r="B408" s="4"/>
       <c r="C408" s="5"/>
@@ -16187,7 +17165,7 @@
       <c r="K408" s="9"/>
       <c r="L408" s="9"/>
     </row>
-    <row r="409" spans="1:12" ht="49.7" customHeight="1">
+    <row r="409" spans="1:12" ht="49.65" customHeight="1">
       <c r="A409" s="10"/>
       <c r="B409" s="4"/>
       <c r="C409" s="5"/>
@@ -16201,7 +17179,7 @@
       <c r="K409" s="9"/>
       <c r="L409" s="9"/>
     </row>
-    <row r="410" spans="1:12" ht="49.7" customHeight="1">
+    <row r="410" spans="1:12" ht="49.65" customHeight="1">
       <c r="A410" s="10"/>
       <c r="B410" s="4"/>
       <c r="C410" s="5"/>
@@ -16215,7 +17193,7 @@
       <c r="K410" s="9"/>
       <c r="L410" s="9"/>
     </row>
-    <row r="411" spans="1:12" ht="49.7" customHeight="1">
+    <row r="411" spans="1:12" ht="49.65" customHeight="1">
       <c r="A411" s="10"/>
       <c r="B411" s="4"/>
       <c r="C411" s="5"/>
@@ -16229,7 +17207,7 @@
       <c r="K411" s="9"/>
       <c r="L411" s="9"/>
     </row>
-    <row r="412" spans="1:12" ht="49.7" customHeight="1">
+    <row r="412" spans="1:12" ht="49.65" customHeight="1">
       <c r="A412" s="10"/>
       <c r="B412" s="4"/>
       <c r="C412" s="5"/>
@@ -16243,7 +17221,7 @@
       <c r="K412" s="5"/>
       <c r="L412" s="9"/>
     </row>
-    <row r="413" spans="1:12" ht="49.7" customHeight="1">
+    <row r="413" spans="1:12" ht="49.65" customHeight="1">
       <c r="A413" s="10"/>
       <c r="B413" s="4"/>
       <c r="C413" s="5"/>
@@ -16257,7 +17235,7 @@
       <c r="K413" s="5"/>
       <c r="L413" s="9"/>
     </row>
-    <row r="414" spans="1:12" ht="49.7" customHeight="1">
+    <row r="414" spans="1:12" ht="49.65" customHeight="1">
       <c r="A414" s="10"/>
       <c r="B414" s="4"/>
       <c r="C414" s="5"/>
@@ -16271,7 +17249,7 @@
       <c r="K414" s="5"/>
       <c r="L414" s="5"/>
     </row>
-    <row r="415" spans="1:12" ht="49.7" customHeight="1">
+    <row r="415" spans="1:12" ht="49.65" customHeight="1">
       <c r="A415" s="10"/>
       <c r="B415" s="4"/>
       <c r="C415" s="5"/>
@@ -16285,7 +17263,7 @@
       <c r="K415" s="5"/>
       <c r="L415" s="5"/>
     </row>
-    <row r="416" spans="1:12" ht="49.7" customHeight="1">
+    <row r="416" spans="1:12" ht="49.65" customHeight="1">
       <c r="A416" s="10"/>
       <c r="B416" s="4"/>
       <c r="C416" s="5"/>
@@ -16299,7 +17277,7 @@
       <c r="K416" s="5"/>
       <c r="L416" s="5"/>
     </row>
-    <row r="417" spans="1:12" ht="49.7" customHeight="1">
+    <row r="417" spans="1:12" ht="49.65" customHeight="1">
       <c r="A417" s="10"/>
       <c r="B417" s="4"/>
       <c r="C417" s="5"/>
@@ -16313,7 +17291,7 @@
       <c r="K417" s="5"/>
       <c r="L417" s="5"/>
     </row>
-    <row r="418" spans="1:12" ht="49.7" customHeight="1">
+    <row r="418" spans="1:12" ht="49.65" customHeight="1">
       <c r="A418" s="10"/>
       <c r="B418" s="4"/>
       <c r="C418" s="5"/>
@@ -16327,7 +17305,7 @@
       <c r="K418" s="5"/>
       <c r="L418" s="5"/>
     </row>
-    <row r="419" spans="1:12" ht="49.7" customHeight="1">
+    <row r="419" spans="1:12" ht="49.65" customHeight="1">
       <c r="A419" s="10"/>
       <c r="B419" s="4"/>
       <c r="C419" s="5"/>
@@ -16341,7 +17319,7 @@
       <c r="K419" s="5"/>
       <c r="L419" s="5"/>
     </row>
-    <row r="420" spans="1:12" ht="49.7" customHeight="1">
+    <row r="420" spans="1:12" ht="49.65" customHeight="1">
       <c r="A420" s="10"/>
       <c r="B420" s="4"/>
       <c r="C420" s="5"/>
@@ -16355,7 +17333,7 @@
       <c r="K420" s="5"/>
       <c r="L420" s="5"/>
     </row>
-    <row r="421" spans="1:12" ht="49.7" customHeight="1">
+    <row r="421" spans="1:12" ht="49.65" customHeight="1">
       <c r="A421" s="10"/>
       <c r="B421" s="4"/>
       <c r="C421" s="5"/>
@@ -16369,7 +17347,7 @@
       <c r="K421" s="5"/>
       <c r="L421" s="5"/>
     </row>
-    <row r="422" spans="1:12" ht="49.7" customHeight="1">
+    <row r="422" spans="1:12" ht="49.65" customHeight="1">
       <c r="A422" s="10"/>
       <c r="B422" s="4"/>
       <c r="C422" s="5"/>
@@ -16383,7 +17361,7 @@
       <c r="K422" s="5"/>
       <c r="L422" s="5"/>
     </row>
-    <row r="423" spans="1:12" ht="49.7" customHeight="1">
+    <row r="423" spans="1:12" ht="49.65" customHeight="1">
       <c r="A423" s="10"/>
       <c r="B423" s="4"/>
       <c r="C423" s="5"/>
@@ -16397,7 +17375,7 @@
       <c r="K423" s="5"/>
       <c r="L423" s="5"/>
     </row>
-    <row r="424" spans="1:12" ht="49.7" customHeight="1">
+    <row r="424" spans="1:12" ht="49.65" customHeight="1">
       <c r="A424" s="10"/>
       <c r="B424" s="4"/>
       <c r="C424" s="5"/>
@@ -16411,7 +17389,7 @@
       <c r="K424" s="5"/>
       <c r="L424" s="5"/>
     </row>
-    <row r="425" spans="1:12" ht="49.7" customHeight="1">
+    <row r="425" spans="1:12" ht="49.65" customHeight="1">
       <c r="A425" s="10"/>
       <c r="B425" s="4"/>
       <c r="C425" s="5"/>
@@ -16425,7 +17403,7 @@
       <c r="K425" s="5"/>
       <c r="L425" s="5"/>
     </row>
-    <row r="426" spans="1:12" ht="49.7" customHeight="1">
+    <row r="426" spans="1:12" ht="49.65" customHeight="1">
       <c r="A426" s="10"/>
       <c r="B426" s="4"/>
       <c r="C426" s="5"/>
@@ -16439,7 +17417,7 @@
       <c r="K426" s="5"/>
       <c r="L426" s="5"/>
     </row>
-    <row r="427" spans="1:12" ht="49.7" customHeight="1">
+    <row r="427" spans="1:12" ht="49.65" customHeight="1">
       <c r="A427" s="10"/>
       <c r="B427" s="4"/>
       <c r="C427" s="5"/>
@@ -16453,7 +17431,7 @@
       <c r="K427" s="5"/>
       <c r="L427" s="5"/>
     </row>
-    <row r="428" spans="1:12" ht="49.7" customHeight="1">
+    <row r="428" spans="1:12" ht="49.65" customHeight="1">
       <c r="A428" s="10"/>
       <c r="B428" s="4"/>
       <c r="C428" s="5"/>
@@ -16467,7 +17445,7 @@
       <c r="K428" s="5"/>
       <c r="L428" s="5"/>
     </row>
-    <row r="429" spans="1:12" ht="49.7" customHeight="1">
+    <row r="429" spans="1:12" ht="49.65" customHeight="1">
       <c r="A429" s="10"/>
       <c r="B429" s="4"/>
       <c r="C429" s="5"/>
@@ -16481,7 +17459,7 @@
       <c r="K429" s="5"/>
       <c r="L429" s="5"/>
     </row>
-    <row r="430" spans="1:12" ht="49.7" customHeight="1">
+    <row r="430" spans="1:12" ht="49.65" customHeight="1">
       <c r="A430" s="10"/>
       <c r="B430" s="4"/>
       <c r="C430" s="5"/>
@@ -16495,7 +17473,7 @@
       <c r="K430" s="5"/>
       <c r="L430" s="5"/>
     </row>
-    <row r="431" spans="1:12" ht="49.7" customHeight="1">
+    <row r="431" spans="1:12" ht="49.65" customHeight="1">
       <c r="A431" s="10"/>
       <c r="B431" s="4"/>
       <c r="C431" s="5"/>
@@ -16509,7 +17487,7 @@
       <c r="K431" s="5"/>
       <c r="L431" s="5"/>
     </row>
-    <row r="432" spans="1:12" ht="49.7" customHeight="1">
+    <row r="432" spans="1:12" ht="49.65" customHeight="1">
       <c r="A432" s="10"/>
       <c r="B432" s="4"/>
       <c r="C432" s="5"/>
@@ -16523,7 +17501,7 @@
       <c r="K432" s="5"/>
       <c r="L432" s="5"/>
     </row>
-    <row r="433" spans="1:12" ht="49.7" customHeight="1">
+    <row r="433" spans="1:12" ht="49.65" customHeight="1">
       <c r="A433" s="10"/>
       <c r="B433" s="4"/>
       <c r="C433" s="5"/>
@@ -16537,7 +17515,7 @@
       <c r="K433" s="5"/>
       <c r="L433" s="5"/>
     </row>
-    <row r="434" spans="1:12" ht="49.7" customHeight="1">
+    <row r="434" spans="1:12" ht="49.65" customHeight="1">
       <c r="A434" s="10"/>
       <c r="B434" s="4"/>
       <c r="C434" s="5"/>
@@ -16551,7 +17529,7 @@
       <c r="K434" s="5"/>
       <c r="L434" s="5"/>
     </row>
-    <row r="435" spans="1:12" ht="49.7" customHeight="1">
+    <row r="435" spans="1:12" ht="49.65" customHeight="1">
       <c r="A435" s="10"/>
       <c r="B435" s="4"/>
       <c r="C435" s="5"/>
@@ -16565,7 +17543,7 @@
       <c r="K435" s="5"/>
       <c r="L435" s="5"/>
     </row>
-    <row r="436" spans="1:12" ht="49.7" customHeight="1">
+    <row r="436" spans="1:12" ht="49.65" customHeight="1">
       <c r="A436" s="10"/>
       <c r="B436" s="4"/>
       <c r="C436" s="5"/>
@@ -16579,7 +17557,7 @@
       <c r="K436" s="5"/>
       <c r="L436" s="5"/>
     </row>
-    <row r="437" spans="1:12" ht="49.7" customHeight="1">
+    <row r="437" spans="1:12" ht="49.65" customHeight="1">
       <c r="A437" s="10"/>
       <c r="B437" s="4"/>
       <c r="C437" s="5"/>
@@ -16593,7 +17571,7 @@
       <c r="K437" s="5"/>
       <c r="L437" s="5"/>
     </row>
-    <row r="438" spans="1:12" ht="49.7" customHeight="1">
+    <row r="438" spans="1:12" ht="49.65" customHeight="1">
       <c r="A438" s="10"/>
       <c r="B438" s="4"/>
       <c r="C438" s="5"/>
@@ -16607,7 +17585,7 @@
       <c r="K438" s="5"/>
       <c r="L438" s="5"/>
     </row>
-    <row r="439" spans="1:12" ht="49.7" customHeight="1">
+    <row r="439" spans="1:12" ht="49.65" customHeight="1">
       <c r="A439" s="10"/>
       <c r="B439" s="4"/>
       <c r="C439" s="5"/>
@@ -16621,7 +17599,7 @@
       <c r="K439" s="5"/>
       <c r="L439" s="5"/>
     </row>
-    <row r="440" spans="1:12" ht="49.7" customHeight="1">
+    <row r="440" spans="1:12" ht="49.65" customHeight="1">
       <c r="A440" s="10"/>
       <c r="B440" s="4"/>
       <c r="C440" s="5"/>
@@ -16635,7 +17613,7 @@
       <c r="K440" s="5"/>
       <c r="L440" s="5"/>
     </row>
-    <row r="441" spans="1:12" ht="49.7" customHeight="1">
+    <row r="441" spans="1:12" ht="49.65" customHeight="1">
       <c r="A441" s="10"/>
       <c r="B441" s="4"/>
       <c r="C441" s="5"/>
@@ -16649,7 +17627,7 @@
       <c r="K441" s="5"/>
       <c r="L441" s="5"/>
     </row>
-    <row r="442" spans="1:12" ht="49.7" customHeight="1">
+    <row r="442" spans="1:12" ht="49.65" customHeight="1">
       <c r="A442" s="10"/>
       <c r="B442" s="4"/>
       <c r="C442" s="5"/>
@@ -16663,7 +17641,7 @@
       <c r="K442" s="5"/>
       <c r="L442" s="5"/>
     </row>
-    <row r="443" spans="1:12" ht="49.7" customHeight="1">
+    <row r="443" spans="1:12" ht="49.65" customHeight="1">
       <c r="A443" s="10"/>
       <c r="B443" s="4"/>
       <c r="C443" s="5"/>
@@ -16677,7 +17655,7 @@
       <c r="K443" s="5"/>
       <c r="L443" s="5"/>
     </row>
-    <row r="444" spans="1:12" ht="49.7" customHeight="1">
+    <row r="444" spans="1:12" ht="49.65" customHeight="1">
       <c r="A444" s="10"/>
       <c r="B444" s="4"/>
       <c r="C444" s="5"/>
@@ -16691,7 +17669,7 @@
       <c r="K444" s="5"/>
       <c r="L444" s="5"/>
     </row>
-    <row r="445" spans="1:12" ht="49.7" customHeight="1">
+    <row r="445" spans="1:12" ht="49.65" customHeight="1">
       <c r="A445" s="10"/>
       <c r="B445" s="4"/>
       <c r="C445" s="5"/>
@@ -16705,7 +17683,7 @@
       <c r="K445" s="5"/>
       <c r="L445" s="5"/>
     </row>
-    <row r="446" spans="1:12" ht="49.7" customHeight="1">
+    <row r="446" spans="1:12" ht="49.65" customHeight="1">
       <c r="A446" s="10"/>
       <c r="B446" s="4"/>
       <c r="C446" s="5"/>
@@ -16719,7 +17697,7 @@
       <c r="K446" s="5"/>
       <c r="L446" s="5"/>
     </row>
-    <row r="447" spans="1:12" ht="49.7" customHeight="1">
+    <row r="447" spans="1:12" ht="49.65" customHeight="1">
       <c r="A447" s="10"/>
       <c r="B447" s="4"/>
       <c r="C447" s="5"/>
@@ -16733,7 +17711,7 @@
       <c r="K447" s="5"/>
       <c r="L447" s="5"/>
     </row>
-    <row r="448" spans="1:12" ht="49.7" customHeight="1">
+    <row r="448" spans="1:12" ht="49.65" customHeight="1">
       <c r="A448" s="10"/>
       <c r="B448" s="4"/>
       <c r="C448" s="5"/>
@@ -16747,7 +17725,7 @@
       <c r="K448" s="5"/>
       <c r="L448" s="5"/>
     </row>
-    <row r="449" spans="1:12" ht="49.7" customHeight="1">
+    <row r="449" spans="1:12" ht="49.65" customHeight="1">
       <c r="A449" s="10"/>
       <c r="B449" s="4"/>
       <c r="C449" s="5"/>
@@ -16761,7 +17739,7 @@
       <c r="K449" s="5"/>
       <c r="L449" s="5"/>
     </row>
-    <row r="450" spans="1:12" ht="49.7" customHeight="1">
+    <row r="450" spans="1:12" ht="49.65" customHeight="1">
       <c r="A450" s="10"/>
       <c r="B450" s="4"/>
       <c r="C450" s="5"/>
@@ -16775,7 +17753,7 @@
       <c r="K450" s="5"/>
       <c r="L450" s="5"/>
     </row>
-    <row r="451" spans="1:12" ht="49.7" customHeight="1">
+    <row r="451" spans="1:12" ht="49.65" customHeight="1">
       <c r="A451" s="10"/>
       <c r="B451" s="4"/>
       <c r="C451" s="5"/>
@@ -16789,7 +17767,7 @@
       <c r="K451" s="5"/>
       <c r="L451" s="5"/>
     </row>
-    <row r="452" spans="1:12" ht="49.7" customHeight="1">
+    <row r="452" spans="1:12" ht="49.65" customHeight="1">
       <c r="A452" s="10"/>
       <c r="B452" s="4"/>
       <c r="C452" s="5"/>
@@ -16803,7 +17781,7 @@
       <c r="K452" s="5"/>
       <c r="L452" s="5"/>
     </row>
-    <row r="453" spans="1:12" ht="49.7" customHeight="1">
+    <row r="453" spans="1:12" ht="49.65" customHeight="1">
       <c r="A453" s="10"/>
       <c r="B453" s="4"/>
       <c r="C453" s="5"/>
@@ -16817,7 +17795,7 @@
       <c r="K453" s="5"/>
       <c r="L453" s="5"/>
     </row>
-    <row r="454" spans="1:12" ht="49.7" customHeight="1">
+    <row r="454" spans="1:12" ht="49.65" customHeight="1">
       <c r="A454" s="10"/>
       <c r="B454" s="4"/>
       <c r="C454" s="5"/>
@@ -16831,7 +17809,7 @@
       <c r="K454" s="5"/>
       <c r="L454" s="5"/>
     </row>
-    <row r="455" spans="1:12" ht="49.7" customHeight="1">
+    <row r="455" spans="1:12" ht="49.65" customHeight="1">
       <c r="A455" s="10"/>
       <c r="B455" s="4"/>
       <c r="C455" s="5"/>
@@ -16845,7 +17823,7 @@
       <c r="K455" s="5"/>
       <c r="L455" s="5"/>
     </row>
-    <row r="456" spans="1:12" ht="49.7" customHeight="1">
+    <row r="456" spans="1:12" ht="49.65" customHeight="1">
       <c r="A456" s="10"/>
       <c r="B456" s="4"/>
       <c r="C456" s="5"/>
@@ -16859,7 +17837,7 @@
       <c r="K456" s="5"/>
       <c r="L456" s="5"/>
     </row>
-    <row r="457" spans="1:12" ht="49.7" customHeight="1">
+    <row r="457" spans="1:12" ht="49.65" customHeight="1">
       <c r="A457" s="10"/>
       <c r="B457" s="4"/>
       <c r="C457" s="5"/>
@@ -16873,7 +17851,7 @@
       <c r="K457" s="9"/>
       <c r="L457" s="5"/>
     </row>
-    <row r="458" spans="1:12" ht="49.7" customHeight="1">
+    <row r="458" spans="1:12" ht="49.65" customHeight="1">
       <c r="A458" s="10"/>
       <c r="B458" s="4"/>
       <c r="C458" s="5"/>
@@ -16887,7 +17865,7 @@
       <c r="K458" s="9"/>
       <c r="L458" s="5"/>
     </row>
-    <row r="459" spans="1:12" ht="49.7" customHeight="1">
+    <row r="459" spans="1:12" ht="49.65" customHeight="1">
       <c r="A459" s="10"/>
       <c r="B459" s="4"/>
       <c r="C459" s="5"/>
@@ -16901,7 +17879,7 @@
       <c r="K459" s="5"/>
       <c r="L459" s="5"/>
     </row>
-    <row r="460" spans="1:12" ht="49.7" customHeight="1">
+    <row r="460" spans="1:12" ht="49.65" customHeight="1">
       <c r="A460" s="10"/>
       <c r="B460" s="4"/>
       <c r="C460" s="5"/>
@@ -16915,7 +17893,7 @@
       <c r="K460" s="5"/>
       <c r="L460" s="5"/>
     </row>
-    <row r="461" spans="1:12" ht="49.7" customHeight="1">
+    <row r="461" spans="1:12" ht="49.65" customHeight="1">
       <c r="A461" s="10"/>
       <c r="B461" s="4"/>
       <c r="C461" s="5"/>
@@ -16929,7 +17907,7 @@
       <c r="K461" s="5"/>
       <c r="L461" s="5"/>
     </row>
-    <row r="462" spans="1:12" ht="49.7" customHeight="1">
+    <row r="462" spans="1:12" ht="49.65" customHeight="1">
       <c r="A462" s="10"/>
       <c r="B462" s="4"/>
       <c r="C462" s="5"/>
@@ -16943,7 +17921,7 @@
       <c r="K462" s="5"/>
       <c r="L462" s="5"/>
     </row>
-    <row r="463" spans="1:12" ht="49.7" customHeight="1">
+    <row r="463" spans="1:12" ht="49.65" customHeight="1">
       <c r="A463" s="10"/>
       <c r="B463" s="4"/>
       <c r="C463" s="5"/>
@@ -16957,7 +17935,7 @@
       <c r="K463" s="5"/>
       <c r="L463" s="5"/>
     </row>
-    <row r="464" spans="1:12" ht="49.7" customHeight="1">
+    <row r="464" spans="1:12" ht="49.65" customHeight="1">
       <c r="A464" s="10"/>
       <c r="B464" s="4"/>
       <c r="C464" s="5"/>
@@ -16971,7 +17949,7 @@
       <c r="K464" s="5"/>
       <c r="L464" s="5"/>
     </row>
-    <row r="465" spans="1:12" ht="49.7" customHeight="1">
+    <row r="465" spans="1:12" ht="49.65" customHeight="1">
       <c r="A465" s="10"/>
       <c r="B465" s="4"/>
       <c r="C465" s="5"/>
@@ -16985,7 +17963,7 @@
       <c r="K465" s="5"/>
       <c r="L465" s="5"/>
     </row>
-    <row r="466" spans="1:12" ht="49.7" customHeight="1">
+    <row r="466" spans="1:12" ht="49.65" customHeight="1">
       <c r="A466" s="10"/>
       <c r="B466" s="4"/>
       <c r="C466" s="5"/>
@@ -16999,7 +17977,7 @@
       <c r="K466" s="5"/>
       <c r="L466" s="5"/>
     </row>
-    <row r="467" spans="1:12" ht="49.7" customHeight="1">
+    <row r="467" spans="1:12" ht="49.65" customHeight="1">
       <c r="A467" s="10"/>
       <c r="B467" s="4"/>
       <c r="C467" s="5"/>
@@ -17013,7 +17991,7 @@
       <c r="K467" s="5"/>
       <c r="L467" s="5"/>
     </row>
-    <row r="468" spans="1:12" ht="49.7" customHeight="1">
+    <row r="468" spans="1:12" ht="49.65" customHeight="1">
       <c r="A468" s="10"/>
       <c r="B468" s="4"/>
       <c r="C468" s="5"/>
@@ -17027,7 +18005,7 @@
       <c r="K468" s="9"/>
       <c r="L468" s="5"/>
     </row>
-    <row r="469" spans="1:12" ht="49.7" customHeight="1">
+    <row r="469" spans="1:12" ht="49.65" customHeight="1">
       <c r="A469" s="10"/>
       <c r="B469" s="4"/>
       <c r="C469" s="5"/>
@@ -17041,7 +18019,7 @@
       <c r="K469" s="9"/>
       <c r="L469" s="5"/>
     </row>
-    <row r="470" spans="1:12" ht="49.7" customHeight="1">
+    <row r="470" spans="1:12" ht="49.65" customHeight="1">
       <c r="A470" s="10"/>
       <c r="B470" s="4"/>
       <c r="C470" s="5"/>
@@ -17055,7 +18033,7 @@
       <c r="K470" s="9"/>
       <c r="L470" s="5"/>
     </row>
-    <row r="471" spans="1:12" ht="49.7" customHeight="1">
+    <row r="471" spans="1:12" ht="49.65" customHeight="1">
       <c r="A471" s="10"/>
       <c r="B471" s="4"/>
       <c r="C471" s="5"/>
@@ -17069,7 +18047,7 @@
       <c r="K471" s="5"/>
       <c r="L471" s="5"/>
     </row>
-    <row r="472" spans="1:12" ht="49.7" customHeight="1">
+    <row r="472" spans="1:12" ht="49.65" customHeight="1">
       <c r="A472" s="10"/>
       <c r="B472" s="4"/>
       <c r="C472" s="5"/>
@@ -17083,7 +18061,7 @@
       <c r="K472" s="5"/>
       <c r="L472" s="5"/>
     </row>
-    <row r="473" spans="1:12" ht="49.7" customHeight="1">
+    <row r="473" spans="1:12" ht="49.65" customHeight="1">
       <c r="A473" s="10"/>
       <c r="B473" s="4"/>
       <c r="C473" s="5"/>
@@ -17097,7 +18075,7 @@
       <c r="K473" s="5"/>
       <c r="L473" s="5"/>
     </row>
-    <row r="474" spans="1:12" ht="49.7" customHeight="1">
+    <row r="474" spans="1:12" ht="49.65" customHeight="1">
       <c r="A474" s="10"/>
       <c r="B474" s="4"/>
       <c r="C474" s="5"/>
@@ -17111,7 +18089,7 @@
       <c r="K474" s="5"/>
       <c r="L474" s="9"/>
     </row>
-    <row r="475" spans="1:12" ht="49.7" customHeight="1">
+    <row r="475" spans="1:12" ht="49.65" customHeight="1">
       <c r="A475" s="10"/>
       <c r="B475" s="4"/>
       <c r="C475" s="5"/>
@@ -17125,7 +18103,7 @@
       <c r="K475" s="5"/>
       <c r="L475" s="9"/>
     </row>
-    <row r="476" spans="1:12" ht="49.7" customHeight="1">
+    <row r="476" spans="1:12" ht="49.65" customHeight="1">
       <c r="A476" s="10"/>
       <c r="B476" s="4"/>
       <c r="C476" s="5"/>
@@ -17139,7 +18117,7 @@
       <c r="K476" s="5"/>
       <c r="L476" s="9"/>
     </row>
-    <row r="477" spans="1:12" ht="49.7" customHeight="1">
+    <row r="477" spans="1:12" ht="49.65" customHeight="1">
       <c r="A477" s="10"/>
       <c r="B477" s="4"/>
       <c r="C477" s="5"/>
@@ -17153,7 +18131,7 @@
       <c r="K477" s="5"/>
       <c r="L477" s="9"/>
     </row>
-    <row r="478" spans="1:12" ht="49.7" customHeight="1">
+    <row r="478" spans="1:12" ht="49.65" customHeight="1">
       <c r="A478" s="10"/>
       <c r="B478" s="4"/>
       <c r="C478" s="5"/>
@@ -17167,7 +18145,7 @@
       <c r="K478" s="5"/>
       <c r="L478" s="9"/>
     </row>
-    <row r="479" spans="1:12" ht="49.7" customHeight="1">
+    <row r="479" spans="1:12" ht="49.65" customHeight="1">
       <c r="A479" s="10"/>
       <c r="B479" s="4"/>
       <c r="C479" s="5"/>
@@ -17181,7 +18159,7 @@
       <c r="K479" s="5"/>
       <c r="L479" s="5"/>
     </row>
-    <row r="480" spans="1:12" ht="49.7" customHeight="1">
+    <row r="480" spans="1:12" ht="49.65" customHeight="1">
       <c r="A480" s="10"/>
       <c r="B480" s="4"/>
       <c r="C480" s="5"/>
@@ -17195,7 +18173,7 @@
       <c r="K480" s="5"/>
       <c r="L480" s="5"/>
     </row>
-    <row r="481" spans="1:12" ht="49.7" customHeight="1">
+    <row r="481" spans="1:12" ht="49.65" customHeight="1">
       <c r="A481" s="10"/>
       <c r="B481" s="4"/>
       <c r="C481" s="5"/>
@@ -17209,7 +18187,7 @@
       <c r="K481" s="5"/>
       <c r="L481" s="5"/>
     </row>
-    <row r="482" spans="1:12" ht="49.7" customHeight="1">
+    <row r="482" spans="1:12" ht="49.65" customHeight="1">
       <c r="A482" s="10"/>
       <c r="B482" s="4"/>
       <c r="C482" s="5"/>
@@ -17223,7 +18201,7 @@
       <c r="K482" s="5"/>
       <c r="L482" s="5"/>
     </row>
-    <row r="483" spans="1:12" ht="49.7" customHeight="1">
+    <row r="483" spans="1:12" ht="49.65" customHeight="1">
       <c r="A483" s="10"/>
       <c r="B483" s="4"/>
       <c r="C483" s="5"/>
@@ -17237,7 +18215,7 @@
       <c r="K483" s="5"/>
       <c r="L483" s="5"/>
     </row>
-    <row r="484" spans="1:12" ht="49.7" customHeight="1">
+    <row r="484" spans="1:12" ht="49.65" customHeight="1">
       <c r="A484" s="10"/>
       <c r="B484" s="4"/>
       <c r="C484" s="5"/>
@@ -17251,7 +18229,7 @@
       <c r="K484" s="5"/>
       <c r="L484" s="5"/>
     </row>
-    <row r="485" spans="1:12" ht="49.7" customHeight="1">
+    <row r="485" spans="1:12" ht="49.65" customHeight="1">
       <c r="A485" s="10"/>
       <c r="B485" s="4"/>
       <c r="C485" s="5"/>
@@ -17265,7 +18243,7 @@
       <c r="K485" s="5"/>
       <c r="L485" s="5"/>
     </row>
-    <row r="486" spans="1:12" ht="49.7" customHeight="1">
+    <row r="486" spans="1:12" ht="49.65" customHeight="1">
       <c r="A486" s="10"/>
       <c r="B486" s="4"/>
       <c r="C486" s="5"/>
@@ -17279,7 +18257,7 @@
       <c r="K486" s="5"/>
       <c r="L486" s="5"/>
     </row>
-    <row r="487" spans="1:12" ht="49.7" customHeight="1">
+    <row r="487" spans="1:12" ht="49.65" customHeight="1">
       <c r="A487" s="10"/>
       <c r="B487" s="4"/>
       <c r="C487" s="5"/>
@@ -17293,7 +18271,7 @@
       <c r="K487" s="5"/>
       <c r="L487" s="5"/>
     </row>
-    <row r="488" spans="1:12" ht="49.7" customHeight="1">
+    <row r="488" spans="1:12" ht="49.65" customHeight="1">
       <c r="A488" s="10"/>
       <c r="B488" s="4"/>
       <c r="C488" s="5"/>
